--- a/odoo_default_tnl.xlsx
+++ b/odoo_default_tnl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="2874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="2890">
   <si>
     <t xml:space="preserve">status</t>
   </si>
@@ -2788,6 +2788,24 @@
     <t xml:space="preserve">Dichiarante diverso da contribuente</t>
   </si>
   <si>
+    <t xml:space="preserve">Declare how many characters are in top level code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichiarare quanti caratteri nel 1° livello codice PdC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declare how many characters are in 2nd level code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichiarare quanti caratteri nel 2° livello codice PdC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declare how many characters are in low level code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichiarare quanti caratteri nell’ultimo livello codice PdC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Current commitment not found</t>
   </si>
   <si>
@@ -3373,6 +3391,12 @@
     <t xml:space="preserve">Fideiussione</t>
   </si>
   <si>
+    <t xml:space="preserve">Childs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figli</t>
+  </si>
+  <si>
     <t xml:space="preserve">File %s already loaded!</t>
   </si>
   <si>
@@ -4942,6 +4966,24 @@
     <t xml:space="preserve">Logo in linea / slogan / no riga sep.</t>
   </si>
   <si>
+    <t xml:space="preserve">Characters length of Coa top Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunghezza cod. PdC 1° livello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characters length of Coa 2nd Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunghezza cod. PdC 2° livello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characters length of Coa low Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunghezza cod. PdC ultimo liv.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inventory</t>
   </si>
   <si>
@@ -7544,6 +7586,12 @@
   </si>
   <si>
     <t xml:space="preserve">Select the date up to which you want to make the settlements:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the account profile with account configuration values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selezionare profilo contabile con I valori di configurazione</t>
   </si>
   <si>
     <t xml:space="preserve">Accounts selection...</t>
@@ -8656,6 +8704,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -8737,18 +8786,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1531"/>
+  <dimension ref="A1:C1539"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33:B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A864" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C879" activeCellId="0" sqref="C879"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="80.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12677,31 +12725,31 @@
         <v>928</v>
       </c>
       <c r="C490" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C491" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C492" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="C493" s="0" t="s">
         <v>933</v>
-      </c>
-      <c r="C493" s="0" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12757,31 +12805,31 @@
         <v>947</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B501" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B502" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C502" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B503" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="C503" s="0" t="s">
         <v>952</v>
-      </c>
-      <c r="C503" s="0" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12853,55 +12901,55 @@
         <v>970</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B513" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B515" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="C515" s="0" t="s">
         <v>975</v>
-      </c>
-      <c r="C515" s="0" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B516" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B517" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B518" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="C518" s="0" t="s">
         <v>980</v>
-      </c>
-      <c r="C518" s="0" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12917,31 +12965,31 @@
         <v>984</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B521" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B522" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="C523" s="0" t="s">
         <v>989</v>
-      </c>
-      <c r="C523" s="0" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12973,31 +13021,31 @@
         <v>997</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B528" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B529" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B530" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C530" s="0" t="s">
         <v>1002</v>
-      </c>
-      <c r="C530" s="0" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13141,31 +13189,31 @@
         <v>1038</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B549" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B550" s="0" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B551" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C551" s="0" t="s">
         <v>1043</v>
-      </c>
-      <c r="C551" s="0" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13221,31 +13269,31 @@
         <v>1057</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B559" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B561" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C561" s="0" t="s">
         <v>1062</v>
-      </c>
-      <c r="C561" s="0" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13269,31 +13317,31 @@
         <v>1068</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B565" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B566" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B567" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C567" s="0" t="s">
         <v>1073</v>
-      </c>
-      <c r="C567" s="0" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13309,28 +13357,28 @@
         <v>1077</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B570" s="0" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B571" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B572" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C572" s="0" t="s">
         <v>1082</v>
@@ -13338,10 +13386,10 @@
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B573" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13373,31 +13421,31 @@
         <v>1091</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B578" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B579" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B580" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C580" s="0" t="s">
         <v>1096</v>
-      </c>
-      <c r="C580" s="0" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13413,31 +13461,31 @@
         <v>1100</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B583" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C583" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B584" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C584" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B585" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C585" s="0" t="s">
         <v>1105</v>
-      </c>
-      <c r="C585" s="0" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13589,39 +13637,39 @@
         <v>1143</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B605" s="0" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B606" s="0" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B607" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B608" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C608" s="0" t="s">
         <v>1150</v>
-      </c>
-      <c r="C608" s="0" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13765,39 +13813,39 @@
         <v>1186</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B627" s="0" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B628" s="0" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B629" s="0" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B630" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C630" s="0" t="s">
         <v>1193</v>
-      </c>
-      <c r="C630" s="0" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13861,39 +13909,39 @@
         <v>1209</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B639" s="0" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B640" s="0" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B641" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B642" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C642" s="0" t="s">
         <v>1216</v>
-      </c>
-      <c r="C642" s="0" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13965,151 +14013,151 @@
         <v>1234</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B652" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B653" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B654" s="0" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B655" s="0" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B656" s="0" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B657" s="0" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C658" s="0" t="s">
         <v>1244</v>
-      </c>
-      <c r="C658" s="0" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B661" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C661" s="0" t="s">
         <v>1250</v>
-      </c>
-      <c r="C661" s="0" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B662" s="0" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B663" s="0" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B664" s="0" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B665" s="0" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B666" s="0" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B667" s="0" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B668" s="0" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B669" s="0" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14186,34 +14234,34 @@
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B679" s="0" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B680" s="0" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B681" s="0" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B682" s="0" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14413,68 +14461,68 @@
         <v>1334</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B708" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C708" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B709" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B710" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B711" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C711" s="0" t="s">
         <v>1341</v>
-      </c>
-      <c r="C711" s="0" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B712" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C712" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B713" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B714" s="0" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B715" s="0" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C715" s="0" t="s">
         <v>1348</v>
@@ -14482,26 +14530,26 @@
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B716" s="0" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C716" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B717" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B718" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C718" s="0" t="s">
         <v>1353</v>
-      </c>
-      <c r="C718" s="0" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14509,36 +14557,36 @@
         <v>1355</v>
       </c>
       <c r="C719" s="0" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B720" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C720" s="0" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B721" s="0" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B722" s="0" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C722" s="0" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B723" s="0" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C723" s="0" t="s">
         <v>1362</v>
@@ -14546,10 +14594,10 @@
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B724" s="0" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C724" s="0" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14610,71 +14658,71 @@
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B732" s="0" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="C732" s="0" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B733" s="0" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C733" s="0" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B734" s="0" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C734" s="0" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B735" s="0" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C735" s="0" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B736" s="0" t="s">
-        <v>316</v>
+        <v>1385</v>
       </c>
       <c r="C736" s="0" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B737" s="0" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B738" s="0" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C738" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B739" s="0" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B740" s="0" t="s">
-        <v>1392</v>
+        <v>316</v>
       </c>
       <c r="C740" s="0" t="s">
         <v>1393</v>
@@ -14821,39 +14869,39 @@
         <v>1428</v>
       </c>
       <c r="C758" s="0" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B759" s="0" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C759" s="0" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B760" s="0" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C760" s="0" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B761" s="0" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C761" s="0" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B762" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C762" s="0" t="s">
         <v>1435</v>
-      </c>
-      <c r="C762" s="0" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14901,95 +14949,95 @@
         <v>1447</v>
       </c>
       <c r="C768" s="0" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B769" s="0" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C769" s="0" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B770" s="0" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C770" s="0" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B771" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C771" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B772" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C772" s="0" t="s">
         <v>1454</v>
-      </c>
-      <c r="C772" s="0" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B773" s="0" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C773" s="0" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B774" s="0" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C774" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B775" s="0" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="C775" s="0" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B776" s="0" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="C776" s="0" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B777" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C777" s="0" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B778" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C778" s="0" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B779" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C779" s="0" t="s">
         <v>1465</v>
-      </c>
-      <c r="C779" s="0" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15045,39 +15093,39 @@
         <v>1479</v>
       </c>
       <c r="C786" s="0" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B787" s="0" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C787" s="0" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B788" s="0" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C788" s="0" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B789" s="0" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="C789" s="0" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B790" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C790" s="0" t="s">
         <v>1486</v>
-      </c>
-      <c r="C790" s="0" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15141,39 +15189,39 @@
         <v>1502</v>
       </c>
       <c r="C798" s="0" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B799" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C799" s="0" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B800" s="0" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C800" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B801" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C801" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B802" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C802" s="0" t="s">
         <v>1509</v>
-      </c>
-      <c r="C802" s="0" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15205,39 +15253,39 @@
         <v>1517</v>
       </c>
       <c r="C806" s="0" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B807" s="0" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C807" s="0" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B808" s="0" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C808" s="0" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B809" s="0" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C809" s="0" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B810" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C810" s="0" t="s">
         <v>1524</v>
-      </c>
-      <c r="C810" s="0" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15277,71 +15325,71 @@
         <v>1534</v>
       </c>
       <c r="C815" s="0" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B816" s="0" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C816" s="0" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B817" s="0" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C817" s="0" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B818" s="0" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C818" s="0" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B819" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C819" s="0" t="s">
         <v>1541</v>
-      </c>
-      <c r="C819" s="0" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B820" s="0" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C820" s="0" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B821" s="0" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C821" s="0" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B822" s="0" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C822" s="0" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B823" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C823" s="0" t="s">
         <v>1548</v>
-      </c>
-      <c r="C823" s="0" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15405,36 +15453,36 @@
         <v>1564</v>
       </c>
       <c r="C831" s="0" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B832" s="0" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C832" s="0" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B833" s="0" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C833" s="0" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B834" s="0" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="C834" s="0" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B835" s="0" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>1571</v>
@@ -15442,18 +15490,18 @@
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B836" s="0" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C836" s="0" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B837" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C837" s="0" t="s">
         <v>1574</v>
-      </c>
-      <c r="C837" s="0" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15557,39 +15605,39 @@
         <v>1600</v>
       </c>
       <c r="C850" s="0" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B851" s="0" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C851" s="0" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B852" s="0" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C852" s="0" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B853" s="0" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C853" s="0" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B854" s="0" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C854" s="0" t="s">
         <v>1607</v>
-      </c>
-      <c r="C854" s="0" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15621,79 +15669,79 @@
         <v>1615</v>
       </c>
       <c r="C858" s="0" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B859" s="0" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C859" s="0" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B860" s="0" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="C860" s="0" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B861" s="0" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="C861" s="0" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B862" s="0" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="C862" s="0" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B863" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C863" s="0" t="s">
         <v>1622</v>
-      </c>
-      <c r="C863" s="0" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B864" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C864" s="0" t="s">
         <v>1622</v>
-      </c>
-      <c r="C864" s="0" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B865" s="0" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C865" s="0" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B866" s="0" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="C866" s="0" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B867" s="0" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C867" s="0" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15749,60 +15797,60 @@
         <v>1642</v>
       </c>
       <c r="C874" s="0" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B875" s="0" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C875" s="0" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B876" s="0" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C876" s="0" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B877" s="0" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C877" s="0" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B878" s="0" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="C878" s="0" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B879" s="0" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="C879" s="0" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B880" s="0" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C880" s="0" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B881" s="0" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="C881" s="0" t="s">
         <v>1655</v>
@@ -15810,26 +15858,26 @@
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B882" s="0" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C882" s="0" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B883" s="0" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C883" s="0" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B884" s="0" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C884" s="0" t="s">
         <v>1660</v>
-      </c>
-      <c r="C884" s="0" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15842,90 +15890,90 @@
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B886" s="0" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C886" s="0" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B887" s="0" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C887" s="0" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B888" s="0" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C888" s="0" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B889" s="0" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C889" s="0" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B890" s="0" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="C890" s="0" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B891" s="0" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="C891" s="0" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B892" s="0" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="C892" s="0" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B893" s="0" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C893" s="0" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B894" s="0" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C894" s="0" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B895" s="0" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C895" s="0" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B896" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C896" s="0" t="s">
         <v>1681</v>
-      </c>
-      <c r="C896" s="0" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16045,116 +16093,116 @@
         <v>1711</v>
       </c>
       <c r="C911" s="0" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B912" s="0" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C912" s="0" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B913" s="0" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C913" s="0" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B914" s="0" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C914" s="0" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B915" s="0" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="C915" s="0" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B916" s="0" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C916" s="0" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B917" s="0" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C917" s="0" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B918" s="0" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="C918" s="0" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B919" s="0" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C919" s="0" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B920" s="0" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C920" s="0" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B921" s="0" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C921" s="0" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B922" s="0" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="C922" s="0" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B923" s="0" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="C923" s="0" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B924" s="0" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="C924" s="0" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B925" s="0" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>1736</v>
@@ -16162,7 +16210,7 @@
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B926" s="0" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>1736</v>
@@ -16170,58 +16218,58 @@
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B927" s="0" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C927" s="0" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B928" s="0" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C928" s="0" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B929" s="0" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C929" s="0" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B930" s="0" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C930" s="0" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B931" s="0" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C931" s="0" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B932" s="0" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C932" s="0" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B933" s="0" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C933" s="0" t="s">
         <v>1750</v>
-      </c>
-      <c r="C933" s="0" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16349,63 +16397,63 @@
         <v>1782</v>
       </c>
       <c r="C949" s="0" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B950" s="0" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C950" s="0" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B951" s="0" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C951" s="0" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B952" s="0" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C952" s="0" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B953" s="0" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C953" s="0" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B954" s="0" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C954" s="0" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B955" s="0" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C955" s="0" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B956" s="0" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C956" s="0" t="s">
         <v>1795</v>
-      </c>
-      <c r="C956" s="0" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16565,60 +16613,60 @@
         <v>1835</v>
       </c>
       <c r="C976" s="0" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B977" s="0" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C977" s="0" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B978" s="0" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C978" s="0" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B979" s="0" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="C979" s="0" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B980" s="0" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="C980" s="0" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B981" s="0" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="C981" s="0" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B982" s="0" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="C982" s="0" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B983" s="0" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>1848</v>
@@ -16626,18 +16674,18 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B984" s="0" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C984" s="0" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B985" s="0" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C985" s="0" t="s">
         <v>1851</v>
-      </c>
-      <c r="C985" s="0" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16693,63 +16741,63 @@
         <v>1865</v>
       </c>
       <c r="C992" s="0" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B993" s="0" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C993" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B994" s="0" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C994" s="0" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B995" s="0" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C995" s="0" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B996" s="0" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C996" s="0" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B997" s="0" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="C997" s="0" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B998" s="0" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C998" s="0" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B999" s="0" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C999" s="0" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16757,63 +16805,63 @@
         <v>1880</v>
       </c>
       <c r="C1000" s="0" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1001" s="0" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C1001" s="0" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1002" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C1002" s="0" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1003" s="0" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C1003" s="0" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1004" s="0" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C1004" s="0" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1005" s="0" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C1005" s="0" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1006" s="0" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="C1006" s="0" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1007" s="0" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1007" s="0" t="s">
         <v>1893</v>
-      </c>
-      <c r="C1007" s="0" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16845,76 +16893,76 @@
         <v>1901</v>
       </c>
       <c r="C1011" s="0" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1012" s="0" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C1012" s="0" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1013" s="0" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="C1013" s="0" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1014" s="0" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="C1014" s="0" t="s">
-        <v>1903</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1015" s="0" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="C1015" s="0" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1016" s="0" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="C1016" s="0" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1017" s="0" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="C1017" s="0" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1018" s="0" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="C1018" s="0" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1019" s="0" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="C1019" s="0" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1020" s="0" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="C1020" s="0" t="s">
         <v>1917</v>
@@ -16922,10 +16970,10 @@
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1021" s="0" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="C1021" s="0" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16965,76 +17013,76 @@
         <v>1928</v>
       </c>
       <c r="C1026" s="0" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1027" s="0" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C1027" s="0" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1028" s="0" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C1028" s="0" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1029" s="0" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="C1029" s="0" t="s">
-        <v>1930</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1030" s="0" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="C1030" s="0" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1031" s="0" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="C1031" s="0" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1032" s="0" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="C1032" s="0" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1033" s="0" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="C1033" s="0" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1034" s="0" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="C1034" s="0" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1035" s="0" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="C1035" s="0" t="s">
         <v>1944</v>
@@ -17042,10 +17090,10 @@
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1036" s="0" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C1036" s="0" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17073,11 +17121,8 @@
       </c>
     </row>
     <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="0" t="s">
+      <c r="B1040" s="0" t="s">
         <v>1953</v>
-      </c>
-      <c r="B1040" s="0" t="s">
-        <v>1620</v>
       </c>
       <c r="C1040" s="0" t="s">
         <v>1954</v>
@@ -17132,123 +17177,126 @@
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="0" t="s">
+        <v>1967</v>
+      </c>
       <c r="B1047" s="0" t="s">
-        <v>1967</v>
+        <v>1628</v>
       </c>
       <c r="C1047" s="0" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1048" s="0" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C1048" s="0" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1049" s="0" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C1049" s="0" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1050" s="0" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="C1050" s="0" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1051" s="0" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="C1051" s="0" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1052" s="0" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C1052" s="0" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1053" s="0" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C1053" s="0" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1054" s="0" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1054" s="0" t="s">
         <v>1980</v>
-      </c>
-      <c r="C1054" s="0" t="s">
-        <v>1979</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1055" s="0" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C1055" s="0" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1056" s="0" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C1056" s="0" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1057" s="0" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C1057" s="0" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1058" s="0" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C1058" s="0" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1059" s="0" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C1059" s="0" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1060" s="0" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C1060" s="0" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1061" s="0" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1061" s="0" t="s">
         <v>1993</v>
-      </c>
-      <c r="C1061" s="0" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17336,60 +17384,60 @@
         <v>2015</v>
       </c>
       <c r="C1072" s="0" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1073" s="0" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C1073" s="0" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1074" s="0" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1074" s="0" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1075" s="0" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1075" s="0" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1076" s="0" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C1076" s="0" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1077" s="0" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C1077" s="0" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1078" s="0" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C1078" s="0" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1079" s="0" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="C1079" s="0" t="s">
         <v>2028</v>
@@ -17397,18 +17445,18 @@
     </row>
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1080" s="0" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C1080" s="0" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1081" s="0" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C1081" s="0" t="s">
         <v>2031</v>
-      </c>
-      <c r="C1081" s="0" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17424,63 +17472,63 @@
         <v>2035</v>
       </c>
       <c r="C1083" s="0" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1084" s="0" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C1084" s="0" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1085" s="0" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C1085" s="0" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1086" s="0" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C1086" s="0" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1087" s="0" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C1087" s="0" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1088" s="0" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C1088" s="0" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1089" s="0" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="C1089" s="0" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1090" s="0" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C1090" s="0" t="s">
         <v>2048</v>
-      </c>
-      <c r="C1090" s="0" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17536,63 +17584,63 @@
         <v>2062</v>
       </c>
       <c r="C1097" s="0" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1098" s="0" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C1098" s="0" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1099" s="0" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C1099" s="0" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1100" s="0" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="C1100" s="0" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1101" s="0" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="C1101" s="0" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1102" s="0" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="C1102" s="0" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1103" s="0" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="C1103" s="0" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1104" s="0" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1104" s="0" t="s">
         <v>2075</v>
-      </c>
-      <c r="C1104" s="0" t="s">
-        <v>2076</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17648,60 +17696,60 @@
         <v>2089</v>
       </c>
       <c r="C1111" s="0" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1112" s="0" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="C1112" s="0" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1113" s="0" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="C1113" s="0" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1114" s="0" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="C1114" s="0" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1115" s="0" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="C1115" s="0" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1116" s="0" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="C1116" s="0" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1117" s="0" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="C1117" s="0" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1118" s="0" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="C1118" s="0" t="s">
         <v>2102</v>
@@ -17709,23 +17757,23 @@
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1119" s="0" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="C1119" s="0" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1120" s="0" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="C1120" s="0" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1121" s="0" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="C1121" s="0" t="s">
         <v>2108</v>
@@ -17848,60 +17896,60 @@
         <v>2137</v>
       </c>
       <c r="C1136" s="0" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1137" s="0" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="C1137" s="0" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1138" s="0" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="C1138" s="0" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1139" s="0" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="C1139" s="0" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1140" s="0" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="C1140" s="0" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1141" s="0" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="C1141" s="0" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1142" s="0" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="C1142" s="0" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1143" s="0" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="C1143" s="0" t="s">
         <v>2150</v>
@@ -17909,23 +17957,23 @@
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1144" s="0" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="C1144" s="0" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1145" s="0" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="C1145" s="0" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1146" s="0" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="C1146" s="0" t="s">
         <v>2155</v>
@@ -17933,42 +17981,42 @@
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1147" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="C1147" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1148" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="C1148" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1149" s="0" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="C1149" s="0" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1150" s="0" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C1150" s="0" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1151" s="0" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1151" s="0" t="s">
         <v>2164</v>
-      </c>
-      <c r="C1151" s="0" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18016,63 +18064,63 @@
         <v>2176</v>
       </c>
       <c r="C1157" s="0" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1158" s="0" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="C1158" s="0" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1159" s="0" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="C1159" s="0" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1160" s="0" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="C1160" s="0" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1161" s="0" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="C1161" s="0" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1162" s="0" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="C1162" s="0" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1163" s="0" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="C1163" s="0" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1164" s="0" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C1164" s="0" t="s">
         <v>2189</v>
-      </c>
-      <c r="C1164" s="0" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18240,60 +18288,60 @@
         <v>2231</v>
       </c>
       <c r="C1185" s="0" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1186" s="0" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="C1186" s="0" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1187" s="0" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="C1187" s="0" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1188" s="0" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="C1188" s="0" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1189" s="0" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="C1189" s="0" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1190" s="0" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="C1190" s="0" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1191" s="0" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="C1191" s="0" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1192" s="0" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="C1192" s="0" t="s">
         <v>2244</v>
@@ -18301,90 +18349,90 @@
     </row>
     <row r="1193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1193" s="0" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="C1193" s="0" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1194" s="0" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="C1194" s="0" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1195" s="0" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="C1195" s="0" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1196" s="0" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C1196" s="0" t="s">
         <v>2251</v>
-      </c>
-      <c r="C1196" s="0" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1197" s="0" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="C1197" s="0" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1198" s="0" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="C1198" s="0" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1199" s="0" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C1199" s="0" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1200" s="0" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="C1200" s="0" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1201" s="0" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="C1201" s="0" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1202" s="0" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="C1202" s="0" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1203" s="0" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1203" s="0" t="s">
         <v>2264</v>
-      </c>
-      <c r="C1203" s="0" t="s">
-        <v>2265</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18560,68 +18608,68 @@
         <v>2308</v>
       </c>
       <c r="C1225" s="0" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1226" s="0" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="C1226" s="0" t="s">
-        <v>2307</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1227" s="0" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="C1227" s="0" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1228" s="0" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="C1228" s="0" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1229" s="0" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="C1229" s="0" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1230" s="0" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="C1230" s="0" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1231" s="0" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="C1231" s="0" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1232" s="0" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="C1232" s="0" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1233" s="0" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="C1233" s="0" t="s">
         <v>2321</v>
@@ -18629,31 +18677,31 @@
     </row>
     <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1234" s="0" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="C1234" s="0" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1235" s="0" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="C1235" s="0" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1236" s="0" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="C1236" s="0" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1237" s="0" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="C1237" s="0" t="s">
         <v>2329</v>
@@ -18661,18 +18709,18 @@
     </row>
     <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1238" s="0" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="C1238" s="0" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1239" s="0" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C1239" s="0" t="s">
         <v>2332</v>
-      </c>
-      <c r="C1239" s="0" t="s">
-        <v>2333</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18736,60 +18784,60 @@
         <v>2348</v>
       </c>
       <c r="C1247" s="0" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1248" s="0" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="C1248" s="0" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1249" s="0" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="C1249" s="0" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1250" s="0" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="C1250" s="0" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1251" s="0" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C1251" s="0" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1252" s="0" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="C1252" s="0" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1253" s="0" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="C1253" s="0" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1254" s="0" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="C1254" s="0" t="s">
         <v>2361</v>
@@ -18797,34 +18845,34 @@
     </row>
     <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1255" s="0" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="C1255" s="0" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1256" s="0" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="C1256" s="0" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1257" s="0" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="C1257" s="0" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1258" s="0" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C1258" s="0" t="s">
         <v>2368</v>
-      </c>
-      <c r="C1258" s="0" t="s">
-        <v>2369</v>
       </c>
     </row>
     <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18837,71 +18885,71 @@
     </row>
     <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1260" s="0" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="C1260" s="0" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1261" s="0" t="s">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="C1261" s="0" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1262" s="0" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="C1262" s="0" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1263" s="0" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="C1263" s="0" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1264" s="0" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="C1264" s="0" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1265" s="0" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="C1265" s="0" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1266" s="0" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="C1266" s="0" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1267" s="0" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="C1267" s="0" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1268" s="0" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="C1268" s="0" t="s">
         <v>2387</v>
@@ -18912,63 +18960,63 @@
         <v>2388</v>
       </c>
       <c r="C1269" s="0" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1270" s="0" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="C1270" s="0" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1271" s="0" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C1271" s="0" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1272" s="0" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="C1272" s="0" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1273" s="0" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="C1273" s="0" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1274" s="0" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="C1274" s="0" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1275" s="0" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="C1275" s="0" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1276" s="0" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C1276" s="0" t="s">
         <v>2401</v>
-      </c>
-      <c r="C1276" s="0" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19032,63 +19080,63 @@
         <v>2417</v>
       </c>
       <c r="C1284" s="0" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1285" s="0" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="C1285" s="0" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1286" s="0" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="C1286" s="0" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1287" s="0" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="C1287" s="0" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1288" s="0" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="C1288" s="0" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1289" s="0" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="C1289" s="0" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1290" s="0" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="C1290" s="0" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1291" s="0" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C1291" s="0" t="s">
         <v>2430</v>
-      </c>
-      <c r="C1291" s="0" t="s">
-        <v>2431</v>
       </c>
     </row>
     <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19216,63 +19264,63 @@
         <v>2462</v>
       </c>
       <c r="C1307" s="0" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1308" s="0" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="C1308" s="0" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1309" s="0" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="C1309" s="0" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1310" s="0" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="C1310" s="0" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1311" s="0" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="C1311" s="0" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1312" s="0" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="C1312" s="0" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1313" s="0" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="C1313" s="0" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1314" s="0" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C1314" s="0" t="s">
         <v>2475</v>
-      </c>
-      <c r="C1314" s="0" t="s">
-        <v>2476</v>
       </c>
     </row>
     <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19400,63 +19448,63 @@
         <v>2507</v>
       </c>
       <c r="C1330" s="0" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1331" s="0" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="C1331" s="0" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1332" s="0" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="C1332" s="0" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1333" s="0" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="C1333" s="0" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1334" s="0" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="C1334" s="0" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1335" s="0" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="C1335" s="0" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1336" s="0" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="C1336" s="0" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1337" s="0" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C1337" s="0" t="s">
         <v>2520</v>
-      </c>
-      <c r="C1337" s="0" t="s">
-        <v>2521</v>
       </c>
     </row>
     <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19480,143 +19528,143 @@
         <v>2526</v>
       </c>
       <c r="C1340" s="0" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1341" s="0" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="C1341" s="0" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1342" s="0" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="C1342" s="0" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1343" s="0" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C1343" s="0" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1344" s="0" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="C1344" s="0" t="s">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1345" s="0" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="C1345" s="0" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1346" s="0" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="C1346" s="0" t="s">
-        <v>2534</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1347" s="0" t="s">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="C1347" s="0" t="s">
-        <v>2534</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1348" s="0" t="s">
-        <v>2537</v>
+        <v>2542</v>
       </c>
       <c r="C1348" s="0" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1349" s="0" t="s">
-        <v>2539</v>
+        <v>2543</v>
       </c>
       <c r="C1349" s="0" t="s">
-        <v>2538</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1350" s="0" t="s">
-        <v>2540</v>
+        <v>2545</v>
       </c>
       <c r="C1350" s="0" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1351" s="0" t="s">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="C1351" s="0" t="s">
-        <v>2543</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1352" s="0" t="s">
-        <v>2544</v>
+        <v>2548</v>
       </c>
       <c r="C1352" s="0" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1353" s="0" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="C1353" s="0" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1354" s="0" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="C1354" s="0" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1355" s="0" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1355" s="0" t="s">
         <v>2550</v>
-      </c>
-      <c r="C1355" s="0" t="s">
-        <v>2551</v>
       </c>
     </row>
     <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1356" s="0" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="C1356" s="0" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1357" s="0" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1357" s="0" t="s">
         <v>2554</v>
-      </c>
-      <c r="C1357" s="0" t="s">
-        <v>2555</v>
       </c>
     </row>
     <row r="1358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19680,68 +19728,68 @@
         <v>2570</v>
       </c>
       <c r="C1365" s="0" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1366" s="0" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="C1366" s="0" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="1367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1367" s="0" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="C1367" s="0" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="1368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1368" s="0" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="C1368" s="0" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1369" s="0" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="C1369" s="0" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1370" s="0" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="C1370" s="0" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1371" s="0" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="C1371" s="0" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1372" s="0" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="C1372" s="0" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1373" s="0" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="C1373" s="0" t="s">
         <v>2585</v>
@@ -19749,87 +19797,87 @@
     </row>
     <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1374" s="0" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="C1374" s="0" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1375" s="0" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="C1375" s="0" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1376" s="0" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C1376" s="0" t="s">
         <v>2590</v>
-      </c>
-      <c r="C1376" s="0" t="s">
-        <v>2589</v>
       </c>
     </row>
     <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1377" s="0" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="C1377" s="0" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1378" s="0" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="C1378" s="0" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1379" s="0" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="C1379" s="0" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1380" s="0" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="C1380" s="0" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1381" s="0" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="C1381" s="0" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1382" s="0" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="C1382" s="0" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1383" s="0" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="C1383" s="0" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1384" s="0" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="C1384" s="0" t="s">
         <v>2605</v>
@@ -19837,50 +19885,50 @@
     </row>
     <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1385" s="0" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="C1385" s="0" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1386" s="0" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="C1386" s="0" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1387" s="0" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="C1387" s="0" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1388" s="0" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="C1388" s="0" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1389" s="0" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="C1389" s="0" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1390" s="0" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C1390" s="0" t="s">
         <v>2616</v>
-      </c>
-      <c r="C1390" s="0" t="s">
-        <v>2617</v>
       </c>
     </row>
     <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19952,71 +20000,71 @@
         <v>2634</v>
       </c>
       <c r="C1399" s="0" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1400" s="0" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="C1400" s="0" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1401" s="0" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="C1401" s="0" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1402" s="0" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="C1402" s="0" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1403" s="0" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="C1403" s="0" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1404" s="0" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="C1404" s="0" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1405" s="0" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="C1405" s="0" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1406" s="0" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="C1406" s="0" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1407" s="0" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1407" s="0" t="s">
         <v>2649</v>
-      </c>
-      <c r="C1407" s="0" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20040,196 +20088,196 @@
         <v>2655</v>
       </c>
       <c r="C1410" s="0" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1411" s="0" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="C1411" s="0" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1412" s="0" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="C1412" s="0" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1413" s="0" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="C1413" s="0" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1414" s="0" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="C1414" s="0" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1415" s="0" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="C1415" s="0" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="1416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1416" s="0" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="C1416" s="0" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="1417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1417" s="0" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="C1417" s="0" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="1418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1418" s="0" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C1418" s="0" t="s">
         <v>2670</v>
-      </c>
-      <c r="C1418" s="0" t="s">
-        <v>2669</v>
       </c>
     </row>
     <row r="1419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1419" s="0" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="C1419" s="0" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="1420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1420" s="0" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="C1420" s="0" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1421" s="0" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="C1421" s="0" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1422" s="0" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="C1422" s="0" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1423" s="0" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="C1423" s="0" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1424" s="0" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="C1424" s="0" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1425" s="0" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="C1425" s="0" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1426" s="0" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="C1426" s="0" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1427" s="0" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="C1427" s="0" t="s">
-        <v>2686</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1428" s="0" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="C1428" s="0" t="s">
-        <v>2686</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1429" s="0" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="C1429" s="0" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1430" s="0" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="C1430" s="0" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1431" s="0" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="C1431" s="0" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1432" s="0" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="C1432" s="0" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1433" s="0" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="C1433" s="0" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1434" s="0" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
       <c r="C1434" s="0" t="s">
         <v>2699</v>
@@ -20237,18 +20285,18 @@
     </row>
     <row r="1435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1435" s="0" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="C1435" s="0" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1436" s="0" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C1436" s="0" t="s">
         <v>2702</v>
-      </c>
-      <c r="C1436" s="0" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="1437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20360,108 +20408,108 @@
         <v>2730</v>
       </c>
       <c r="C1450" s="0" t="s">
-        <v>2727</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="1451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1451" s="0" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="C1451" s="0" t="s">
-        <v>2727</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="1452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1452" s="0" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="C1452" s="0" t="s">
-        <v>2727</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="1453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1453" s="0" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="C1453" s="0" t="s">
-        <v>2734</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="1454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1454" s="0" t="s">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="C1454" s="0" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1455" s="0" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="C1455" s="0" t="s">
-        <v>2736</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1456" s="0" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="C1456" s="0" t="s">
-        <v>2736</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1457" s="0" t="s">
-        <v>2739</v>
+        <v>2744</v>
       </c>
       <c r="C1457" s="0" t="s">
-        <v>2740</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1458" s="0" t="s">
-        <v>2741</v>
+        <v>2746</v>
       </c>
       <c r="C1458" s="0" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1459" s="0" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C1459" s="0" t="s">
         <v>2743</v>
-      </c>
-      <c r="C1459" s="0" t="s">
-        <v>2744</v>
       </c>
     </row>
     <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1460" s="0" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="C1460" s="0" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1461" s="0" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="C1461" s="0" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1462" s="0" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="C1462" s="0" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1463" s="0" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="C1463" s="0" t="s">
         <v>2752</v>
@@ -20469,10 +20517,10 @@
     </row>
     <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1464" s="0" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="C1464" s="0" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20480,71 +20528,71 @@
         <v>2755</v>
       </c>
       <c r="C1465" s="0" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1466" s="0" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="C1466" s="0" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1467" s="0" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="C1467" s="0" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1468" s="0" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="C1468" s="0" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1469" s="0" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="C1469" s="0" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1470" s="0" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="C1470" s="0" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1471" s="0" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="C1471" s="0" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1472" s="0" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="C1472" s="0" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1473" s="0" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C1473" s="0" t="s">
         <v>2770</v>
-      </c>
-      <c r="C1473" s="0" t="s">
-        <v>2771</v>
       </c>
     </row>
     <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20604,11 +20652,8 @@
       </c>
     </row>
     <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1481" s="0" t="s">
+      <c r="B1481" s="0" t="s">
         <v>2786</v>
-      </c>
-      <c r="B1481" s="0" t="s">
-        <v>2770</v>
       </c>
       <c r="C1481" s="0" t="s">
         <v>2787</v>
@@ -20651,172 +20696,175 @@
         <v>2796</v>
       </c>
       <c r="C1486" s="0" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1487" s="0" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="C1487" s="0" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="1488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1488" s="0" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="C1488" s="0" t="s">
-        <v>2795</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="0" t="s">
+        <v>2802</v>
+      </c>
       <c r="B1489" s="0" t="s">
-        <v>2799</v>
+        <v>2786</v>
       </c>
       <c r="C1489" s="0" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1490" s="0" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="C1490" s="0" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1491" s="0" t="s">
-        <v>2801</v>
+        <v>2806</v>
       </c>
       <c r="C1491" s="0" t="s">
-        <v>2802</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1492" s="0" t="s">
-        <v>2803</v>
+        <v>2808</v>
       </c>
       <c r="C1492" s="0" t="s">
-        <v>2804</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1493" s="0" t="s">
-        <v>2803</v>
+        <v>2810</v>
       </c>
       <c r="C1493" s="0" t="s">
-        <v>2804</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1494" s="0" t="s">
-        <v>2805</v>
+        <v>2812</v>
       </c>
       <c r="C1494" s="0" t="s">
-        <v>2806</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1495" s="0" t="s">
-        <v>2807</v>
+        <v>2813</v>
       </c>
       <c r="C1495" s="0" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1496" s="0" t="s">
-        <v>2809</v>
+        <v>2814</v>
       </c>
       <c r="C1496" s="0" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1497" s="0" t="s">
-        <v>2810</v>
+        <v>2815</v>
       </c>
       <c r="C1497" s="0" t="s">
-        <v>2811</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1498" s="0" t="s">
-        <v>2812</v>
+        <v>2817</v>
       </c>
       <c r="C1498" s="0" t="s">
-        <v>2813</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1499" s="0" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="C1499" s="0" t="s">
-        <v>2813</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1500" s="0" t="s">
-        <v>2815</v>
+        <v>2819</v>
       </c>
       <c r="C1500" s="0" t="s">
-        <v>2816</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1501" s="0" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="C1501" s="0" t="s">
-        <v>2816</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1502" s="0" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="C1502" s="0" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1503" s="0" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="C1503" s="0" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1504" s="0" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="C1504" s="0" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1505" s="0" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="C1505" s="0" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1506" s="0" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="C1506" s="0" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1507" s="0" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="C1507" s="0" t="s">
         <v>2829</v>
@@ -20824,18 +20872,18 @@
     </row>
     <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1508" s="0" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="C1508" s="0" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1509" s="0" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C1509" s="0" t="s">
         <v>2832</v>
-      </c>
-      <c r="C1509" s="0" t="s">
-        <v>2833</v>
       </c>
     </row>
     <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20851,119 +20899,119 @@
         <v>2836</v>
       </c>
       <c r="C1511" s="0" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1512" s="0" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="C1512" s="0" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1513" s="0" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="C1513" s="0" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1514" s="0" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="C1514" s="0" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1515" s="0" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="C1515" s="0" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1516" s="0" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="C1516" s="0" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1517" s="0" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="C1517" s="0" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1518" s="0" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="C1518" s="0" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1519" s="0" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="C1519" s="0" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1520" s="0" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="C1520" s="0" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1521" s="0" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="C1521" s="0" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1522" s="0" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="C1522" s="0" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1523" s="0" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="C1523" s="0" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="1524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1524" s="0" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="C1524" s="0" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1525" s="0" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="C1525" s="0" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21011,7 +21059,71 @@
         <v>2873</v>
       </c>
       <c r="C1531" s="0" t="s">
-        <v>2873</v>
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1532" s="0" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C1532" s="0" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1533" s="0" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C1533" s="0" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="1534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1534" s="0" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C1534" s="0" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="1535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1535" s="0" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1535" s="0" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="1536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1536" s="0" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C1536" s="0" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1537" s="0" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C1537" s="0" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1538" s="0" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1538" s="0" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1539" s="0" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1539" s="0" t="s">
+        <v>2889</v>
       </c>
     </row>
   </sheetData>

--- a/odoo_default_tnl.xlsx
+++ b/odoo_default_tnl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="2966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="2974">
   <si>
     <t xml:space="preserve">status</t>
   </si>
@@ -694,6 +694,12 @@
     <t xml:space="preserve">Importo scaduto</t>
   </si>
   <si>
+    <t xml:space="preserve">Amount Rounding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrotondamento importo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amount settled</t>
   </si>
   <si>
@@ -5170,6 +5176,18 @@
     <t xml:space="preserve">Numero di righe</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero di mesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero di settimane</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number Reference</t>
   </si>
   <si>
@@ -5780,6 +5798,12 @@
   </si>
   <si>
     <t xml:space="preserve">Codice pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment day(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giorno/i di pagamento</t>
   </si>
   <si>
     <t xml:space="preserve">Payment Due Date</t>
@@ -9018,13 +9042,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1575"/>
+  <dimension ref="A1:C1579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1329" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1342" activeCellId="0" sqref="A1:C1575"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A995" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1008" activeCellId="0" sqref="C1008"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.39"/>
@@ -10343,15 +10367,15 @@
         <v>326</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>96</v>
+        <v>327</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>328</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10575,15 +10599,15 @@
         <v>383</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C194" s="0" t="s">
         <v>384</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10879,15 +10903,15 @@
         <v>458</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C232" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10895,15 +10919,15 @@
         <v>461</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C234" s="0" t="s">
         <v>462</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10951,15 +10975,15 @@
         <v>474</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C241" s="0" t="s">
         <v>475</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11007,15 +11031,15 @@
         <v>487</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11231,15 +11255,15 @@
         <v>542</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="C276" s="0" t="s">
         <v>543</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11252,10 +11276,10 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11287,15 +11311,15 @@
         <v>553</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="C283" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="C283" s="0" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11407,15 +11431,15 @@
         <v>582</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C298" s="0" t="s">
         <v>583</v>
-      </c>
-      <c r="C298" s="0" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11743,15 +11767,15 @@
         <v>665</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="C340" s="0" t="s">
         <v>666</v>
-      </c>
-      <c r="C340" s="0" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11895,15 +11919,15 @@
         <v>702</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C359" s="0" t="s">
         <v>703</v>
-      </c>
-      <c r="C359" s="0" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11951,15 +11975,15 @@
         <v>715</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="C366" s="0" t="s">
         <v>716</v>
-      </c>
-      <c r="C366" s="0" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11975,15 +11999,15 @@
         <v>720</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C369" s="0" t="s">
         <v>721</v>
-      </c>
-      <c r="C369" s="0" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12059,22 +12083,22 @@
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
+      <c r="B379" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="B379" s="0" t="s">
+      <c r="C379" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="C379" s="0" t="s">
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>507</v>
+        <v>745</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12082,7 +12106,7 @@
         <v>744</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>745</v>
+        <v>509</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12186,15 +12210,15 @@
         <v>770</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12202,15 +12226,15 @@
         <v>771</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12250,15 +12274,15 @@
         <v>782</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="C403" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="C403" s="0" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12290,15 +12314,15 @@
         <v>791</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="C408" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="C408" s="0" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12614,27 +12638,27 @@
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
+      <c r="B448" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="B448" s="0" t="s">
+      <c r="C448" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="C448" s="0" t="s">
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C449" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="0" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C450" s="0" t="s">
         <v>877</v>
@@ -12765,15 +12789,15 @@
         <v>908</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="C467" s="0" t="s">
         <v>909</v>
-      </c>
-      <c r="C467" s="0" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12925,23 +12949,23 @@
         <v>947</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B487" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="C487" s="0" t="s">
         <v>948</v>
-      </c>
-      <c r="C487" s="0" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13117,15 +13141,15 @@
         <v>993</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B511" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="C511" s="0" t="s">
         <v>994</v>
-      </c>
-      <c r="C511" s="0" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13205,15 +13229,15 @@
         <v>1014</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B522" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C522" s="0" t="s">
         <v>1015</v>
-      </c>
-      <c r="C522" s="0" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13325,15 +13349,15 @@
         <v>1043</v>
       </c>
       <c r="C536" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B537" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C537" s="0" t="s">
         <v>1044</v>
-      </c>
-      <c r="C537" s="0" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13405,15 +13429,15 @@
         <v>1062</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B547" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13469,15 +13493,15 @@
         <v>1077</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>1051</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="0" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>1079</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13573,15 +13597,15 @@
         <v>1102</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>395</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B568" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>1104</v>
+        <v>397</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13701,15 +13725,15 @@
         <v>1133</v>
       </c>
       <c r="C583" s="0" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B584" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C584" s="0" t="s">
         <v>1134</v>
-      </c>
-      <c r="C584" s="0" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13781,15 +13805,15 @@
         <v>1152</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B594" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C594" s="0" t="s">
         <v>1153</v>
-      </c>
-      <c r="C594" s="0" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13805,15 +13829,15 @@
         <v>1157</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>1020</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B597" s="0" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>1159</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13845,20 +13869,20 @@
         <v>1166</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B602" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C602" s="0" t="s">
         <v>1167</v>
-      </c>
-      <c r="C602" s="0" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B603" s="0" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C603" s="0" t="s">
         <v>1049</v>
@@ -13866,10 +13890,10 @@
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B604" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1170</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14085,15 +14109,15 @@
         <v>1223</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B632" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C632" s="0" t="s">
         <v>1224</v>
-      </c>
-      <c r="C632" s="0" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14229,15 +14253,15 @@
         <v>1258</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B650" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C650" s="0" t="s">
         <v>1259</v>
-      </c>
-      <c r="C650" s="0" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14293,15 +14317,15 @@
         <v>1273</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>907</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1275</v>
+        <v>909</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14381,15 +14405,15 @@
         <v>1294</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>569</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B669" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>1296</v>
+        <v>571</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14461,23 +14485,23 @@
         <v>1313</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B679" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>781</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B680" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>1316</v>
+        <v>783</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14541,15 +14565,15 @@
         <v>1331</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>1061</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B689" s="0" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>1333</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14557,23 +14581,23 @@
         <v>1334</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>634</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B691" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>809</v>
+        <v>636</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B692" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>1337</v>
+        <v>811</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14653,23 +14677,23 @@
         <v>1356</v>
       </c>
       <c r="C702" s="0" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B703" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C703" s="0" t="s">
         <v>1357</v>
-      </c>
-      <c r="C703" s="0" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B704" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14677,15 +14701,15 @@
         <v>1360</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>189</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B706" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C706" s="0" t="s">
-        <v>1362</v>
+        <v>189</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14693,15 +14717,15 @@
         <v>1363</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B708" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C708" s="0" t="s">
         <v>1364</v>
-      </c>
-      <c r="C708" s="0" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14797,15 +14821,15 @@
         <v>1388</v>
       </c>
       <c r="C720" s="0" t="s">
-        <v>96</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B721" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>1390</v>
+        <v>96</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14997,15 +15021,15 @@
         <v>1437</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>112</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B746" s="0" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C746" s="0" t="s">
-        <v>1439</v>
+        <v>112</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15029,15 +15053,15 @@
         <v>1444</v>
       </c>
       <c r="C749" s="0" t="s">
-        <v>1003</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B750" s="0" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C750" s="0" t="s">
-        <v>1446</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15061,15 +15085,15 @@
         <v>1451</v>
       </c>
       <c r="C753" s="0" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B754" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C754" s="0" t="s">
         <v>1452</v>
-      </c>
-      <c r="C754" s="0" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15085,15 +15109,15 @@
         <v>1456</v>
       </c>
       <c r="C756" s="0" t="s">
-        <v>114</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B757" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C757" s="0" t="s">
-        <v>1458</v>
+        <v>114</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15197,15 +15221,15 @@
         <v>1483</v>
       </c>
       <c r="C770" s="0" t="s">
-        <v>1474</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B771" s="0" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="C771" s="0" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15266,10 +15290,10 @@
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B779" s="0" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C779" s="0" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15325,15 +15349,15 @@
         <v>1512</v>
       </c>
       <c r="C786" s="0" t="s">
-        <v>1450</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B787" s="0" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C787" s="0" t="s">
-        <v>1514</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15341,15 +15365,15 @@
         <v>1515</v>
       </c>
       <c r="C788" s="0" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B789" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C789" s="0" t="s">
         <v>1516</v>
-      </c>
-      <c r="C789" s="0" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15525,15 +15549,15 @@
         <v>1560</v>
       </c>
       <c r="C811" s="0" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B812" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C812" s="0" t="s">
         <v>1561</v>
-      </c>
-      <c r="C812" s="0" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15613,15 +15637,15 @@
         <v>1581</v>
       </c>
       <c r="C822" s="0" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B823" s="0" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C823" s="0" t="s">
         <v>1582</v>
-      </c>
-      <c r="C823" s="0" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15653,15 +15677,15 @@
         <v>1590</v>
       </c>
       <c r="C827" s="0" t="s">
-        <v>1566</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B828" s="0" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C828" s="0" t="s">
-        <v>1592</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15693,15 +15717,15 @@
         <v>1599</v>
       </c>
       <c r="C832" s="0" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B833" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C833" s="0" t="s">
         <v>1600</v>
-      </c>
-      <c r="C833" s="0" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15709,23 +15733,23 @@
         <v>1602</v>
       </c>
       <c r="C834" s="0" t="s">
-        <v>749</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B835" s="0" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C835" s="0" t="s">
-        <v>1604</v>
+        <v>751</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B836" s="0" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C836" s="0" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15781,23 +15805,23 @@
         <v>1617</v>
       </c>
       <c r="C843" s="0" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B844" s="0" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C844" s="0" t="s">
         <v>1618</v>
-      </c>
-      <c r="C844" s="0" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B845" s="0" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C845" s="0" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15813,15 +15837,15 @@
         <v>1623</v>
       </c>
       <c r="C847" s="0" t="s">
-        <v>1610</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B848" s="0" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C848" s="0" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15829,23 +15853,23 @@
         <v>1626</v>
       </c>
       <c r="C849" s="0" t="s">
-        <v>895</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B850" s="0" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C850" s="0" t="s">
-        <v>1628</v>
+        <v>897</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B851" s="0" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="C851" s="0" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15858,10 +15882,10 @@
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B853" s="0" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="C853" s="0" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15922,10 +15946,10 @@
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B861" s="0" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C861" s="0" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15933,23 +15957,23 @@
         <v>1645</v>
       </c>
       <c r="C862" s="0" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B863" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C863" s="0" t="s">
         <v>1646</v>
-      </c>
-      <c r="C863" s="0" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B864" s="0" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C864" s="0" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16205,23 +16229,23 @@
         <v>1710</v>
       </c>
       <c r="C896" s="0" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B897" s="0" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C897" s="0" t="s">
-        <v>1691</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B898" s="0" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C898" s="0" t="s">
-        <v>1713</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16389,31 +16413,31 @@
         <v>1754</v>
       </c>
       <c r="C919" s="0" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B920" s="0" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C920" s="0" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B921" s="0" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C921" s="0" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B922" s="0" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C922" s="0" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16605,28 +16629,28 @@
         <v>1807</v>
       </c>
       <c r="C946" s="0" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B947" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C947" s="0" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B948" s="0" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C948" s="0" t="s">
-        <v>1739</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B949" s="0" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>1812</v>
@@ -16634,18 +16658,18 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B950" s="0" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C950" s="0" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B951" s="0" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C951" s="0" t="s">
-        <v>1816</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16917,31 +16941,31 @@
         <v>1883</v>
       </c>
       <c r="C985" s="0" t="s">
-        <v>325</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B986" s="0" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="C986" s="0" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B987" s="0" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="C987" s="0" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B988" s="0" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="C988" s="0" t="s">
-        <v>1888</v>
+        <v>327</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16965,31 +16989,31 @@
         <v>1893</v>
       </c>
       <c r="C991" s="0" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B992" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C992" s="0" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B993" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C993" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B994" s="0" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C994" s="0" t="s">
         <v>1898</v>
-      </c>
-      <c r="C994" s="0" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17093,39 +17117,39 @@
         <v>1924</v>
       </c>
       <c r="C1007" s="0" t="s">
-        <v>102</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1008" s="0" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C1008" s="0" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1009" s="0" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C1009" s="0" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1010" s="0" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C1010" s="0" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1011" s="0" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C1011" s="0" t="s">
-        <v>1932</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17149,36 +17173,36 @@
         <v>1937</v>
       </c>
       <c r="C1014" s="0" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1015" s="0" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C1015" s="0" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1016" s="0" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C1016" s="0" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1017" s="0" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C1017" s="0" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1018" s="0" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C1018" s="0" t="s">
         <v>1945</v>
@@ -17274,58 +17298,58 @@
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1030" s="0" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="C1030" s="0" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1031" s="0" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="C1031" s="0" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1032" s="0" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="C1032" s="0" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1033" s="0" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="C1033" s="0" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1034" s="0" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C1034" s="0" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1035" s="0" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C1035" s="0" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1036" s="0" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C1036" s="0" t="s">
         <v>1977</v>
-      </c>
-      <c r="C1036" s="0" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17389,55 +17413,55 @@
         <v>1993</v>
       </c>
       <c r="C1044" s="0" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1045" s="0" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C1045" s="0" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1046" s="0" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C1046" s="0" t="s">
-        <v>1316</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1047" s="0" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C1047" s="0" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1048" s="0" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="C1048" s="0" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1049" s="0" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C1049" s="0" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1050" s="0" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C1050" s="0" t="s">
-        <v>2004</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17445,39 +17469,39 @@
         <v>2005</v>
       </c>
       <c r="C1051" s="0" t="s">
-        <v>1458</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1052" s="0" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C1052" s="0" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1053" s="0" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C1053" s="0" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1054" s="0" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C1054" s="0" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1055" s="0" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C1055" s="0" t="s">
-        <v>2013</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17501,36 +17525,36 @@
         <v>2018</v>
       </c>
       <c r="C1058" s="0" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1059" s="0" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1059" s="0" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1060" s="0" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1060" s="0" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1061" s="0" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C1061" s="0" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1062" s="0" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="C1062" s="0" t="s">
         <v>2025</v>
@@ -17538,26 +17562,26 @@
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1063" s="0" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C1063" s="0" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1064" s="0" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C1064" s="0" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1065" s="0" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C1065" s="0" t="s">
         <v>2030</v>
-      </c>
-      <c r="C1065" s="0" t="s">
-        <v>2031</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17565,39 +17589,39 @@
         <v>2032</v>
       </c>
       <c r="C1066" s="0" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1067" s="0" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C1067" s="0" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1068" s="0" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C1068" s="0" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1069" s="0" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C1069" s="0" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1070" s="0" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C1070" s="0" t="s">
         <v>2039</v>
-      </c>
-      <c r="C1070" s="0" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17765,39 +17789,39 @@
         <v>2081</v>
       </c>
       <c r="C1091" s="0" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1092" s="0" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="C1092" s="0" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1093" s="0" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="C1093" s="0" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1094" s="0" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C1094" s="0" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1095" s="0" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1095" s="0" t="s">
         <v>2088</v>
-      </c>
-      <c r="C1095" s="0" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17834,50 +17858,50 @@
     </row>
     <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1100" s="0" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="C1100" s="0" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1101" s="0" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="C1101" s="0" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1102" s="0" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="C1102" s="0" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1103" s="0" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="C1103" s="0" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1104" s="0" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="C1104" s="0" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1105" s="0" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="C1105" s="0" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17893,84 +17917,84 @@
         <v>2108</v>
       </c>
       <c r="C1107" s="0" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1108" s="0" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="C1108" s="0" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1109" s="0" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="C1109" s="0" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1110" s="0" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="C1110" s="0" t="s">
-        <v>1535</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1111" s="0" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="C1111" s="0" t="s">
-        <v>1535</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1112" s="0" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="C1112" s="0" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1113" s="0" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="C1113" s="0" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1114" s="0" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="C1114" s="0" t="s">
-        <v>2118</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1115" s="0" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="C1115" s="0" t="s">
-        <v>2118</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1116" s="0" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="C1116" s="0" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1117" s="0" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="C1117" s="0" t="s">
         <v>2123</v>
@@ -17978,18 +18002,18 @@
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1118" s="0" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="C1118" s="0" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1119" s="0" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C1119" s="0" t="s">
         <v>2126</v>
-      </c>
-      <c r="C1119" s="0" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17997,39 +18021,39 @@
         <v>2128</v>
       </c>
       <c r="C1120" s="0" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1121" s="0" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="C1121" s="0" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1122" s="0" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="C1122" s="0" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1123" s="0" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="C1123" s="0" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1124" s="0" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C1124" s="0" t="s">
         <v>2135</v>
-      </c>
-      <c r="C1124" s="0" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18077,39 +18101,39 @@
         <v>2147</v>
       </c>
       <c r="C1130" s="0" t="s">
-        <v>160</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1131" s="0" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="C1131" s="0" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1132" s="0" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="C1132" s="0" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1133" s="0" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C1133" s="0" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1134" s="0" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="C1134" s="0" t="s">
-        <v>2155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18293,39 +18317,39 @@
         <v>2200</v>
       </c>
       <c r="C1157" s="0" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1158" s="0" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="C1158" s="0" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1159" s="0" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C1159" s="0" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1160" s="0" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="C1160" s="0" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1161" s="0" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C1161" s="0" t="s">
         <v>2207</v>
-      </c>
-      <c r="C1161" s="0" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18605,63 +18629,63 @@
         <v>2277</v>
       </c>
       <c r="C1196" s="0" t="s">
-        <v>168</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1197" s="0" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="C1197" s="0" t="s">
-        <v>788</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1198" s="0" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="C1198" s="0" t="s">
-        <v>1410</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1199" s="0" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="C1199" s="0" t="s">
-        <v>191</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1200" s="0" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
       <c r="C1200" s="0" t="s">
-        <v>2282</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1201" s="0" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="C1201" s="0" t="s">
-        <v>2284</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1202" s="0" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="C1202" s="0" t="s">
-        <v>2286</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1203" s="0" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="C1203" s="0" t="s">
-        <v>2288</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18709,39 +18733,39 @@
         <v>2299</v>
       </c>
       <c r="C1209" s="0" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1210" s="0" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="C1210" s="0" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1211" s="0" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="C1211" s="0" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1212" s="0" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="C1212" s="0" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1213" s="0" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1213" s="0" t="s">
         <v>2306</v>
-      </c>
-      <c r="C1213" s="0" t="s">
-        <v>2307</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18757,47 +18781,47 @@
         <v>2310</v>
       </c>
       <c r="C1215" s="0" t="s">
-        <v>2294</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1216" s="0" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="C1216" s="0" t="s">
-        <v>2298</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1217" s="0" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="C1217" s="0" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1218" s="0" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="C1218" s="0" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1219" s="0" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="C1219" s="0" t="s">
-        <v>2317</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1220" s="0" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="C1220" s="0" t="s">
-        <v>2319</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18845,71 +18869,71 @@
         <v>2330</v>
       </c>
       <c r="C1226" s="0" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1227" s="0" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="C1227" s="0" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1228" s="0" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="C1228" s="0" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1229" s="0" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="C1229" s="0" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1230" s="0" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C1230" s="0" t="s">
         <v>2337</v>
-      </c>
-      <c r="C1230" s="0" t="s">
-        <v>2336</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1231" s="0" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="C1231" s="0" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1232" s="0" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="C1232" s="0" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1233" s="0" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="C1233" s="0" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1234" s="0" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C1234" s="0" t="s">
         <v>2344</v>
-      </c>
-      <c r="C1234" s="0" t="s">
-        <v>2345</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18949,39 +18973,39 @@
         <v>2354</v>
       </c>
       <c r="C1239" s="0" t="s">
-        <v>1312</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1240" s="0" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C1240" s="0" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1241" s="0" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="C1241" s="0" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1242" s="0" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="C1242" s="0" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1243" s="0" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="C1243" s="0" t="s">
-        <v>2362</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19061,39 +19085,39 @@
         <v>2381</v>
       </c>
       <c r="C1253" s="0" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1254" s="0" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="C1254" s="0" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1255" s="0" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="C1255" s="0" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1256" s="0" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="C1256" s="0" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1257" s="0" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C1257" s="0" t="s">
         <v>2388</v>
-      </c>
-      <c r="C1257" s="0" t="s">
-        <v>2389</v>
       </c>
     </row>
     <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19125,39 +19149,39 @@
         <v>2396</v>
       </c>
       <c r="C1261" s="0" t="s">
-        <v>797</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1262" s="0" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="C1262" s="0" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1263" s="0" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="C1263" s="0" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1264" s="0" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="C1264" s="0" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1265" s="0" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="C1265" s="0" t="s">
-        <v>2404</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19197,39 +19221,39 @@
         <v>2413</v>
       </c>
       <c r="C1270" s="0" t="s">
-        <v>974</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1271" s="0" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="C1271" s="0" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1272" s="0" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="C1272" s="0" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1273" s="0" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="C1273" s="0" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1274" s="0" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="C1274" s="0" t="s">
-        <v>2421</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19309,21 +19333,18 @@
         <v>2440</v>
       </c>
       <c r="C1284" s="0" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1285" s="0" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="C1285" s="0" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1286" s="0" t="s">
-        <v>2443</v>
-      </c>
       <c r="B1286" s="0" t="s">
         <v>2444</v>
       </c>
@@ -19333,18 +19354,18 @@
     </row>
     <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1287" s="0" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="C1287" s="0" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1288" s="0" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C1288" s="0" t="s">
         <v>2447</v>
-      </c>
-      <c r="C1288" s="0" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19356,16 +19377,19 @@
       </c>
     </row>
     <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1290" s="0" t="s">
+        <v>2451</v>
+      </c>
       <c r="B1290" s="0" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="C1290" s="0" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1291" s="0" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="C1291" s="0" t="s">
         <v>2454</v>
@@ -19392,39 +19416,39 @@
         <v>2459</v>
       </c>
       <c r="C1294" s="0" t="s">
-        <v>1606</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1295" s="0" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="C1295" s="0" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1296" s="0" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="C1296" s="0" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1297" s="0" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="C1297" s="0" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1298" s="0" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="C1298" s="0" t="s">
-        <v>2467</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19440,47 +19464,47 @@
         <v>2470</v>
       </c>
       <c r="C1300" s="0" t="s">
-        <v>1838</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1301" s="0" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="C1301" s="0" t="s">
-        <v>1846</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1302" s="0" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="C1302" s="0" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1303" s="0" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="C1303" s="0" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1304" s="0" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="C1304" s="0" t="s">
-        <v>2477</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1305" s="0" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="C1305" s="0" t="s">
-        <v>2479</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19496,39 +19520,39 @@
         <v>2482</v>
       </c>
       <c r="C1307" s="0" t="s">
-        <v>1986</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1308" s="0" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="C1308" s="0" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1309" s="0" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="C1309" s="0" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1310" s="0" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="C1310" s="0" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1311" s="0" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="C1311" s="0" t="s">
-        <v>2490</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19576,55 +19600,55 @@
         <v>2501</v>
       </c>
       <c r="C1317" s="0" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1318" s="0" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="C1318" s="0" t="s">
-        <v>1310</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1319" s="0" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="C1319" s="0" t="s">
-        <v>803</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1320" s="0" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
       <c r="C1320" s="0" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1321" s="0" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C1321" s="0" t="s">
         <v>2506</v>
-      </c>
-      <c r="C1321" s="0" t="s">
-        <v>2507</v>
       </c>
     </row>
     <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1322" s="0" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="C1322" s="0" t="s">
-        <v>2509</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1323" s="0" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="C1323" s="0" t="s">
-        <v>2511</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19632,39 +19656,39 @@
         <v>2512</v>
       </c>
       <c r="C1324" s="0" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1325" s="0" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="C1325" s="0" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1326" s="0" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="C1326" s="0" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1327" s="0" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="C1327" s="0" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1328" s="0" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C1328" s="0" t="s">
         <v>2519</v>
-      </c>
-      <c r="C1328" s="0" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19672,13 +19696,10 @@
         <v>2521</v>
       </c>
       <c r="C1329" s="0" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1330" s="0" t="s">
-        <v>2522</v>
-      </c>
       <c r="B1330" s="0" t="s">
         <v>2523</v>
       </c>
@@ -19688,39 +19709,42 @@
     </row>
     <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1331" s="0" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="C1331" s="0" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1332" s="0" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="C1332" s="0" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1333" s="0" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C1333" s="0" t="s">
         <v>2528</v>
       </c>
-      <c r="C1333" s="0" t="s">
-        <v>2529</v>
-      </c>
     </row>
     <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1334" s="0" t="s">
+        <v>2530</v>
+      </c>
       <c r="B1334" s="0" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="C1334" s="0" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1335" s="0" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="C1335" s="0" t="s">
         <v>2533</v>
@@ -19763,47 +19787,47 @@
         <v>2542</v>
       </c>
       <c r="C1340" s="0" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1341" s="0" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="C1341" s="0" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1342" s="0" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="C1342" s="0" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1343" s="0" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="C1343" s="0" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1344" s="0" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="C1344" s="0" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1345" s="0" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="C1345" s="0" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19931,39 +19955,39 @@
         <v>2581</v>
       </c>
       <c r="C1361" s="0" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1362" s="0" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="C1362" s="0" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1363" s="0" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="C1363" s="0" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1364" s="0" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="C1364" s="0" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1365" s="0" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1365" s="0" t="s">
         <v>2588</v>
-      </c>
-      <c r="C1365" s="0" t="s">
-        <v>2589</v>
       </c>
     </row>
     <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19995,47 +20019,47 @@
         <v>2596</v>
       </c>
       <c r="C1369" s="0" t="s">
-        <v>2101</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1370" s="0" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="C1370" s="0" t="s">
-        <v>207</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1371" s="0" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="C1371" s="0" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1372" s="0" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="C1372" s="0" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1373" s="0" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="C1373" s="0" t="s">
-        <v>2603</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1374" s="0" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="C1374" s="0" t="s">
-        <v>2605</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20072,39 +20096,39 @@
     </row>
     <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1379" s="0" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="C1379" s="0" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1380" s="0" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="C1380" s="0" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1381" s="0" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="C1381" s="0" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1382" s="0" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="C1382" s="0" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1383" s="0" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C1383" s="0" t="s">
         <v>2622</v>
@@ -20123,55 +20147,55 @@
         <v>2625</v>
       </c>
       <c r="C1385" s="0" t="s">
-        <v>229</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1386" s="0" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="C1386" s="0" t="s">
-        <v>321</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1387" s="0" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="C1387" s="0" t="s">
-        <v>1453</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1388" s="0" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="C1388" s="0" t="s">
-        <v>2629</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1389" s="0" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="C1389" s="0" t="s">
-        <v>2631</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1390" s="0" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="C1390" s="0" t="s">
-        <v>2633</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1391" s="0" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="C1391" s="0" t="s">
-        <v>2635</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20187,39 +20211,39 @@
         <v>2638</v>
       </c>
       <c r="C1393" s="0" t="s">
-        <v>1601</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1394" s="0" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="C1394" s="0" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1395" s="0" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="C1395" s="0" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1396" s="0" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="C1396" s="0" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1397" s="0" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="C1397" s="0" t="s">
-        <v>2646</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20283,36 +20307,36 @@
         <v>2661</v>
       </c>
       <c r="C1405" s="0" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1406" s="0" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="C1406" s="0" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1407" s="0" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="C1407" s="0" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1408" s="0" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="C1408" s="0" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="1409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1409" s="0" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="C1409" s="0" t="s">
         <v>2668</v>
@@ -20320,82 +20344,82 @@
     </row>
     <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1410" s="0" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="C1410" s="0" t="s">
-        <v>1468</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1411" s="0" t="s">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c r="C1411" s="0" t="s">
-        <v>1470</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1412" s="0" t="s">
-        <v>2671</v>
+        <v>2674</v>
       </c>
       <c r="C1412" s="0" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1413" s="0" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
       <c r="C1413" s="0" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1414" s="0" t="s">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="C1414" s="0" t="s">
-        <v>2674</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1415" s="0" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
       <c r="C1415" s="0" t="s">
-        <v>2674</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1416" s="0" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="C1416" s="0" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1417" s="0" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="C1417" s="0" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1418" s="0" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="C1418" s="0" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1419" s="0" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C1419" s="0" t="s">
         <v>2682</v>
-      </c>
-      <c r="C1419" s="0" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="1420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20403,39 +20427,39 @@
         <v>2684</v>
       </c>
       <c r="C1420" s="0" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1421" s="0" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="C1421" s="0" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1422" s="0" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="C1422" s="0" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1423" s="0" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="C1423" s="0" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1424" s="0" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C1424" s="0" t="s">
         <v>2691</v>
-      </c>
-      <c r="C1424" s="0" t="s">
-        <v>2692</v>
       </c>
     </row>
     <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20467,39 +20491,39 @@
         <v>2699</v>
       </c>
       <c r="C1428" s="0" t="s">
-        <v>2620</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1429" s="0" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="C1429" s="0" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1430" s="0" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="C1430" s="0" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1431" s="0" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="C1431" s="0" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1432" s="0" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="C1432" s="0" t="s">
-        <v>2707</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20675,95 +20699,95 @@
         <v>2750</v>
       </c>
       <c r="C1454" s="0" t="s">
-        <v>954</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1455" s="0" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="C1455" s="0" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1456" s="0" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="C1456" s="0" t="s">
-        <v>1580</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1457" s="0" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="C1457" s="0" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1458" s="0" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="C1458" s="0" t="s">
-        <v>2757</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1459" s="0" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="C1459" s="0" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1460" s="0" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="C1460" s="0" t="s">
-        <v>2711</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1461" s="0" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="C1461" s="0" t="s">
-        <v>1233</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1462" s="0" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="C1462" s="0" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1463" s="0" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="C1463" s="0" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1464" s="0" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="C1464" s="0" t="s">
-        <v>2767</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1465" s="0" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="C1465" s="0" t="s">
-        <v>2769</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20779,111 +20803,111 @@
         <v>2772</v>
       </c>
       <c r="C1467" s="0" t="s">
-        <v>803</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1468" s="0" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="C1468" s="0" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1469" s="0" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="C1469" s="0" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1470" s="0" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="C1470" s="0" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1471" s="0" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="C1471" s="0" t="s">
-        <v>2780</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1472" s="0" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="C1472" s="0" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1473" s="0" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="C1473" s="0" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1474" s="0" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="C1474" s="0" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1475" s="0" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="C1475" s="0" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1476" s="0" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="C1476" s="0" t="s">
-        <v>229</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1477" s="0" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="C1477" s="0" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1478" s="0" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="C1478" s="0" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="1479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1479" s="0" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="C1479" s="0" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1480" s="0" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="C1480" s="0" t="s">
-        <v>2796</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20896,34 +20920,34 @@
     </row>
     <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1482" s="0" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="C1482" s="0" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1483" s="0" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="C1483" s="0" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1484" s="0" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="C1484" s="0" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1485" s="0" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="C1485" s="0" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20979,47 +21003,47 @@
         <v>2817</v>
       </c>
       <c r="C1492" s="0" t="s">
-        <v>2576</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1493" s="0" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="C1493" s="0" t="s">
-        <v>2618</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1494" s="0" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="C1494" s="0" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1495" s="0" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="C1495" s="0" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1496" s="0" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="C1496" s="0" t="s">
-        <v>2824</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1497" s="0" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="C1497" s="0" t="s">
-        <v>2826</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21051,132 +21075,132 @@
         <v>2833</v>
       </c>
       <c r="C1501" s="0" t="s">
-        <v>207</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1502" s="0" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="C1502" s="0" t="s">
-        <v>207</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1503" s="0" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="C1503" s="0" t="s">
-        <v>2832</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1504" s="0" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="C1504" s="0" t="s">
-        <v>2832</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1505" s="0" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="C1505" s="0" t="s">
-        <v>2832</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1506" s="0" t="s">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="C1506" s="0" t="s">
-        <v>2839</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1507" s="0" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C1507" s="0" t="s">
         <v>2840</v>
-      </c>
-      <c r="C1507" s="0" t="s">
-        <v>2841</v>
       </c>
     </row>
     <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1508" s="0" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="C1508" s="0" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1509" s="0" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
       <c r="C1509" s="0" t="s">
-        <v>2844</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1510" s="0" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="C1510" s="0" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1511" s="0" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="C1511" s="0" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1512" s="0" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="C1512" s="0" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1513" s="0" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="C1513" s="0" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1514" s="0" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="C1514" s="0" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1515" s="0" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="C1515" s="0" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1516" s="0" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="C1516" s="0" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1517" s="0" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="C1517" s="0" t="s">
         <v>2859</v>
@@ -21208,74 +21232,74 @@
     </row>
     <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1521" s="0" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="C1521" s="0" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1522" s="0" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="C1522" s="0" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1523" s="0" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="C1523" s="0" t="s">
-        <v>207</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="1524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1524" s="0" t="s">
-        <v>2869</v>
+        <v>2872</v>
       </c>
       <c r="C1524" s="0" t="s">
-        <v>2870</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="1525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1525" s="0" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="C1525" s="0" t="s">
-        <v>2537</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="1526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1526" s="0" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="C1526" s="0" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1527" s="0" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="C1527" s="0" t="s">
-        <v>2875</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1528" s="0" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="C1528" s="0" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1529" s="0" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="C1529" s="0" t="s">
-        <v>2879</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21299,52 +21323,52 @@
         <v>2884</v>
       </c>
       <c r="C1532" s="0" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1533" s="0" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="C1533" s="0" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1534" s="0" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="C1534" s="0" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1535" s="0" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="C1535" s="0" t="s">
-        <v>1383</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1536" s="0" t="s">
-        <v>2889</v>
+        <v>2892</v>
       </c>
       <c r="C1536" s="0" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1537" s="0" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="C1537" s="0" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1538" s="0" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
       <c r="C1538" s="0" t="s">
         <v>2894</v>
@@ -21352,10 +21376,10 @@
     </row>
     <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1539" s="0" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="C1539" s="0" t="s">
-        <v>2896</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21371,39 +21395,39 @@
         <v>2899</v>
       </c>
       <c r="C1541" s="0" t="s">
-        <v>769</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1542" s="0" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="C1542" s="0" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1543" s="0" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="C1543" s="0" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1544" s="0" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="C1544" s="0" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1545" s="0" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="C1545" s="0" t="s">
-        <v>2907</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21531,71 +21555,71 @@
         <v>2938</v>
       </c>
       <c r="C1561" s="0" t="s">
-        <v>999</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1562" s="0" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="C1562" s="0" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1563" s="0" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="C1563" s="0" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1564" s="0" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="C1564" s="0" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1565" s="0" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="C1565" s="0" t="s">
-        <v>14</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1566" s="0" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="C1566" s="0" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1567" s="0" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="C1567" s="0" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1568" s="0" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="C1568" s="0" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1569" s="0" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="C1569" s="0" t="s">
-        <v>2953</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21644,6 +21668,38 @@
       </c>
       <c r="C1575" s="0" t="s">
         <v>2965</v>
+      </c>
+    </row>
+    <row r="1576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1576" s="0" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C1576" s="0" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1577" s="0" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C1577" s="0" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1578" s="0" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C1578" s="0" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="1579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1579" s="0" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C1579" s="0" t="s">
+        <v>2973</v>
       </c>
     </row>
   </sheetData>

--- a/odoo_default_tnl.xlsx
+++ b/odoo_default_tnl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="2974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="2976">
   <si>
     <t xml:space="preserve">status</t>
   </si>
@@ -8234,6 +8234,12 @@
   </si>
   <si>
     <t xml:space="preserve">Totale IVA a debito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale dovuto</t>
   </si>
   <si>
     <t xml:space="preserve">Total in Company Currency</t>
@@ -9042,13 +9048,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1579"/>
+  <dimension ref="A1:C1580"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A995" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1008" activeCellId="0" sqref="C1008"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1574" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1580" activeCellId="0" sqref="A1:C1580"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.39"/>
@@ -20731,15 +20737,15 @@
         <v>2758</v>
       </c>
       <c r="C1458" s="0" t="s">
-        <v>956</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1459" s="0" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="C1459" s="0" t="s">
-        <v>2760</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20747,15 +20753,15 @@
         <v>2761</v>
       </c>
       <c r="C1460" s="0" t="s">
-        <v>1582</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1461" s="0" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="C1461" s="0" t="s">
-        <v>2763</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20779,23 +20785,23 @@
         <v>2768</v>
       </c>
       <c r="C1464" s="0" t="s">
-        <v>2719</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1465" s="0" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="C1465" s="0" t="s">
-        <v>1235</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1466" s="0" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="C1466" s="0" t="s">
-        <v>2771</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20835,15 +20841,15 @@
         <v>2780</v>
       </c>
       <c r="C1471" s="0" t="s">
-        <v>805</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1472" s="0" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="C1472" s="0" t="s">
-        <v>2782</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20872,15 +20878,15 @@
     </row>
     <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1476" s="0" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="C1476" s="0" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1477" s="0" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C1477" s="0" t="s">
         <v>2791</v>
@@ -20907,15 +20913,15 @@
         <v>2796</v>
       </c>
       <c r="C1480" s="0" t="s">
-        <v>231</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1481" s="0" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="C1481" s="0" t="s">
-        <v>2798</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20952,10 +20958,10 @@
     </row>
     <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1486" s="0" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="C1486" s="0" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21035,23 +21041,23 @@
         <v>2825</v>
       </c>
       <c r="C1496" s="0" t="s">
-        <v>2584</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1497" s="0" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="C1497" s="0" t="s">
-        <v>2626</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1498" s="0" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="C1498" s="0" t="s">
-        <v>2828</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21107,12 +21113,12 @@
         <v>2841</v>
       </c>
       <c r="C1505" s="0" t="s">
-        <v>207</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1506" s="0" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="C1506" s="0" t="s">
         <v>207</v>
@@ -21120,34 +21126,34 @@
     </row>
     <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1507" s="0" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="C1507" s="0" t="s">
-        <v>2840</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1508" s="0" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="C1508" s="0" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1509" s="0" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="C1509" s="0" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1510" s="0" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="C1510" s="0" t="s">
-        <v>2847</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21168,15 +21174,15 @@
     </row>
     <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1513" s="0" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="C1513" s="0" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1514" s="0" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="C1514" s="0" t="s">
         <v>2854</v>
@@ -21200,15 +21206,15 @@
     </row>
     <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1517" s="0" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="C1517" s="0" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1518" s="0" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="C1518" s="0" t="s">
         <v>2861</v>
@@ -21264,10 +21270,10 @@
     </row>
     <row r="1525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1525" s="0" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="C1525" s="0" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21283,15 +21289,15 @@
         <v>2876</v>
       </c>
       <c r="C1527" s="0" t="s">
-        <v>207</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1528" s="0" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="C1528" s="0" t="s">
-        <v>2878</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21299,15 +21305,15 @@
         <v>2879</v>
       </c>
       <c r="C1529" s="0" t="s">
-        <v>2545</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1530" s="0" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="C1530" s="0" t="s">
-        <v>2881</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21355,12 +21361,12 @@
         <v>2892</v>
       </c>
       <c r="C1536" s="0" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1537" s="0" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="C1537" s="0" t="s">
         <v>2894</v>
@@ -21371,23 +21377,23 @@
         <v>2895</v>
       </c>
       <c r="C1538" s="0" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1539" s="0" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C1539" s="0" t="s">
         <v>2896</v>
-      </c>
-      <c r="C1539" s="0" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="1540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1540" s="0" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C1540" s="0" t="s">
-        <v>2898</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21427,15 +21433,15 @@
         <v>2907</v>
       </c>
       <c r="C1545" s="0" t="s">
-        <v>771</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1546" s="0" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="C1546" s="0" t="s">
-        <v>2909</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21587,15 +21593,15 @@
         <v>2946</v>
       </c>
       <c r="C1565" s="0" t="s">
-        <v>1001</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1566" s="0" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="C1566" s="0" t="s">
-        <v>2948</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21619,15 +21625,15 @@
         <v>2953</v>
       </c>
       <c r="C1569" s="0" t="s">
-        <v>14</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1570" s="0" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="C1570" s="0" t="s">
-        <v>2955</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21700,6 +21706,14 @@
       </c>
       <c r="C1579" s="0" t="s">
         <v>2973</v>
+      </c>
+    </row>
+    <row r="1580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1580" s="0" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1580" s="0" t="s">
+        <v>2975</v>
       </c>
     </row>
   </sheetData>

--- a/odoo_default_tnl.xlsx
+++ b/odoo_default_tnl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="2976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="2995">
   <si>
     <t xml:space="preserve">status</t>
   </si>
@@ -844,12 +844,30 @@
     <t xml:space="preserve">Allegato generato tramite Esporta Fattura Elettronica</t>
   </si>
   <si>
+    <t xml:space="preserve">Attachment Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome allegato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL allegato</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attachment without name</t>
   </si>
   <si>
     <t xml:space="preserve">Allegato senza nome</t>
   </si>
   <si>
+    <t xml:space="preserve">Attachments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allegati</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attendees</t>
   </si>
   <si>
@@ -1732,6 +1750,12 @@
     <t xml:space="preserve">Contatti</t>
   </si>
   <si>
+    <t xml:space="preserve">Content Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo di contenuto</t>
+  </si>
+  <si>
     <t xml:space="preserve">contiene stampa fattura in pdf</t>
   </si>
   <si>
@@ -1795,6 +1819,12 @@
     <t xml:space="preserve">Nazione non impostata per %s</t>
   </si>
   <si>
+    <t xml:space="preserve">Country is not set for %s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazione non impostata per %s.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Country not set</t>
   </si>
   <si>
@@ -3607,6 +3637,18 @@
     <t xml:space="preserve">Il file è già collegato alle fatture.</t>
   </si>
   <si>
+    <t xml:space="preserve">File Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensione file</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filter partners</t>
   </si>
   <si>
@@ -3619,6 +3661,12 @@
     <t xml:space="preserve">Rapporti finanziari</t>
   </si>
   <si>
+    <t xml:space="preserve">Fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiscale</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fiscal Document Type</t>
   </si>
   <si>
@@ -4273,6 +4321,12 @@
     <t xml:space="preserve">Righe fatture</t>
   </si>
   <si>
+    <t xml:space="preserve">Invoice Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero fattura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Invoice paid</t>
   </si>
   <si>
@@ -4307,6 +4361,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fatturato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoices</t>
   </si>
   <si>
     <t xml:space="preserve">Invoices from DDT</t>
@@ -9048,13 +9105,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1580"/>
+  <dimension ref="A1:C1590"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1574" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1580" activeCellId="0" sqref="A1:C1580"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.39"/>
@@ -10381,31 +10438,31 @@
         <v>328</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>96</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>334</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10613,31 +10670,31 @@
         <v>385</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C197" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10917,28 +10974,28 @@
         <v>460</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>465</v>
@@ -10946,18 +11003,18 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C237" s="0" t="s">
         <v>468</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10989,31 +11046,31 @@
         <v>476</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C244" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,31 +11102,31 @@
         <v>489</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11269,47 +11326,47 @@
         <v>544</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11325,31 +11382,31 @@
         <v>555</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="C286" s="0" t="s">
         <v>560</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11445,39 +11502,39 @@
         <v>584</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="C302" s="0" t="s">
         <v>591</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11781,47 +11838,47 @@
         <v>667</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="C345" s="0" t="s">
         <v>676</v>
-      </c>
-      <c r="C345" s="0" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11933,47 +11990,47 @@
         <v>704</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="C364" s="0" t="s">
         <v>713</v>
-      </c>
-      <c r="C364" s="0" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11989,44 +12046,44 @@
         <v>717</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C371" s="0" t="s">
         <v>726</v>
@@ -12034,26 +12091,26 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="C374" s="0" t="s">
         <v>731</v>
-      </c>
-      <c r="C374" s="0" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12097,54 +12154,54 @@
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
+      <c r="B380" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="B380" s="0" t="s">
+      <c r="C380" s="0" t="s">
         <v>744</v>
-      </c>
-      <c r="C380" s="0" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>509</v>
+        <v>746</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>753</v>
+      </c>
       <c r="B385" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12152,7 +12209,7 @@
         <v>754</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>755</v>
+        <v>515</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12224,52 +12281,52 @@
         <v>772</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="0" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="0" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="0" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="0" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>781</v>
@@ -12277,10 +12334,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12288,87 +12345,87 @@
         <v>784</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="C408" s="0" t="s">
         <v>793</v>
-      </c>
-      <c r="C408" s="0" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="C413" s="0" t="s">
         <v>802</v>
-      </c>
-      <c r="C413" s="0" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12652,19 +12709,16 @@
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
+      <c r="B449" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="B449" s="0" t="s">
+      <c r="C449" s="0" t="s">
         <v>875</v>
-      </c>
-      <c r="C449" s="0" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C450" s="0" t="s">
         <v>877</v>
@@ -12695,16 +12749,19 @@
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>884</v>
+      </c>
       <c r="B454" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C454" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="0" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C455" s="0" t="s">
         <v>887</v>
@@ -12803,47 +12860,47 @@
         <v>910</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C468" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C469" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C470" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B471" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C471" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="C472" s="0" t="s">
         <v>919</v>
-      </c>
-      <c r="C472" s="0" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12963,44 +13020,44 @@
         <v>949</v>
       </c>
       <c r="C487" s="0" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C489" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C490" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C491" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C492" s="0" t="s">
         <v>958</v>
@@ -13008,10 +13065,10 @@
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C493" s="0" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13155,47 +13212,47 @@
         <v>995</v>
       </c>
       <c r="C511" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B512" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B513" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B515" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B516" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C516" s="0" t="s">
         <v>1004</v>
-      </c>
-      <c r="C516" s="0" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13243,47 +13300,47 @@
         <v>1016</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C523" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B524" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B525" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B526" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B527" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C527" s="0" t="s">
         <v>1025</v>
-      </c>
-      <c r="C527" s="0" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13363,47 +13420,47 @@
         <v>1045</v>
       </c>
       <c r="C537" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B538" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B539" s="0" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B540" s="0" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B541" s="0" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B542" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C542" s="0" t="s">
         <v>1054</v>
-      </c>
-      <c r="C542" s="0" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13443,47 +13500,47 @@
         <v>1064</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B548" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B549" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B550" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B551" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B552" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13507,47 +13564,47 @@
         <v>1079</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>1053</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B556" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B557" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B558" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B559" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>1089</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13611,47 +13668,47 @@
         <v>1104</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>397</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B569" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B570" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B571" s="0" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B572" s="0" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B573" s="0" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1114</v>
+        <v>403</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13739,47 +13796,47 @@
         <v>1135</v>
       </c>
       <c r="C584" s="0" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B585" s="0" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B586" s="0" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B587" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C587" s="0" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B588" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B589" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C589" s="0" t="s">
         <v>1144</v>
-      </c>
-      <c r="C589" s="0" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13819,44 +13876,44 @@
         <v>1154</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B595" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C595" s="0" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B596" s="0" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B597" s="0" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>1022</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B598" s="0" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B599" s="0" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C599" s="0" t="s">
         <v>1163</v>
@@ -13864,82 +13921,82 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B600" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B601" s="0" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B602" s="0" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1167</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B603" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C603" s="0" t="s">
-        <v>1049</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B604" s="0" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1051</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B605" s="0" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B606" s="0" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B607" s="0" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B608" s="0" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C608" s="0" t="s">
-        <v>1178</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B609" s="0" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>1180</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14123,71 +14180,71 @@
         <v>1225</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B633" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B634" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B635" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B636" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B637" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B638" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B639" s="0" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B640" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C640" s="0" t="s">
         <v>1240</v>
-      </c>
-      <c r="C640" s="0" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14267,135 +14324,135 @@
         <v>1260</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B651" s="0" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B652" s="0" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B653" s="0" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B654" s="0" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B655" s="0" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B656" s="0" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B657" s="0" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C658" s="0" t="s">
         <v>1275</v>
-      </c>
-      <c r="C658" s="0" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B661" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B662" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B663" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B664" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B665" s="0" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B666" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>1291</v>
+        <v>919</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14419,71 +14476,71 @@
         <v>1296</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>571</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B670" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B671" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B672" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B673" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B674" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B675" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C675" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B676" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B677" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>1312</v>
+        <v>579</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14499,79 +14556,79 @@
         <v>1315</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B680" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>783</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B681" s="0" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B682" s="0" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B683" s="0" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C683" s="0" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B684" s="0" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B685" s="0" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B686" s="0" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B687" s="0" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B688" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>1332</v>
+        <v>793</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14579,95 +14636,95 @@
         <v>1333</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>1063</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B690" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B691" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>636</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B692" s="0" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>811</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B693" s="0" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="C693" s="0" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B694" s="0" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="C694" s="0" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B695" s="0" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B696" s="0" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="C696" s="0" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B697" s="0" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="C697" s="0" t="s">
-        <v>1347</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B698" s="0" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B699" s="0" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C699" s="0" t="s">
-        <v>1351</v>
+        <v>646</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B700" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C700" s="0" t="s">
-        <v>1353</v>
+        <v>821</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14691,76 +14748,76 @@
         <v>1358</v>
       </c>
       <c r="C703" s="0" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B704" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B705" s="0" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B706" s="0" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="C706" s="0" t="s">
-        <v>189</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B707" s="0" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B708" s="0" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="C708" s="0" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B709" s="0" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B710" s="0" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B711" s="0" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B712" s="0" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="C712" s="0" t="s">
         <v>1373</v>
@@ -14768,34 +14825,34 @@
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B713" s="0" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B714" s="0" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>1377</v>
+        <v>189</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B715" s="0" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C715" s="0" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B716" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C716" s="0" t="s">
         <v>1380</v>
-      </c>
-      <c r="C716" s="0" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14835,71 +14892,71 @@
         <v>1390</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>96</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B722" s="0" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C722" s="0" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B723" s="0" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C723" s="0" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B724" s="0" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C724" s="0" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B725" s="0" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B726" s="0" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C726" s="0" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B727" s="0" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C727" s="0" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B728" s="0" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C728" s="0" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B729" s="0" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C729" s="0" t="s">
-        <v>1406</v>
+        <v>96</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15035,151 +15092,151 @@
         <v>1439</v>
       </c>
       <c r="C746" s="0" t="s">
-        <v>112</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B747" s="0" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C747" s="0" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B748" s="0" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C748" s="0" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B749" s="0" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C749" s="0" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B750" s="0" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C750" s="0" t="s">
-        <v>1005</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B751" s="0" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C751" s="0" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B752" s="0" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C752" s="0" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B753" s="0" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C753" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B754" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C754" s="0" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B755" s="0" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C755" s="0" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B756" s="0" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C756" s="0" t="s">
-        <v>1457</v>
+        <v>112</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B757" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C757" s="0" t="s">
-        <v>114</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B758" s="0" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C758" s="0" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B759" s="0" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="C759" s="0" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B760" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C760" s="0" t="s">
-        <v>1464</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B761" s="0" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C761" s="0" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B762" s="0" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C762" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B763" s="0" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C763" s="0" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B764" s="0" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C764" s="0" t="s">
         <v>1471</v>
-      </c>
-      <c r="C764" s="0" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15203,39 +15260,39 @@
         <v>1477</v>
       </c>
       <c r="C767" s="0" t="s">
-        <v>1478</v>
+        <v>114</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B768" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C768" s="0" t="s">
         <v>1479</v>
-      </c>
-      <c r="C768" s="0" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B769" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C769" s="0" t="s">
         <v>1481</v>
-      </c>
-      <c r="C769" s="0" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B770" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C770" s="0" t="s">
         <v>1483</v>
-      </c>
-      <c r="C770" s="0" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B771" s="0" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C771" s="0" t="s">
         <v>1485</v>
-      </c>
-      <c r="C771" s="0" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15304,146 +15361,146 @@
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B780" s="0" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="C780" s="0" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B781" s="0" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="C781" s="0" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B782" s="0" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C782" s="0" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B783" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C783" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B784" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C784" s="0" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B785" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C785" s="0" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B786" s="0" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C786" s="0" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B787" s="0" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C787" s="0" t="s">
-        <v>1452</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B788" s="0" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="C788" s="0" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B789" s="0" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="C789" s="0" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B790" s="0" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C790" s="0" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B791" s="0" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C791" s="0" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B792" s="0" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C792" s="0" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B793" s="0" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C793" s="0" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B794" s="0" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C794" s="0" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B795" s="0" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C795" s="0" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B796" s="0" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C796" s="0" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B797" s="0" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C797" s="0" t="s">
-        <v>1533</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15459,111 +15516,111 @@
         <v>1536</v>
       </c>
       <c r="C799" s="0" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B800" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C800" s="0" t="s">
         <v>1538</v>
-      </c>
-      <c r="C800" s="0" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B801" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C801" s="0" t="s">
         <v>1540</v>
-      </c>
-      <c r="C801" s="0" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B802" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C802" s="0" t="s">
         <v>1542</v>
-      </c>
-      <c r="C802" s="0" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B803" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C803" s="0" t="s">
         <v>1544</v>
-      </c>
-      <c r="C803" s="0" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B804" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C804" s="0" t="s">
         <v>1546</v>
-      </c>
-      <c r="C804" s="0" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B805" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C805" s="0" t="s">
         <v>1548</v>
-      </c>
-      <c r="C805" s="0" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B806" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C806" s="0" t="s">
         <v>1550</v>
-      </c>
-      <c r="C806" s="0" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B807" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C807" s="0" t="s">
         <v>1552</v>
-      </c>
-      <c r="C807" s="0" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B808" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C808" s="0" t="s">
         <v>1554</v>
-      </c>
-      <c r="C808" s="0" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B809" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C809" s="0" t="s">
         <v>1556</v>
-      </c>
-      <c r="C809" s="0" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B810" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C810" s="0" t="s">
         <v>1558</v>
-      </c>
-      <c r="C810" s="0" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B811" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C811" s="0" t="s">
         <v>1560</v>
-      </c>
-      <c r="C811" s="0" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B812" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C812" s="0" t="s">
         <v>1562</v>
-      </c>
-      <c r="C812" s="0" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15643,15 +15700,15 @@
         <v>1581</v>
       </c>
       <c r="C822" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B823" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C823" s="0" t="s">
         <v>1583</v>
-      </c>
-      <c r="C823" s="0" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15691,364 +15748,364 @@
         <v>1592</v>
       </c>
       <c r="C828" s="0" t="s">
-        <v>1568</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B829" s="0" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C829" s="0" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B830" s="0" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C830" s="0" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B831" s="0" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C831" s="0" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B832" s="0" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C832" s="0" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B833" s="0" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C833" s="0" t="s">
         <v>1601</v>
-      </c>
-      <c r="C833" s="0" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B834" s="0" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C834" s="0" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B835" s="0" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C835" s="0" t="s">
-        <v>751</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B836" s="0" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C836" s="0" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B837" s="0" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="C837" s="0" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B838" s="0" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="C838" s="0" t="s">
-        <v>1608</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B839" s="0" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="C839" s="0" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B840" s="0" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="C840" s="0" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B841" s="0" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="C841" s="0" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B842" s="0" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="C842" s="0" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B843" s="0" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="C843" s="0" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B844" s="0" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C844" s="0" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B845" s="0" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="C845" s="0" t="s">
-        <v>1612</v>
+        <v>761</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B846" s="0" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="C846" s="0" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B847" s="0" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C847" s="0" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B848" s="0" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C848" s="0" t="s">
-        <v>1612</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B849" s="0" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="C849" s="0" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B850" s="0" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C850" s="0" t="s">
-        <v>897</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B851" s="0" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="C851" s="0" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B852" s="0" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="C852" s="0" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B853" s="0" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="C853" s="0" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B854" s="0" t="s">
-        <v>1631</v>
+        <v>1638</v>
       </c>
       <c r="C854" s="0" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B855" s="0" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="C855" s="0" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B856" s="0" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="C856" s="0" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B857" s="0" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="C857" s="0" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B858" s="0" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="C858" s="0" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B859" s="0" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="C859" s="0" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B860" s="0" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="C860" s="0" t="s">
-        <v>1644</v>
+        <v>907</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B861" s="0" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="C861" s="0" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B862" s="0" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="C862" s="0" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B863" s="0" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="C863" s="0" t="s">
-        <v>1646</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B864" s="0" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="C864" s="0" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B865" s="0" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="C865" s="0" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B866" s="0" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="C866" s="0" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B867" s="0" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="C867" s="0" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B868" s="0" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="C868" s="0" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B869" s="0" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="C869" s="0" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B870" s="0" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="C870" s="0" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B871" s="0" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="C871" s="0" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B872" s="0" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C872" s="0" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B873" s="0" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>1665</v>
@@ -16056,194 +16113,194 @@
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B874" s="0" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C874" s="0" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B875" s="0" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C875" s="0" t="s">
         <v>1668</v>
-      </c>
-      <c r="C875" s="0" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B876" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C876" s="0" t="s">
         <v>1670</v>
-      </c>
-      <c r="C876" s="0" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B877" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C877" s="0" t="s">
         <v>1672</v>
-      </c>
-      <c r="C877" s="0" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B878" s="0" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C878" s="0" t="s">
         <v>1674</v>
-      </c>
-      <c r="C878" s="0" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B879" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C879" s="0" t="s">
         <v>1676</v>
-      </c>
-      <c r="C879" s="0" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B880" s="0" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C880" s="0" t="s">
         <v>1678</v>
-      </c>
-      <c r="C880" s="0" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B881" s="0" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C881" s="0" t="s">
         <v>1680</v>
-      </c>
-      <c r="C881" s="0" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B882" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C882" s="0" t="s">
         <v>1682</v>
-      </c>
-      <c r="C882" s="0" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B883" s="0" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C883" s="0" t="s">
         <v>1684</v>
-      </c>
-      <c r="C883" s="0" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B884" s="0" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C884" s="0" t="s">
         <v>1686</v>
-      </c>
-      <c r="C884" s="0" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B885" s="0" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C885" s="0" t="s">
         <v>1688</v>
-      </c>
-      <c r="C885" s="0" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B886" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C886" s="0" t="s">
         <v>1690</v>
-      </c>
-      <c r="C886" s="0" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B887" s="0" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C887" s="0" t="s">
         <v>1692</v>
-      </c>
-      <c r="C887" s="0" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B888" s="0" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C888" s="0" t="s">
         <v>1694</v>
-      </c>
-      <c r="C888" s="0" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B889" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C889" s="0" t="s">
         <v>1696</v>
-      </c>
-      <c r="C889" s="0" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B890" s="0" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C890" s="0" t="s">
         <v>1698</v>
-      </c>
-      <c r="C890" s="0" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B891" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C891" s="0" t="s">
         <v>1700</v>
-      </c>
-      <c r="C891" s="0" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B892" s="0" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C892" s="0" t="s">
         <v>1702</v>
-      </c>
-      <c r="C892" s="0" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B893" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C893" s="0" t="s">
         <v>1704</v>
-      </c>
-      <c r="C893" s="0" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B894" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C894" s="0" t="s">
         <v>1706</v>
-      </c>
-      <c r="C894" s="0" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B895" s="0" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C895" s="0" t="s">
         <v>1708</v>
-      </c>
-      <c r="C895" s="0" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B896" s="0" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C896" s="0" t="s">
         <v>1710</v>
-      </c>
-      <c r="C896" s="0" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B897" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C897" s="0" t="s">
         <v>1712</v>
-      </c>
-      <c r="C897" s="0" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16251,79 +16308,79 @@
         <v>1713</v>
       </c>
       <c r="C898" s="0" t="s">
-        <v>1693</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B899" s="0" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C899" s="0" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B900" s="0" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C900" s="0" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B901" s="0" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C901" s="0" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B902" s="0" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C902" s="0" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B903" s="0" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C903" s="0" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B904" s="0" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C904" s="0" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B905" s="0" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C905" s="0" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B906" s="0" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C906" s="0" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B907" s="0" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C907" s="0" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16331,119 +16388,119 @@
         <v>1732</v>
       </c>
       <c r="C908" s="0" t="s">
-        <v>1733</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B909" s="0" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C909" s="0" t="s">
         <v>1734</v>
-      </c>
-      <c r="C909" s="0" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B910" s="0" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C910" s="0" t="s">
         <v>1736</v>
-      </c>
-      <c r="C910" s="0" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B911" s="0" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C911" s="0" t="s">
         <v>1738</v>
-      </c>
-      <c r="C911" s="0" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B912" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C912" s="0" t="s">
         <v>1740</v>
-      </c>
-      <c r="C912" s="0" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B913" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C913" s="0" t="s">
         <v>1742</v>
-      </c>
-      <c r="C913" s="0" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B914" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C914" s="0" t="s">
         <v>1744</v>
-      </c>
-      <c r="C914" s="0" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B915" s="0" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C915" s="0" t="s">
         <v>1746</v>
-      </c>
-      <c r="C915" s="0" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B916" s="0" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C916" s="0" t="s">
         <v>1748</v>
-      </c>
-      <c r="C916" s="0" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B917" s="0" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C917" s="0" t="s">
         <v>1750</v>
-      </c>
-      <c r="C917" s="0" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B918" s="0" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C918" s="0" t="s">
         <v>1752</v>
-      </c>
-      <c r="C918" s="0" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B919" s="0" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C919" s="0" t="s">
         <v>1754</v>
-      </c>
-      <c r="C919" s="0" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B920" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C920" s="0" t="s">
         <v>1756</v>
-      </c>
-      <c r="C920" s="0" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B921" s="0" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C921" s="0" t="s">
         <v>1758</v>
-      </c>
-      <c r="C921" s="0" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B922" s="0" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C922" s="0" t="s">
         <v>1760</v>
-      </c>
-      <c r="C922" s="0" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16523,143 +16580,143 @@
         <v>1779</v>
       </c>
       <c r="C932" s="0" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B933" s="0" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C933" s="0" t="s">
         <v>1781</v>
-      </c>
-      <c r="C933" s="0" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B934" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C934" s="0" t="s">
         <v>1783</v>
-      </c>
-      <c r="C934" s="0" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B935" s="0" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C935" s="0" t="s">
         <v>1785</v>
-      </c>
-      <c r="C935" s="0" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B936" s="0" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C936" s="0" t="s">
         <v>1787</v>
-      </c>
-      <c r="C936" s="0" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B937" s="0" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C937" s="0" t="s">
         <v>1789</v>
-      </c>
-      <c r="C937" s="0" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B938" s="0" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C938" s="0" t="s">
         <v>1791</v>
-      </c>
-      <c r="C938" s="0" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B939" s="0" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C939" s="0" t="s">
         <v>1793</v>
-      </c>
-      <c r="C939" s="0" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B940" s="0" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C940" s="0" t="s">
         <v>1795</v>
-      </c>
-      <c r="C940" s="0" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B941" s="0" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C941" s="0" t="s">
         <v>1797</v>
-      </c>
-      <c r="C941" s="0" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B942" s="0" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C942" s="0" t="s">
         <v>1799</v>
-      </c>
-      <c r="C942" s="0" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B943" s="0" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C943" s="0" t="s">
         <v>1801</v>
-      </c>
-      <c r="C943" s="0" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B944" s="0" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C944" s="0" t="s">
         <v>1803</v>
-      </c>
-      <c r="C944" s="0" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B945" s="0" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C945" s="0" t="s">
         <v>1805</v>
-      </c>
-      <c r="C945" s="0" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B946" s="0" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C946" s="0" t="s">
         <v>1807</v>
-      </c>
-      <c r="C946" s="0" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B947" s="0" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C947" s="0" t="s">
         <v>1809</v>
-      </c>
-      <c r="C947" s="0" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B948" s="0" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C948" s="0" t="s">
         <v>1811</v>
-      </c>
-      <c r="C948" s="0" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B949" s="0" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C949" s="0" t="s">
         <v>1813</v>
-      </c>
-      <c r="C949" s="0" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16675,71 +16732,71 @@
         <v>1816</v>
       </c>
       <c r="C951" s="0" t="s">
-        <v>1745</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B952" s="0" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C952" s="0" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B953" s="0" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C953" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B954" s="0" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C954" s="0" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B955" s="0" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C955" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B956" s="0" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C956" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B957" s="0" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C957" s="0" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B958" s="0" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C958" s="0" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B959" s="0" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C959" s="0" t="s">
         <v>1831</v>
-      </c>
-      <c r="C959" s="0" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16755,303 +16812,303 @@
         <v>1835</v>
       </c>
       <c r="C961" s="0" t="s">
-        <v>1836</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B962" s="0" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C962" s="0" t="s">
         <v>1837</v>
-      </c>
-      <c r="C962" s="0" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B963" s="0" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C963" s="0" t="s">
         <v>1839</v>
-      </c>
-      <c r="C963" s="0" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B964" s="0" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C964" s="0" t="s">
         <v>1841</v>
-      </c>
-      <c r="C964" s="0" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B965" s="0" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C965" s="0" t="s">
         <v>1843</v>
-      </c>
-      <c r="C965" s="0" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B966" s="0" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C966" s="0" t="s">
         <v>1845</v>
-      </c>
-      <c r="C966" s="0" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B967" s="0" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C967" s="0" t="s">
         <v>1847</v>
-      </c>
-      <c r="C967" s="0" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B968" s="0" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C968" s="0" t="s">
         <v>1849</v>
-      </c>
-      <c r="C968" s="0" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B969" s="0" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C969" s="0" t="s">
         <v>1851</v>
-      </c>
-      <c r="C969" s="0" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B970" s="0" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C970" s="0" t="s">
         <v>1853</v>
-      </c>
-      <c r="C970" s="0" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B971" s="0" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C971" s="0" t="s">
         <v>1855</v>
-      </c>
-      <c r="C971" s="0" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B972" s="0" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C972" s="0" t="s">
         <v>1857</v>
-      </c>
-      <c r="C972" s="0" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B973" s="0" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C973" s="0" t="s">
         <v>1859</v>
-      </c>
-      <c r="C973" s="0" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B974" s="0" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C974" s="0" t="s">
         <v>1861</v>
-      </c>
-      <c r="C974" s="0" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B975" s="0" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C975" s="0" t="s">
         <v>1863</v>
-      </c>
-      <c r="C975" s="0" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B976" s="0" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C976" s="0" t="s">
         <v>1865</v>
-      </c>
-      <c r="C976" s="0" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B977" s="0" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C977" s="0" t="s">
         <v>1867</v>
-      </c>
-      <c r="C977" s="0" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B978" s="0" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C978" s="0" t="s">
         <v>1869</v>
-      </c>
-      <c r="C978" s="0" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B979" s="0" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C979" s="0" t="s">
         <v>1871</v>
-      </c>
-      <c r="C979" s="0" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B980" s="0" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C980" s="0" t="s">
         <v>1873</v>
-      </c>
-      <c r="C980" s="0" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B981" s="0" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C981" s="0" t="s">
         <v>1875</v>
-      </c>
-      <c r="C981" s="0" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B982" s="0" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C982" s="0" t="s">
         <v>1877</v>
-      </c>
-      <c r="C982" s="0" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B983" s="0" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C983" s="0" t="s">
         <v>1879</v>
-      </c>
-      <c r="C983" s="0" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B984" s="0" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C984" s="0" t="s">
         <v>1881</v>
-      </c>
-      <c r="C984" s="0" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B985" s="0" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C985" s="0" t="s">
         <v>1883</v>
-      </c>
-      <c r="C985" s="0" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B986" s="0" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C986" s="0" t="s">
         <v>1885</v>
-      </c>
-      <c r="C986" s="0" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B987" s="0" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C987" s="0" t="s">
         <v>1887</v>
-      </c>
-      <c r="C987" s="0" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B988" s="0" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C988" s="0" t="s">
         <v>1889</v>
-      </c>
-      <c r="C988" s="0" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B989" s="0" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C989" s="0" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B990" s="0" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="C990" s="0" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B991" s="0" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C991" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B992" s="0" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C992" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B993" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C993" s="0" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B994" s="0" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C994" s="0" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B995" s="0" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="C995" s="0" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B996" s="0" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="C996" s="0" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B997" s="0" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="C997" s="0" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B998" s="0" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="C998" s="0" t="s">
-        <v>1907</v>
+        <v>333</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17099,63 +17156,63 @@
         <v>1918</v>
       </c>
       <c r="C1004" s="0" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1005" s="0" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C1005" s="0" t="s">
         <v>1920</v>
-      </c>
-      <c r="C1005" s="0" t="s">
-        <v>1921</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1006" s="0" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1006" s="0" t="s">
         <v>1922</v>
-      </c>
-      <c r="C1006" s="0" t="s">
-        <v>1923</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1007" s="0" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C1007" s="0" t="s">
         <v>1924</v>
-      </c>
-      <c r="C1007" s="0" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1008" s="0" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C1008" s="0" t="s">
         <v>1926</v>
-      </c>
-      <c r="C1008" s="0" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1009" s="0" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C1009" s="0" t="s">
         <v>1928</v>
-      </c>
-      <c r="C1009" s="0" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1010" s="0" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C1010" s="0" t="s">
         <v>1930</v>
-      </c>
-      <c r="C1010" s="0" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1011" s="0" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C1011" s="0" t="s">
         <v>1932</v>
-      </c>
-      <c r="C1011" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17211,31 +17268,31 @@
         <v>1945</v>
       </c>
       <c r="C1018" s="0" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1019" s="0" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C1019" s="0" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1020" s="0" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C1020" s="0" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1021" s="0" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C1021" s="0" t="s">
-        <v>1951</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17291,127 +17348,127 @@
         <v>1964</v>
       </c>
       <c r="C1028" s="0" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1029" s="0" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1029" s="0" t="s">
         <v>1966</v>
-      </c>
-      <c r="C1029" s="0" t="s">
-        <v>1967</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1030" s="0" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C1030" s="0" t="s">
         <v>1968</v>
-      </c>
-      <c r="C1030" s="0" t="s">
-        <v>1969</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1031" s="0" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1031" s="0" t="s">
         <v>1970</v>
-      </c>
-      <c r="C1031" s="0" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1032" s="0" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C1032" s="0" t="s">
         <v>1972</v>
-      </c>
-      <c r="C1032" s="0" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1033" s="0" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1033" s="0" t="s">
         <v>1974</v>
-      </c>
-      <c r="C1033" s="0" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1034" s="0" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="C1034" s="0" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1035" s="0" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C1035" s="0" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1036" s="0" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C1036" s="0" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1037" s="0" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="C1037" s="0" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1038" s="0" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="C1038" s="0" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1039" s="0" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="C1039" s="0" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1040" s="0" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="C1040" s="0" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1041" s="0" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="C1041" s="0" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1042" s="0" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="C1042" s="0" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1043" s="0" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="C1043" s="0" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17435,23 +17492,23 @@
         <v>1997</v>
       </c>
       <c r="C1046" s="0" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1047" s="0" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1047" s="0" t="s">
         <v>1999</v>
-      </c>
-      <c r="C1047" s="0" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1048" s="0" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1048" s="0" t="s">
         <v>2001</v>
-      </c>
-      <c r="C1048" s="0" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17467,87 +17524,87 @@
         <v>2004</v>
       </c>
       <c r="C1050" s="0" t="s">
-        <v>1318</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1051" s="0" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C1051" s="0" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1052" s="0" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C1052" s="0" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1053" s="0" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C1053" s="0" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1054" s="0" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C1054" s="0" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1055" s="0" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C1055" s="0" t="s">
-        <v>1460</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1056" s="0" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C1056" s="0" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1057" s="0" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C1057" s="0" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1058" s="0" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C1058" s="0" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1059" s="0" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1059" s="0" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1060" s="0" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1060" s="0" t="s">
-        <v>2023</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17563,84 +17620,84 @@
         <v>2026</v>
       </c>
       <c r="C1062" s="0" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1063" s="0" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C1063" s="0" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1064" s="0" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C1064" s="0" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1065" s="0" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="C1065" s="0" t="s">
-        <v>2030</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1066" s="0" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C1066" s="0" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1067" s="0" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="C1067" s="0" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1068" s="0" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C1068" s="0" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1069" s="0" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C1069" s="0" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1070" s="0" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C1070" s="0" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1071" s="0" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="C1071" s="0" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1072" s="0" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="C1072" s="0" t="s">
         <v>2044</v>
@@ -17648,26 +17705,26 @@
     </row>
     <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1073" s="0" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="C1073" s="0" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1074" s="0" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="C1074" s="0" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1075" s="0" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C1075" s="0" t="s">
         <v>2049</v>
-      </c>
-      <c r="C1075" s="0" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17707,127 +17764,127 @@
         <v>2059</v>
       </c>
       <c r="C1080" s="0" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1081" s="0" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1081" s="0" t="s">
         <v>2061</v>
-      </c>
-      <c r="C1081" s="0" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1082" s="0" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C1082" s="0" t="s">
         <v>2063</v>
-      </c>
-      <c r="C1082" s="0" t="s">
-        <v>2064</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1083" s="0" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C1083" s="0" t="s">
         <v>2065</v>
-      </c>
-      <c r="C1083" s="0" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1084" s="0" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1084" s="0" t="s">
         <v>2067</v>
-      </c>
-      <c r="C1084" s="0" t="s">
-        <v>2068</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1085" s="0" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1085" s="0" t="s">
         <v>2069</v>
-      </c>
-      <c r="C1085" s="0" t="s">
-        <v>2070</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1086" s="0" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1086" s="0" t="s">
         <v>2071</v>
-      </c>
-      <c r="C1086" s="0" t="s">
-        <v>2072</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1087" s="0" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1087" s="0" t="s">
         <v>2073</v>
-      </c>
-      <c r="C1087" s="0" t="s">
-        <v>2074</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1088" s="0" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1088" s="0" t="s">
         <v>2075</v>
-      </c>
-      <c r="C1088" s="0" t="s">
-        <v>2076</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1089" s="0" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1089" s="0" t="s">
         <v>2077</v>
-      </c>
-      <c r="C1089" s="0" t="s">
-        <v>2078</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1090" s="0" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1090" s="0" t="s">
         <v>2079</v>
-      </c>
-      <c r="C1090" s="0" t="s">
-        <v>2080</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1091" s="0" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1091" s="0" t="s">
         <v>2081</v>
-      </c>
-      <c r="C1091" s="0" t="s">
-        <v>2082</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1092" s="0" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1092" s="0" t="s">
         <v>2083</v>
-      </c>
-      <c r="C1092" s="0" t="s">
-        <v>2084</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1093" s="0" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1093" s="0" t="s">
         <v>2085</v>
-      </c>
-      <c r="C1093" s="0" t="s">
-        <v>2086</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1094" s="0" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1094" s="0" t="s">
         <v>2087</v>
-      </c>
-      <c r="C1094" s="0" t="s">
-        <v>2088</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1095" s="0" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1095" s="0" t="s">
         <v>2089</v>
-      </c>
-      <c r="C1095" s="0" t="s">
-        <v>2088</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17896,15 +17953,15 @@
     </row>
     <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1104" s="0" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="C1104" s="0" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1105" s="0" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="C1105" s="0" t="s">
         <v>2107</v>
@@ -17912,175 +17969,175 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1106" s="0" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="C1106" s="0" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1107" s="0" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="C1107" s="0" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1108" s="0" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="C1108" s="0" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1109" s="0" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="C1109" s="0" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1110" s="0" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="C1110" s="0" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1111" s="0" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="C1111" s="0" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1112" s="0" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="C1112" s="0" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1113" s="0" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="C1113" s="0" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1114" s="0" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="C1114" s="0" t="s">
-        <v>1537</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1115" s="0" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="C1115" s="0" t="s">
-        <v>1537</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1116" s="0" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="C1116" s="0" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1117" s="0" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="C1117" s="0" t="s">
-        <v>2123</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1118" s="0" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="C1118" s="0" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1119" s="0" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="C1119" s="0" t="s">
-        <v>2126</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1120" s="0" t="s">
-        <v>2128</v>
+        <v>2133</v>
       </c>
       <c r="C1120" s="0" t="s">
-        <v>2129</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1121" s="0" t="s">
-        <v>2130</v>
+        <v>2135</v>
       </c>
       <c r="C1121" s="0" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1122" s="0" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="C1122" s="0" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1123" s="0" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="C1123" s="0" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1124" s="0" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="C1124" s="0" t="s">
-        <v>2135</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1125" s="0" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="C1125" s="0" t="s">
-        <v>2138</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1126" s="0" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="C1126" s="0" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1127" s="0" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="C1127" s="0" t="s">
         <v>2142</v>
@@ -18088,18 +18145,18 @@
     </row>
     <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1128" s="0" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="C1128" s="0" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1129" s="0" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1129" s="0" t="s">
         <v>2145</v>
-      </c>
-      <c r="C1129" s="0" t="s">
-        <v>2146</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18139,7 +18196,7 @@
         <v>2155</v>
       </c>
       <c r="C1134" s="0" t="s">
-        <v>160</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18219,143 +18276,143 @@
         <v>2174</v>
       </c>
       <c r="C1144" s="0" t="s">
-        <v>2175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1145" s="0" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C1145" s="0" t="s">
         <v>2176</v>
-      </c>
-      <c r="C1145" s="0" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1146" s="0" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C1146" s="0" t="s">
         <v>2178</v>
-      </c>
-      <c r="C1146" s="0" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1147" s="0" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C1147" s="0" t="s">
         <v>2180</v>
-      </c>
-      <c r="C1147" s="0" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1148" s="0" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C1148" s="0" t="s">
         <v>2182</v>
-      </c>
-      <c r="C1148" s="0" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1149" s="0" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C1149" s="0" t="s">
         <v>2184</v>
-      </c>
-      <c r="C1149" s="0" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1150" s="0" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C1150" s="0" t="s">
         <v>2186</v>
-      </c>
-      <c r="C1150" s="0" t="s">
-        <v>2187</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1151" s="0" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C1151" s="0" t="s">
         <v>2188</v>
-      </c>
-      <c r="C1151" s="0" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1152" s="0" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C1152" s="0" t="s">
         <v>2190</v>
-      </c>
-      <c r="C1152" s="0" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1153" s="0" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C1153" s="0" t="s">
         <v>2192</v>
-      </c>
-      <c r="C1153" s="0" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1154" s="0" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C1154" s="0" t="s">
         <v>2194</v>
-      </c>
-      <c r="C1154" s="0" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1155" s="0" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C1155" s="0" t="s">
         <v>2196</v>
-      </c>
-      <c r="C1155" s="0" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1156" s="0" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C1156" s="0" t="s">
         <v>2198</v>
-      </c>
-      <c r="C1156" s="0" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1157" s="0" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C1157" s="0" t="s">
         <v>2200</v>
-      </c>
-      <c r="C1157" s="0" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1158" s="0" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C1158" s="0" t="s">
         <v>2202</v>
-      </c>
-      <c r="C1158" s="0" t="s">
-        <v>2203</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1159" s="0" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C1159" s="0" t="s">
         <v>2204</v>
-      </c>
-      <c r="C1159" s="0" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1160" s="0" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C1160" s="0" t="s">
         <v>2206</v>
-      </c>
-      <c r="C1160" s="0" t="s">
-        <v>2207</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1161" s="0" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1161" s="0" t="s">
         <v>2208</v>
-      </c>
-      <c r="C1161" s="0" t="s">
-        <v>2207</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18435,239 +18492,239 @@
         <v>2227</v>
       </c>
       <c r="C1171" s="0" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1172" s="0" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C1172" s="0" t="s">
         <v>2229</v>
-      </c>
-      <c r="C1172" s="0" t="s">
-        <v>2230</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1173" s="0" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C1173" s="0" t="s">
         <v>2231</v>
-      </c>
-      <c r="C1173" s="0" t="s">
-        <v>2232</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1174" s="0" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C1174" s="0" t="s">
         <v>2233</v>
-      </c>
-      <c r="C1174" s="0" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1175" s="0" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1175" s="0" t="s">
         <v>2235</v>
-      </c>
-      <c r="C1175" s="0" t="s">
-        <v>2236</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1176" s="0" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C1176" s="0" t="s">
         <v>2237</v>
-      </c>
-      <c r="C1176" s="0" t="s">
-        <v>2238</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1177" s="0" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C1177" s="0" t="s">
         <v>2239</v>
-      </c>
-      <c r="C1177" s="0" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1178" s="0" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C1178" s="0" t="s">
         <v>2241</v>
-      </c>
-      <c r="C1178" s="0" t="s">
-        <v>2242</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1179" s="0" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1179" s="0" t="s">
         <v>2243</v>
-      </c>
-      <c r="C1179" s="0" t="s">
-        <v>2244</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1180" s="0" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C1180" s="0" t="s">
         <v>2245</v>
-      </c>
-      <c r="C1180" s="0" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1181" s="0" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C1181" s="0" t="s">
         <v>2247</v>
-      </c>
-      <c r="C1181" s="0" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1182" s="0" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C1182" s="0" t="s">
         <v>2249</v>
-      </c>
-      <c r="C1182" s="0" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1183" s="0" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C1183" s="0" t="s">
         <v>2251</v>
-      </c>
-      <c r="C1183" s="0" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1184" s="0" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C1184" s="0" t="s">
         <v>2253</v>
-      </c>
-      <c r="C1184" s="0" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1185" s="0" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1185" s="0" t="s">
         <v>2255</v>
-      </c>
-      <c r="C1185" s="0" t="s">
-        <v>2256</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1186" s="0" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1186" s="0" t="s">
         <v>2257</v>
-      </c>
-      <c r="C1186" s="0" t="s">
-        <v>2258</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1187" s="0" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1187" s="0" t="s">
         <v>2259</v>
-      </c>
-      <c r="C1187" s="0" t="s">
-        <v>2260</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1188" s="0" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C1188" s="0" t="s">
         <v>2261</v>
-      </c>
-      <c r="C1188" s="0" t="s">
-        <v>2262</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1189" s="0" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1189" s="0" t="s">
         <v>2263</v>
-      </c>
-      <c r="C1189" s="0" t="s">
-        <v>2264</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1190" s="0" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1190" s="0" t="s">
         <v>2265</v>
-      </c>
-      <c r="C1190" s="0" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1191" s="0" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1191" s="0" t="s">
         <v>2267</v>
-      </c>
-      <c r="C1191" s="0" t="s">
-        <v>2268</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1192" s="0" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1192" s="0" t="s">
         <v>2269</v>
-      </c>
-      <c r="C1192" s="0" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1193" s="0" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1193" s="0" t="s">
         <v>2271</v>
-      </c>
-      <c r="C1193" s="0" t="s">
-        <v>2272</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1194" s="0" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1194" s="0" t="s">
         <v>2273</v>
-      </c>
-      <c r="C1194" s="0" t="s">
-        <v>2274</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1195" s="0" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1195" s="0" t="s">
         <v>2275</v>
-      </c>
-      <c r="C1195" s="0" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1196" s="0" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1196" s="0" t="s">
         <v>2277</v>
-      </c>
-      <c r="C1196" s="0" t="s">
-        <v>2278</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1197" s="0" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1197" s="0" t="s">
         <v>2279</v>
-      </c>
-      <c r="C1197" s="0" t="s">
-        <v>2280</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1198" s="0" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1198" s="0" t="s">
         <v>2281</v>
-      </c>
-      <c r="C1198" s="0" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1199" s="0" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C1199" s="0" t="s">
         <v>2283</v>
-      </c>
-      <c r="C1199" s="0" t="s">
-        <v>2284</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1200" s="0" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C1200" s="0" t="s">
         <v>2285</v>
-      </c>
-      <c r="C1200" s="0" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18675,95 +18732,95 @@
         <v>2286</v>
       </c>
       <c r="C1201" s="0" t="s">
-        <v>790</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1202" s="0" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="C1202" s="0" t="s">
-        <v>1412</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1203" s="0" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="C1203" s="0" t="s">
-        <v>191</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1204" s="0" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="C1204" s="0" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1205" s="0" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="C1205" s="0" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1206" s="0" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="C1206" s="0" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1207" s="0" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="C1207" s="0" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1208" s="0" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="C1208" s="0" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1209" s="0" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="C1209" s="0" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1210" s="0" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="C1210" s="0" t="s">
-        <v>2302</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1211" s="0" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="C1211" s="0" t="s">
-        <v>2304</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1212" s="0" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="C1212" s="0" t="s">
-        <v>2306</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18771,7 +18828,7 @@
         <v>2307</v>
       </c>
       <c r="C1213" s="0" t="s">
-        <v>2306</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18819,36 +18876,36 @@
         <v>2318</v>
       </c>
       <c r="C1219" s="0" t="s">
-        <v>2302</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1220" s="0" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="C1220" s="0" t="s">
-        <v>2306</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1221" s="0" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="C1221" s="0" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1222" s="0" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="C1222" s="0" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1223" s="0" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="C1223" s="0" t="s">
         <v>2325</v>
@@ -18856,50 +18913,50 @@
     </row>
     <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1224" s="0" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="C1224" s="0" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1225" s="0" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="C1225" s="0" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1226" s="0" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="C1226" s="0" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1227" s="0" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="C1227" s="0" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1228" s="0" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="C1228" s="0" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1229" s="0" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="C1229" s="0" t="s">
-        <v>2337</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18907,7 +18964,7 @@
         <v>2338</v>
       </c>
       <c r="C1230" s="0" t="s">
-        <v>2337</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18939,55 +18996,55 @@
         <v>2345</v>
       </c>
       <c r="C1234" s="0" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1235" s="0" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="C1235" s="0" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1236" s="0" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="C1236" s="0" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1237" s="0" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="C1237" s="0" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1238" s="0" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="C1238" s="0" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1239" s="0" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="C1239" s="0" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1240" s="0" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C1240" s="0" t="s">
         <v>2356</v>
-      </c>
-      <c r="C1240" s="0" t="s">
-        <v>2357</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19011,15 +19068,15 @@
         <v>2362</v>
       </c>
       <c r="C1243" s="0" t="s">
-        <v>1314</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1244" s="0" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C1244" s="0" t="s">
         <v>2363</v>
-      </c>
-      <c r="C1244" s="0" t="s">
-        <v>2364</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19091,39 +19148,39 @@
         <v>2381</v>
       </c>
       <c r="C1253" s="0" t="s">
-        <v>2382</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1254" s="0" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C1254" s="0" t="s">
         <v>2383</v>
-      </c>
-      <c r="C1254" s="0" t="s">
-        <v>2384</v>
       </c>
     </row>
     <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1255" s="0" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C1255" s="0" t="s">
         <v>2385</v>
-      </c>
-      <c r="C1255" s="0" t="s">
-        <v>2386</v>
       </c>
     </row>
     <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1256" s="0" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C1256" s="0" t="s">
         <v>2387</v>
-      </c>
-      <c r="C1256" s="0" t="s">
-        <v>2388</v>
       </c>
     </row>
     <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1257" s="0" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C1257" s="0" t="s">
         <v>2389</v>
-      </c>
-      <c r="C1257" s="0" t="s">
-        <v>2388</v>
       </c>
     </row>
     <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19187,23 +19244,23 @@
         <v>2404</v>
       </c>
       <c r="C1265" s="0" t="s">
-        <v>799</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1266" s="0" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="C1266" s="0" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1267" s="0" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C1267" s="0" t="s">
         <v>2407</v>
-      </c>
-      <c r="C1267" s="0" t="s">
-        <v>2408</v>
       </c>
     </row>
     <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19259,15 +19316,15 @@
         <v>2421</v>
       </c>
       <c r="C1274" s="0" t="s">
-        <v>976</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1275" s="0" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="C1275" s="0" t="s">
-        <v>2423</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19339,39 +19396,39 @@
         <v>2440</v>
       </c>
       <c r="C1284" s="0" t="s">
-        <v>2441</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1285" s="0" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C1285" s="0" t="s">
         <v>2442</v>
-      </c>
-      <c r="C1285" s="0" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1286" s="0" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C1286" s="0" t="s">
         <v>2444</v>
-      </c>
-      <c r="C1286" s="0" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1287" s="0" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C1287" s="0" t="s">
         <v>2446</v>
-      </c>
-      <c r="C1287" s="0" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1288" s="0" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C1288" s="0" t="s">
         <v>2448</v>
-      </c>
-      <c r="C1288" s="0" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19383,19 +19440,16 @@
       </c>
     </row>
     <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1290" s="0" t="s">
+      <c r="B1290" s="0" t="s">
         <v>2451</v>
       </c>
-      <c r="B1290" s="0" t="s">
+      <c r="C1290" s="0" t="s">
         <v>2452</v>
-      </c>
-      <c r="C1290" s="0" t="s">
-        <v>2453</v>
       </c>
     </row>
     <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1291" s="0" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="C1291" s="0" t="s">
         <v>2454</v>
@@ -19454,7 +19508,7 @@
         <v>2467</v>
       </c>
       <c r="C1298" s="0" t="s">
-        <v>1608</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19466,16 +19520,19 @@
       </c>
     </row>
     <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1300" s="0" t="s">
+        <v>2470</v>
+      </c>
       <c r="B1300" s="0" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="C1300" s="0" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1301" s="0" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="C1301" s="0" t="s">
         <v>2473</v>
@@ -19502,95 +19559,95 @@
         <v>2478</v>
       </c>
       <c r="C1304" s="0" t="s">
-        <v>1844</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1305" s="0" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="C1305" s="0" t="s">
-        <v>1852</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1306" s="0" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="C1306" s="0" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1307" s="0" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="C1307" s="0" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1308" s="0" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="C1308" s="0" t="s">
-        <v>2485</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1309" s="0" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="C1309" s="0" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1310" s="0" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="C1310" s="0" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1311" s="0" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="C1311" s="0" t="s">
-        <v>1994</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1312" s="0" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="C1312" s="0" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1313" s="0" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="C1313" s="0" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1314" s="0" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="C1314" s="0" t="s">
-        <v>2496</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1315" s="0" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="C1315" s="0" t="s">
-        <v>2498</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19638,7 +19695,7 @@
         <v>2509</v>
       </c>
       <c r="C1321" s="0" t="s">
-        <v>2506</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19646,101 +19703,98 @@
         <v>2510</v>
       </c>
       <c r="C1322" s="0" t="s">
-        <v>1312</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1323" s="0" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="C1323" s="0" t="s">
-        <v>805</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1324" s="0" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="C1324" s="0" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1325" s="0" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="C1325" s="0" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1326" s="0" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="C1326" s="0" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1327" s="0" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="C1327" s="0" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1328" s="0" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="C1328" s="0" t="s">
-        <v>2519</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1329" s="0" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="C1329" s="0" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1330" s="0" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="C1330" s="0" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1331" s="0" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C1331" s="0" t="s">
         <v>2525</v>
-      </c>
-      <c r="C1331" s="0" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1332" s="0" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="C1332" s="0" t="s">
-        <v>2528</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1333" s="0" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="C1333" s="0" t="s">
-        <v>2528</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1334" s="0" t="s">
-        <v>2530</v>
-      </c>
       <c r="B1334" s="0" t="s">
         <v>2531</v>
       </c>
@@ -19750,34 +19804,34 @@
     </row>
     <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1335" s="0" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="C1335" s="0" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1336" s="0" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="C1336" s="0" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1337" s="0" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="C1337" s="0" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1338" s="0" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C1338" s="0" t="s">
         <v>2538</v>
-      </c>
-      <c r="C1338" s="0" t="s">
-        <v>2539</v>
       </c>
     </row>
     <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19817,20 +19871,23 @@
         <v>2548</v>
       </c>
       <c r="C1343" s="0" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="1344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1344" s="0" t="s">
         <v>2549</v>
       </c>
-    </row>
-    <row r="1344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1344" s="0" t="s">
         <v>2550</v>
       </c>
       <c r="C1344" s="0" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1345" s="0" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C1345" s="0" t="s">
         <v>2552</v>
@@ -19838,71 +19895,71 @@
     </row>
     <row r="1346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1346" s="0" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1346" s="0" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1347" s="0" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="C1347" s="0" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1348" s="0" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="C1348" s="0" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1349" s="0" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="C1349" s="0" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1350" s="0" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="C1350" s="0" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1351" s="0" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="C1351" s="0" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1352" s="0" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="C1352" s="0" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1353" s="0" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="C1353" s="0" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1354" s="0" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="C1354" s="0" t="s">
         <v>2568</v>
@@ -19910,90 +19967,90 @@
     </row>
     <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1355" s="0" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="C1355" s="0" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1356" s="0" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C1356" s="0" t="s">
         <v>2571</v>
-      </c>
-      <c r="C1356" s="0" t="s">
-        <v>2572</v>
       </c>
     </row>
     <row r="1357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1357" s="0" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C1357" s="0" t="s">
         <v>2573</v>
-      </c>
-      <c r="C1357" s="0" t="s">
-        <v>2574</v>
       </c>
     </row>
     <row r="1358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1358" s="0" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C1358" s="0" t="s">
         <v>2575</v>
-      </c>
-      <c r="C1358" s="0" t="s">
-        <v>2576</v>
       </c>
     </row>
     <row r="1359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1359" s="0" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C1359" s="0" t="s">
         <v>2577</v>
-      </c>
-      <c r="C1359" s="0" t="s">
-        <v>2578</v>
       </c>
     </row>
     <row r="1360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1360" s="0" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C1360" s="0" t="s">
         <v>2579</v>
-      </c>
-      <c r="C1360" s="0" t="s">
-        <v>2580</v>
       </c>
     </row>
     <row r="1361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1361" s="0" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C1361" s="0" t="s">
         <v>2581</v>
-      </c>
-      <c r="C1361" s="0" t="s">
-        <v>2582</v>
       </c>
     </row>
     <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1362" s="0" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C1362" s="0" t="s">
         <v>2583</v>
-      </c>
-      <c r="C1362" s="0" t="s">
-        <v>2584</v>
       </c>
     </row>
     <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1363" s="0" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C1363" s="0" t="s">
         <v>2585</v>
-      </c>
-      <c r="C1363" s="0" t="s">
-        <v>2586</v>
       </c>
     </row>
     <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1364" s="0" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C1364" s="0" t="s">
         <v>2587</v>
-      </c>
-      <c r="C1364" s="0" t="s">
-        <v>2588</v>
       </c>
     </row>
     <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1365" s="0" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C1365" s="0" t="s">
         <v>2589</v>
-      </c>
-      <c r="C1365" s="0" t="s">
-        <v>2588</v>
       </c>
     </row>
     <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20057,20 +20114,20 @@
         <v>2604</v>
       </c>
       <c r="C1373" s="0" t="s">
-        <v>2109</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1374" s="0" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="C1374" s="0" t="s">
-        <v>207</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1375" s="0" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="C1375" s="0" t="s">
         <v>2607</v>
@@ -20078,74 +20135,74 @@
     </row>
     <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1376" s="0" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="C1376" s="0" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1377" s="0" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="C1377" s="0" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1378" s="0" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="C1378" s="0" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1379" s="0" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="C1379" s="0" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1380" s="0" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="C1380" s="0" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1381" s="0" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="C1381" s="0" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1382" s="0" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="C1382" s="0" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1383" s="0" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="C1383" s="0" t="s">
-        <v>2622</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1384" s="0" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="C1384" s="0" t="s">
-        <v>2624</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20185,103 +20242,103 @@
         <v>2633</v>
       </c>
       <c r="C1389" s="0" t="s">
-        <v>231</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1390" s="0" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="C1390" s="0" t="s">
-        <v>323</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1391" s="0" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="C1391" s="0" t="s">
-        <v>1455</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1392" s="0" t="s">
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="C1392" s="0" t="s">
-        <v>2637</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1393" s="0" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="C1393" s="0" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1394" s="0" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="C1394" s="0" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1395" s="0" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="C1395" s="0" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1396" s="0" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="C1396" s="0" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1397" s="0" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="C1397" s="0" t="s">
-        <v>1603</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1398" s="0" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="C1398" s="0" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1399" s="0" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
       <c r="C1399" s="0" t="s">
-        <v>2650</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1400" s="0" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="C1400" s="0" t="s">
-        <v>2652</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1401" s="0" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="C1401" s="0" t="s">
-        <v>2654</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20329,23 +20386,23 @@
         <v>2665</v>
       </c>
       <c r="C1407" s="0" t="s">
-        <v>2666</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1408" s="0" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C1408" s="0" t="s">
         <v>2667</v>
-      </c>
-      <c r="C1408" s="0" t="s">
-        <v>2668</v>
       </c>
     </row>
     <row r="1409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1409" s="0" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C1409" s="0" t="s">
         <v>2669</v>
-      </c>
-      <c r="C1409" s="0" t="s">
-        <v>2668</v>
       </c>
     </row>
     <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20369,143 +20426,143 @@
         <v>2674</v>
       </c>
       <c r="C1412" s="0" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1413" s="0" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="C1413" s="0" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1414" s="0" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="C1414" s="0" t="s">
-        <v>1470</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1415" s="0" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="C1415" s="0" t="s">
-        <v>1472</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1416" s="0" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="C1416" s="0" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1417" s="0" t="s">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="C1417" s="0" t="s">
-        <v>2680</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1418" s="0" t="s">
-        <v>2681</v>
+        <v>2686</v>
       </c>
       <c r="C1418" s="0" t="s">
-        <v>2682</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1419" s="0" t="s">
-        <v>2683</v>
+        <v>2688</v>
       </c>
       <c r="C1419" s="0" t="s">
-        <v>2682</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1420" s="0" t="s">
-        <v>2684</v>
+        <v>2689</v>
       </c>
       <c r="C1420" s="0" t="s">
-        <v>2685</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1421" s="0" t="s">
-        <v>2686</v>
+        <v>2691</v>
       </c>
       <c r="C1421" s="0" t="s">
-        <v>2687</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1422" s="0" t="s">
-        <v>2688</v>
+        <v>2693</v>
       </c>
       <c r="C1422" s="0" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1423" s="0" t="s">
-        <v>2690</v>
+        <v>2694</v>
       </c>
       <c r="C1423" s="0" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1424" s="0" t="s">
-        <v>2692</v>
+        <v>2696</v>
       </c>
       <c r="C1424" s="0" t="s">
-        <v>2691</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1425" s="0" t="s">
-        <v>2693</v>
+        <v>2697</v>
       </c>
       <c r="C1425" s="0" t="s">
-        <v>2694</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1426" s="0" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="C1426" s="0" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1427" s="0" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="C1427" s="0" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1428" s="0" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="C1428" s="0" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1429" s="0" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C1429" s="0" t="s">
         <v>2701</v>
-      </c>
-      <c r="C1429" s="0" t="s">
-        <v>2702</v>
       </c>
     </row>
     <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20529,23 +20586,23 @@
         <v>2707</v>
       </c>
       <c r="C1432" s="0" t="s">
-        <v>2628</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1433" s="0" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="C1433" s="0" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1434" s="0" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1434" s="0" t="s">
         <v>2710</v>
-      </c>
-      <c r="C1434" s="0" t="s">
-        <v>2711</v>
       </c>
     </row>
     <row r="1435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20609,143 +20666,143 @@
         <v>2726</v>
       </c>
       <c r="C1442" s="0" t="s">
-        <v>2727</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1443" s="0" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C1443" s="0" t="s">
         <v>2728</v>
-      </c>
-      <c r="C1443" s="0" t="s">
-        <v>2729</v>
       </c>
     </row>
     <row r="1444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1444" s="0" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C1444" s="0" t="s">
         <v>2730</v>
-      </c>
-      <c r="C1444" s="0" t="s">
-        <v>2731</v>
       </c>
     </row>
     <row r="1445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1445" s="0" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C1445" s="0" t="s">
         <v>2732</v>
-      </c>
-      <c r="C1445" s="0" t="s">
-        <v>2733</v>
       </c>
     </row>
     <row r="1446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1446" s="0" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C1446" s="0" t="s">
         <v>2734</v>
-      </c>
-      <c r="C1446" s="0" t="s">
-        <v>2735</v>
       </c>
     </row>
     <row r="1447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1447" s="0" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C1447" s="0" t="s">
         <v>2736</v>
-      </c>
-      <c r="C1447" s="0" t="s">
-        <v>2737</v>
       </c>
     </row>
     <row r="1448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1448" s="0" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C1448" s="0" t="s">
         <v>2738</v>
-      </c>
-      <c r="C1448" s="0" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="1449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1449" s="0" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C1449" s="0" t="s">
         <v>2740</v>
-      </c>
-      <c r="C1449" s="0" t="s">
-        <v>2741</v>
       </c>
     </row>
     <row r="1450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1450" s="0" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C1450" s="0" t="s">
         <v>2742</v>
-      </c>
-      <c r="C1450" s="0" t="s">
-        <v>2743</v>
       </c>
     </row>
     <row r="1451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1451" s="0" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C1451" s="0" t="s">
         <v>2744</v>
-      </c>
-      <c r="C1451" s="0" t="s">
-        <v>2745</v>
       </c>
     </row>
     <row r="1452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1452" s="0" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C1452" s="0" t="s">
         <v>2746</v>
-      </c>
-      <c r="C1452" s="0" t="s">
-        <v>2747</v>
       </c>
     </row>
     <row r="1453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1453" s="0" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C1453" s="0" t="s">
         <v>2748</v>
-      </c>
-      <c r="C1453" s="0" t="s">
-        <v>2749</v>
       </c>
     </row>
     <row r="1454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1454" s="0" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C1454" s="0" t="s">
         <v>2750</v>
-      </c>
-      <c r="C1454" s="0" t="s">
-        <v>2751</v>
       </c>
     </row>
     <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1455" s="0" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C1455" s="0" t="s">
         <v>2752</v>
-      </c>
-      <c r="C1455" s="0" t="s">
-        <v>2753</v>
       </c>
     </row>
     <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1456" s="0" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C1456" s="0" t="s">
         <v>2754</v>
-      </c>
-      <c r="C1456" s="0" t="s">
-        <v>2755</v>
       </c>
     </row>
     <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1457" s="0" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C1457" s="0" t="s">
         <v>2756</v>
-      </c>
-      <c r="C1457" s="0" t="s">
-        <v>2757</v>
       </c>
     </row>
     <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1458" s="0" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C1458" s="0" t="s">
         <v>2758</v>
-      </c>
-      <c r="C1458" s="0" t="s">
-        <v>2759</v>
       </c>
     </row>
     <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1459" s="0" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C1459" s="0" t="s">
         <v>2760</v>
-      </c>
-      <c r="C1459" s="0" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20761,295 +20818,295 @@
         <v>2763</v>
       </c>
       <c r="C1461" s="0" t="s">
-        <v>1582</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1462" s="0" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="C1462" s="0" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1463" s="0" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="C1463" s="0" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1464" s="0" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="C1464" s="0" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1465" s="0" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="C1465" s="0" t="s">
-        <v>2719</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1466" s="0" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="C1466" s="0" t="s">
-        <v>1235</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1467" s="0" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="C1467" s="0" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1468" s="0" t="s">
-        <v>2774</v>
+        <v>2777</v>
       </c>
       <c r="C1468" s="0" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1469" s="0" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
       <c r="C1469" s="0" t="s">
-        <v>2777</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1470" s="0" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="C1470" s="0" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1471" s="0" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="C1471" s="0" t="s">
-        <v>2781</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1472" s="0" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="C1472" s="0" t="s">
-        <v>805</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1473" s="0" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="C1473" s="0" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1474" s="0" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="C1474" s="0" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1475" s="0" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="C1475" s="0" t="s">
-        <v>2788</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1476" s="0" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="C1476" s="0" t="s">
-        <v>2790</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1477" s="0" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="C1477" s="0" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1478" s="0" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="C1478" s="0" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="1479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1479" s="0" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="C1479" s="0" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="1480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1480" s="0" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="C1480" s="0" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1481" s="0" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="C1481" s="0" t="s">
-        <v>231</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1482" s="0" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="C1482" s="0" t="s">
-        <v>2800</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1483" s="0" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="C1483" s="0" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1484" s="0" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="C1484" s="0" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1485" s="0" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="C1485" s="0" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1486" s="0" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="C1486" s="0" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1487" s="0" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="C1487" s="0" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="1488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1488" s="0" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="C1488" s="0" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1489" s="0" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="C1489" s="0" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1490" s="0" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="C1490" s="0" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1491" s="0" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="C1491" s="0" t="s">
-        <v>2816</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1492" s="0" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="C1492" s="0" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1493" s="0" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="C1493" s="0" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1494" s="0" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="C1494" s="0" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1495" s="0" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="C1495" s="0" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1496" s="0" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="C1496" s="0" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1497" s="0" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C1497" s="0" t="s">
         <v>2827</v>
-      </c>
-      <c r="C1497" s="0" t="s">
-        <v>2584</v>
       </c>
     </row>
     <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21057,164 +21114,164 @@
         <v>2828</v>
       </c>
       <c r="C1498" s="0" t="s">
-        <v>2626</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1499" s="0" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="C1499" s="0" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1500" s="0" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="C1500" s="0" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1501" s="0" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="C1501" s="0" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1502" s="0" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="C1502" s="0" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1503" s="0" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="C1503" s="0" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1504" s="0" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="C1504" s="0" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1505" s="0" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="C1505" s="0" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1506" s="0" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="C1506" s="0" t="s">
-        <v>207</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1507" s="0" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="C1507" s="0" t="s">
-        <v>207</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1508" s="0" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="C1508" s="0" t="s">
-        <v>2842</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1509" s="0" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="C1509" s="0" t="s">
-        <v>2842</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1510" s="0" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="C1510" s="0" t="s">
-        <v>2842</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1511" s="0" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="C1511" s="0" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1512" s="0" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="C1512" s="0" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1513" s="0" t="s">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="C1513" s="0" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1514" s="0" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="C1514" s="0" t="s">
-        <v>2854</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1515" s="0" t="s">
-        <v>2855</v>
+        <v>2860</v>
       </c>
       <c r="C1515" s="0" t="s">
-        <v>2856</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1516" s="0" t="s">
-        <v>2857</v>
+        <v>2862</v>
       </c>
       <c r="C1516" s="0" t="s">
-        <v>2858</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1517" s="0" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="C1517" s="0" t="s">
-        <v>2860</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1518" s="0" t="s">
-        <v>2859</v>
+        <v>2864</v>
       </c>
       <c r="C1518" s="0" t="s">
         <v>2861</v>
@@ -21222,47 +21279,47 @@
     </row>
     <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1519" s="0" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="C1519" s="0" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1520" s="0" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="C1520" s="0" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1521" s="0" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="C1521" s="0" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1522" s="0" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="C1522" s="0" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1523" s="0" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="C1523" s="0" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="1524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1524" s="0" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="C1524" s="0" t="s">
         <v>2873</v>
@@ -21278,18 +21335,18 @@
     </row>
     <row r="1526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1526" s="0" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="C1526" s="0" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1527" s="0" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="C1527" s="0" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21297,172 +21354,172 @@
         <v>2878</v>
       </c>
       <c r="C1528" s="0" t="s">
-        <v>207</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1529" s="0" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="C1529" s="0" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1530" s="0" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="C1530" s="0" t="s">
-        <v>2545</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1531" s="0" t="s">
-        <v>2882</v>
+        <v>2885</v>
       </c>
       <c r="C1531" s="0" t="s">
-        <v>2883</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1532" s="0" t="s">
-        <v>2884</v>
+        <v>2887</v>
       </c>
       <c r="C1532" s="0" t="s">
-        <v>2885</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1533" s="0" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
       <c r="C1533" s="0" t="s">
-        <v>2887</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1534" s="0" t="s">
-        <v>2888</v>
+        <v>2891</v>
       </c>
       <c r="C1534" s="0" t="s">
-        <v>2889</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1535" s="0" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="C1535" s="0" t="s">
-        <v>2891</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1536" s="0" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="C1536" s="0" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1537" s="0" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="C1537" s="0" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1538" s="0" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="C1538" s="0" t="s">
-        <v>2896</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1539" s="0" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C1539" s="0" t="s">
-        <v>2896</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1540" s="0" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="C1540" s="0" t="s">
-        <v>1385</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="1541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1541" s="0" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="C1541" s="0" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1542" s="0" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
       <c r="C1542" s="0" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1543" s="0" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="C1543" s="0" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1544" s="0" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="C1544" s="0" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1545" s="0" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="C1545" s="0" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1546" s="0" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="C1546" s="0" t="s">
-        <v>771</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1547" s="0" t="s">
-        <v>2910</v>
+        <v>2913</v>
       </c>
       <c r="C1547" s="0" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1548" s="0" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="C1548" s="0" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1549" s="0" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="C1549" s="0" t="s">
         <v>2915</v>
@@ -21470,10 +21527,10 @@
     </row>
     <row r="1550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1550" s="0" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="C1550" s="0" t="s">
-        <v>2917</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21521,87 +21578,87 @@
         <v>2928</v>
       </c>
       <c r="C1556" s="0" t="s">
-        <v>2929</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1557" s="0" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C1557" s="0" t="s">
         <v>2930</v>
-      </c>
-      <c r="C1557" s="0" t="s">
-        <v>2931</v>
       </c>
     </row>
     <row r="1558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1558" s="0" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C1558" s="0" t="s">
         <v>2932</v>
-      </c>
-      <c r="C1558" s="0" t="s">
-        <v>2933</v>
       </c>
     </row>
     <row r="1559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1559" s="0" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C1559" s="0" t="s">
         <v>2934</v>
-      </c>
-      <c r="C1559" s="0" t="s">
-        <v>2935</v>
       </c>
     </row>
     <row r="1560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1560" s="0" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C1560" s="0" t="s">
         <v>2936</v>
-      </c>
-      <c r="C1560" s="0" t="s">
-        <v>2937</v>
       </c>
     </row>
     <row r="1561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1561" s="0" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C1561" s="0" t="s">
         <v>2938</v>
-      </c>
-      <c r="C1561" s="0" t="s">
-        <v>2939</v>
       </c>
     </row>
     <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1562" s="0" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C1562" s="0" t="s">
         <v>2940</v>
-      </c>
-      <c r="C1562" s="0" t="s">
-        <v>2941</v>
       </c>
     </row>
     <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1563" s="0" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C1563" s="0" t="s">
         <v>2942</v>
-      </c>
-      <c r="C1563" s="0" t="s">
-        <v>2943</v>
       </c>
     </row>
     <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1564" s="0" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C1564" s="0" t="s">
         <v>2944</v>
-      </c>
-      <c r="C1564" s="0" t="s">
-        <v>2945</v>
       </c>
     </row>
     <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1565" s="0" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C1565" s="0" t="s">
         <v>2946</v>
-      </c>
-      <c r="C1565" s="0" t="s">
-        <v>2947</v>
       </c>
     </row>
     <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1566" s="0" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C1566" s="0" t="s">
         <v>2948</v>
-      </c>
-      <c r="C1566" s="0" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21633,55 +21690,55 @@
         <v>2955</v>
       </c>
       <c r="C1570" s="0" t="s">
-        <v>14</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1571" s="0" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="C1571" s="0" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1572" s="0" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="C1572" s="0" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1573" s="0" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="C1573" s="0" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1574" s="0" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="C1574" s="0" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1575" s="0" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="C1575" s="0" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1576" s="0" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="C1576" s="0" t="s">
-        <v>2967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21713,7 +21770,87 @@
         <v>2974</v>
       </c>
       <c r="C1580" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1581" s="0" t="s">
         <v>2975</v>
+      </c>
+      <c r="C1581" s="0" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="1582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1582" s="0" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C1582" s="0" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="1583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1583" s="0" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1583" s="0" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="1584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1584" s="0" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C1584" s="0" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="1585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1585" s="0" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C1585" s="0" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="1586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1586" s="0" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C1586" s="0" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="1587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1587" s="0" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C1587" s="0" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="1588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1588" s="0" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C1588" s="0" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="1589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1589" s="0" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C1589" s="0" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="1590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1590" s="0" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C1590" s="0" t="s">
+        <v>2994</v>
       </c>
     </row>
   </sheetData>

--- a/odoo_default_tnl.xlsx
+++ b/odoo_default_tnl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8435" uniqueCount="7987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8437" uniqueCount="7989">
   <si>
     <t xml:space="preserve">module</t>
   </si>
@@ -2849,6 +2849,12 @@
   </si>
   <si>
     <t xml:space="preserve">Conto bancario richiesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Account Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo di conto bancario</t>
   </si>
   <si>
     <t xml:space="preserve">Bank account type: Normal or IBAN. Inferred from the bank account number</t>
@@ -25695,13 +25701,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4276"/>
+  <dimension ref="A1:C4277"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4260" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4276" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A489" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C505" activeCellId="0" sqref="C505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.12"/>
@@ -29797,12 +29803,12 @@
         <v>951</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C514" s="0" t="s">
         <v>953</v>
@@ -29820,12 +29826,12 @@
       <c r="B516" s="0" t="s">
         <v>956</v>
       </c>
+      <c r="C516" s="0" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B517" s="0" t="s">
-        <v>957</v>
-      </c>
-      <c r="C517" s="0" t="s">
         <v>958</v>
       </c>
     </row>
@@ -29874,12 +29880,12 @@
         <v>969</v>
       </c>
       <c r="C523" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B524" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>971</v>
@@ -30146,36 +30152,36 @@
         <v>1036</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B558" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B559" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B561" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C561" s="0" t="s">
         <v>1041</v>
@@ -30186,15 +30192,15 @@
         <v>1042</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>368</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C563" s="0" t="s">
-        <v>1044</v>
+        <v>368</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30209,12 +30215,12 @@
       <c r="B565" s="0" t="s">
         <v>1047</v>
       </c>
+      <c r="C565" s="0" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B566" s="0" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C566" s="0" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -30311,12 +30317,12 @@
         <v>1072</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B579" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C579" s="0" t="s">
         <v>1074</v>
@@ -30399,12 +30405,12 @@
         <v>1093</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B590" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C590" s="0" t="s">
         <v>1095</v>
@@ -30542,12 +30548,12 @@
       <c r="B607" s="0" t="s">
         <v>1128</v>
       </c>
+      <c r="C607" s="0" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B608" s="0" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C608" s="0" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -30580,12 +30586,12 @@
         <v>1137</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B613" s="0" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C613" s="0" t="s">
         <v>1139</v>
@@ -30596,20 +30602,20 @@
         <v>1140</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B615" s="0" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B616" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C616" s="0" t="s">
         <v>1143</v>
@@ -30660,12 +30666,12 @@
         <v>1154</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B623" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C623" s="0" t="s">
         <v>1156</v>
@@ -30732,12 +30738,12 @@
         <v>1171</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B632" s="0" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C632" s="0" t="s">
         <v>1173</v>
@@ -30820,15 +30826,15 @@
         <v>1192</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B643" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C643" s="0" t="s">
         <v>1193</v>
-      </c>
-      <c r="C643" s="0" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31076,15 +31082,15 @@
         <v>1255</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B675" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C675" s="0" t="s">
         <v>1256</v>
-      </c>
-      <c r="C675" s="0" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31172,15 +31178,15 @@
         <v>1278</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>358</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B687" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>1280</v>
+        <v>358</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31395,12 +31401,12 @@
       <c r="B714" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="C714" s="0" t="s">
+        <v>1334</v>
+      </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B715" s="0" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C715" s="0" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -31492,16 +31498,16 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="727" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B727" s="2" t="s">
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B727" s="0" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B728" s="0" t="s">
+      <c r="C727" s="0" t="s">
         <v>1359</v>
       </c>
-      <c r="C728" s="0" t="s">
+    </row>
+    <row r="728" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B728" s="2" t="s">
         <v>1360</v>
       </c>
     </row>
@@ -31534,15 +31540,15 @@
         <v>1367</v>
       </c>
       <c r="C732" s="0" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B733" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C733" s="0" t="s">
         <v>1368</v>
-      </c>
-      <c r="C733" s="0" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31705,19 +31711,19 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="82.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B754" s="2" t="s">
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B754" s="0" t="s">
         <v>1410</v>
       </c>
-      <c r="C754" s="2" t="s">
+      <c r="C754" s="0" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B755" s="0" t="s">
+    <row r="755" customFormat="false" ht="82.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B755" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="C755" s="0" t="s">
+      <c r="C755" s="2" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -31774,12 +31780,12 @@
         <v>1426</v>
       </c>
       <c r="C762" s="0" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B763" s="0" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C763" s="0" t="s">
         <v>1428</v>
@@ -31813,12 +31819,12 @@
       <c r="B767" s="0" t="s">
         <v>1435</v>
       </c>
+      <c r="C767" s="0" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B768" s="0" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C768" s="0" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -31842,12 +31848,12 @@
       <c r="B771" s="0" t="s">
         <v>1442</v>
       </c>
+      <c r="C771" s="0" t="s">
+        <v>1443</v>
+      </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B772" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C772" s="0" t="s">
         <v>1444</v>
       </c>
     </row>
@@ -32176,15 +32182,15 @@
         <v>1525</v>
       </c>
       <c r="C813" s="0" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B814" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C814" s="0" t="s">
         <v>1526</v>
-      </c>
-      <c r="C814" s="0" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32295,12 +32301,12 @@
       <c r="B828" s="0" t="s">
         <v>1554</v>
       </c>
+      <c r="C828" s="0" t="s">
+        <v>1555</v>
+      </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B829" s="0" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C829" s="0" t="s">
         <v>1556</v>
       </c>
     </row>
@@ -32312,15 +32318,15 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="831" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B831" s="2" t="s">
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B831" s="0" t="s">
         <v>1559</v>
       </c>
-      <c r="C831" s="2" t="s">
+      <c r="C831" s="0" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="832" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B832" s="2" t="s">
         <v>1561</v>
       </c>
@@ -32328,11 +32334,11 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B833" s="0" t="s">
+    <row r="833" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B833" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="C833" s="0" t="s">
+      <c r="C833" s="2" t="s">
         <v>1564</v>
       </c>
     </row>
@@ -32348,12 +32354,12 @@
       <c r="B835" s="0" t="s">
         <v>1567</v>
       </c>
+      <c r="C835" s="0" t="s">
+        <v>1568</v>
+      </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B836" s="0" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C836" s="0" t="s">
         <v>1569</v>
       </c>
     </row>
@@ -32378,15 +32384,15 @@
         <v>1574</v>
       </c>
       <c r="C839" s="0" t="s">
-        <v>1566</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B840" s="0" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C840" s="0" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32434,12 +32440,12 @@
         <v>1587</v>
       </c>
       <c r="C846" s="0" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B847" s="0" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>1589</v>
@@ -32461,19 +32467,19 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="850" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B850" s="2" t="s">
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B850" s="0" t="s">
         <v>1594</v>
       </c>
-      <c r="C850" s="2" t="s">
+      <c r="C850" s="0" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B851" s="0" t="s">
+    <row r="851" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B851" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="C851" s="0" t="s">
+      <c r="C851" s="2" t="s">
         <v>1597</v>
       </c>
     </row>
@@ -32729,12 +32735,12 @@
       <c r="B883" s="0" t="s">
         <v>1660</v>
       </c>
+      <c r="C883" s="0" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B884" s="0" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C884" s="0" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -32751,12 +32757,12 @@
         <v>1665</v>
       </c>
       <c r="C886" s="0" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B887" s="0" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C887" s="0" t="s">
         <v>1667</v>
@@ -32831,15 +32837,15 @@
         <v>1684</v>
       </c>
       <c r="C896" s="0" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B897" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C897" s="0" t="s">
         <v>1685</v>
-      </c>
-      <c r="C897" s="0" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33295,15 +33301,15 @@
         <v>1799</v>
       </c>
       <c r="C954" s="0" t="s">
-        <v>718</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B955" s="0" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C955" s="0" t="s">
-        <v>1801</v>
+        <v>718</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33311,15 +33317,15 @@
         <v>1802</v>
       </c>
       <c r="C956" s="0" t="s">
-        <v>1746</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B957" s="0" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C957" s="0" t="s">
-        <v>1804</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33479,20 +33485,20 @@
         <v>1843</v>
       </c>
       <c r="C977" s="0" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B978" s="0" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="C978" s="0" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B979" s="0" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>1846</v>
@@ -33554,25 +33560,25 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="987" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B987" s="2" t="s">
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B987" s="0" t="s">
         <v>1861</v>
       </c>
-      <c r="C987" s="2" t="s">
+      <c r="C987" s="0" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B988" s="0" t="s">
+    <row r="988" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B988" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="C988" s="0" t="s">
-        <v>1863</v>
+      <c r="C988" s="2" t="s">
+        <v>1864</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B989" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>1865</v>
@@ -33583,12 +33589,12 @@
         <v>1866</v>
       </c>
       <c r="C990" s="0" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B991" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>1868</v>
@@ -33615,15 +33621,15 @@
         <v>1873</v>
       </c>
       <c r="C994" s="0" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B995" s="0" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="C995" s="0" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33855,15 +33861,15 @@
         <v>1932</v>
       </c>
       <c r="C1024" s="0" t="s">
-        <v>1389</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1025" s="0" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C1025" s="0" t="s">
-        <v>1934</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34255,12 +34261,12 @@
         <v>2031</v>
       </c>
       <c r="C1074" s="0" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1075" s="0" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C1075" s="0" t="s">
         <v>2033</v>
@@ -34324,18 +34330,18 @@
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1083" s="0" t="s">
-        <v>14</v>
+        <v>2048</v>
       </c>
       <c r="C1083" s="0" t="s">
-        <v>1474</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1084" s="0" t="s">
-        <v>2048</v>
+        <v>14</v>
       </c>
       <c r="C1084" s="0" t="s">
-        <v>2049</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34343,15 +34349,15 @@
         <v>2050</v>
       </c>
       <c r="C1085" s="0" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1086" s="0" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C1086" s="0" t="s">
         <v>2051</v>
-      </c>
-      <c r="C1086" s="0" t="s">
-        <v>2052</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34495,12 +34501,12 @@
         <v>2087</v>
       </c>
       <c r="C1104" s="0" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1105" s="0" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C1105" s="0" t="s">
         <v>2089</v>
@@ -34519,39 +34525,39 @@
         <v>2092</v>
       </c>
       <c r="C1107" s="0" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1108" s="0" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="C1108" s="0" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1109" s="0" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1109" s="0" t="s">
         <v>2094</v>
-      </c>
-      <c r="C1109" s="0" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1110" s="0" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="C1110" s="0" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1111" s="0" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="C1111" s="0" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34591,15 +34597,15 @@
         <v>2106</v>
       </c>
       <c r="C1116" s="0" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1117" s="0" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C1117" s="0" t="s">
         <v>2107</v>
-      </c>
-      <c r="C1117" s="0" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34631,15 +34637,15 @@
         <v>2115</v>
       </c>
       <c r="C1121" s="0" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1122" s="0" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C1122" s="0" t="s">
         <v>2116</v>
-      </c>
-      <c r="C1122" s="0" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34674,19 +34680,19 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="1127" customFormat="false" ht="117.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1127" s="2" t="s">
+    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1127" s="0" t="s">
         <v>2126</v>
       </c>
-      <c r="C1127" s="2" t="s">
+      <c r="C1127" s="0" t="s">
         <v>2127</v>
       </c>
     </row>
-    <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1128" s="0" t="s">
+    <row r="1128" customFormat="false" ht="117.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1128" s="2" t="s">
         <v>2128</v>
       </c>
-      <c r="C1128" s="0" t="s">
+      <c r="C1128" s="2" t="s">
         <v>2129</v>
       </c>
     </row>
@@ -34807,12 +34813,12 @@
         <v>2158</v>
       </c>
       <c r="C1143" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1144" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="C1144" s="0" t="s">
         <v>2160</v>
@@ -35151,28 +35157,28 @@
         <v>2243</v>
       </c>
       <c r="C1186" s="0" t="s">
-        <v>720</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1187" s="0" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="C1187" s="0" t="s">
-        <v>2245</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1188" s="0" t="s">
-        <v>17</v>
+        <v>2246</v>
       </c>
       <c r="C1188" s="0" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1189" s="0" t="s">
-        <v>2247</v>
+        <v>17</v>
       </c>
       <c r="C1189" s="0" t="s">
         <v>2248</v>
@@ -35246,12 +35252,12 @@
       <c r="B1198" s="0" t="s">
         <v>2265</v>
       </c>
+      <c r="C1198" s="0" t="s">
+        <v>2266</v>
+      </c>
     </row>
     <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1199" s="0" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C1199" s="0" t="s">
         <v>2267</v>
       </c>
     </row>
@@ -35260,30 +35266,30 @@
         <v>2268</v>
       </c>
       <c r="C1200" s="0" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1201" s="0" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="C1201" s="0" t="s">
         <v>2270</v>
       </c>
     </row>
-    <row r="1202" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1202" s="2" t="s">
+    <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1202" s="0" t="s">
         <v>2271</v>
       </c>
-      <c r="C1202" s="2" t="s">
+      <c r="C1202" s="0" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1203" s="0" t="s">
+    <row r="1203" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1203" s="2" t="s">
         <v>2273</v>
       </c>
-      <c r="C1203" s="0" t="s">
+      <c r="C1203" s="2" t="s">
         <v>2274</v>
       </c>
     </row>
@@ -35343,19 +35349,19 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="1211" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1211" s="2" t="s">
+    <row r="1211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1211" s="0" t="s">
         <v>2289</v>
       </c>
-      <c r="C1211" s="2" t="s">
+      <c r="C1211" s="0" t="s">
         <v>2290</v>
       </c>
     </row>
-    <row r="1212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1212" s="0" t="s">
+    <row r="1212" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1212" s="2" t="s">
         <v>2291</v>
       </c>
-      <c r="C1212" s="0" t="s">
+      <c r="C1212" s="2" t="s">
         <v>2292</v>
       </c>
     </row>
@@ -35363,12 +35369,12 @@
       <c r="B1213" s="0" t="s">
         <v>2293</v>
       </c>
+      <c r="C1213" s="0" t="s">
+        <v>2294</v>
+      </c>
     </row>
     <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1214" s="0" t="s">
-        <v>2294</v>
-      </c>
-      <c r="C1214" s="0" t="s">
         <v>2295</v>
       </c>
     </row>
@@ -35441,15 +35447,15 @@
         <v>2312</v>
       </c>
       <c r="C1223" s="0" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1224" s="0" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C1224" s="0" t="s">
         <v>2313</v>
-      </c>
-      <c r="C1224" s="0" t="s">
-        <v>2314</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35472,12 +35478,12 @@
       <c r="B1227" s="0" t="s">
         <v>2319</v>
       </c>
+      <c r="C1227" s="0" t="s">
+        <v>2320</v>
+      </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1228" s="0" t="s">
-        <v>2320</v>
-      </c>
-      <c r="C1228" s="0" t="s">
         <v>2321</v>
       </c>
     </row>
@@ -35557,12 +35563,12 @@
       <c r="B1238" s="0" t="s">
         <v>2340</v>
       </c>
+      <c r="C1238" s="0" t="s">
+        <v>2341</v>
+      </c>
     </row>
     <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1239" s="0" t="s">
-        <v>2341</v>
-      </c>
-      <c r="C1239" s="0" t="s">
         <v>2342</v>
       </c>
     </row>
@@ -35582,19 +35588,19 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="1242" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1242" s="2" t="s">
+    <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1242" s="0" t="s">
         <v>2347</v>
       </c>
-      <c r="C1242" s="2" t="s">
+      <c r="C1242" s="0" t="s">
         <v>2348</v>
       </c>
     </row>
-    <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1243" s="0" t="s">
+    <row r="1243" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1243" s="2" t="s">
         <v>2349</v>
       </c>
-      <c r="C1243" s="0" t="s">
+      <c r="C1243" s="2" t="s">
         <v>2350</v>
       </c>
     </row>
@@ -35710,19 +35716,19 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="1258" customFormat="false" ht="94.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1258" s="2" t="s">
+    <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1258" s="0" t="s">
         <v>2379</v>
       </c>
-      <c r="C1258" s="2" t="s">
+      <c r="C1258" s="0" t="s">
         <v>2380</v>
       </c>
     </row>
-    <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1259" s="0" t="s">
+    <row r="1259" customFormat="false" ht="94.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1259" s="2" t="s">
         <v>2381</v>
       </c>
-      <c r="C1259" s="0" t="s">
+      <c r="C1259" s="2" t="s">
         <v>2382</v>
       </c>
     </row>
@@ -35786,12 +35792,12 @@
       <c r="B1267" s="0" t="s">
         <v>2397</v>
       </c>
+      <c r="C1267" s="0" t="s">
+        <v>2398</v>
+      </c>
     </row>
     <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1268" s="0" t="s">
-        <v>2398</v>
-      </c>
-      <c r="C1268" s="0" t="s">
         <v>2399</v>
       </c>
     </row>
@@ -35824,12 +35830,12 @@
         <v>2406</v>
       </c>
       <c r="C1272" s="0" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1273" s="0" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="C1273" s="0" t="s">
         <v>2408</v>
@@ -35896,15 +35902,15 @@
         <v>2423</v>
       </c>
       <c r="C1281" s="0" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1282" s="0" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C1282" s="0" t="s">
         <v>2424</v>
-      </c>
-      <c r="C1282" s="0" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35928,15 +35934,15 @@
         <v>2430</v>
       </c>
       <c r="C1285" s="0" t="s">
-        <v>2425</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1286" s="0" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="C1286" s="0" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36048,12 +36054,12 @@
         <v>2459</v>
       </c>
       <c r="C1300" s="0" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1301" s="0" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="C1301" s="0" t="s">
         <v>2461</v>
@@ -36071,12 +36077,12 @@
       <c r="B1303" s="0" t="s">
         <v>2464</v>
       </c>
+      <c r="C1303" s="0" t="s">
+        <v>2465</v>
+      </c>
     </row>
     <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1304" s="0" t="s">
-        <v>2465</v>
-      </c>
-      <c r="C1304" s="0" t="s">
         <v>2466</v>
       </c>
     </row>
@@ -36245,15 +36251,15 @@
         <v>2507</v>
       </c>
       <c r="C1325" s="0" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1326" s="0" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C1326" s="0" t="s">
         <v>2508</v>
-      </c>
-      <c r="C1326" s="0" t="s">
-        <v>2509</v>
       </c>
     </row>
     <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36341,15 +36347,15 @@
         <v>2530</v>
       </c>
       <c r="C1337" s="0" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1338" s="0" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C1338" s="0" t="s">
         <v>2531</v>
-      </c>
-      <c r="C1338" s="0" t="s">
-        <v>2532</v>
       </c>
     </row>
     <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36429,15 +36435,15 @@
         <v>2551</v>
       </c>
       <c r="C1348" s="0" t="s">
-        <v>2536</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1349" s="0" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="C1349" s="0" t="s">
-        <v>2553</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36493,15 +36499,15 @@
         <v>2566</v>
       </c>
       <c r="C1356" s="0" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1357" s="0" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C1357" s="0" t="s">
         <v>2567</v>
-      </c>
-      <c r="C1357" s="0" t="s">
-        <v>2568</v>
       </c>
     </row>
     <row r="1358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36677,12 +36683,12 @@
         <v>2611</v>
       </c>
       <c r="C1379" s="0" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1380" s="0" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="C1380" s="0" t="s">
         <v>2613</v>
@@ -36692,12 +36698,12 @@
       <c r="B1381" s="0" t="s">
         <v>2614</v>
       </c>
+      <c r="C1381" s="0" t="s">
+        <v>2615</v>
+      </c>
     </row>
     <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1382" s="0" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C1382" s="0" t="s">
         <v>2616</v>
       </c>
     </row>
@@ -36753,18 +36759,18 @@
       <c r="B1389" s="0" t="s">
         <v>2629</v>
       </c>
+      <c r="C1389" s="0" t="s">
+        <v>2630</v>
+      </c>
     </row>
     <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1390" s="0" t="s">
-        <v>2630</v>
-      </c>
-      <c r="C1390" s="0" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1391" s="0" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="C1391" s="0" t="s">
         <v>2632</v>
@@ -36783,15 +36789,15 @@
         <v>2635</v>
       </c>
       <c r="C1393" s="0" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1394" s="0" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="C1394" s="0" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36847,15 +36853,15 @@
         <v>2650</v>
       </c>
       <c r="C1401" s="0" t="s">
-        <v>2574</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1402" s="0" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="C1402" s="0" t="s">
-        <v>2652</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36870,12 +36876,12 @@
       <c r="B1404" s="0" t="s">
         <v>2655</v>
       </c>
+      <c r="C1404" s="0" t="s">
+        <v>2656</v>
+      </c>
     </row>
     <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1405" s="0" t="s">
-        <v>2656</v>
-      </c>
-      <c r="C1405" s="0" t="s">
         <v>2657</v>
       </c>
     </row>
@@ -37063,19 +37069,19 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="1429" customFormat="false" ht="59.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1429" s="2" t="s">
+    <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1429" s="0" t="s">
         <v>2704</v>
       </c>
-      <c r="C1429" s="2" t="s">
+      <c r="C1429" s="0" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1430" s="0" t="s">
+    <row r="1430" customFormat="false" ht="59.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1430" s="2" t="s">
         <v>2706</v>
       </c>
-      <c r="C1430" s="0" t="s">
+      <c r="C1430" s="2" t="s">
         <v>2707</v>
       </c>
     </row>
@@ -37132,20 +37138,20 @@
         <v>2720</v>
       </c>
       <c r="C1437" s="0" t="s">
-        <v>1218</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="1438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1438" s="0" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="C1438" s="0" t="s">
-        <v>2721</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1439" s="0" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="C1439" s="0" t="s">
         <v>2723</v>
@@ -37167,19 +37173,19 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="1442" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1442" s="2" t="s">
+    <row r="1442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1442" s="0" t="s">
         <v>2728</v>
       </c>
-      <c r="C1442" s="2" t="s">
+      <c r="C1442" s="0" t="s">
         <v>2729</v>
       </c>
     </row>
-    <row r="1443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1443" s="0" t="s">
+    <row r="1443" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1443" s="2" t="s">
         <v>2730</v>
       </c>
-      <c r="C1443" s="0" t="s">
+      <c r="C1443" s="2" t="s">
         <v>2731</v>
       </c>
     </row>
@@ -37236,12 +37242,12 @@
         <v>2744</v>
       </c>
       <c r="C1450" s="0" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1451" s="0" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="C1451" s="0" t="s">
         <v>2746</v>
@@ -37268,12 +37274,12 @@
         <v>2751</v>
       </c>
       <c r="C1454" s="0" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1455" s="0" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="C1455" s="0" t="s">
         <v>2753</v>
@@ -37331,12 +37337,12 @@
       <c r="B1462" s="0" t="s">
         <v>2766</v>
       </c>
+      <c r="C1462" s="0" t="s">
+        <v>2767</v>
+      </c>
     </row>
     <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1463" s="0" t="s">
-        <v>2767</v>
-      </c>
-      <c r="C1463" s="0" t="s">
         <v>2768</v>
       </c>
     </row>
@@ -37585,15 +37591,15 @@
         <v>2829</v>
       </c>
       <c r="C1494" s="0" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1495" s="0" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C1495" s="0" t="s">
         <v>2830</v>
-      </c>
-      <c r="C1495" s="0" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37673,15 +37679,15 @@
         <v>2850</v>
       </c>
       <c r="C1505" s="0" t="s">
-        <v>2820</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1506" s="0" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="C1506" s="0" t="s">
-        <v>2852</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37724,16 +37730,16 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="1512" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1512" s="2" t="s">
+    <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1512" s="0" t="s">
         <v>2863</v>
       </c>
-    </row>
-    <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1513" s="0" t="s">
+      <c r="C1512" s="0" t="s">
         <v>2864</v>
       </c>
-      <c r="C1513" s="0" t="s">
+    </row>
+    <row r="1513" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1513" s="2" t="s">
         <v>2865</v>
       </c>
     </row>
@@ -37881,16 +37887,16 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="1532" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1532" s="2" t="s">
+    <row r="1532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1532" s="0" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1533" s="0" t="s">
+      <c r="C1532" s="0" t="s">
         <v>2903</v>
       </c>
-      <c r="C1533" s="0" t="s">
+    </row>
+    <row r="1533" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1533" s="2" t="s">
         <v>2904</v>
       </c>
     </row>
@@ -37914,7 +37920,7 @@
       <c r="B1536" s="0" t="s">
         <v>2909</v>
       </c>
-      <c r="C1536" s="3" t="s">
+      <c r="C1536" s="0" t="s">
         <v>2910</v>
       </c>
     </row>
@@ -37922,7 +37928,7 @@
       <c r="B1537" s="0" t="s">
         <v>2911</v>
       </c>
-      <c r="C1537" s="0" t="s">
+      <c r="C1537" s="3" t="s">
         <v>2912</v>
       </c>
     </row>
@@ -37931,15 +37937,15 @@
         <v>2913</v>
       </c>
       <c r="C1538" s="0" t="s">
-        <v>2540</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1539" s="0" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="C1539" s="0" t="s">
-        <v>2915</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37971,15 +37977,15 @@
         <v>2922</v>
       </c>
       <c r="C1543" s="0" t="s">
-        <v>2557</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="1544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1544" s="0" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="C1544" s="0" t="s">
-        <v>2924</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37987,15 +37993,15 @@
         <v>2925</v>
       </c>
       <c r="C1545" s="0" t="s">
-        <v>2561</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1546" s="0" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="C1546" s="0" t="s">
-        <v>2927</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38003,23 +38009,23 @@
         <v>2928</v>
       </c>
       <c r="C1547" s="0" t="s">
-        <v>2546</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1548" s="0" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="C1548" s="0" t="s">
-        <v>2572</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1549" s="0" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="C1549" s="0" t="s">
-        <v>2931</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38035,12 +38041,12 @@
         <v>2934</v>
       </c>
       <c r="C1551" s="0" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="1552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1552" s="0" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="C1552" s="0" t="s">
         <v>2936</v>
@@ -38243,20 +38249,20 @@
         <v>2985</v>
       </c>
       <c r="C1577" s="0" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1578" s="0" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="C1578" s="0" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="1579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1579" s="0" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="C1579" s="0" t="s">
         <v>2988</v>
@@ -38310,24 +38316,24 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="1586" customFormat="false" ht="82.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1586" s="2" t="s">
+    <row r="1586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1586" s="0" t="s">
         <v>3001</v>
       </c>
-    </row>
-    <row r="1587" customFormat="false" ht="59.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1586" s="0" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1587" customFormat="false" ht="82.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1587" s="2" t="s">
-        <v>3002</v>
-      </c>
-      <c r="C1587" s="2" t="s">
         <v>3003</v>
       </c>
     </row>
-    <row r="1588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1588" s="0" t="s">
+    <row r="1588" customFormat="false" ht="59.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1588" s="2" t="s">
         <v>3004</v>
       </c>
-      <c r="C1588" s="0" t="s">
+      <c r="C1588" s="2" t="s">
         <v>3005</v>
       </c>
     </row>
@@ -38336,15 +38342,15 @@
         <v>3006</v>
       </c>
       <c r="C1589" s="0" t="s">
-        <v>3000</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1590" s="0" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="C1590" s="0" t="s">
-        <v>3008</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38480,15 +38486,15 @@
         <v>3041</v>
       </c>
       <c r="C1607" s="0" t="s">
-        <v>3040</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="1608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1608" s="0" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C1608" s="0" t="s">
         <v>3042</v>
-      </c>
-      <c r="C1608" s="0" t="s">
-        <v>3043</v>
       </c>
     </row>
     <row r="1609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38544,15 +38550,15 @@
         <v>3056</v>
       </c>
       <c r="C1615" s="0" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1616" s="0" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C1616" s="0" t="s">
         <v>3057</v>
-      </c>
-      <c r="C1616" s="0" t="s">
-        <v>3058</v>
       </c>
     </row>
     <row r="1617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38631,12 +38637,12 @@
       <c r="B1626" s="0" t="s">
         <v>3077</v>
       </c>
+      <c r="C1626" s="0" t="s">
+        <v>3078</v>
+      </c>
     </row>
     <row r="1627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1627" s="0" t="s">
-        <v>3078</v>
-      </c>
-      <c r="C1627" s="0" t="s">
         <v>3079</v>
       </c>
     </row>
@@ -38708,20 +38714,20 @@
       <c r="B1636" s="0" t="s">
         <v>3096</v>
       </c>
-    </row>
-    <row r="1637" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1637" s="2" t="s">
+      <c r="C1636" s="0" t="s">
         <v>3097</v>
       </c>
-      <c r="C1637" s="2" t="s">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="1638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1638" s="0" t="s">
+    </row>
+    <row r="1637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1637" s="0" t="s">
         <v>3098</v>
       </c>
-      <c r="C1638" s="0" t="s">
+    </row>
+    <row r="1638" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1638" s="2" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C1638" s="2" t="s">
         <v>3099</v>
       </c>
     </row>
@@ -38741,19 +38747,19 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="1641" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1641" s="2" t="s">
+    <row r="1641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1641" s="0" t="s">
         <v>3104</v>
       </c>
-      <c r="C1641" s="2" t="s">
+      <c r="C1641" s="0" t="s">
         <v>3105</v>
       </c>
     </row>
-    <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1642" s="0" t="s">
+    <row r="1642" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1642" s="2" t="s">
         <v>3106</v>
       </c>
-      <c r="C1642" s="0" t="s">
+      <c r="C1642" s="2" t="s">
         <v>3107</v>
       </c>
     </row>
@@ -38801,12 +38807,12 @@
       <c r="B1648" s="0" t="s">
         <v>3118</v>
       </c>
+      <c r="C1648" s="0" t="s">
+        <v>3119</v>
+      </c>
     </row>
     <row r="1649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1649" s="0" t="s">
-        <v>3119</v>
-      </c>
-      <c r="C1649" s="0" t="s">
         <v>3120</v>
       </c>
     </row>
@@ -38839,12 +38845,12 @@
         <v>3127</v>
       </c>
       <c r="C1653" s="0" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1654" s="0" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="C1654" s="0" t="s">
         <v>3129</v>
@@ -38886,27 +38892,27 @@
       <c r="B1659" s="0" t="s">
         <v>3138</v>
       </c>
+      <c r="C1659" s="0" t="s">
+        <v>3139</v>
+      </c>
     </row>
     <row r="1660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1660" s="0" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1661" s="0" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1662" s="0" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="1663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1663" s="0" t="s">
-        <v>3142</v>
-      </c>
-      <c r="C1663" s="0" t="s">
         <v>3143</v>
       </c>
     </row>
@@ -38963,15 +38969,15 @@
         <v>3156</v>
       </c>
       <c r="C1670" s="0" t="s">
-        <v>1145</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1671" s="0" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="C1671" s="0" t="s">
-        <v>3158</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39043,15 +39049,15 @@
         <v>3175</v>
       </c>
       <c r="C1680" s="0" t="s">
-        <v>1547</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="1681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1681" s="0" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="C1681" s="0" t="s">
-        <v>3177</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39074,12 +39080,12 @@
       <c r="B1684" s="0" t="s">
         <v>3182</v>
       </c>
+      <c r="C1684" s="0" t="s">
+        <v>3183</v>
+      </c>
     </row>
     <row r="1685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1685" s="0" t="s">
-        <v>3183</v>
-      </c>
-      <c r="C1685" s="0" t="s">
         <v>3184</v>
       </c>
     </row>
@@ -39096,20 +39102,20 @@
         <v>3187</v>
       </c>
       <c r="C1687" s="0" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1688" s="0" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="C1688" s="0" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="1689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1689" s="0" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="C1689" s="0" t="s">
         <v>3190</v>
@@ -39120,12 +39126,12 @@
         <v>3191</v>
       </c>
       <c r="C1690" s="0" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="1691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1691" s="0" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="C1691" s="0" t="s">
         <v>3193</v>
@@ -39135,12 +39141,12 @@
       <c r="B1692" s="0" t="s">
         <v>3194</v>
       </c>
+      <c r="C1692" s="0" t="s">
+        <v>3195</v>
+      </c>
     </row>
     <row r="1693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1693" s="0" t="s">
-        <v>3195</v>
-      </c>
-      <c r="C1693" s="0" t="s">
         <v>3196</v>
       </c>
     </row>
@@ -39157,15 +39163,15 @@
         <v>3199</v>
       </c>
       <c r="C1695" s="0" t="s">
-        <v>3198</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="1696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1696" s="0" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C1696" s="0" t="s">
         <v>3200</v>
-      </c>
-      <c r="C1696" s="0" t="s">
-        <v>3201</v>
       </c>
     </row>
     <row r="1697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39173,15 +39179,15 @@
         <v>3202</v>
       </c>
       <c r="C1697" s="0" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="1698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1698" s="0" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C1698" s="0" t="s">
         <v>3203</v>
-      </c>
-      <c r="C1698" s="0" t="s">
-        <v>3204</v>
       </c>
     </row>
     <row r="1699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39264,19 +39270,19 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="1709" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1709" s="2" t="s">
+    <row r="1709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1709" s="0" t="s">
         <v>3225</v>
       </c>
-      <c r="C1709" s="2" t="s">
+      <c r="C1709" s="0" t="s">
         <v>3226</v>
       </c>
     </row>
-    <row r="1710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1710" s="0" t="s">
+    <row r="1710" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1710" s="2" t="s">
         <v>3227</v>
       </c>
-      <c r="C1710" s="0" t="s">
+      <c r="C1710" s="2" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -39285,12 +39291,12 @@
         <v>3229</v>
       </c>
       <c r="C1711" s="0" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="1712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1712" s="0" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="C1712" s="0" t="s">
         <v>3231</v>
@@ -39348,18 +39354,18 @@
       <c r="B1719" s="0" t="s">
         <v>3244</v>
       </c>
+      <c r="C1719" s="0" t="s">
+        <v>3245</v>
+      </c>
     </row>
     <row r="1720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1720" s="0" t="s">
-        <v>3245</v>
-      </c>
-      <c r="C1720" s="0" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="1721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1721" s="0" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="C1721" s="0" t="s">
         <v>3247</v>
@@ -39413,19 +39419,19 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="1728" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1728" s="2" t="s">
+    <row r="1728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1728" s="0" t="s">
         <v>3260</v>
       </c>
-      <c r="C1728" s="2" t="s">
+      <c r="C1728" s="0" t="s">
         <v>3261</v>
       </c>
     </row>
-    <row r="1729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1729" s="0" t="s">
+    <row r="1729" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1729" s="2" t="s">
         <v>3262</v>
       </c>
-      <c r="C1729" s="0" t="s">
+      <c r="C1729" s="2" t="s">
         <v>3263</v>
       </c>
     </row>
@@ -39442,15 +39448,15 @@
         <v>3266</v>
       </c>
       <c r="C1731" s="0" t="s">
-        <v>2311</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="1732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1732" s="0" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="C1732" s="0" t="s">
-        <v>3268</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39469,19 +39475,19 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="1735" customFormat="false" ht="649.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1735" s="2" t="s">
+    <row r="1735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1735" s="0" t="s">
         <v>3273</v>
       </c>
-      <c r="C1735" s="2" t="s">
+      <c r="C1735" s="0" t="s">
         <v>3274</v>
       </c>
     </row>
-    <row r="1736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1736" s="0" t="s">
+    <row r="1736" customFormat="false" ht="649.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1736" s="2" t="s">
         <v>3275</v>
       </c>
-      <c r="C1736" s="0" t="s">
+      <c r="C1736" s="2" t="s">
         <v>3276</v>
       </c>
     </row>
@@ -39586,12 +39592,12 @@
         <v>3301</v>
       </c>
       <c r="C1749" s="0" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1750" s="0" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="C1750" s="0" t="s">
         <v>3303</v>
@@ -39666,15 +39672,15 @@
         <v>3320</v>
       </c>
       <c r="C1759" s="0" t="s">
-        <v>3319</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="1760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1760" s="0" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C1760" s="0" t="s">
         <v>3321</v>
-      </c>
-      <c r="C1760" s="0" t="s">
-        <v>3322</v>
       </c>
     </row>
     <row r="1761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39778,12 +39784,12 @@
         <v>3347</v>
       </c>
       <c r="C1773" s="0" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1774" s="0" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="C1774" s="0" t="s">
         <v>3349</v>
@@ -39794,12 +39800,12 @@
         <v>3350</v>
       </c>
       <c r="C1775" s="0" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="1776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1776" s="0" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="C1776" s="0" t="s">
         <v>3352</v>
@@ -39810,36 +39816,36 @@
         <v>3353</v>
       </c>
       <c r="C1777" s="0" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="1778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1778" s="0" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="C1778" s="0" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="1779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1779" s="0" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="C1779" s="0" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="1780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1780" s="0" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="C1780" s="0" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="1781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1781" s="0" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="C1781" s="0" t="s">
         <v>3358</v>
@@ -39850,12 +39856,12 @@
         <v>3359</v>
       </c>
       <c r="C1782" s="0" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="1783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1783" s="0" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="C1783" s="0" t="s">
         <v>3361</v>
@@ -39922,15 +39928,15 @@
         <v>3376</v>
       </c>
       <c r="C1791" s="0" t="s">
-        <v>1641</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="1792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1792" s="0" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="C1792" s="0" t="s">
-        <v>3378</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39994,12 +40000,12 @@
         <v>3393</v>
       </c>
       <c r="C1800" s="0" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1801" s="0" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="C1801" s="0" t="s">
         <v>3395</v>
@@ -40141,19 +40147,19 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="1819" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1819" s="2" t="s">
+    <row r="1819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1819" s="0" t="s">
         <v>3430</v>
       </c>
-      <c r="C1819" s="2" t="s">
+      <c r="C1819" s="0" t="s">
         <v>3431</v>
       </c>
     </row>
-    <row r="1820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1820" s="0" t="s">
+    <row r="1820" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1820" s="2" t="s">
         <v>3432</v>
       </c>
-      <c r="C1820" s="0" t="s">
+      <c r="C1820" s="2" t="s">
         <v>3433</v>
       </c>
     </row>
@@ -40266,12 +40272,12 @@
         <v>3460</v>
       </c>
       <c r="C1834" s="0" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1835" s="0" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="C1835" s="0" t="s">
         <v>3462</v>
@@ -40282,12 +40288,12 @@
         <v>3463</v>
       </c>
       <c r="C1836" s="0" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="1837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1837" s="0" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="C1837" s="0" t="s">
         <v>3465</v>
@@ -40333,19 +40339,19 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="1843" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1843" s="2" t="s">
+    <row r="1843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1843" s="0" t="s">
         <v>3476</v>
       </c>
-      <c r="C1843" s="2" t="s">
+      <c r="C1843" s="0" t="s">
         <v>3477</v>
       </c>
     </row>
-    <row r="1844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1844" s="0" t="s">
+    <row r="1844" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1844" s="2" t="s">
         <v>3478</v>
       </c>
-      <c r="C1844" s="0" t="s">
+      <c r="C1844" s="2" t="s">
         <v>3479</v>
       </c>
     </row>
@@ -40369,12 +40375,12 @@
       <c r="B1847" s="0" t="s">
         <v>3484</v>
       </c>
+      <c r="C1847" s="0" t="s">
+        <v>3485</v>
+      </c>
     </row>
     <row r="1848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1848" s="0" t="s">
-        <v>3485</v>
-      </c>
-      <c r="C1848" s="0" t="s">
         <v>3486</v>
       </c>
     </row>
@@ -40382,26 +40388,26 @@
       <c r="B1849" s="0" t="s">
         <v>3487</v>
       </c>
+      <c r="C1849" s="0" t="s">
+        <v>3488</v>
+      </c>
     </row>
     <row r="1850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1850" s="0" t="s">
-        <v>3488</v>
-      </c>
-      <c r="C1850" s="0" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1851" s="0" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="C1851" s="0" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="1852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1852" s="0" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="C1852" s="0" t="s">
         <v>3491</v>
@@ -40443,12 +40449,12 @@
       <c r="B1857" s="0" t="s">
         <v>3500</v>
       </c>
+      <c r="C1857" s="0" t="s">
+        <v>3501</v>
+      </c>
     </row>
     <row r="1858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1858" s="0" t="s">
-        <v>3501</v>
-      </c>
-      <c r="C1858" s="0" t="s">
         <v>3502</v>
       </c>
     </row>
@@ -40537,23 +40543,23 @@
         <v>3523</v>
       </c>
       <c r="C1869" s="0" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="1870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1870" s="0" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="C1870" s="0" t="s">
-        <v>2105</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1871" s="0" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="C1871" s="0" t="s">
-        <v>3526</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40593,15 +40599,15 @@
         <v>3535</v>
       </c>
       <c r="C1876" s="0" t="s">
-        <v>3523</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1877" s="0" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="C1877" s="0" t="s">
-        <v>3537</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40684,16 +40690,16 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="1888" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1888" s="2" t="s">
+    <row r="1888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1888" s="0" t="s">
         <v>3558</v>
       </c>
-    </row>
-    <row r="1889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1889" s="0" t="s">
+      <c r="C1888" s="0" t="s">
         <v>3559</v>
       </c>
-      <c r="C1889" s="0" t="s">
+    </row>
+    <row r="1889" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1889" s="2" t="s">
         <v>3560</v>
       </c>
     </row>
@@ -40705,16 +40711,16 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="1891" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1891" s="2" t="s">
+    <row r="1891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1891" s="0" t="s">
         <v>3563</v>
       </c>
-    </row>
-    <row r="1892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1892" s="0" t="s">
+      <c r="C1891" s="0" t="s">
         <v>3564</v>
       </c>
-      <c r="C1892" s="0" t="s">
+    </row>
+    <row r="1892" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1892" s="2" t="s">
         <v>3565</v>
       </c>
     </row>
@@ -40858,17 +40864,17 @@
       <c r="B1910" s="0" t="s">
         <v>3600</v>
       </c>
+      <c r="C1910" s="0" t="s">
+        <v>3601</v>
+      </c>
     </row>
     <row r="1911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1911" s="0" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1912" s="0" t="s">
-        <v>3602</v>
-      </c>
-      <c r="C1912" s="0" t="s">
         <v>3603</v>
       </c>
     </row>
@@ -40917,22 +40923,22 @@
         <v>3614</v>
       </c>
       <c r="C1918" s="0" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="1919" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1919" s="2" t="s">
         <v>3615</v>
       </c>
-      <c r="C1919" s="2" t="s">
+    </row>
+    <row r="1919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1919" s="0" t="s">
         <v>3616</v>
       </c>
-    </row>
-    <row r="1920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1920" s="0" t="s">
+      <c r="C1919" s="0" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1920" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1920" s="2" t="s">
         <v>3617</v>
       </c>
-      <c r="C1920" s="0" t="s">
+      <c r="C1920" s="2" t="s">
         <v>3618</v>
       </c>
     </row>
@@ -40981,23 +40987,23 @@
         <v>3629</v>
       </c>
       <c r="C1926" s="0" t="s">
-        <v>1808</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="1927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1927" s="0" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="C1927" s="0" t="s">
-        <v>2135</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1928" s="0" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="C1928" s="0" t="s">
-        <v>3632</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41028,21 +41034,21 @@
       <c r="B1932" s="0" t="s">
         <v>3639</v>
       </c>
+      <c r="C1932" s="0" t="s">
+        <v>3640</v>
+      </c>
     </row>
     <row r="1933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1933" s="0" t="s">
-        <v>3640</v>
-      </c>
-      <c r="C1933" s="0" t="s">
-        <v>742</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1934" s="0" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="C1934" s="0" t="s">
-        <v>3642</v>
+        <v>742</v>
       </c>
     </row>
     <row r="1935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41130,23 +41136,23 @@
         <v>3663</v>
       </c>
       <c r="C1945" s="0" t="s">
-        <v>3662</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1946" s="0" t="s">
+        <v>3665</v>
+      </c>
+      <c r="C1946" s="0" t="s">
         <v>3664</v>
-      </c>
-      <c r="C1946" s="0" t="s">
-        <v>3662</v>
       </c>
     </row>
     <row r="1947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1947" s="0" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C1947" s="0" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41162,12 +41168,12 @@
         <v>3669</v>
       </c>
       <c r="C1949" s="0" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="1950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1950" s="0" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="C1950" s="0" t="s">
         <v>3671</v>
@@ -41201,12 +41207,12 @@
       <c r="B1954" s="0" t="s">
         <v>3678</v>
       </c>
+      <c r="C1954" s="0" t="s">
+        <v>3679</v>
+      </c>
     </row>
     <row r="1955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1955" s="0" t="s">
-        <v>3679</v>
-      </c>
-      <c r="C1955" s="0" t="s">
         <v>3680</v>
       </c>
     </row>
@@ -41239,12 +41245,12 @@
         <v>3687</v>
       </c>
       <c r="C1959" s="0" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="1960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1960" s="0" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="C1960" s="0" t="s">
         <v>3689</v>
@@ -41271,15 +41277,15 @@
         <v>3694</v>
       </c>
       <c r="C1963" s="0" t="s">
-        <v>588</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="1964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1964" s="0" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="C1964" s="0" t="s">
-        <v>3696</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41319,20 +41325,20 @@
         <v>3705</v>
       </c>
       <c r="C1969" s="0" t="s">
-        <v>3696</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="1970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1970" s="0" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="C1970" s="0" t="s">
-        <v>3706</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="1971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1971" s="0" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="C1971" s="0" t="s">
         <v>3708</v>
@@ -41351,15 +41357,15 @@
         <v>3711</v>
       </c>
       <c r="C1973" s="0" t="s">
-        <v>3710</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="1974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1974" s="0" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C1974" s="0" t="s">
         <v>3712</v>
-      </c>
-      <c r="C1974" s="0" t="s">
-        <v>3713</v>
       </c>
     </row>
     <row r="1975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41462,12 +41468,12 @@
       <c r="B1987" s="0" t="s">
         <v>3738</v>
       </c>
+      <c r="C1987" s="0" t="s">
+        <v>3739</v>
+      </c>
     </row>
     <row r="1988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1988" s="0" t="s">
-        <v>3739</v>
-      </c>
-      <c r="C1988" s="0" t="s">
         <v>3740</v>
       </c>
     </row>
@@ -41531,12 +41537,12 @@
       <c r="B1996" s="0" t="s">
         <v>3755</v>
       </c>
+      <c r="C1996" s="0" t="s">
+        <v>3756</v>
+      </c>
     </row>
     <row r="1997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1997" s="0" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C1997" s="0" t="s">
         <v>3757</v>
       </c>
     </row>
@@ -41760,12 +41766,12 @@
       <c r="B2025" s="0" t="s">
         <v>3812</v>
       </c>
+      <c r="C2025" s="0" t="s">
+        <v>3813</v>
+      </c>
     </row>
     <row r="2026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2026" s="0" t="s">
-        <v>3813</v>
-      </c>
-      <c r="C2026" s="0" t="s">
         <v>3814</v>
       </c>
     </row>
@@ -41821,12 +41827,12 @@
       <c r="B2033" s="0" t="s">
         <v>3827</v>
       </c>
+      <c r="C2033" s="0" t="s">
+        <v>3828</v>
+      </c>
     </row>
     <row r="2034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2034" s="0" t="s">
-        <v>3828</v>
-      </c>
-      <c r="C2034" s="0" t="s">
         <v>3829</v>
       </c>
     </row>
@@ -41854,19 +41860,19 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="2038" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2038" s="2" t="s">
+    <row r="2038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2038" s="0" t="s">
         <v>3836</v>
       </c>
-      <c r="C2038" s="2" t="s">
+      <c r="C2038" s="0" t="s">
         <v>3837</v>
       </c>
     </row>
-    <row r="2039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2039" s="0" t="s">
+    <row r="2039" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2039" s="2" t="s">
         <v>3838</v>
       </c>
-      <c r="C2039" s="0" t="s">
+      <c r="C2039" s="2" t="s">
         <v>3839</v>
       </c>
     </row>
@@ -41907,15 +41913,15 @@
         <v>3848</v>
       </c>
       <c r="C2044" s="0" t="s">
-        <v>368</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2045" s="0" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="C2045" s="0" t="s">
-        <v>3850</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41955,15 +41961,15 @@
         <v>3859</v>
       </c>
       <c r="C2050" s="0" t="s">
-        <v>2054</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="2051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2051" s="0" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="C2051" s="0" t="s">
-        <v>3861</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="2052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42067,15 +42073,15 @@
         <v>3886</v>
       </c>
       <c r="C2064" s="0" t="s">
-        <v>3642</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="2065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2065" s="0" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="C2065" s="0" t="s">
-        <v>3888</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="2066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42123,15 +42129,15 @@
         <v>3899</v>
       </c>
       <c r="C2071" s="0" t="s">
-        <v>401</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="2072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2072" s="0" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="C2072" s="0" t="s">
-        <v>3901</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42155,12 +42161,12 @@
         <v>3906</v>
       </c>
       <c r="C2075" s="0" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="2076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2076" s="0" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="C2076" s="0" t="s">
         <v>3908</v>
@@ -42170,17 +42176,17 @@
       <c r="B2077" s="0" t="s">
         <v>3909</v>
       </c>
+      <c r="C2077" s="0" t="s">
+        <v>3910</v>
+      </c>
     </row>
     <row r="2078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2078" s="0" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="2079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2079" s="0" t="s">
-        <v>3911</v>
-      </c>
-      <c r="C2079" s="0" t="s">
         <v>3912</v>
       </c>
     </row>
@@ -42189,60 +42195,60 @@
         <v>3913</v>
       </c>
       <c r="C2080" s="0" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="2081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2081" s="0" t="s">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="C2081" s="0" t="s">
-        <v>3914</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="2082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2082" s="0" t="s">
-        <v>3915</v>
+        <v>3916</v>
       </c>
       <c r="C2082" s="0" t="s">
-        <v>3915</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="2083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2083" s="0" t="s">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="C2083" s="0" t="s">
-        <v>3916</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="2084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2084" s="0" t="s">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="C2084" s="0" t="s">
-        <v>3917</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="2085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2085" s="0" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="C2085" s="0" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="2086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2086" s="0" t="s">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="C2086" s="0" t="s">
-        <v>3919</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="2087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2087" s="0" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="C2087" s="0" t="s">
         <v>3921</v>
@@ -42293,23 +42299,23 @@
         <v>3932</v>
       </c>
       <c r="C2093" s="0" t="s">
-        <v>3927</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="2094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2094" s="0" t="s">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="C2094" s="0" t="s">
-        <v>2517</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="2095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2095" s="0" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="C2095" s="0" t="s">
-        <v>3935</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="2096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42341,15 +42347,15 @@
         <v>3942</v>
       </c>
       <c r="C2099" s="0" t="s">
-        <v>3941</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="2100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2100" s="0" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C2100" s="0" t="s">
         <v>3943</v>
-      </c>
-      <c r="C2100" s="0" t="s">
-        <v>3944</v>
       </c>
     </row>
     <row r="2101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42461,12 +42467,12 @@
         <v>3971</v>
       </c>
       <c r="C2114" s="0" t="s">
-        <v>3971</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="2115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2115" s="0" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="C2115" s="0" t="s">
         <v>3973</v>
@@ -42493,15 +42499,15 @@
         <v>3978</v>
       </c>
       <c r="C2118" s="0" t="s">
-        <v>411</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="2119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2119" s="0" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
       <c r="C2119" s="0" t="s">
-        <v>3980</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42573,12 +42579,12 @@
         <v>3997</v>
       </c>
       <c r="C2128" s="0" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="2129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2129" s="0" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="C2129" s="0" t="s">
         <v>3999</v>
@@ -42605,12 +42611,12 @@
         <v>4004</v>
       </c>
       <c r="C2132" s="0" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="2133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2133" s="0" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="C2133" s="0" t="s">
         <v>4006</v>
@@ -42629,12 +42635,12 @@
         <v>4009</v>
       </c>
       <c r="C2135" s="0" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="2136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2136" s="0" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="C2136" s="0" t="s">
         <v>4011</v>
@@ -42645,20 +42651,20 @@
         <v>4012</v>
       </c>
       <c r="C2137" s="0" t="s">
-        <v>4012</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="2138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2138" s="0" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="C2138" s="0" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="2139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2139" s="0" t="s">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="C2139" s="0" t="s">
         <v>4015</v>
@@ -42669,12 +42675,12 @@
         <v>4016</v>
       </c>
       <c r="C2140" s="0" t="s">
-        <v>4016</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="2141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2141" s="0" t="s">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C2141" s="0" t="s">
         <v>4018</v>
@@ -42701,12 +42707,12 @@
         <v>4023</v>
       </c>
       <c r="C2144" s="0" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="2145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2145" s="0" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="C2145" s="0" t="s">
         <v>4025</v>
@@ -42789,12 +42795,12 @@
         <v>4044</v>
       </c>
       <c r="C2155" s="0" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="2156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2156" s="0" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="C2156" s="0" t="s">
         <v>4046</v>
@@ -43093,12 +43099,12 @@
         <v>4119</v>
       </c>
       <c r="C2193" s="0" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="2194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2194" s="0" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="C2194" s="0" t="s">
         <v>4121</v>
@@ -43157,12 +43163,12 @@
         <v>4134</v>
       </c>
       <c r="C2201" s="0" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2202" s="0" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="C2202" s="0" t="s">
         <v>4136</v>
@@ -43189,12 +43195,12 @@
         <v>4141</v>
       </c>
       <c r="C2205" s="0" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="2206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2206" s="0" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="C2206" s="0" t="s">
         <v>4143</v>
@@ -43221,15 +43227,15 @@
         <v>4148</v>
       </c>
       <c r="C2209" s="0" t="s">
-        <v>3958</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="2210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2210" s="0" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="C2210" s="0" t="s">
-        <v>4150</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="2211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43288,19 +43294,19 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="2218" customFormat="false" ht="82.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2218" s="2" t="s">
+    <row r="2218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2218" s="0" t="s">
         <v>4165</v>
       </c>
-      <c r="C2218" s="2" t="s">
+      <c r="C2218" s="0" t="s">
         <v>4166</v>
       </c>
     </row>
-    <row r="2219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2219" s="0" t="s">
+    <row r="2219" customFormat="false" ht="82.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2219" s="2" t="s">
         <v>4167</v>
       </c>
-      <c r="C2219" s="0" t="s">
+      <c r="C2219" s="2" t="s">
         <v>4168</v>
       </c>
     </row>
@@ -43565,15 +43571,15 @@
         <v>4233</v>
       </c>
       <c r="C2252" s="0" t="s">
-        <v>2711</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="2253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2253" s="0" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="C2253" s="0" t="s">
-        <v>4235</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="2254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43581,31 +43587,31 @@
         <v>4236</v>
       </c>
       <c r="C2254" s="0" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="2255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2255" s="0" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="C2255" s="0" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="2256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2256" s="0" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="C2256" s="0" t="s">
-        <v>4231</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="2257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2257" s="0" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="C2257" s="0" t="s">
-        <v>4240</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="2258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43693,12 +43699,12 @@
         <v>4261</v>
       </c>
       <c r="C2268" s="0" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="2269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2269" s="0" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="C2269" s="0" t="s">
         <v>4263</v>
@@ -43712,24 +43718,24 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="2271" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2271" s="2" t="s">
+    <row r="2271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2271" s="0" t="s">
         <v>4266</v>
       </c>
-      <c r="C2271" s="2" t="s">
+      <c r="C2271" s="0" t="s">
         <v>4267</v>
       </c>
     </row>
-    <row r="2272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2272" s="0" t="s">
+    <row r="2272" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2272" s="2" t="s">
         <v>4268</v>
+      </c>
+      <c r="C2272" s="2" t="s">
+        <v>4269</v>
       </c>
     </row>
     <row r="2273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2273" s="0" t="s">
-        <v>4269</v>
-      </c>
-      <c r="C2273" s="0" t="s">
         <v>4270</v>
       </c>
     </row>
@@ -43810,15 +43816,15 @@
         <v>4289</v>
       </c>
       <c r="C2283" s="0" t="s">
-        <v>4288</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="2284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2284" s="0" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C2284" s="0" t="s">
         <v>4290</v>
-      </c>
-      <c r="C2284" s="0" t="s">
-        <v>4291</v>
       </c>
     </row>
     <row r="2285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43826,12 +43832,12 @@
         <v>4292</v>
       </c>
       <c r="C2285" s="0" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="2286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2286" s="0" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="C2286" s="0" t="s">
         <v>4294</v>
@@ -43850,20 +43856,20 @@
         <v>4297</v>
       </c>
       <c r="C2288" s="0" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="2289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2289" s="0" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="C2289" s="0" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="2290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2290" s="0" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="C2290" s="0" t="s">
         <v>4300</v>
@@ -43897,12 +43903,12 @@
       <c r="B2294" s="0" t="s">
         <v>4307</v>
       </c>
+      <c r="C2294" s="0" t="s">
+        <v>4308</v>
+      </c>
     </row>
     <row r="2295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2295" s="0" t="s">
-        <v>4308</v>
-      </c>
-      <c r="C2295" s="0" t="s">
         <v>4309</v>
       </c>
     </row>
@@ -43914,19 +43920,19 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="2297" customFormat="false" ht="499.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2297" s="2" t="s">
+    <row r="2297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2297" s="0" t="s">
         <v>4312</v>
       </c>
-      <c r="C2297" s="2" t="s">
+      <c r="C2297" s="0" t="s">
         <v>4313</v>
       </c>
     </row>
-    <row r="2298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2298" s="0" t="s">
+    <row r="2298" customFormat="false" ht="499.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2298" s="2" t="s">
         <v>4314</v>
       </c>
-      <c r="C2298" s="0" t="s">
+      <c r="C2298" s="2" t="s">
         <v>4315</v>
       </c>
     </row>
@@ -44095,12 +44101,12 @@
         <v>4356</v>
       </c>
       <c r="C2319" s="0" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="2320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2320" s="0" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="C2320" s="0" t="s">
         <v>4358</v>
@@ -44223,20 +44229,20 @@
         <v>4387</v>
       </c>
       <c r="C2335" s="0" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="2336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2336" s="0" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="C2336" s="0" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="2337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2337" s="0" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="C2337" s="0" t="s">
         <v>4390</v>
@@ -44255,12 +44261,12 @@
         <v>4393</v>
       </c>
       <c r="C2339" s="0" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="2340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2340" s="0" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="C2340" s="0" t="s">
         <v>4395</v>
@@ -44302,12 +44308,12 @@
       <c r="B2345" s="0" t="s">
         <v>4404</v>
       </c>
+      <c r="C2345" s="0" t="s">
+        <v>4405</v>
+      </c>
     </row>
     <row r="2346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2346" s="0" t="s">
-        <v>4405</v>
-      </c>
-      <c r="C2346" s="0" t="s">
         <v>4406</v>
       </c>
     </row>
@@ -44332,15 +44338,15 @@
         <v>4411</v>
       </c>
       <c r="C2349" s="0" t="s">
-        <v>4406</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="2350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2350" s="0" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="C2350" s="0" t="s">
-        <v>4413</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="2351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44379,12 +44385,12 @@
       <c r="B2355" s="0" t="s">
         <v>4422</v>
       </c>
+      <c r="C2355" s="0" t="s">
+        <v>4423</v>
+      </c>
     </row>
     <row r="2356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2356" s="0" t="s">
-        <v>4423</v>
-      </c>
-      <c r="C2356" s="0" t="s">
         <v>4424</v>
       </c>
     </row>
@@ -44433,15 +44439,15 @@
         <v>4435</v>
       </c>
       <c r="C2362" s="0" t="s">
-        <v>4434</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="2363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2363" s="0" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C2363" s="0" t="s">
         <v>4436</v>
-      </c>
-      <c r="C2363" s="0" t="s">
-        <v>4437</v>
       </c>
     </row>
     <row r="2364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44481,12 +44487,12 @@
         <v>4446</v>
       </c>
       <c r="C2368" s="0" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="2369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2369" s="0" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="C2369" s="0" t="s">
         <v>4448</v>
@@ -44497,12 +44503,12 @@
         <v>4449</v>
       </c>
       <c r="C2370" s="0" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="2371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2371" s="0" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="C2371" s="0" t="s">
         <v>4451</v>
@@ -44529,15 +44535,15 @@
         <v>4456</v>
       </c>
       <c r="C2374" s="0" t="s">
-        <v>4455</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="2375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2375" s="0" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C2375" s="0" t="s">
         <v>4457</v>
-      </c>
-      <c r="C2375" s="0" t="s">
-        <v>4458</v>
       </c>
     </row>
     <row r="2376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44577,15 +44583,15 @@
         <v>4467</v>
       </c>
       <c r="C2380" s="0" t="s">
-        <v>4331</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="2381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2381" s="0" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="C2381" s="0" t="s">
-        <v>4469</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="2382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44793,15 +44799,15 @@
         <v>4520</v>
       </c>
       <c r="C2407" s="0" t="s">
-        <v>3115</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="2408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2408" s="0" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="C2408" s="0" t="s">
-        <v>4522</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="2409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44828,19 +44834,19 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="2412" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2412" s="2" t="s">
+    <row r="2412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2412" s="0" t="s">
         <v>4529</v>
       </c>
-      <c r="C2412" s="2" t="s">
+      <c r="C2412" s="0" t="s">
         <v>4530</v>
       </c>
     </row>
-    <row r="2413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2413" s="0" t="s">
+    <row r="2413" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2413" s="2" t="s">
         <v>4531</v>
       </c>
-      <c r="C2413" s="0" t="s">
+      <c r="C2413" s="2" t="s">
         <v>4532</v>
       </c>
     </row>
@@ -44848,12 +44854,12 @@
       <c r="B2414" s="0" t="s">
         <v>4533</v>
       </c>
+      <c r="C2414" s="0" t="s">
+        <v>4534</v>
+      </c>
     </row>
     <row r="2415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2415" s="0" t="s">
-        <v>4534</v>
-      </c>
-      <c r="C2415" s="0" t="s">
         <v>4535</v>
       </c>
     </row>
@@ -44958,12 +44964,12 @@
         <v>4560</v>
       </c>
       <c r="C2428" s="0" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="2429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2429" s="0" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="C2429" s="0" t="s">
         <v>4562</v>
@@ -44982,23 +44988,23 @@
         <v>4565</v>
       </c>
       <c r="C2431" s="0" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="2432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2432" s="0" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="C2432" s="0" t="s">
-        <v>2056</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="2433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2433" s="0" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="C2433" s="0" t="s">
-        <v>4568</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="2434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45014,12 +45020,12 @@
         <v>4571</v>
       </c>
       <c r="C2435" s="0" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="2436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2436" s="0" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="C2436" s="0" t="s">
         <v>4573</v>
@@ -45062,12 +45068,12 @@
         <v>4582</v>
       </c>
       <c r="C2441" s="0" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="2442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2442" s="0" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="C2442" s="0" t="s">
         <v>4584</v>
@@ -45086,12 +45092,12 @@
         <v>4587</v>
       </c>
       <c r="C2444" s="0" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="2445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2445" s="0" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="C2445" s="0" t="s">
         <v>4589</v>
@@ -45166,23 +45172,23 @@
         <v>4606</v>
       </c>
       <c r="C2454" s="0" t="s">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="2455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2455" s="0" t="s">
+        <v>4608</v>
+      </c>
+      <c r="C2455" s="0" t="s">
         <v>4607</v>
-      </c>
-      <c r="C2455" s="0" t="s">
-        <v>4599</v>
       </c>
     </row>
     <row r="2456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2456" s="0" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="C2456" s="0" t="s">
-        <v>4609</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45198,15 +45204,15 @@
         <v>4612</v>
       </c>
       <c r="C2458" s="0" t="s">
-        <v>4599</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="2459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2459" s="0" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="C2459" s="0" t="s">
-        <v>4614</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45238,12 +45244,12 @@
         <v>4621</v>
       </c>
       <c r="C2463" s="0" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="2464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2464" s="0" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="C2464" s="0" t="s">
         <v>4623</v>
@@ -45270,15 +45276,15 @@
         <v>4628</v>
       </c>
       <c r="C2467" s="0" t="s">
-        <v>2297</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="2468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2468" s="0" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="C2468" s="0" t="s">
-        <v>4630</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="2469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45310,12 +45316,12 @@
         <v>4637</v>
       </c>
       <c r="C2472" s="0" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="2473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2473" s="0" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="C2473" s="0" t="s">
         <v>4639</v>
@@ -45326,20 +45332,20 @@
         <v>4640</v>
       </c>
       <c r="C2474" s="0" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="2475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2475" s="0" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="C2475" s="0" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="2476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2476" s="0" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="C2476" s="0" t="s">
         <v>4643</v>
@@ -45494,12 +45500,12 @@
         <v>4680</v>
       </c>
       <c r="C2495" s="0" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="2496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2496" s="0" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
       <c r="C2496" s="0" t="s">
         <v>4682</v>
@@ -45510,41 +45516,41 @@
         <v>4683</v>
       </c>
       <c r="C2497" s="0" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="2498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2498" s="0" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
       <c r="C2498" s="0" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="2499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2499" s="0" t="s">
-        <v>4685</v>
+        <v>4686</v>
+      </c>
+      <c r="C2499" s="0" t="s">
+        <v>4686</v>
       </c>
     </row>
     <row r="2500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2500" s="0" t="s">
-        <v>4686</v>
-      </c>
-      <c r="C2500" s="0" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="2501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2501" s="0" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
       <c r="C2501" s="0" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="2502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2502" s="0" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
       <c r="C2502" s="0" t="s">
         <v>4689</v>
@@ -45658,12 +45664,12 @@
       <c r="B2516" s="0" t="s">
         <v>4716</v>
       </c>
+      <c r="C2516" s="0" t="s">
+        <v>4717</v>
+      </c>
     </row>
     <row r="2517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2517" s="0" t="s">
-        <v>4717</v>
-      </c>
-      <c r="C2517" s="0" t="s">
         <v>4718</v>
       </c>
     </row>
@@ -45819,16 +45825,16 @@
         <v>4756</v>
       </c>
     </row>
-    <row r="2537" customFormat="false" ht="59.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2537" s="2" t="s">
+    <row r="2537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2537" s="0" t="s">
         <v>4757</v>
       </c>
-    </row>
-    <row r="2538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2538" s="0" t="s">
+      <c r="C2537" s="0" t="s">
         <v>4758</v>
       </c>
-      <c r="C2538" s="0" t="s">
+    </row>
+    <row r="2538" customFormat="false" ht="59.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2538" s="2" t="s">
         <v>4759</v>
       </c>
     </row>
@@ -45965,15 +45971,15 @@
         <v>4792</v>
       </c>
       <c r="C2555" s="0" t="s">
-        <v>4790</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="2556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2556" s="0" t="s">
-        <v>4793</v>
+        <v>4794</v>
       </c>
       <c r="C2556" s="0" t="s">
-        <v>4794</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="2557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46120,32 +46126,32 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="2575" customFormat="false" ht="1217.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2575" s="2" t="s">
+    <row r="2575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2575" s="0" t="s">
         <v>4831</v>
       </c>
-      <c r="C2575" s="2" t="s">
+      <c r="C2575" s="0" t="s">
         <v>4832</v>
       </c>
     </row>
-    <row r="2576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2576" s="0" t="s">
+    <row r="2576" customFormat="false" ht="1217.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2576" s="2" t="s">
         <v>4833</v>
       </c>
-    </row>
-    <row r="2577" customFormat="false" ht="1298.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2577" s="2" t="s">
+      <c r="C2576" s="2" t="s">
         <v>4834</v>
       </c>
-      <c r="C2577" s="2" t="s">
+    </row>
+    <row r="2577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2577" s="0" t="s">
         <v>4835</v>
       </c>
     </row>
-    <row r="2578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2578" s="0" t="s">
+    <row r="2578" customFormat="false" ht="1298.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2578" s="2" t="s">
         <v>4836</v>
       </c>
-      <c r="C2578" s="0" t="s">
+      <c r="C2578" s="2" t="s">
         <v>4837</v>
       </c>
     </row>
@@ -46157,19 +46163,19 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="2580" customFormat="false" ht="719.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2580" s="2" t="s">
+    <row r="2580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2580" s="0" t="s">
         <v>4840</v>
       </c>
-      <c r="C2580" s="2" t="s">
+      <c r="C2580" s="0" t="s">
         <v>4841</v>
       </c>
     </row>
-    <row r="2581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2581" s="0" t="s">
+    <row r="2581" customFormat="false" ht="719.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2581" s="2" t="s">
         <v>4842</v>
       </c>
-      <c r="C2581" s="0" t="s">
+      <c r="C2581" s="2" t="s">
         <v>4843</v>
       </c>
     </row>
@@ -46181,29 +46187,29 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="2583" customFormat="false" ht="1159.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2583" s="2" t="s">
+    <row r="2583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2583" s="0" t="s">
         <v>4846</v>
       </c>
-      <c r="C2583" s="2" t="s">
+      <c r="C2583" s="0" t="s">
         <v>4847</v>
       </c>
     </row>
-    <row r="2584" customFormat="false" ht="731.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2584" customFormat="false" ht="1159.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2584" s="2" t="s">
         <v>4848</v>
       </c>
-    </row>
-    <row r="2585" customFormat="false" ht="1171" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2584" s="2" t="s">
+        <v>4849</v>
+      </c>
+    </row>
+    <row r="2585" customFormat="false" ht="731.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2585" s="2" t="s">
-        <v>4849</v>
-      </c>
-    </row>
-    <row r="2586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2586" s="0" t="s">
         <v>4850</v>
       </c>
-      <c r="C2586" s="0" t="s">
+    </row>
+    <row r="2586" customFormat="false" ht="1171" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2586" s="2" t="s">
         <v>4851</v>
       </c>
     </row>
@@ -46211,12 +46217,12 @@
       <c r="B2587" s="0" t="s">
         <v>4852</v>
       </c>
+      <c r="C2587" s="0" t="s">
+        <v>4853</v>
+      </c>
     </row>
     <row r="2588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2588" s="0" t="s">
-        <v>4853</v>
-      </c>
-      <c r="C2588" s="0" t="s">
         <v>4854</v>
       </c>
     </row>
@@ -46224,26 +46230,26 @@
       <c r="B2589" s="0" t="s">
         <v>4855</v>
       </c>
+      <c r="C2589" s="0" t="s">
+        <v>4856</v>
+      </c>
     </row>
     <row r="2590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2590" s="0" t="s">
-        <v>4856</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="2591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2591" s="0" t="s">
-        <v>4857</v>
-      </c>
-    </row>
-    <row r="2592" customFormat="false" ht="881.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2592" s="2" t="s">
         <v>4858</v>
       </c>
-      <c r="C2592" s="2" t="s">
+    </row>
+    <row r="2592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2592" s="0" t="s">
         <v>4859</v>
       </c>
     </row>
-    <row r="2593" customFormat="false" ht="1286.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2593" customFormat="false" ht="881.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2593" s="2" t="s">
         <v>4860</v>
       </c>
@@ -46251,11 +46257,11 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="2594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2594" s="0" t="s">
+    <row r="2594" customFormat="false" ht="1286.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2594" s="2" t="s">
         <v>4862</v>
       </c>
-      <c r="C2594" s="0" t="s">
+      <c r="C2594" s="2" t="s">
         <v>4863</v>
       </c>
     </row>
@@ -46267,35 +46273,35 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="2596" customFormat="false" ht="858.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2596" s="2" t="s">
+    <row r="2596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2596" s="0" t="s">
         <v>4866</v>
       </c>
-      <c r="C2596" s="2" t="s">
+      <c r="C2596" s="0" t="s">
         <v>4867</v>
       </c>
     </row>
-    <row r="2597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2597" s="0" t="s">
+    <row r="2597" customFormat="false" ht="858.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2597" s="2" t="s">
         <v>4868</v>
       </c>
-      <c r="C2597" s="0" t="s">
+      <c r="C2597" s="2" t="s">
         <v>4869</v>
       </c>
     </row>
-    <row r="2598" customFormat="false" ht="1495.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2598" s="2" t="s">
+    <row r="2598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2598" s="0" t="s">
         <v>4870</v>
       </c>
-      <c r="C2598" s="2" t="s">
+      <c r="C2598" s="0" t="s">
         <v>4871</v>
       </c>
     </row>
-    <row r="2599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2599" s="0" t="s">
+    <row r="2599" customFormat="false" ht="1495.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2599" s="2" t="s">
         <v>4872</v>
       </c>
-      <c r="C2599" s="0" t="s">
+      <c r="C2599" s="2" t="s">
         <v>4873</v>
       </c>
     </row>
@@ -46304,12 +46310,12 @@
         <v>4874</v>
       </c>
       <c r="C2600" s="0" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="2601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2601" s="0" t="s">
-        <v>4875</v>
+        <v>4876</v>
       </c>
       <c r="C2601" s="0" t="s">
         <v>4876</v>
@@ -46344,20 +46350,20 @@
         <v>4883</v>
       </c>
       <c r="C2605" s="0" t="s">
-        <v>4883</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="2606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2606" s="0" t="s">
-        <v>4884</v>
+        <v>4885</v>
       </c>
       <c r="C2606" s="0" t="s">
-        <v>4884</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="2607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2607" s="0" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
       <c r="C2607" s="0" t="s">
         <v>4886</v>
@@ -46503,17 +46509,17 @@
       <c r="B2625" s="0" t="s">
         <v>4921</v>
       </c>
+      <c r="C2625" s="0" t="s">
+        <v>4922</v>
+      </c>
     </row>
     <row r="2626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2626" s="0" t="s">
-        <v>4922</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="2627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2627" s="0" t="s">
-        <v>4923</v>
-      </c>
-      <c r="C2627" s="0" t="s">
         <v>4924</v>
       </c>
     </row>
@@ -46533,16 +46539,16 @@
         <v>4928</v>
       </c>
     </row>
-    <row r="2630" customFormat="false" ht="117.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2630" s="2" t="s">
+    <row r="2630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2630" s="0" t="s">
         <v>4929</v>
       </c>
-    </row>
-    <row r="2631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2631" s="0" t="s">
+      <c r="C2630" s="0" t="s">
         <v>4930</v>
       </c>
-      <c r="C2631" s="0" t="s">
+    </row>
+    <row r="2631" customFormat="false" ht="117.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2631" s="2" t="s">
         <v>4931</v>
       </c>
     </row>
@@ -46631,12 +46637,12 @@
         <v>4952</v>
       </c>
       <c r="C2642" s="0" t="s">
-        <v>4952</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2643" s="0" t="s">
-        <v>4953</v>
+        <v>4954</v>
       </c>
       <c r="C2643" s="0" t="s">
         <v>4954</v>
@@ -46663,15 +46669,15 @@
         <v>4959</v>
       </c>
       <c r="C2646" s="0" t="s">
-        <v>3181</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="2647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2647" s="0" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
       <c r="C2647" s="0" t="s">
-        <v>4961</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="2648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46906,24 +46912,24 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="2677" customFormat="false" ht="568.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2677" s="2" t="s">
+    <row r="2677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2677" s="0" t="s">
         <v>5020</v>
       </c>
-      <c r="C2677" s="2" t="s">
+      <c r="C2677" s="0" t="s">
         <v>5021</v>
       </c>
     </row>
-    <row r="2678" customFormat="false" ht="1530.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2678" customFormat="false" ht="568.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2678" s="2" t="s">
         <v>5022</v>
       </c>
-    </row>
-    <row r="2679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2679" s="0" t="s">
+      <c r="C2678" s="2" t="s">
         <v>5023</v>
       </c>
-      <c r="C2679" s="0" t="s">
+    </row>
+    <row r="2679" customFormat="false" ht="1530.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2679" s="2" t="s">
         <v>5024</v>
       </c>
     </row>
@@ -47007,11 +47013,11 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="2690" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2690" s="2" t="s">
+    <row r="2690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2690" s="0" t="s">
         <v>5045</v>
       </c>
-      <c r="C2690" s="2" t="s">
+      <c r="C2690" s="0" t="s">
         <v>5046</v>
       </c>
     </row>
@@ -47023,11 +47029,11 @@
         <v>5048</v>
       </c>
     </row>
-    <row r="2692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2692" s="0" t="s">
+    <row r="2692" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2692" s="2" t="s">
         <v>5049</v>
       </c>
-      <c r="C2692" s="0" t="s">
+      <c r="C2692" s="2" t="s">
         <v>5050</v>
       </c>
     </row>
@@ -47124,15 +47130,15 @@
         <v>5073</v>
       </c>
       <c r="C2704" s="0" t="s">
-        <v>5072</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="2705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2705" s="0" t="s">
+        <v>5075</v>
+      </c>
+      <c r="C2705" s="0" t="s">
         <v>5074</v>
-      </c>
-      <c r="C2705" s="0" t="s">
-        <v>5075</v>
       </c>
     </row>
     <row r="2706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47156,15 +47162,15 @@
         <v>5080</v>
       </c>
       <c r="C2708" s="0" t="s">
-        <v>4939</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="2709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2709" s="0" t="s">
-        <v>5081</v>
+        <v>5082</v>
       </c>
       <c r="C2709" s="0" t="s">
-        <v>5082</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="2710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47284,12 +47290,12 @@
         <v>5111</v>
       </c>
       <c r="C2724" s="0" t="s">
-        <v>5111</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="2725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2725" s="0" t="s">
-        <v>5112</v>
+        <v>5113</v>
       </c>
       <c r="C2725" s="0" t="s">
         <v>5113</v>
@@ -47316,28 +47322,28 @@
         <v>5118</v>
       </c>
       <c r="C2728" s="0" t="s">
-        <v>5118</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="2729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2729" s="0" t="s">
-        <v>5119</v>
+        <v>5120</v>
       </c>
       <c r="C2729" s="0" t="s">
-        <v>5119</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="2730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2730" s="0" t="s">
-        <v>5120</v>
+        <v>5121</v>
       </c>
       <c r="C2730" s="0" t="s">
-        <v>5120</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="2731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2731" s="0" t="s">
-        <v>5121</v>
+        <v>5122</v>
       </c>
       <c r="C2731" s="0" t="s">
         <v>5122</v>
@@ -47356,15 +47362,15 @@
         <v>5125</v>
       </c>
       <c r="C2733" s="0" t="s">
-        <v>5124</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="2734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2734" s="0" t="s">
+        <v>5127</v>
+      </c>
+      <c r="C2734" s="0" t="s">
         <v>5126</v>
-      </c>
-      <c r="C2734" s="0" t="s">
-        <v>5127</v>
       </c>
     </row>
     <row r="2735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47372,15 +47378,15 @@
         <v>5128</v>
       </c>
       <c r="C2735" s="0" t="s">
-        <v>5127</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="2736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2736" s="0" t="s">
+        <v>5130</v>
+      </c>
+      <c r="C2736" s="0" t="s">
         <v>5129</v>
-      </c>
-      <c r="C2736" s="0" t="s">
-        <v>5130</v>
       </c>
     </row>
     <row r="2737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47404,12 +47410,12 @@
         <v>5135</v>
       </c>
       <c r="C2739" s="0" t="s">
-        <v>5135</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="2740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2740" s="0" t="s">
-        <v>5136</v>
+        <v>5137</v>
       </c>
       <c r="C2740" s="0" t="s">
         <v>5137</v>
@@ -47780,12 +47786,12 @@
         <v>5228</v>
       </c>
       <c r="C2786" s="0" t="s">
-        <v>5228</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="2787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2787" s="0" t="s">
-        <v>5229</v>
+        <v>5230</v>
       </c>
       <c r="C2787" s="0" t="s">
         <v>5230</v>
@@ -47811,12 +47817,12 @@
       <c r="B2790" s="0" t="s">
         <v>5235</v>
       </c>
+      <c r="C2790" s="0" t="s">
+        <v>5236</v>
+      </c>
     </row>
     <row r="2791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2791" s="0" t="s">
-        <v>5236</v>
-      </c>
-      <c r="C2791" s="0" t="s">
         <v>5237</v>
       </c>
     </row>
@@ -47936,12 +47942,12 @@
       <c r="B2806" s="0" t="s">
         <v>5266</v>
       </c>
+      <c r="C2806" s="0" t="s">
+        <v>5267</v>
+      </c>
     </row>
     <row r="2807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2807" s="0" t="s">
-        <v>5267</v>
-      </c>
-      <c r="C2807" s="0" t="s">
         <v>5268</v>
       </c>
     </row>
@@ -48022,15 +48028,15 @@
         <v>5287</v>
       </c>
       <c r="C2817" s="0" t="s">
-        <v>382</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="2818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2818" s="0" t="s">
-        <v>5288</v>
+        <v>5289</v>
       </c>
       <c r="C2818" s="0" t="s">
-        <v>5289</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48070,23 +48076,23 @@
         <v>5298</v>
       </c>
       <c r="C2823" s="0" t="s">
-        <v>2145</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="2824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2824" s="0" t="s">
-        <v>5298</v>
+        <v>5300</v>
       </c>
       <c r="C2824" s="0" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="2825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2825" s="0" t="s">
-        <v>5299</v>
+        <v>5300</v>
       </c>
       <c r="C2825" s="0" t="s">
-        <v>5300</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="2826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48206,12 +48212,12 @@
         <v>5329</v>
       </c>
       <c r="C2840" s="0" t="s">
-        <v>5329</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="2841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2841" s="0" t="s">
-        <v>5330</v>
+        <v>5331</v>
       </c>
       <c r="C2841" s="0" t="s">
         <v>5331</v>
@@ -48254,15 +48260,15 @@
         <v>5340</v>
       </c>
       <c r="C2846" s="0" t="s">
-        <v>5339</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="2847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2847" s="0" t="s">
+        <v>5342</v>
+      </c>
+      <c r="C2847" s="0" t="s">
         <v>5341</v>
-      </c>
-      <c r="C2847" s="0" t="s">
-        <v>5342</v>
       </c>
     </row>
     <row r="2848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48390,15 +48396,15 @@
         <v>5373</v>
       </c>
       <c r="C2863" s="0" t="s">
-        <v>5370</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="2864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2864" s="0" t="s">
-        <v>5374</v>
+        <v>5375</v>
       </c>
       <c r="C2864" s="0" t="s">
-        <v>5375</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="2865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48406,15 +48412,15 @@
         <v>5376</v>
       </c>
       <c r="C2865" s="0" t="s">
-        <v>3532</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="2866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2866" s="0" t="s">
-        <v>5377</v>
+        <v>5378</v>
       </c>
       <c r="C2866" s="0" t="s">
-        <v>5378</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="2867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48430,20 +48436,20 @@
         <v>5381</v>
       </c>
       <c r="C2868" s="0" t="s">
-        <v>5381</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="2869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2869" s="0" t="s">
-        <v>5382</v>
+        <v>5383</v>
       </c>
       <c r="C2869" s="0" t="s">
-        <v>5382</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="2870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2870" s="0" t="s">
-        <v>5383</v>
+        <v>5384</v>
       </c>
       <c r="C2870" s="0" t="s">
         <v>5384</v>
@@ -48526,12 +48532,12 @@
         <v>5403</v>
       </c>
       <c r="C2880" s="0" t="s">
-        <v>5403</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="2881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2881" s="0" t="s">
-        <v>5404</v>
+        <v>5405</v>
       </c>
       <c r="C2881" s="0" t="s">
         <v>5405</v>
@@ -48549,12 +48555,12 @@
       <c r="B2883" s="0" t="s">
         <v>5408</v>
       </c>
+      <c r="C2883" s="0" t="s">
+        <v>5409</v>
+      </c>
     </row>
     <row r="2884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2884" s="0" t="s">
-        <v>5409</v>
-      </c>
-      <c r="C2884" s="0" t="s">
         <v>5410</v>
       </c>
     </row>
@@ -48590,19 +48596,19 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="2889" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2889" s="2" t="s">
+    <row r="2889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2889" s="0" t="s">
         <v>5419</v>
       </c>
-      <c r="C2889" s="2" t="s">
+      <c r="C2889" s="0" t="s">
         <v>5420</v>
       </c>
     </row>
-    <row r="2890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2890" s="0" t="s">
+    <row r="2890" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2890" s="2" t="s">
         <v>5421</v>
       </c>
-      <c r="C2890" s="0" t="s">
+      <c r="C2890" s="2" t="s">
         <v>5422</v>
       </c>
     </row>
@@ -48627,20 +48633,20 @@
         <v>5427</v>
       </c>
       <c r="C2893" s="0" t="s">
-        <v>5427</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="2894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2894" s="0" t="s">
-        <v>5428</v>
+        <v>5429</v>
       </c>
       <c r="C2894" s="0" t="s">
-        <v>5428</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="2895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2895" s="0" t="s">
-        <v>5429</v>
+        <v>5430</v>
       </c>
       <c r="C2895" s="0" t="s">
         <v>5430</v>
@@ -48659,15 +48665,15 @@
         <v>5433</v>
       </c>
       <c r="C2897" s="0" t="s">
-        <v>3980</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="2898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2898" s="0" t="s">
-        <v>5434</v>
+        <v>5435</v>
       </c>
       <c r="C2898" s="0" t="s">
-        <v>5435</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="2899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48795,15 +48801,15 @@
         <v>5466</v>
       </c>
       <c r="C2914" s="0" t="s">
-        <v>5465</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="2915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2915" s="0" t="s">
+        <v>5468</v>
+      </c>
+      <c r="C2915" s="0" t="s">
         <v>5467</v>
-      </c>
-      <c r="C2915" s="0" t="s">
-        <v>5468</v>
       </c>
     </row>
     <row r="2916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48819,15 +48825,15 @@
         <v>5471</v>
       </c>
       <c r="C2917" s="0" t="s">
-        <v>5470</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="2918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2918" s="0" t="s">
+        <v>5473</v>
+      </c>
+      <c r="C2918" s="0" t="s">
         <v>5472</v>
-      </c>
-      <c r="C2918" s="0" t="s">
-        <v>5473</v>
       </c>
     </row>
     <row r="2919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48859,15 +48865,15 @@
         <v>5480</v>
       </c>
       <c r="C2922" s="0" t="s">
-        <v>5479</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="2923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2923" s="0" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C2923" s="0" t="s">
         <v>5481</v>
-      </c>
-      <c r="C2923" s="0" t="s">
-        <v>5482</v>
       </c>
     </row>
     <row r="2924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49034,12 +49040,12 @@
       <c r="B2944" s="0" t="s">
         <v>5523</v>
       </c>
+      <c r="C2944" s="0" t="s">
+        <v>5524</v>
+      </c>
     </row>
     <row r="2945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2945" s="0" t="s">
-        <v>5524</v>
-      </c>
-      <c r="C2945" s="0" t="s">
         <v>5525</v>
       </c>
     </row>
@@ -49112,12 +49118,12 @@
         <v>5542</v>
       </c>
       <c r="C2954" s="0" t="s">
-        <v>5542</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="2955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2955" s="0" t="s">
-        <v>5543</v>
+        <v>5544</v>
       </c>
       <c r="C2955" s="0" t="s">
         <v>5544</v>
@@ -49199,28 +49205,28 @@
       <c r="B2965" s="0" t="s">
         <v>5563</v>
       </c>
+      <c r="C2965" s="0" t="s">
+        <v>5564</v>
+      </c>
     </row>
     <row r="2966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2966" s="0" t="s">
-        <v>5564</v>
-      </c>
-      <c r="C2966" s="0" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="2967" customFormat="false" ht="881.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2967" s="2" t="s">
+    <row r="2967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2967" s="0" t="s">
         <v>5566</v>
       </c>
-      <c r="C2967" s="2" t="s">
+      <c r="C2967" s="0" t="s">
         <v>5567</v>
       </c>
     </row>
-    <row r="2968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2968" s="0" t="s">
+    <row r="2968" customFormat="false" ht="881.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2968" s="2" t="s">
         <v>5568</v>
       </c>
-      <c r="C2968" s="0" t="s">
+      <c r="C2968" s="2" t="s">
         <v>5569</v>
       </c>
     </row>
@@ -49268,12 +49274,12 @@
       <c r="B2974" s="0" t="s">
         <v>5580</v>
       </c>
+      <c r="C2974" s="0" t="s">
+        <v>5581</v>
+      </c>
     </row>
     <row r="2975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2975" s="0" t="s">
-        <v>5581</v>
-      </c>
-      <c r="C2975" s="0" t="s">
         <v>5582</v>
       </c>
     </row>
@@ -49330,30 +49336,30 @@
         <v>5595</v>
       </c>
       <c r="C2982" s="0" t="s">
-        <v>5594</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="2983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2983" s="0" t="s">
+        <v>5597</v>
+      </c>
+      <c r="C2983" s="0" t="s">
         <v>5596</v>
       </c>
-      <c r="C2983" s="0" t="s">
-        <v>5597</v>
-      </c>
-    </row>
-    <row r="2984" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2984" s="2" t="s">
+    </row>
+    <row r="2984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2984" s="0" t="s">
         <v>5598</v>
       </c>
-      <c r="C2984" s="2" t="s">
+      <c r="C2984" s="0" t="s">
         <v>5599</v>
       </c>
     </row>
-    <row r="2985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2985" s="0" t="s">
+    <row r="2985" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2985" s="2" t="s">
         <v>5600</v>
       </c>
-      <c r="C2985" s="0" t="s">
+      <c r="C2985" s="2" t="s">
         <v>5601</v>
       </c>
     </row>
@@ -49489,21 +49495,21 @@
       <c r="B3002" s="0" t="s">
         <v>5634</v>
       </c>
+      <c r="C3002" s="0" t="s">
+        <v>5635</v>
+      </c>
     </row>
     <row r="3003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3003" s="0" t="s">
-        <v>5635</v>
-      </c>
-      <c r="C3003" s="0" t="s">
-        <v>5617</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="3004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3004" s="0" t="s">
-        <v>5636</v>
+        <v>5637</v>
       </c>
       <c r="C3004" s="0" t="s">
-        <v>5637</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="3005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49535,12 +49541,12 @@
         <v>5644</v>
       </c>
       <c r="C3008" s="0" t="s">
-        <v>5644</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="3009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3009" s="0" t="s">
-        <v>5645</v>
+        <v>5646</v>
       </c>
       <c r="C3009" s="0" t="s">
         <v>5646</v>
@@ -49582,12 +49588,12 @@
       <c r="B3014" s="0" t="s">
         <v>5655</v>
       </c>
+      <c r="C3014" s="0" t="s">
+        <v>5656</v>
+      </c>
     </row>
     <row r="3015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3015" s="0" t="s">
-        <v>5656</v>
-      </c>
-      <c r="C3015" s="0" t="s">
         <v>5657</v>
       </c>
     </row>
@@ -49649,15 +49655,15 @@
     </row>
     <row r="3023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3023" s="0" t="s">
-        <v>5671</v>
+        <v>5672</v>
       </c>
       <c r="C3023" s="0" t="s">
-        <v>5671</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="3024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3024" s="0" t="s">
-        <v>5672</v>
+        <v>5673</v>
       </c>
       <c r="C3024" s="0" t="s">
         <v>5673</v>
@@ -49715,12 +49721,12 @@
       <c r="B3031" s="0" t="s">
         <v>5686</v>
       </c>
+      <c r="C3031" s="0" t="s">
+        <v>5687</v>
+      </c>
     </row>
     <row r="3032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3032" s="0" t="s">
-        <v>5687</v>
-      </c>
-      <c r="C3032" s="0" t="s">
         <v>5688</v>
       </c>
     </row>
@@ -49776,12 +49782,12 @@
       <c r="B3039" s="0" t="s">
         <v>5701</v>
       </c>
+      <c r="C3039" s="0" t="s">
+        <v>5702</v>
+      </c>
     </row>
     <row r="3040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3040" s="0" t="s">
-        <v>5702</v>
-      </c>
-      <c r="C3040" s="0" t="s">
         <v>5703</v>
       </c>
     </row>
@@ -49862,15 +49868,15 @@
         <v>5722</v>
       </c>
       <c r="C3050" s="0" t="s">
-        <v>5721</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="3051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3051" s="0" t="s">
+        <v>5724</v>
+      </c>
+      <c r="C3051" s="0" t="s">
         <v>5723</v>
-      </c>
-      <c r="C3051" s="0" t="s">
-        <v>5724</v>
       </c>
     </row>
     <row r="3052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49878,31 +49884,31 @@
         <v>5725</v>
       </c>
       <c r="C3052" s="0" t="s">
-        <v>5724</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="3053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3053" s="0" t="s">
+        <v>5727</v>
+      </c>
+      <c r="C3053" s="0" t="s">
         <v>5726</v>
-      </c>
-      <c r="C3053" s="0" t="s">
-        <v>4182</v>
       </c>
     </row>
     <row r="3054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3054" s="0" t="s">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="C3054" s="0" t="s">
-        <v>4182</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="3055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3055" s="0" t="s">
-        <v>5728</v>
+        <v>5729</v>
       </c>
       <c r="C3055" s="0" t="s">
-        <v>5729</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="3056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49910,15 +49916,15 @@
         <v>5730</v>
       </c>
       <c r="C3056" s="0" t="s">
-        <v>5729</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="3057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3057" s="0" t="s">
+        <v>5732</v>
+      </c>
+      <c r="C3057" s="0" t="s">
         <v>5731</v>
-      </c>
-      <c r="C3057" s="0" t="s">
-        <v>5732</v>
       </c>
     </row>
     <row r="3058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49926,23 +49932,23 @@
         <v>5733</v>
       </c>
       <c r="C3058" s="0" t="s">
-        <v>5732</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="3059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3059" s="0" t="s">
+        <v>5735</v>
+      </c>
+      <c r="C3059" s="0" t="s">
         <v>5734</v>
-      </c>
-      <c r="C3059" s="0" t="s">
-        <v>5732</v>
       </c>
     </row>
     <row r="3060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3060" s="0" t="s">
-        <v>5735</v>
+        <v>5736</v>
       </c>
       <c r="C3060" s="0" t="s">
-        <v>5736</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="3061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49950,15 +49956,15 @@
         <v>5737</v>
       </c>
       <c r="C3061" s="0" t="s">
-        <v>722</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="3062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3062" s="0" t="s">
-        <v>5738</v>
+        <v>5739</v>
       </c>
       <c r="C3062" s="0" t="s">
-        <v>5739</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50006,15 +50012,15 @@
         <v>5750</v>
       </c>
       <c r="C3068" s="0" t="s">
-        <v>5749</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="3069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3069" s="0" t="s">
+        <v>5752</v>
+      </c>
+      <c r="C3069" s="0" t="s">
         <v>5751</v>
-      </c>
-      <c r="C3069" s="0" t="s">
-        <v>5752</v>
       </c>
     </row>
     <row r="3070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50118,15 +50124,15 @@
         <v>5777</v>
       </c>
       <c r="C3082" s="0" t="s">
-        <v>526</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="3083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3083" s="0" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="C3083" s="0" t="s">
-        <v>5779</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50182,12 +50188,12 @@
         <v>5792</v>
       </c>
       <c r="C3090" s="0" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="3091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3091" s="0" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="C3091" s="0" t="s">
         <v>5794</v>
@@ -50238,15 +50244,15 @@
         <v>5805</v>
       </c>
       <c r="C3097" s="0" t="s">
-        <v>5804</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="3098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3098" s="0" t="s">
+        <v>5807</v>
+      </c>
+      <c r="C3098" s="0" t="s">
         <v>5806</v>
-      </c>
-      <c r="C3098" s="0" t="s">
-        <v>5807</v>
       </c>
     </row>
     <row r="3099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50262,15 +50268,15 @@
         <v>5810</v>
       </c>
       <c r="C3100" s="0" t="s">
-        <v>5792</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="3101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3101" s="0" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="C3101" s="0" t="s">
-        <v>5812</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="3102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50285,12 +50291,12 @@
       <c r="B3103" s="0" t="s">
         <v>5815</v>
       </c>
+      <c r="C3103" s="0" t="s">
+        <v>5816</v>
+      </c>
     </row>
     <row r="3104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3104" s="0" t="s">
-        <v>5816</v>
-      </c>
-      <c r="C3104" s="0" t="s">
         <v>5817</v>
       </c>
     </row>
@@ -50451,15 +50457,15 @@
         <v>5856</v>
       </c>
       <c r="C3124" s="0" t="s">
-        <v>5855</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="3125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3125" s="0" t="s">
+        <v>5858</v>
+      </c>
+      <c r="C3125" s="0" t="s">
         <v>5857</v>
-      </c>
-      <c r="C3125" s="0" t="s">
-        <v>5858</v>
       </c>
     </row>
     <row r="3126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50491,19 +50497,19 @@
         <v>5865</v>
       </c>
       <c r="C3129" s="0" t="s">
-        <v>5864</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="3130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3130" s="0" t="s">
+        <v>5867</v>
+      </c>
+      <c r="C3130" s="0" t="s">
         <v>5866</v>
       </c>
     </row>
     <row r="3131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3131" s="0" t="s">
-        <v>5867</v>
-      </c>
-      <c r="C3131" s="0" t="s">
         <v>5868</v>
       </c>
     </row>
@@ -50559,7 +50565,7 @@
       <c r="B3138" s="0" t="s">
         <v>5881</v>
       </c>
-      <c r="C3138" s="1" t="s">
+      <c r="C3138" s="0" t="s">
         <v>5882</v>
       </c>
     </row>
@@ -50567,7 +50573,7 @@
       <c r="B3139" s="0" t="s">
         <v>5883</v>
       </c>
-      <c r="C3139" s="0" t="s">
+      <c r="C3139" s="1" t="s">
         <v>5884</v>
       </c>
     </row>
@@ -50592,15 +50598,15 @@
         <v>5889</v>
       </c>
       <c r="C3142" s="0" t="s">
-        <v>5888</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="3143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3143" s="0" t="s">
+        <v>5891</v>
+      </c>
+      <c r="C3143" s="0" t="s">
         <v>5890</v>
-      </c>
-      <c r="C3143" s="0" t="s">
-        <v>5891</v>
       </c>
     </row>
     <row r="3144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50848,22 +50854,22 @@
         <v>5952</v>
       </c>
       <c r="C3174" s="0" t="s">
-        <v>5951</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="3175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3175" s="0" t="s">
+        <v>5954</v>
+      </c>
+      <c r="C3175" s="0" t="s">
         <v>5953</v>
-      </c>
-      <c r="C3175" s="1" t="s">
-        <v>5954</v>
       </c>
     </row>
     <row r="3176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3176" s="0" t="s">
         <v>5955</v>
       </c>
-      <c r="C3176" s="0" t="s">
+      <c r="C3176" s="1" t="s">
         <v>5956</v>
       </c>
     </row>
@@ -51063,45 +51069,45 @@
       <c r="B3201" s="0" t="s">
         <v>6005</v>
       </c>
+      <c r="C3201" s="0" t="s">
+        <v>6006</v>
+      </c>
     </row>
     <row r="3202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3202" s="0" t="s">
-        <v>6006</v>
-      </c>
-      <c r="C3202" s="0" t="s">
-        <v>534</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="3203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3203" s="0" t="s">
-        <v>6007</v>
+        <v>6008</v>
       </c>
       <c r="C3203" s="0" t="s">
-        <v>2112</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3204" s="0" t="s">
-        <v>6008</v>
+        <v>6009</v>
       </c>
       <c r="C3204" s="0" t="s">
-        <v>3867</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="3205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3205" s="0" t="s">
-        <v>6009</v>
+        <v>6010</v>
       </c>
       <c r="C3205" s="0" t="s">
-        <v>590</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="3206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3206" s="0" t="s">
-        <v>6010</v>
+        <v>6011</v>
       </c>
       <c r="C3206" s="0" t="s">
-        <v>6011</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51116,12 +51122,12 @@
       <c r="B3208" s="0" t="s">
         <v>6014</v>
       </c>
+      <c r="C3208" s="0" t="s">
+        <v>6015</v>
+      </c>
     </row>
     <row r="3209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3209" s="0" t="s">
-        <v>6015</v>
-      </c>
-      <c r="C3209" s="0" t="s">
         <v>6016</v>
       </c>
     </row>
@@ -51130,12 +51136,12 @@
         <v>6017</v>
       </c>
       <c r="C3210" s="0" t="s">
-        <v>6017</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="3211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3211" s="0" t="s">
-        <v>6018</v>
+        <v>6019</v>
       </c>
       <c r="C3211" s="0" t="s">
         <v>6019</v>
@@ -51393,12 +51399,12 @@
       <c r="B3243" s="0" t="s">
         <v>6082</v>
       </c>
+      <c r="C3243" s="0" t="s">
+        <v>6083</v>
+      </c>
     </row>
     <row r="3244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3244" s="0" t="s">
-        <v>6083</v>
-      </c>
-      <c r="C3244" s="0" t="s">
         <v>6084</v>
       </c>
     </row>
@@ -51447,15 +51453,15 @@
         <v>6095</v>
       </c>
       <c r="C3250" s="0" t="s">
-        <v>6094</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="3251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3251" s="0" t="s">
+        <v>6097</v>
+      </c>
+      <c r="C3251" s="0" t="s">
         <v>6096</v>
-      </c>
-      <c r="C3251" s="0" t="s">
-        <v>6097</v>
       </c>
     </row>
     <row r="3252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51551,23 +51557,23 @@
         <v>6120</v>
       </c>
       <c r="C3263" s="0" t="s">
-        <v>6090</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="3264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3264" s="0" t="s">
-        <v>6121</v>
+        <v>6122</v>
       </c>
       <c r="C3264" s="0" t="s">
-        <v>6094</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="3265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3265" s="0" t="s">
-        <v>6122</v>
+        <v>6123</v>
       </c>
       <c r="C3265" s="0" t="s">
-        <v>6123</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="3266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51599,27 +51605,27 @@
         <v>6130</v>
       </c>
       <c r="C3269" s="0" t="s">
-        <v>6130</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="3270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3270" s="0" t="s">
-        <v>6131</v>
+        <v>6132</v>
       </c>
       <c r="C3270" s="0" t="s">
-        <v>6131</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="3271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3271" s="0" t="s">
-        <v>6132</v>
+        <v>6133</v>
+      </c>
+      <c r="C3271" s="0" t="s">
+        <v>6133</v>
       </c>
     </row>
     <row r="3272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3272" s="0" t="s">
-        <v>6133</v>
-      </c>
-      <c r="C3272" s="0" t="s">
         <v>6134</v>
       </c>
     </row>
@@ -51832,7 +51838,7 @@
       </c>
     </row>
     <row r="3299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3299" s="1" t="s">
+      <c r="B3299" s="0" t="s">
         <v>6187</v>
       </c>
       <c r="C3299" s="0" t="s">
@@ -51840,7 +51846,7 @@
       </c>
     </row>
     <row r="3300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3300" s="0" t="s">
+      <c r="B3300" s="1" t="s">
         <v>6189</v>
       </c>
       <c r="C3300" s="0" t="s">
@@ -51868,15 +51874,15 @@
         <v>6195</v>
       </c>
       <c r="C3303" s="0" t="s">
-        <v>6194</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="3304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3304" s="0" t="s">
+        <v>6197</v>
+      </c>
+      <c r="C3304" s="0" t="s">
         <v>6196</v>
-      </c>
-      <c r="C3304" s="0" t="s">
-        <v>6197</v>
       </c>
     </row>
     <row r="3305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51943,35 +51949,35 @@
         <v>6213</v>
       </c>
     </row>
-    <row r="3313" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3313" s="2" t="s">
+    <row r="3313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3313" s="0" t="s">
         <v>6214</v>
       </c>
-      <c r="C3313" s="2" t="s">
+      <c r="C3313" s="0" t="s">
         <v>6215</v>
       </c>
     </row>
-    <row r="3314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3314" s="0" t="s">
+    <row r="3314" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3314" s="2" t="s">
         <v>6216</v>
       </c>
-      <c r="C3314" s="0" t="s">
+      <c r="C3314" s="2" t="s">
         <v>6217</v>
       </c>
     </row>
-    <row r="3315" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3315" s="2" t="s">
+    <row r="3315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3315" s="0" t="s">
         <v>6218</v>
       </c>
-      <c r="C3315" s="2" t="s">
+      <c r="C3315" s="0" t="s">
         <v>6219</v>
       </c>
     </row>
-    <row r="3316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3316" s="0" t="s">
+    <row r="3316" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3316" s="2" t="s">
         <v>6220</v>
       </c>
-      <c r="C3316" s="0" t="s">
+      <c r="C3316" s="2" t="s">
         <v>6221</v>
       </c>
     </row>
@@ -52116,12 +52122,12 @@
         <v>6256</v>
       </c>
       <c r="C3334" s="0" t="s">
-        <v>6256</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="3335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3335" s="0" t="s">
-        <v>6257</v>
+        <v>6258</v>
       </c>
       <c r="C3335" s="0" t="s">
         <v>6258</v>
@@ -52244,15 +52250,15 @@
         <v>6287</v>
       </c>
       <c r="C3350" s="0" t="s">
-        <v>6286</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="3351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3351" s="0" t="s">
+        <v>6289</v>
+      </c>
+      <c r="C3351" s="0" t="s">
         <v>6288</v>
-      </c>
-      <c r="C3351" s="0" t="s">
-        <v>6289</v>
       </c>
     </row>
     <row r="3352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52332,12 +52338,12 @@
         <v>6308</v>
       </c>
       <c r="C3361" s="0" t="s">
-        <v>6308</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="3362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3362" s="0" t="s">
-        <v>6309</v>
+        <v>6310</v>
       </c>
       <c r="C3362" s="0" t="s">
         <v>6310</v>
@@ -52411,12 +52417,12 @@
       <c r="B3371" s="0" t="s">
         <v>6327</v>
       </c>
+      <c r="C3371" s="0" t="s">
+        <v>6328</v>
+      </c>
     </row>
     <row r="3372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3372" s="0" t="s">
-        <v>6328</v>
-      </c>
-      <c r="C3372" s="0" t="s">
         <v>6329</v>
       </c>
     </row>
@@ -52465,20 +52471,20 @@
         <v>6340</v>
       </c>
       <c r="C3378" s="0" t="s">
-        <v>2119</v>
+        <v>6341</v>
       </c>
     </row>
     <row r="3379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3379" s="0" t="s">
-        <v>6341</v>
+        <v>6342</v>
       </c>
       <c r="C3379" s="0" t="s">
-        <v>6341</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="3380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3380" s="0" t="s">
-        <v>6342</v>
+        <v>6343</v>
       </c>
       <c r="C3380" s="0" t="s">
         <v>6343</v>
@@ -52489,12 +52495,12 @@
         <v>6344</v>
       </c>
       <c r="C3381" s="0" t="s">
-        <v>6344</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="3382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3382" s="0" t="s">
-        <v>6345</v>
+        <v>6346</v>
       </c>
       <c r="C3382" s="0" t="s">
         <v>6346</v>
@@ -52505,15 +52511,15 @@
         <v>6347</v>
       </c>
       <c r="C3383" s="0" t="s">
-        <v>6346</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="3384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3384" s="0" t="s">
+        <v>6349</v>
+      </c>
+      <c r="C3384" s="0" t="s">
         <v>6348</v>
-      </c>
-      <c r="C3384" s="0" t="s">
-        <v>6349</v>
       </c>
     </row>
     <row r="3385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52633,15 +52639,15 @@
         <v>6378</v>
       </c>
       <c r="C3399" s="0" t="s">
-        <v>2484</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="3400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3400" s="0" t="s">
-        <v>6379</v>
+        <v>6380</v>
       </c>
       <c r="C3400" s="0" t="s">
-        <v>6380</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="3401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52790,23 +52796,23 @@
     </row>
     <row r="3419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3419" s="0" t="s">
-        <v>11</v>
+        <v>6417</v>
       </c>
       <c r="C3419" s="0" t="s">
-        <v>6417</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="3420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3420" s="0" t="s">
-        <v>6418</v>
+        <v>11</v>
       </c>
       <c r="C3420" s="0" t="s">
-        <v>6418</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="3421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3421" s="0" t="s">
-        <v>6419</v>
+        <v>6420</v>
       </c>
       <c r="C3421" s="0" t="s">
         <v>6420</v>
@@ -52849,15 +52855,15 @@
         <v>6429</v>
       </c>
       <c r="C3426" s="0" t="s">
-        <v>6428</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="3427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3427" s="0" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C3427" s="0" t="s">
         <v>6430</v>
-      </c>
-      <c r="C3427" s="0" t="s">
-        <v>6431</v>
       </c>
     </row>
     <row r="3428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52929,15 +52935,15 @@
         <v>6448</v>
       </c>
       <c r="C3436" s="0" t="s">
-        <v>4575</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="3437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3437" s="0" t="s">
-        <v>6449</v>
+        <v>6450</v>
       </c>
       <c r="C3437" s="0" t="s">
-        <v>6450</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="3438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52977,12 +52983,12 @@
         <v>6459</v>
       </c>
       <c r="C3442" s="0" t="s">
-        <v>6459</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="3443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3443" s="0" t="s">
-        <v>6460</v>
+        <v>6461</v>
       </c>
       <c r="C3443" s="0" t="s">
         <v>6461</v>
@@ -52993,15 +52999,15 @@
         <v>6462</v>
       </c>
       <c r="C3444" s="0" t="s">
-        <v>6461</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="3445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3445" s="0" t="s">
+        <v>6464</v>
+      </c>
+      <c r="C3445" s="0" t="s">
         <v>6463</v>
-      </c>
-      <c r="C3445" s="0" t="s">
-        <v>6464</v>
       </c>
     </row>
     <row r="3446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53025,12 +53031,12 @@
         <v>6469</v>
       </c>
       <c r="C3448" s="0" t="s">
-        <v>6469</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="3449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3449" s="0" t="s">
-        <v>6470</v>
+        <v>6471</v>
       </c>
       <c r="C3449" s="0" t="s">
         <v>6471</v>
@@ -53054,15 +53060,15 @@
     </row>
     <row r="3452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3452" s="0" t="s">
-        <v>4</v>
+        <v>6476</v>
       </c>
       <c r="C3452" s="0" t="s">
-        <v>6476</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="3453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3453" s="0" t="s">
-        <v>6477</v>
+        <v>4</v>
       </c>
       <c r="C3453" s="0" t="s">
         <v>6478</v>
@@ -53105,12 +53111,12 @@
         <v>6487</v>
       </c>
       <c r="C3458" s="0" t="s">
-        <v>6487</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="3459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3459" s="0" t="s">
-        <v>6488</v>
+        <v>6489</v>
       </c>
       <c r="C3459" s="0" t="s">
         <v>6489</v>
@@ -53201,39 +53207,39 @@
         <v>6510</v>
       </c>
       <c r="C3470" s="0" t="s">
-        <v>6510</v>
+        <v>6511</v>
       </c>
     </row>
     <row r="3471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3471" s="0" t="s">
-        <v>6511</v>
+        <v>6512</v>
       </c>
       <c r="C3471" s="0" t="s">
-        <v>6511</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="3472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3472" s="0" t="s">
-        <v>6512</v>
+        <v>6513</v>
       </c>
       <c r="C3472" s="0" t="s">
-        <v>5161</v>
+        <v>6513</v>
       </c>
     </row>
     <row r="3473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3473" s="0" t="s">
-        <v>6513</v>
+        <v>6514</v>
       </c>
       <c r="C3473" s="0" t="s">
-        <v>5167</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="3474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3474" s="0" t="s">
-        <v>6514</v>
+        <v>6515</v>
       </c>
       <c r="C3474" s="0" t="s">
-        <v>6515</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="3475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53241,12 +53247,12 @@
         <v>6516</v>
       </c>
       <c r="C3475" s="0" t="s">
-        <v>6516</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="3476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3476" s="0" t="s">
-        <v>6517</v>
+        <v>6518</v>
       </c>
       <c r="C3476" s="0" t="s">
         <v>6518</v>
@@ -53337,15 +53343,15 @@
         <v>6539</v>
       </c>
       <c r="C3487" s="0" t="s">
-        <v>6538</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="3488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3488" s="0" t="s">
+        <v>6541</v>
+      </c>
+      <c r="C3488" s="0" t="s">
         <v>6540</v>
-      </c>
-      <c r="C3488" s="0" t="s">
-        <v>6541</v>
       </c>
     </row>
     <row r="3489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53464,12 +53470,12 @@
       <c r="B3503" s="0" t="s">
         <v>6570</v>
       </c>
+      <c r="C3503" s="0" t="s">
+        <v>6571</v>
+      </c>
     </row>
     <row r="3504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3504" s="0" t="s">
-        <v>6571</v>
-      </c>
-      <c r="C3504" s="0" t="s">
         <v>6572</v>
       </c>
     </row>
@@ -53510,31 +53516,31 @@
         <v>6581</v>
       </c>
       <c r="C3509" s="0" t="s">
-        <v>6581</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="3510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3510" s="0" t="s">
-        <v>6582</v>
+        <v>6583</v>
       </c>
       <c r="C3510" s="0" t="s">
-        <v>6582</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="3511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3511" s="0" t="s">
-        <v>6583</v>
+        <v>6584</v>
       </c>
       <c r="C3511" s="0" t="s">
-        <v>5356</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="3512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3512" s="0" t="s">
-        <v>6584</v>
+        <v>6585</v>
       </c>
       <c r="C3512" s="0" t="s">
-        <v>6585</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="3513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53566,15 +53572,15 @@
         <v>6592</v>
       </c>
       <c r="C3516" s="0" t="s">
-        <v>4763</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="3517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3517" s="0" t="s">
-        <v>6593</v>
+        <v>6594</v>
       </c>
       <c r="C3517" s="0" t="s">
-        <v>6594</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="3518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53611,18 +53617,18 @@
     </row>
     <row r="3522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3522" s="0" t="s">
-        <v>6</v>
+        <v>6603</v>
       </c>
       <c r="C3522" s="0" t="s">
-        <v>2942</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="3523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3523" s="0" t="s">
-        <v>6603</v>
+        <v>6</v>
       </c>
       <c r="C3523" s="0" t="s">
-        <v>6604</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="3524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53645,12 +53651,12 @@
       <c r="B3526" s="0" t="s">
         <v>6609</v>
       </c>
+      <c r="C3526" s="0" t="s">
+        <v>6610</v>
+      </c>
     </row>
     <row r="3527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3527" s="0" t="s">
-        <v>6610</v>
-      </c>
-      <c r="C3527" s="0" t="s">
         <v>6611</v>
       </c>
     </row>
@@ -53667,15 +53673,15 @@
         <v>6614</v>
       </c>
       <c r="C3529" s="0" t="s">
-        <v>7</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="3530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3530" s="0" t="s">
-        <v>6615</v>
+        <v>6616</v>
       </c>
       <c r="C3530" s="0" t="s">
-        <v>6616</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53699,27 +53705,27 @@
         <v>6621</v>
       </c>
       <c r="C3533" s="0" t="s">
-        <v>3495</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="3534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3534" s="0" t="s">
-        <v>6622</v>
+        <v>6623</v>
       </c>
       <c r="C3534" s="0" t="s">
-        <v>6623</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="3535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3535" s="0" t="s">
         <v>6624</v>
       </c>
+      <c r="C3535" s="0" t="s">
+        <v>6625</v>
+      </c>
     </row>
     <row r="3536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3536" s="0" t="s">
-        <v>6625</v>
-      </c>
-      <c r="C3536" s="0" t="s">
         <v>6626</v>
       </c>
     </row>
@@ -53736,15 +53742,15 @@
         <v>6629</v>
       </c>
       <c r="C3538" s="0" t="s">
-        <v>2123</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="3539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3539" s="0" t="s">
-        <v>6630</v>
+        <v>6631</v>
       </c>
       <c r="C3539" s="0" t="s">
-        <v>6631</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="3540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53760,12 +53766,12 @@
         <v>6634</v>
       </c>
       <c r="C3541" s="0" t="s">
-        <v>6634</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="3542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3542" s="0" t="s">
-        <v>6635</v>
+        <v>6636</v>
       </c>
       <c r="C3542" s="0" t="s">
         <v>6636</v>
@@ -53784,15 +53790,15 @@
         <v>6639</v>
       </c>
       <c r="C3544" s="0" t="s">
-        <v>516</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="3545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3545" s="0" t="s">
-        <v>6640</v>
+        <v>6641</v>
       </c>
       <c r="C3545" s="0" t="s">
-        <v>6641</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53839,12 +53845,12 @@
       <c r="B3551" s="0" t="s">
         <v>6652</v>
       </c>
+      <c r="C3551" s="0" t="s">
+        <v>6653</v>
+      </c>
     </row>
     <row r="3552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3552" s="0" t="s">
-        <v>6653</v>
-      </c>
-      <c r="C3552" s="0" t="s">
         <v>6654</v>
       </c>
     </row>
@@ -53853,19 +53859,19 @@
         <v>6655</v>
       </c>
       <c r="C3553" s="0" t="s">
-        <v>6655</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="3554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3554" s="0" t="s">
-        <v>6656</v>
+        <v>6657</v>
+      </c>
+      <c r="C3554" s="0" t="s">
+        <v>6657</v>
       </c>
     </row>
     <row r="3555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3555" s="0" t="s">
-        <v>6657</v>
-      </c>
-      <c r="C3555" s="0" t="s">
         <v>6658</v>
       </c>
     </row>
@@ -53898,15 +53904,15 @@
         <v>6665</v>
       </c>
       <c r="C3559" s="0" t="s">
-        <v>6664</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="3560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3560" s="0" t="s">
+        <v>6667</v>
+      </c>
+      <c r="C3560" s="0" t="s">
         <v>6666</v>
-      </c>
-      <c r="C3560" s="0" t="s">
-        <v>6667</v>
       </c>
     </row>
     <row r="3561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53943,23 +53949,23 @@
     </row>
     <row r="3565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3565" s="0" t="s">
-        <v>8</v>
+        <v>6676</v>
       </c>
       <c r="C3565" s="0" t="s">
-        <v>6676</v>
+        <v>6677</v>
       </c>
     </row>
     <row r="3566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3566" s="0" t="s">
-        <v>6677</v>
+        <v>8</v>
       </c>
       <c r="C3566" s="0" t="s">
-        <v>6677</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="3567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3567" s="0" t="s">
-        <v>6678</v>
+        <v>6679</v>
       </c>
       <c r="C3567" s="0" t="s">
         <v>6679</v>
@@ -54058,12 +54064,12 @@
         <v>6702</v>
       </c>
       <c r="C3579" s="0" t="s">
-        <v>6701</v>
+        <v>6703</v>
       </c>
     </row>
     <row r="3580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3580" s="0" t="s">
-        <v>6703</v>
+        <v>6704</v>
       </c>
       <c r="C3580" s="0" t="s">
         <v>6703</v>
@@ -54071,7 +54077,7 @@
     </row>
     <row r="3581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3581" s="0" t="s">
-        <v>6704</v>
+        <v>6705</v>
       </c>
       <c r="C3581" s="0" t="s">
         <v>6705</v>
@@ -54258,12 +54264,12 @@
         <v>6750</v>
       </c>
       <c r="C3604" s="0" t="s">
-        <v>6750</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="3605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3605" s="0" t="s">
-        <v>6751</v>
+        <v>6752</v>
       </c>
       <c r="C3605" s="0" t="s">
         <v>6752</v>
@@ -54298,12 +54304,12 @@
         <v>6759</v>
       </c>
       <c r="C3609" s="0" t="s">
-        <v>6759</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="3610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3610" s="0" t="s">
-        <v>6760</v>
+        <v>6761</v>
       </c>
       <c r="C3610" s="0" t="s">
         <v>6761</v>
@@ -54322,12 +54328,12 @@
         <v>6764</v>
       </c>
       <c r="C3612" s="0" t="s">
-        <v>6764</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="3613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3613" s="0" t="s">
-        <v>6765</v>
+        <v>6766</v>
       </c>
       <c r="C3613" s="0" t="s">
         <v>6766</v>
@@ -54410,15 +54416,15 @@
         <v>6785</v>
       </c>
       <c r="C3623" s="0" t="s">
-        <v>3925</v>
+        <v>6786</v>
       </c>
     </row>
     <row r="3624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3624" s="0" t="s">
-        <v>6786</v>
+        <v>6787</v>
       </c>
       <c r="C3624" s="0" t="s">
-        <v>6787</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="3625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54441,12 +54447,12 @@
       <c r="B3627" s="0" t="s">
         <v>6792</v>
       </c>
+      <c r="C3627" s="0" t="s">
+        <v>6793</v>
+      </c>
     </row>
     <row r="3628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3628" s="0" t="s">
-        <v>6793</v>
-      </c>
-      <c r="C3628" s="0" t="s">
         <v>6794</v>
       </c>
     </row>
@@ -54471,15 +54477,15 @@
         <v>6799</v>
       </c>
       <c r="C3631" s="0" t="s">
-        <v>6798</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="3632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3632" s="0" t="s">
+        <v>6801</v>
+      </c>
+      <c r="C3632" s="0" t="s">
         <v>6800</v>
-      </c>
-      <c r="C3632" s="0" t="s">
-        <v>6801</v>
       </c>
     </row>
     <row r="3633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54551,15 +54557,15 @@
         <v>6818</v>
       </c>
       <c r="C3641" s="0" t="s">
-        <v>610</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="3642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3642" s="0" t="s">
-        <v>6819</v>
+        <v>6820</v>
       </c>
       <c r="C3642" s="0" t="s">
-        <v>6820</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54695,35 +54701,35 @@
         <v>6853</v>
       </c>
       <c r="C3659" s="0" t="s">
-        <v>674</v>
+        <v>6854</v>
       </c>
     </row>
     <row r="3660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3660" s="0" t="s">
-        <v>6854</v>
+        <v>6855</v>
       </c>
       <c r="C3660" s="0" t="s">
-        <v>971</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3661" s="0" t="s">
-        <v>6855</v>
+        <v>6856</v>
       </c>
       <c r="C3661" s="0" t="s">
-        <v>6856</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3662" s="0" t="s">
         <v>6857</v>
       </c>
+      <c r="C3662" s="0" t="s">
+        <v>6858</v>
+      </c>
     </row>
     <row r="3663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3663" s="0" t="s">
-        <v>6858</v>
-      </c>
-      <c r="C3663" s="0" t="s">
         <v>6859</v>
       </c>
     </row>
@@ -54732,15 +54738,15 @@
         <v>6860</v>
       </c>
       <c r="C3664" s="0" t="s">
-        <v>3960</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="3665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3665" s="0" t="s">
-        <v>6861</v>
+        <v>6862</v>
       </c>
       <c r="C3665" s="0" t="s">
-        <v>6862</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="3666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54836,28 +54842,28 @@
         <v>6885</v>
       </c>
       <c r="C3677" s="0" t="s">
-        <v>4487</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="3678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3678" s="0" t="s">
-        <v>6886</v>
+        <v>6887</v>
       </c>
       <c r="C3678" s="0" t="s">
-        <v>4507</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="3679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3679" s="0" t="s">
-        <v>6887</v>
+        <v>6888</v>
       </c>
       <c r="C3679" s="0" t="s">
-        <v>6887</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="3680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3680" s="0" t="s">
-        <v>6888</v>
+        <v>6889</v>
       </c>
       <c r="C3680" s="0" t="s">
         <v>6889</v>
@@ -54884,12 +54890,12 @@
         <v>6894</v>
       </c>
       <c r="C3683" s="0" t="s">
-        <v>6894</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="3684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3684" s="0" t="s">
-        <v>6895</v>
+        <v>6896</v>
       </c>
       <c r="C3684" s="0" t="s">
         <v>6896</v>
@@ -54908,131 +54914,131 @@
         <v>6899</v>
       </c>
       <c r="C3686" s="0" t="s">
-        <v>6899</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="3687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3687" s="0" t="s">
-        <v>6900</v>
+        <v>6901</v>
+      </c>
+      <c r="C3687" s="0" t="s">
+        <v>6901</v>
       </c>
     </row>
     <row r="3688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3688" s="0" t="s">
-        <v>6901</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="3689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3689" s="0" t="s">
-        <v>6902</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="3690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3690" s="0" t="s">
-        <v>6903</v>
-      </c>
-      <c r="C3690" s="0" t="s">
-        <v>6903</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="3691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3691" s="0" t="s">
-        <v>6904</v>
+        <v>6905</v>
       </c>
       <c r="C3691" s="0" t="s">
-        <v>6904</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="3692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3692" s="0" t="s">
-        <v>6905</v>
+        <v>6906</v>
       </c>
       <c r="C3692" s="0" t="s">
-        <v>6905</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="3693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3693" s="0" t="s">
-        <v>6906</v>
+        <v>6907</v>
       </c>
       <c r="C3693" s="0" t="s">
-        <v>6906</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="3694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3694" s="0" t="s">
-        <v>6907</v>
+        <v>6908</v>
       </c>
       <c r="C3694" s="0" t="s">
-        <v>6907</v>
+        <v>6908</v>
       </c>
     </row>
     <row r="3695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3695" s="0" t="s">
-        <v>6908</v>
+        <v>6909</v>
       </c>
       <c r="C3695" s="0" t="s">
-        <v>6908</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="3696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3696" s="0" t="s">
-        <v>6909</v>
+        <v>6910</v>
       </c>
       <c r="C3696" s="0" t="s">
-        <v>6909</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="3697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3697" s="0" t="s">
-        <v>6910</v>
+        <v>6911</v>
       </c>
       <c r="C3697" s="0" t="s">
-        <v>6910</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="3698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3698" s="0" t="s">
-        <v>6911</v>
+        <v>6912</v>
       </c>
       <c r="C3698" s="0" t="s">
-        <v>6911</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="3699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3699" s="0" t="s">
-        <v>6912</v>
+        <v>6913</v>
       </c>
       <c r="C3699" s="0" t="s">
-        <v>6912</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="3700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3700" s="0" t="s">
-        <v>6913</v>
+        <v>6914</v>
       </c>
       <c r="C3700" s="0" t="s">
-        <v>6913</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="3701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3701" s="0" t="s">
-        <v>6914</v>
+        <v>6915</v>
       </c>
       <c r="C3701" s="0" t="s">
-        <v>6914</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="3702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3702" s="0" t="s">
-        <v>6915</v>
+        <v>6916</v>
       </c>
       <c r="C3702" s="0" t="s">
-        <v>6915</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="3703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3703" s="0" t="s">
-        <v>6916</v>
+        <v>6917</v>
       </c>
       <c r="C3703" s="0" t="s">
         <v>6917</v>
@@ -55154,12 +55160,12 @@
       <c r="B3718" s="0" t="s">
         <v>6946</v>
       </c>
+      <c r="C3718" s="0" t="s">
+        <v>6947</v>
+      </c>
     </row>
     <row r="3719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3719" s="0" t="s">
-        <v>6947</v>
-      </c>
-      <c r="C3719" s="0" t="s">
         <v>6948</v>
       </c>
     </row>
@@ -55299,11 +55305,11 @@
         <v>6982</v>
       </c>
     </row>
-    <row r="3737" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3737" s="2" t="s">
+    <row r="3737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3737" s="0" t="s">
         <v>6983</v>
       </c>
-      <c r="C3737" s="2" t="s">
+      <c r="C3737" s="0" t="s">
         <v>6984</v>
       </c>
     </row>
@@ -55315,7 +55321,7 @@
         <v>6986</v>
       </c>
     </row>
-    <row r="3739" customFormat="false" ht="94.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3739" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3739" s="2" t="s">
         <v>6987</v>
       </c>
@@ -55323,7 +55329,7 @@
         <v>6988</v>
       </c>
     </row>
-    <row r="3740" customFormat="false" ht="82.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3740" customFormat="false" ht="94.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3740" s="2" t="s">
         <v>6989</v>
       </c>
@@ -55331,11 +55337,11 @@
         <v>6990</v>
       </c>
     </row>
-    <row r="3741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3741" s="0" t="s">
+    <row r="3741" customFormat="false" ht="82.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3741" s="2" t="s">
         <v>6991</v>
       </c>
-      <c r="C3741" s="0" t="s">
+      <c r="C3741" s="2" t="s">
         <v>6992</v>
       </c>
     </row>
@@ -55379,19 +55385,19 @@
         <v>7002</v>
       </c>
     </row>
-    <row r="3747" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3747" s="2" t="s">
+    <row r="3747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3747" s="0" t="s">
         <v>7003</v>
       </c>
-      <c r="C3747" s="2" t="s">
+      <c r="C3747" s="0" t="s">
         <v>7004</v>
       </c>
     </row>
-    <row r="3748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3748" s="0" t="s">
+    <row r="3748" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3748" s="2" t="s">
         <v>7005</v>
       </c>
-      <c r="C3748" s="0" t="s">
+      <c r="C3748" s="2" t="s">
         <v>7006</v>
       </c>
     </row>
@@ -55407,12 +55413,12 @@
       <c r="B3750" s="0" t="s">
         <v>7009</v>
       </c>
+      <c r="C3750" s="0" t="s">
+        <v>7010</v>
+      </c>
     </row>
     <row r="3751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3751" s="0" t="s">
-        <v>7010</v>
-      </c>
-      <c r="C3751" s="0" t="s">
         <v>7011</v>
       </c>
     </row>
@@ -55584,32 +55590,32 @@
         <v>7053</v>
       </c>
     </row>
-    <row r="3773" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3773" s="2" t="s">
+    <row r="3773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3773" s="0" t="s">
         <v>7054</v>
       </c>
-    </row>
-    <row r="3774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3774" s="0" t="s">
+      <c r="C3773" s="0" t="s">
         <v>7055</v>
       </c>
-      <c r="C3774" s="0" t="s">
+    </row>
+    <row r="3774" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3774" s="2" t="s">
         <v>7056</v>
       </c>
     </row>
-    <row r="3775" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3775" s="2" t="s">
+    <row r="3775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3775" s="0" t="s">
         <v>7057</v>
       </c>
-      <c r="C3775" s="2" t="s">
+      <c r="C3775" s="0" t="s">
         <v>7058</v>
       </c>
     </row>
-    <row r="3776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3776" s="0" t="s">
+    <row r="3776" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3776" s="2" t="s">
         <v>7059</v>
       </c>
-      <c r="C3776" s="0" t="s">
+      <c r="C3776" s="2" t="s">
         <v>7060</v>
       </c>
     </row>
@@ -55625,22 +55631,22 @@
       <c r="B3778" s="0" t="s">
         <v>7063</v>
       </c>
+      <c r="C3778" s="0" t="s">
+        <v>7064</v>
+      </c>
     </row>
     <row r="3779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3779" s="0" t="s">
-        <v>7064</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="3780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3780" s="0" t="s">
-        <v>7065</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="3781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3781" s="0" t="s">
-        <v>7066</v>
-      </c>
-      <c r="C3781" s="0" t="s">
         <v>7067</v>
       </c>
     </row>
@@ -55672,12 +55678,12 @@
       <c r="B3785" s="0" t="s">
         <v>7074</v>
       </c>
+      <c r="C3785" s="0" t="s">
+        <v>7075</v>
+      </c>
     </row>
     <row r="3786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3786" s="0" t="s">
-        <v>7075</v>
-      </c>
-      <c r="C3786" s="0" t="s">
         <v>7076</v>
       </c>
     </row>
@@ -55693,12 +55699,12 @@
       <c r="B3788" s="0" t="s">
         <v>7079</v>
       </c>
+      <c r="C3788" s="0" t="s">
+        <v>7080</v>
+      </c>
     </row>
     <row r="3789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3789" s="0" t="s">
-        <v>7080</v>
-      </c>
-      <c r="C3789" s="0" t="s">
         <v>7081</v>
       </c>
     </row>
@@ -55830,19 +55836,19 @@
         <v>7113</v>
       </c>
     </row>
-    <row r="3806" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3806" s="2" t="s">
+    <row r="3806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3806" s="0" t="s">
         <v>7114</v>
       </c>
-      <c r="C3806" s="2" t="s">
+      <c r="C3806" s="0" t="s">
         <v>7115</v>
       </c>
     </row>
-    <row r="3807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3807" s="0" t="s">
+    <row r="3807" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3807" s="2" t="s">
         <v>7116</v>
       </c>
-      <c r="C3807" s="0" t="s">
+      <c r="C3807" s="2" t="s">
         <v>7117</v>
       </c>
     </row>
@@ -55870,19 +55876,19 @@
         <v>7123</v>
       </c>
     </row>
-    <row r="3811" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3811" s="2" t="s">
+    <row r="3811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3811" s="0" t="s">
         <v>7124</v>
       </c>
-      <c r="C3811" s="2" t="s">
+      <c r="C3811" s="0" t="s">
         <v>7125</v>
       </c>
     </row>
-    <row r="3812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3812" s="0" t="s">
+    <row r="3812" customFormat="false" ht="47.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3812" s="2" t="s">
         <v>7126</v>
       </c>
-      <c r="C3812" s="0" t="s">
+      <c r="C3812" s="2" t="s">
         <v>7127</v>
       </c>
     </row>
@@ -55894,11 +55900,11 @@
         <v>7129</v>
       </c>
     </row>
-    <row r="3814" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3814" s="2" t="s">
+    <row r="3814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3814" s="0" t="s">
         <v>7130</v>
       </c>
-      <c r="C3814" s="2" t="s">
+      <c r="C3814" s="0" t="s">
         <v>7131</v>
       </c>
     </row>
@@ -55906,20 +55912,20 @@
       <c r="B3815" s="2" t="s">
         <v>7132</v>
       </c>
-      <c r="C3815" s="0" t="s">
+      <c r="C3815" s="2" t="s">
         <v>7133</v>
       </c>
     </row>
-    <row r="3816" customFormat="false" ht="59.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3816" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3816" s="2" t="s">
         <v>7134</v>
       </c>
-    </row>
-    <row r="3817" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3816" s="0" t="s">
+        <v>7135</v>
+      </c>
+    </row>
+    <row r="3817" customFormat="false" ht="59.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3817" s="2" t="s">
-        <v>7135</v>
-      </c>
-      <c r="C3817" s="0" t="s">
         <v>7136</v>
       </c>
     </row>
@@ -55931,16 +55937,16 @@
         <v>7138</v>
       </c>
     </row>
-    <row r="3819" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3819" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3819" s="2" t="s">
         <v>7139</v>
       </c>
-    </row>
-    <row r="3820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3820" s="0" t="s">
+      <c r="C3819" s="0" t="s">
         <v>7140</v>
       </c>
-      <c r="C3820" s="0" t="s">
+    </row>
+    <row r="3820" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3820" s="2" t="s">
         <v>7141</v>
       </c>
     </row>
@@ -56117,15 +56123,15 @@
         <v>7184</v>
       </c>
       <c r="C3842" s="0" t="s">
-        <v>6848</v>
+        <v>7185</v>
       </c>
     </row>
     <row r="3843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3843" s="0" t="s">
-        <v>7185</v>
+        <v>7186</v>
       </c>
       <c r="C3843" s="0" t="s">
-        <v>7186</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="3844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56141,12 +56147,12 @@
         <v>7189</v>
       </c>
       <c r="C3845" s="0" t="s">
-        <v>7189</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="3846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3846" s="0" t="s">
-        <v>7190</v>
+        <v>7191</v>
       </c>
       <c r="C3846" s="0" t="s">
         <v>7191</v>
@@ -56173,15 +56179,15 @@
         <v>7196</v>
       </c>
       <c r="C3849" s="0" t="s">
-        <v>7195</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="3850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3850" s="0" t="s">
+        <v>7198</v>
+      </c>
+      <c r="C3850" s="0" t="s">
         <v>7197</v>
-      </c>
-      <c r="C3850" s="0" t="s">
-        <v>7198</v>
       </c>
     </row>
     <row r="3851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56245,36 +56251,36 @@
         <v>7213</v>
       </c>
       <c r="C3858" s="0" t="s">
-        <v>7202</v>
+        <v>7214</v>
       </c>
     </row>
     <row r="3859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3859" s="0" t="s">
-        <v>7214</v>
+        <v>7215</v>
       </c>
       <c r="C3859" s="0" t="s">
-        <v>7214</v>
+        <v>7204</v>
       </c>
     </row>
     <row r="3860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3860" s="0" t="s">
-        <v>7215</v>
+        <v>7216</v>
       </c>
       <c r="C3860" s="0" t="s">
-        <v>7215</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="3861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3861" s="0" t="s">
-        <v>7216</v>
+        <v>7217</v>
       </c>
       <c r="C3861" s="0" t="s">
-        <v>7216</v>
+        <v>7217</v>
       </c>
     </row>
     <row r="3862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3862" s="0" t="s">
-        <v>7217</v>
+        <v>7218</v>
       </c>
       <c r="C3862" s="0" t="s">
         <v>7218</v>
@@ -56549,27 +56555,27 @@
         <v>7285</v>
       </c>
       <c r="C3896" s="0" t="s">
-        <v>7284</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="3897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3897" s="0" t="s">
+        <v>7287</v>
+      </c>
+      <c r="C3897" s="0" t="s">
         <v>7286</v>
-      </c>
-      <c r="C3897" s="0" t="s">
-        <v>7287</v>
       </c>
     </row>
     <row r="3898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3898" s="0" t="s">
         <v>7288</v>
       </c>
+      <c r="C3898" s="0" t="s">
+        <v>7289</v>
+      </c>
     </row>
     <row r="3899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3899" s="0" t="s">
-        <v>7289</v>
-      </c>
-      <c r="C3899" s="0" t="s">
         <v>7290</v>
       </c>
     </row>
@@ -56645,19 +56651,19 @@
         <v>7308</v>
       </c>
     </row>
-    <row r="3909" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3909" s="2" t="s">
+    <row r="3909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3909" s="0" t="s">
         <v>7309</v>
       </c>
-      <c r="C3909" s="2" t="s">
+      <c r="C3909" s="0" t="s">
         <v>7310</v>
       </c>
     </row>
-    <row r="3910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3910" s="0" t="s">
+    <row r="3910" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3910" s="2" t="s">
         <v>7311</v>
       </c>
-      <c r="C3910" s="0" t="s">
+      <c r="C3910" s="2" t="s">
         <v>7312</v>
       </c>
     </row>
@@ -56674,15 +56680,15 @@
         <v>7315</v>
       </c>
       <c r="C3912" s="0" t="s">
-        <v>2442</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="3913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3913" s="0" t="s">
-        <v>7316</v>
+        <v>7317</v>
       </c>
       <c r="C3913" s="0" t="s">
-        <v>7317</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="3914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56698,15 +56704,15 @@
         <v>7320</v>
       </c>
       <c r="C3915" s="0" t="s">
-        <v>4434</v>
+        <v>7321</v>
       </c>
     </row>
     <row r="3916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3916" s="0" t="s">
-        <v>7321</v>
+        <v>7322</v>
       </c>
       <c r="C3916" s="0" t="s">
-        <v>7322</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="3917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56746,22 +56752,22 @@
         <v>7331</v>
       </c>
       <c r="C3921" s="0" t="s">
-        <v>3129</v>
+        <v>7332</v>
       </c>
     </row>
     <row r="3922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3922" s="0" t="s">
-        <v>7332</v>
-      </c>
-      <c r="C3922" s="3" t="s">
         <v>7333</v>
+      </c>
+      <c r="C3922" s="0" t="s">
+        <v>3131</v>
       </c>
     </row>
     <row r="3923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3923" s="0" t="s">
         <v>7334</v>
       </c>
-      <c r="C3923" s="0" t="s">
+      <c r="C3923" s="3" t="s">
         <v>7335</v>
       </c>
     </row>
@@ -56778,12 +56784,12 @@
         <v>7338</v>
       </c>
       <c r="C3925" s="0" t="s">
-        <v>7338</v>
+        <v>7339</v>
       </c>
     </row>
     <row r="3926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3926" s="0" t="s">
-        <v>7339</v>
+        <v>7340</v>
       </c>
       <c r="C3926" s="0" t="s">
         <v>7340</v>
@@ -56802,12 +56808,12 @@
         <v>7343</v>
       </c>
       <c r="C3928" s="0" t="s">
-        <v>7343</v>
+        <v>7344</v>
       </c>
     </row>
     <row r="3929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3929" s="0" t="s">
-        <v>7344</v>
+        <v>7345</v>
       </c>
       <c r="C3929" s="0" t="s">
         <v>7345</v>
@@ -56818,24 +56824,24 @@
         <v>7346</v>
       </c>
       <c r="C3930" s="0" t="s">
-        <v>7346</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="3931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3931" s="0" t="s">
-        <v>7347</v>
+        <v>7348</v>
+      </c>
+      <c r="C3931" s="0" t="s">
+        <v>7348</v>
       </c>
     </row>
     <row r="3932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3932" s="0" t="s">
-        <v>7348</v>
+        <v>7349</v>
       </c>
     </row>
     <row r="3933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3933" s="0" t="s">
-        <v>7349</v>
-      </c>
-      <c r="C3933" s="0" t="s">
         <v>7350</v>
       </c>
     </row>
@@ -56868,22 +56874,22 @@
         <v>7357</v>
       </c>
       <c r="C3937" s="0" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="3938" customFormat="false" ht="94.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3938" s="2" t="s">
         <v>7358</v>
       </c>
-      <c r="C3938" s="2" t="s">
+    </row>
+    <row r="3938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3938" s="0" t="s">
         <v>7359</v>
       </c>
-    </row>
-    <row r="3939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3939" s="0" t="s">
+      <c r="C3938" s="0" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="3939" customFormat="false" ht="94.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3939" s="2" t="s">
         <v>7360</v>
       </c>
-      <c r="C3939" s="0" t="s">
+      <c r="C3939" s="2" t="s">
         <v>7361</v>
       </c>
     </row>
@@ -56924,12 +56930,12 @@
         <v>7370</v>
       </c>
       <c r="C3944" s="0" t="s">
-        <v>7370</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="3945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3945" s="0" t="s">
-        <v>7371</v>
+        <v>7372</v>
       </c>
       <c r="C3945" s="0" t="s">
         <v>7372</v>
@@ -56947,12 +56953,12 @@
       <c r="B3947" s="0" t="s">
         <v>7375</v>
       </c>
+      <c r="C3947" s="0" t="s">
+        <v>7376</v>
+      </c>
     </row>
     <row r="3948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3948" s="0" t="s">
-        <v>7376</v>
-      </c>
-      <c r="C3948" s="0" t="s">
         <v>7377</v>
       </c>
     </row>
@@ -57113,15 +57119,15 @@
         <v>7416</v>
       </c>
       <c r="C3968" s="0" t="s">
-        <v>7403</v>
+        <v>7417</v>
       </c>
     </row>
     <row r="3969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3969" s="0" t="s">
-        <v>7417</v>
+        <v>7418</v>
       </c>
       <c r="C3969" s="0" t="s">
-        <v>7418</v>
+        <v>7405</v>
       </c>
     </row>
     <row r="3970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57232,21 +57238,21 @@
       <c r="B3983" s="0" t="s">
         <v>7445</v>
       </c>
+      <c r="C3983" s="0" t="s">
+        <v>7446</v>
+      </c>
     </row>
     <row r="3984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3984" s="0" t="s">
-        <v>7446</v>
-      </c>
-      <c r="C3984" s="0" t="s">
-        <v>674</v>
+        <v>7447</v>
       </c>
     </row>
     <row r="3985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3985" s="0" t="s">
-        <v>7447</v>
+        <v>7448</v>
       </c>
       <c r="C3985" s="0" t="s">
-        <v>7448</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57406,20 +57412,20 @@
         <v>7487</v>
       </c>
       <c r="C4005" s="0" t="s">
-        <v>7487</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="4006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4006" s="0" t="s">
-        <v>7488</v>
+        <v>7489</v>
       </c>
       <c r="C4006" s="0" t="s">
-        <v>7487</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="4007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4007" s="0" t="s">
-        <v>7489</v>
+        <v>7490</v>
       </c>
       <c r="C4007" s="0" t="s">
         <v>7489</v>
@@ -57427,7 +57433,7 @@
     </row>
     <row r="4008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4008" s="0" t="s">
-        <v>7490</v>
+        <v>7491</v>
       </c>
       <c r="C4008" s="0" t="s">
         <v>7491</v>
@@ -57545,19 +57551,19 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="4023" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4023" s="2" t="s">
+    <row r="4023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4023" s="0" t="s">
         <v>7520</v>
       </c>
-      <c r="C4023" s="2" t="s">
+      <c r="C4023" s="0" t="s">
         <v>7521</v>
       </c>
     </row>
-    <row r="4024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4024" s="0" t="s">
+    <row r="4024" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4024" s="2" t="s">
         <v>7522</v>
       </c>
-      <c r="C4024" s="0" t="s">
+      <c r="C4024" s="2" t="s">
         <v>7523</v>
       </c>
     </row>
@@ -57589,12 +57595,12 @@
       <c r="B4028" s="0" t="s">
         <v>7530</v>
       </c>
+      <c r="C4028" s="0" t="s">
+        <v>7531</v>
+      </c>
     </row>
     <row r="4029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4029" s="0" t="s">
-        <v>7531</v>
-      </c>
-      <c r="C4029" s="0" t="s">
         <v>7532</v>
       </c>
     </row>
@@ -57650,12 +57656,12 @@
       <c r="B4036" s="0" t="s">
         <v>7545</v>
       </c>
+      <c r="C4036" s="0" t="s">
+        <v>7546</v>
+      </c>
     </row>
     <row r="4037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4037" s="0" t="s">
-        <v>7546</v>
-      </c>
-      <c r="C4037" s="0" t="s">
         <v>7547</v>
       </c>
     </row>
@@ -57672,15 +57678,15 @@
         <v>7550</v>
       </c>
       <c r="C4039" s="0" t="s">
-        <v>7549</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="4040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4040" s="0" t="s">
+        <v>7552</v>
+      </c>
+      <c r="C4040" s="0" t="s">
         <v>7551</v>
-      </c>
-      <c r="C4040" s="0" t="s">
-        <v>7552</v>
       </c>
     </row>
     <row r="4041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57735,12 +57741,12 @@
       <c r="B4047" s="0" t="s">
         <v>7565</v>
       </c>
+      <c r="C4047" s="0" t="s">
+        <v>7566</v>
+      </c>
     </row>
     <row r="4048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4048" s="0" t="s">
-        <v>7566</v>
-      </c>
-      <c r="C4048" s="0" t="s">
         <v>7567</v>
       </c>
     </row>
@@ -57773,12 +57779,12 @@
         <v>7574</v>
       </c>
       <c r="C4052" s="0" t="s">
-        <v>7574</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="4053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4053" s="0" t="s">
-        <v>7575</v>
+        <v>7576</v>
       </c>
       <c r="C4053" s="0" t="s">
         <v>7576</v>
@@ -57813,15 +57819,15 @@
         <v>7583</v>
       </c>
       <c r="C4057" s="0" t="s">
-        <v>5713</v>
+        <v>7584</v>
       </c>
     </row>
     <row r="4058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4058" s="0" t="s">
-        <v>7584</v>
+        <v>7585</v>
       </c>
       <c r="C4058" s="0" t="s">
-        <v>7585</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="4059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57892,18 +57898,18 @@
       <c r="B4067" s="0" t="s">
         <v>7602</v>
       </c>
+      <c r="C4067" s="0" t="s">
+        <v>7603</v>
+      </c>
     </row>
     <row r="4068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4068" s="0" t="s">
-        <v>7603</v>
-      </c>
-      <c r="C4068" s="0" t="s">
-        <v>7603</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="4069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4069" s="0" t="s">
-        <v>7604</v>
+        <v>7605</v>
       </c>
       <c r="C4069" s="0" t="s">
         <v>7605</v>
@@ -57922,15 +57928,15 @@
         <v>7608</v>
       </c>
       <c r="C4071" s="0" t="s">
-        <v>6807</v>
+        <v>7609</v>
       </c>
     </row>
     <row r="4072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4072" s="0" t="s">
-        <v>7609</v>
+        <v>7610</v>
       </c>
       <c r="C4072" s="0" t="s">
-        <v>7610</v>
+        <v>6809</v>
       </c>
     </row>
     <row r="4073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57938,23 +57944,23 @@
         <v>7611</v>
       </c>
       <c r="C4073" s="0" t="s">
-        <v>6794</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="4074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4074" s="0" t="s">
-        <v>7612</v>
+        <v>7613</v>
       </c>
       <c r="C4074" s="0" t="s">
-        <v>6846</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="4075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4075" s="0" t="s">
-        <v>7613</v>
+        <v>7614</v>
       </c>
       <c r="C4075" s="0" t="s">
-        <v>7614</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="4076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57970,15 +57976,15 @@
         <v>7617</v>
       </c>
       <c r="C4077" s="0" t="s">
-        <v>6807</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="4078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4078" s="0" t="s">
-        <v>7618</v>
+        <v>7619</v>
       </c>
       <c r="C4078" s="0" t="s">
-        <v>7619</v>
+        <v>6809</v>
       </c>
     </row>
     <row r="4079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58018,12 +58024,12 @@
         <v>7628</v>
       </c>
       <c r="C4083" s="0" t="s">
-        <v>610</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="4084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4084" s="0" t="s">
-        <v>7629</v>
+        <v>7630</v>
       </c>
       <c r="C4084" s="0" t="s">
         <v>610</v>
@@ -58031,34 +58037,34 @@
     </row>
     <row r="4085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4085" s="0" t="s">
-        <v>7630</v>
+        <v>7631</v>
       </c>
       <c r="C4085" s="0" t="s">
-        <v>7627</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4086" s="0" t="s">
-        <v>7631</v>
+        <v>7632</v>
       </c>
       <c r="C4086" s="0" t="s">
-        <v>7627</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="4087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4087" s="0" t="s">
-        <v>7632</v>
+        <v>7633</v>
       </c>
       <c r="C4087" s="0" t="s">
-        <v>7627</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="4088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4088" s="0" t="s">
-        <v>7633</v>
+        <v>7634</v>
       </c>
       <c r="C4088" s="0" t="s">
-        <v>7634</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="4089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58170,15 +58176,15 @@
         <v>7661</v>
       </c>
       <c r="C4102" s="0" t="s">
-        <v>610</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="4103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4103" s="0" t="s">
-        <v>7662</v>
+        <v>7663</v>
       </c>
       <c r="C4103" s="0" t="s">
-        <v>7663</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58194,15 +58200,15 @@
         <v>7666</v>
       </c>
       <c r="C4105" s="0" t="s">
-        <v>6697</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="4106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4106" s="0" t="s">
-        <v>7667</v>
+        <v>7668</v>
       </c>
       <c r="C4106" s="0" t="s">
-        <v>7668</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="4107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58250,12 +58256,12 @@
         <v>7679</v>
       </c>
       <c r="C4112" s="0" t="s">
-        <v>7679</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="4113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4113" s="0" t="s">
-        <v>7680</v>
+        <v>7681</v>
       </c>
       <c r="C4113" s="0" t="s">
         <v>7681</v>
@@ -58266,12 +58272,12 @@
         <v>7682</v>
       </c>
       <c r="C4114" s="0" t="s">
-        <v>7682</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="4115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4115" s="0" t="s">
-        <v>7683</v>
+        <v>7684</v>
       </c>
       <c r="C4115" s="0" t="s">
         <v>7684</v>
@@ -58455,18 +58461,18 @@
     </row>
     <row r="4138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4138" s="0" t="s">
-        <v>5</v>
+        <v>7729</v>
       </c>
       <c r="C4138" s="0" t="s">
-        <v>5</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="4139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4139" s="0" t="s">
-        <v>7729</v>
+        <v>5</v>
       </c>
       <c r="C4139" s="0" t="s">
-        <v>7730</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58474,15 +58480,15 @@
         <v>7731</v>
       </c>
       <c r="C4140" s="0" t="s">
-        <v>7730</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="4141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4141" s="0" t="s">
+        <v>7733</v>
+      </c>
+      <c r="C4141" s="0" t="s">
         <v>7732</v>
-      </c>
-      <c r="C4141" s="0" t="s">
-        <v>7733</v>
       </c>
     </row>
     <row r="4142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58490,15 +58496,15 @@
         <v>7734</v>
       </c>
       <c r="C4142" s="0" t="s">
-        <v>3841</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="4143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4143" s="0" t="s">
-        <v>7735</v>
+        <v>7736</v>
       </c>
       <c r="C4143" s="0" t="s">
-        <v>7736</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="4144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58554,20 +58560,20 @@
         <v>7749</v>
       </c>
       <c r="C4150" s="0" t="s">
-        <v>2092</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="4151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4151" s="0" t="s">
-        <v>7750</v>
+        <v>7751</v>
       </c>
       <c r="C4151" s="0" t="s">
-        <v>7750</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="4152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4152" s="0" t="s">
-        <v>7751</v>
+        <v>7752</v>
       </c>
       <c r="C4152" s="0" t="s">
         <v>7752</v>
@@ -58626,12 +58632,12 @@
         <v>7765</v>
       </c>
       <c r="C4159" s="0" t="s">
-        <v>7765</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="4160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4160" s="0" t="s">
-        <v>7766</v>
+        <v>7767</v>
       </c>
       <c r="C4160" s="0" t="s">
         <v>7767</v>
@@ -58642,15 +58648,15 @@
         <v>7768</v>
       </c>
       <c r="C4161" s="0" t="s">
-        <v>7764</v>
+        <v>7769</v>
       </c>
     </row>
     <row r="4162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4162" s="0" t="s">
-        <v>7769</v>
+        <v>7770</v>
       </c>
       <c r="C4162" s="0" t="s">
-        <v>7770</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="4163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58754,12 +58760,12 @@
         <v>7795</v>
       </c>
       <c r="C4175" s="0" t="s">
-        <v>7795</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="4176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4176" s="0" t="s">
-        <v>7796</v>
+        <v>7797</v>
       </c>
       <c r="C4176" s="0" t="s">
         <v>7797</v>
@@ -58874,15 +58880,15 @@
         <v>7824</v>
       </c>
       <c r="C4190" s="0" t="s">
-        <v>7823</v>
+        <v>7825</v>
       </c>
     </row>
     <row r="4191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4191" s="0" t="s">
+        <v>7826</v>
+      </c>
+      <c r="C4191" s="0" t="s">
         <v>7825</v>
-      </c>
-      <c r="C4191" s="0" t="s">
-        <v>7826</v>
       </c>
     </row>
     <row r="4192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58925,19 +58931,19 @@
         <v>7836</v>
       </c>
     </row>
-    <row r="4197" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4197" s="2" t="s">
+    <row r="4197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4197" s="0" t="s">
         <v>7837</v>
       </c>
-      <c r="C4197" s="2" t="s">
+      <c r="C4197" s="0" t="s">
         <v>7838</v>
       </c>
     </row>
-    <row r="4198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4198" s="0" t="s">
+    <row r="4198" customFormat="false" ht="36.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4198" s="2" t="s">
         <v>7839</v>
       </c>
-      <c r="C4198" s="0" t="s">
+      <c r="C4198" s="2" t="s">
         <v>7840</v>
       </c>
     </row>
@@ -59077,8 +59083,7 @@
         <v>7874</v>
       </c>
     </row>
-    <row r="4216" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4216" s="0"/>
+    <row r="4216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4216" s="0" t="s">
         <v>7875</v>
       </c>
@@ -59092,28 +59097,29 @@
         <v>7877</v>
       </c>
       <c r="C4217" s="0" t="s">
-        <v>7877</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="4218" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4218" s="0"/>
       <c r="B4218" s="0" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="C4218" s="0" t="s">
-        <v>726</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="4219" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4219" s="0"/>
       <c r="B4219" s="0" t="s">
-        <v>7879</v>
+        <v>7880</v>
       </c>
       <c r="C4219" s="0" t="s">
-        <v>7880</v>
-      </c>
-    </row>
-    <row r="4220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4220" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4220" s="0"/>
       <c r="B4220" s="0" t="s">
         <v>7881</v>
       </c>
@@ -59182,12 +59188,12 @@
         <v>7897</v>
       </c>
       <c r="C4228" s="0" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="4229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4229" s="0" t="s">
-        <v>7898</v>
+        <v>7899</v>
       </c>
       <c r="C4229" s="0" t="s">
         <v>7899</v>
@@ -59206,20 +59212,20 @@
         <v>7902</v>
       </c>
       <c r="C4231" s="0" t="s">
-        <v>7902</v>
+        <v>7903</v>
       </c>
     </row>
     <row r="4232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4232" s="0" t="s">
-        <v>7903</v>
+        <v>7904</v>
       </c>
       <c r="C4232" s="0" t="s">
-        <v>7903</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="4233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4233" s="0" t="s">
-        <v>7904</v>
+        <v>7905</v>
       </c>
       <c r="C4233" s="0" t="s">
         <v>7905</v>
@@ -59254,15 +59260,15 @@
         <v>7912</v>
       </c>
       <c r="C4237" s="0" t="s">
-        <v>2515</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="4238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4238" s="0" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="C4238" s="0" t="s">
-        <v>7914</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="4239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59377,19 +59383,19 @@
         <v>7942</v>
       </c>
     </row>
-    <row r="4253" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4253" s="2" t="s">
+    <row r="4253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4253" s="0" t="s">
         <v>7943</v>
       </c>
-      <c r="C4253" s="2" t="s">
+      <c r="C4253" s="0" t="s">
         <v>7944</v>
       </c>
     </row>
-    <row r="4254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4254" s="0" t="s">
+    <row r="4254" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4254" s="2" t="s">
         <v>7945</v>
       </c>
-      <c r="C4254" s="0" t="s">
+      <c r="C4254" s="2" t="s">
         <v>7946</v>
       </c>
     </row>
@@ -59417,11 +59423,11 @@
         <v>7952</v>
       </c>
     </row>
-    <row r="4258" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4258" s="2" t="s">
+    <row r="4258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4258" s="0" t="s">
         <v>7953</v>
       </c>
-      <c r="C4258" s="2" t="s">
+      <c r="C4258" s="0" t="s">
         <v>7954</v>
       </c>
     </row>
@@ -59433,11 +59439,11 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="4260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4260" s="0" t="s">
+    <row r="4260" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4260" s="2" t="s">
         <v>7957</v>
       </c>
-      <c r="C4260" s="0" t="s">
+      <c r="C4260" s="2" t="s">
         <v>7958</v>
       </c>
     </row>
@@ -59502,12 +59508,12 @@
         <v>7973</v>
       </c>
       <c r="C4268" s="0" t="s">
-        <v>7973</v>
+        <v>7974</v>
       </c>
     </row>
     <row r="4269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4269" s="0" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="C4269" s="0" t="s">
         <v>7975</v>
@@ -59526,12 +59532,12 @@
         <v>7978</v>
       </c>
       <c r="C4271" s="0" t="s">
-        <v>7978</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="4272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4272" s="0" t="s">
-        <v>7979</v>
+        <v>7980</v>
       </c>
       <c r="C4272" s="0" t="s">
         <v>7980</v>
@@ -59542,23 +59548,23 @@
         <v>7981</v>
       </c>
       <c r="C4273" s="0" t="s">
-        <v>7980</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="4274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4274" s="0" t="s">
+        <v>7983</v>
+      </c>
+      <c r="C4274" s="0" t="s">
         <v>7982</v>
-      </c>
-      <c r="C4274" s="0" t="s">
-        <v>7980</v>
       </c>
     </row>
     <row r="4275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4275" s="0" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="C4275" s="0" t="s">
-        <v>7984</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="4276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59567,6 +59573,14 @@
       </c>
       <c r="C4276" s="0" t="s">
         <v>7986</v>
+      </c>
+    </row>
+    <row r="4277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4277" s="0" t="s">
+        <v>7987</v>
+      </c>
+      <c r="C4277" s="0" t="s">
+        <v>7988</v>
       </c>
     </row>
   </sheetData>

--- a/odoo_default_tnl.xlsx
+++ b/odoo_default_tnl.xlsx
@@ -6227,7 +6227,7 @@
     <t xml:space="preserve">Current Assets</t>
   </si>
   <si>
-    <t xml:space="preserve">Attività correnti</t>
+    <t xml:space="preserve">Attivo circolante</t>
   </si>
   <si>
     <t xml:space="preserve">Current commitment not found</t>
@@ -27189,11 +27189,11 @@
   </sheetPr>
   <dimension ref="A1:C4537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4501" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4537" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1718" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1731" activeCellId="0" sqref="B1731"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.12"/>

--- a/odoo_default_tnl.xlsx
+++ b/odoo_default_tnl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9071" uniqueCount="8585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9075" uniqueCount="8589">
   <si>
     <t xml:space="preserve">module</t>
   </si>
@@ -8942,6 +8942,12 @@
   </si>
   <si>
     <t xml:space="preserve">Numero di registrazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Causale contabile</t>
   </si>
   <si>
     <t xml:space="preserve">EORI Code</t>
@@ -13671,6 +13677,12 @@
   </si>
   <si>
     <t xml:space="preserve">Righe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lines Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero righe</t>
   </si>
   <si>
     <t xml:space="preserve">Lines Detail</t>
@@ -27493,13 +27505,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4591"/>
+  <dimension ref="A1:C4593"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3020" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3035" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.12"/>
@@ -39951,20 +39963,20 @@
         <v>2955</v>
       </c>
       <c r="C1562" s="0" t="s">
-        <v>1345</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1563" s="0" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="C1563" s="0" t="s">
-        <v>2956</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1564" s="0" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="C1564" s="0" t="s">
         <v>2958</v>
@@ -39994,19 +40006,19 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="1568" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1568" s="2" t="s">
+    <row r="1568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1568" s="0" t="s">
         <v>2965</v>
       </c>
-      <c r="C1568" s="2" t="s">
+      <c r="C1568" s="0" t="s">
         <v>2966</v>
       </c>
     </row>
-    <row r="1569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1569" s="0" t="s">
+    <row r="1569" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1569" s="2" t="s">
         <v>2967</v>
       </c>
-      <c r="C1569" s="0" t="s">
+      <c r="C1569" s="2" t="s">
         <v>2968</v>
       </c>
     </row>
@@ -40063,12 +40075,12 @@
         <v>2981</v>
       </c>
       <c r="C1576" s="0" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1577" s="0" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="C1577" s="0" t="s">
         <v>2983</v>
@@ -40095,12 +40107,12 @@
         <v>2988</v>
       </c>
       <c r="C1580" s="0" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="1581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1581" s="0" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="C1581" s="0" t="s">
         <v>2990</v>
@@ -40158,12 +40170,12 @@
       <c r="B1588" s="0" t="s">
         <v>3003</v>
       </c>
+      <c r="C1588" s="0" t="s">
+        <v>3004</v>
+      </c>
     </row>
     <row r="1589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1589" s="0" t="s">
-        <v>3004</v>
-      </c>
-      <c r="C1589" s="0" t="s">
         <v>3005</v>
       </c>
     </row>
@@ -40436,15 +40448,15 @@
         <v>3072</v>
       </c>
       <c r="C1623" s="0" t="s">
-        <v>3071</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1624" s="0" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C1624" s="0" t="s">
         <v>3073</v>
-      </c>
-      <c r="C1624" s="0" t="s">
-        <v>3074</v>
       </c>
     </row>
     <row r="1625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40575,16 +40587,16 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="1641" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1641" s="2" t="s">
+    <row r="1641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1641" s="0" t="s">
         <v>3107</v>
       </c>
-    </row>
-    <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1642" s="0" t="s">
+      <c r="C1641" s="0" t="s">
         <v>3108</v>
       </c>
-      <c r="C1642" s="0" t="s">
+    </row>
+    <row r="1642" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1642" s="2" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -40732,16 +40744,16 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="1661" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1661" s="2" t="s">
+    <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1661" s="0" t="s">
         <v>3146</v>
       </c>
-    </row>
-    <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1662" s="0" t="s">
+      <c r="C1661" s="0" t="s">
         <v>3147</v>
       </c>
-      <c r="C1662" s="0" t="s">
+    </row>
+    <row r="1662" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1662" s="2" t="s">
         <v>3148</v>
       </c>
     </row>
@@ -40765,7 +40777,7 @@
       <c r="B1665" s="0" t="s">
         <v>3153</v>
       </c>
-      <c r="C1665" s="4" t="s">
+      <c r="C1665" s="0" t="s">
         <v>3154</v>
       </c>
     </row>
@@ -40773,7 +40785,7 @@
       <c r="B1666" s="0" t="s">
         <v>3155</v>
       </c>
-      <c r="C1666" s="0" t="s">
+      <c r="C1666" s="4" t="s">
         <v>3156</v>
       </c>
     </row>
@@ -40782,15 +40794,15 @@
         <v>3157</v>
       </c>
       <c r="C1667" s="0" t="s">
-        <v>2769</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1668" s="0" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="C1668" s="0" t="s">
-        <v>3159</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40822,15 +40834,15 @@
         <v>3166</v>
       </c>
       <c r="C1672" s="0" t="s">
-        <v>2786</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1673" s="0" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="C1673" s="0" t="s">
-        <v>3168</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40838,15 +40850,15 @@
         <v>3169</v>
       </c>
       <c r="C1674" s="0" t="s">
-        <v>2790</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1675" s="0" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="C1675" s="0" t="s">
-        <v>3171</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40854,23 +40866,23 @@
         <v>3172</v>
       </c>
       <c r="C1676" s="0" t="s">
-        <v>2775</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="1677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1677" s="0" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="C1677" s="0" t="s">
-        <v>2801</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1678" s="0" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="C1678" s="0" t="s">
-        <v>3175</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40886,12 +40898,12 @@
         <v>3178</v>
       </c>
       <c r="C1680" s="0" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="1681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1681" s="0" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="C1681" s="0" t="s">
         <v>3180</v>
@@ -41094,20 +41106,20 @@
         <v>3229</v>
       </c>
       <c r="C1706" s="0" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="1707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1707" s="0" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="C1707" s="0" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="1708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1708" s="0" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="C1708" s="0" t="s">
         <v>3232</v>
@@ -41161,24 +41173,24 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="1715" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1715" s="2" t="s">
+    <row r="1715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1715" s="0" t="s">
         <v>3245</v>
       </c>
-    </row>
-    <row r="1716" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1715" s="0" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="1716" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1716" s="2" t="s">
-        <v>3246</v>
-      </c>
-      <c r="C1716" s="2" t="s">
         <v>3247</v>
       </c>
     </row>
-    <row r="1717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1717" s="0" t="s">
+    <row r="1717" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1717" s="2" t="s">
         <v>3248</v>
       </c>
-      <c r="C1717" s="0" t="s">
+      <c r="C1717" s="2" t="s">
         <v>3249</v>
       </c>
     </row>
@@ -41187,15 +41199,15 @@
         <v>3250</v>
       </c>
       <c r="C1718" s="0" t="s">
-        <v>3244</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="1719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1719" s="0" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="C1719" s="0" t="s">
-        <v>3252</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="1720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41363,15 +41375,15 @@
         <v>3293</v>
       </c>
       <c r="C1740" s="0" t="s">
-        <v>3292</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1741" s="0" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1741" s="0" t="s">
         <v>3294</v>
-      </c>
-      <c r="C1741" s="0" t="s">
-        <v>3295</v>
       </c>
     </row>
     <row r="1742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41427,15 +41439,15 @@
         <v>3308</v>
       </c>
       <c r="C1748" s="0" t="s">
-        <v>3307</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1749" s="0" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C1749" s="0" t="s">
         <v>3309</v>
-      </c>
-      <c r="C1749" s="0" t="s">
-        <v>3310</v>
       </c>
     </row>
     <row r="1750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41443,15 +41455,15 @@
         <v>3311</v>
       </c>
       <c r="C1750" s="0" t="s">
-        <v>3310</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="1751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1751" s="0" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C1751" s="0" t="s">
         <v>3312</v>
-      </c>
-      <c r="C1751" s="0" t="s">
-        <v>3313</v>
       </c>
     </row>
     <row r="1752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41562,12 +41574,12 @@
       <c r="B1765" s="0" t="s">
         <v>3340</v>
       </c>
+      <c r="C1765" s="0" t="s">
+        <v>3341</v>
+      </c>
     </row>
     <row r="1766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1766" s="0" t="s">
-        <v>3341</v>
-      </c>
-      <c r="C1766" s="0" t="s">
         <v>3342</v>
       </c>
     </row>
@@ -41639,20 +41651,20 @@
       <c r="B1775" s="0" t="s">
         <v>3359</v>
       </c>
-    </row>
-    <row r="1776" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1776" s="2" t="s">
+      <c r="C1775" s="0" t="s">
         <v>3360</v>
       </c>
-      <c r="C1776" s="2" t="s">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="1777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1777" s="0" t="s">
+    </row>
+    <row r="1776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1776" s="0" t="s">
         <v>3361</v>
       </c>
-      <c r="C1777" s="0" t="s">
+    </row>
+    <row r="1777" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1777" s="2" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C1777" s="2" t="s">
         <v>3362</v>
       </c>
     </row>
@@ -41672,19 +41684,19 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="1780" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1780" s="2" t="s">
+    <row r="1780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1780" s="0" t="s">
         <v>3367</v>
       </c>
-      <c r="C1780" s="2" t="s">
+      <c r="C1780" s="0" t="s">
         <v>3368</v>
       </c>
     </row>
-    <row r="1781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1781" s="0" t="s">
+    <row r="1781" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1781" s="2" t="s">
         <v>3369</v>
       </c>
-      <c r="C1781" s="0" t="s">
+      <c r="C1781" s="2" t="s">
         <v>3370</v>
       </c>
     </row>
@@ -41732,12 +41744,12 @@
       <c r="B1787" s="0" t="s">
         <v>3381</v>
       </c>
+      <c r="C1787" s="0" t="s">
+        <v>3382</v>
+      </c>
     </row>
     <row r="1788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1788" s="0" t="s">
-        <v>3382</v>
-      </c>
-      <c r="C1788" s="0" t="s">
         <v>3383</v>
       </c>
     </row>
@@ -41770,12 +41782,12 @@
         <v>3390</v>
       </c>
       <c r="C1792" s="0" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="1793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1793" s="0" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="C1793" s="0" t="s">
         <v>3392</v>
@@ -41825,27 +41837,27 @@
       <c r="B1799" s="0" t="s">
         <v>3403</v>
       </c>
+      <c r="C1799" s="0" t="s">
+        <v>3404</v>
+      </c>
     </row>
     <row r="1800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1800" s="0" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="1801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1801" s="0" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="1802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1802" s="0" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="1803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1803" s="0" t="s">
-        <v>3407</v>
-      </c>
-      <c r="C1803" s="0" t="s">
         <v>3408</v>
       </c>
     </row>
@@ -41910,15 +41922,15 @@
         <v>3423</v>
       </c>
       <c r="C1811" s="0" t="s">
-        <v>1266</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1812" s="0" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="C1812" s="0" t="s">
-        <v>3425</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41998,15 +42010,15 @@
         <v>3444</v>
       </c>
       <c r="C1822" s="0" t="s">
-        <v>1700</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="1823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1823" s="0" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="C1823" s="0" t="s">
-        <v>3446</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42029,12 +42041,12 @@
       <c r="B1826" s="0" t="s">
         <v>3451</v>
       </c>
+      <c r="C1826" s="0" t="s">
+        <v>3452</v>
+      </c>
     </row>
     <row r="1827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1827" s="0" t="s">
-        <v>3452</v>
-      </c>
-      <c r="C1827" s="0" t="s">
         <v>3453</v>
       </c>
     </row>
@@ -42051,20 +42063,20 @@
         <v>3456</v>
       </c>
       <c r="C1829" s="0" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1830" s="0" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="C1830" s="0" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="1831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1831" s="0" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="C1831" s="0" t="s">
         <v>3459</v>
@@ -42075,12 +42087,12 @@
         <v>3460</v>
       </c>
       <c r="C1832" s="0" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1833" s="0" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="C1833" s="0" t="s">
         <v>3462</v>
@@ -42090,12 +42102,12 @@
       <c r="B1834" s="0" t="s">
         <v>3463</v>
       </c>
+      <c r="C1834" s="0" t="s">
+        <v>3464</v>
+      </c>
     </row>
     <row r="1835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1835" s="0" t="s">
-        <v>3464</v>
-      </c>
-      <c r="C1835" s="0" t="s">
         <v>3465</v>
       </c>
     </row>
@@ -42112,15 +42124,15 @@
         <v>3468</v>
       </c>
       <c r="C1837" s="0" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1838" s="0" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C1838" s="0" t="s">
         <v>3469</v>
-      </c>
-      <c r="C1838" s="0" t="s">
-        <v>3470</v>
       </c>
     </row>
     <row r="1839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42128,15 +42140,15 @@
         <v>3471</v>
       </c>
       <c r="C1839" s="0" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="1840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1840" s="0" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C1840" s="0" t="s">
         <v>3472</v>
-      </c>
-      <c r="C1840" s="0" t="s">
-        <v>3473</v>
       </c>
     </row>
     <row r="1841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42219,19 +42231,19 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="1851" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1851" s="2" t="s">
+    <row r="1851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1851" s="0" t="s">
         <v>3494</v>
       </c>
-      <c r="C1851" s="2" t="s">
+      <c r="C1851" s="0" t="s">
         <v>3495</v>
       </c>
     </row>
-    <row r="1852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1852" s="0" t="s">
+    <row r="1852" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1852" s="2" t="s">
         <v>3496</v>
       </c>
-      <c r="C1852" s="0" t="s">
+      <c r="C1852" s="2" t="s">
         <v>3497</v>
       </c>
     </row>
@@ -42240,12 +42252,12 @@
         <v>3498</v>
       </c>
       <c r="C1853" s="0" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1854" s="0" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="C1854" s="0" t="s">
         <v>3500</v>
@@ -42303,18 +42315,18 @@
       <c r="B1861" s="0" t="s">
         <v>3513</v>
       </c>
+      <c r="C1861" s="0" t="s">
+        <v>3514</v>
+      </c>
     </row>
     <row r="1862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1862" s="0" t="s">
-        <v>3514</v>
-      </c>
-      <c r="C1862" s="0" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1863" s="0" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="C1863" s="0" t="s">
         <v>3516</v>
@@ -42368,19 +42380,19 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="1870" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1870" s="2" t="s">
+    <row r="1870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1870" s="0" t="s">
         <v>3529</v>
       </c>
-      <c r="C1870" s="2" t="s">
+      <c r="C1870" s="0" t="s">
         <v>3530</v>
       </c>
     </row>
-    <row r="1871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1871" s="0" t="s">
+    <row r="1871" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1871" s="2" t="s">
         <v>3531</v>
       </c>
-      <c r="C1871" s="0" t="s">
+      <c r="C1871" s="2" t="s">
         <v>3532</v>
       </c>
     </row>
@@ -42405,15 +42417,15 @@
         <v>3537</v>
       </c>
       <c r="C1874" s="0" t="s">
-        <v>2528</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1875" s="0" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="C1875" s="0" t="s">
-        <v>3539</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42432,19 +42444,19 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="1878" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1878" s="2" t="s">
+    <row r="1878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1878" s="0" t="s">
         <v>3544</v>
       </c>
-      <c r="C1878" s="2" t="s">
+      <c r="C1878" s="0" t="s">
         <v>3545</v>
       </c>
     </row>
-    <row r="1879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1879" s="0" t="s">
+    <row r="1879" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1879" s="2" t="s">
         <v>3546</v>
       </c>
-      <c r="C1879" s="0" t="s">
+      <c r="C1879" s="2" t="s">
         <v>3547</v>
       </c>
     </row>
@@ -42549,12 +42561,12 @@
         <v>3572</v>
       </c>
       <c r="C1892" s="0" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1893" s="0" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="C1893" s="0" t="s">
         <v>3574</v>
@@ -42629,15 +42641,15 @@
         <v>3591</v>
       </c>
       <c r="C1902" s="0" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1903" s="0" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C1903" s="0" t="s">
         <v>3592</v>
-      </c>
-      <c r="C1903" s="0" t="s">
-        <v>3593</v>
       </c>
     </row>
     <row r="1904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42741,12 +42753,12 @@
         <v>3618</v>
       </c>
       <c r="C1916" s="0" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1917" s="0" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="C1917" s="0" t="s">
         <v>3620</v>
@@ -42757,12 +42769,12 @@
         <v>3621</v>
       </c>
       <c r="C1918" s="0" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1919" s="0" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="C1919" s="0" t="s">
         <v>3623</v>
@@ -42773,36 +42785,36 @@
         <v>3624</v>
       </c>
       <c r="C1920" s="0" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="1921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1921" s="0" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="C1921" s="0" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1922" s="0" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="C1922" s="0" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1923" s="0" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="C1923" s="0" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="1924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1924" s="0" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C1924" s="0" t="s">
         <v>3629</v>
@@ -42813,12 +42825,12 @@
         <v>3630</v>
       </c>
       <c r="C1925" s="0" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1926" s="0" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="C1926" s="0" t="s">
         <v>3632</v>
@@ -42885,15 +42897,15 @@
         <v>3647</v>
       </c>
       <c r="C1934" s="0" t="s">
-        <v>1845</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="1935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1935" s="0" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C1935" s="0" t="s">
-        <v>3649</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42957,12 +42969,12 @@
         <v>3664</v>
       </c>
       <c r="C1943" s="0" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1944" s="0" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C1944" s="0" t="s">
         <v>3666</v>
@@ -43104,19 +43116,19 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="1962" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1962" s="2" t="s">
+    <row r="1962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1962" s="0" t="s">
         <v>3701</v>
       </c>
-      <c r="C1962" s="2" t="s">
+      <c r="C1962" s="0" t="s">
         <v>3702</v>
       </c>
     </row>
-    <row r="1963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1963" s="0" t="s">
+    <row r="1963" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1963" s="2" t="s">
         <v>3703</v>
       </c>
-      <c r="C1963" s="0" t="s">
+      <c r="C1963" s="2" t="s">
         <v>3704</v>
       </c>
     </row>
@@ -43229,12 +43241,12 @@
         <v>3731</v>
       </c>
       <c r="C1977" s="0" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="1978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1978" s="0" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="C1978" s="0" t="s">
         <v>3733</v>
@@ -43245,12 +43257,12 @@
         <v>3734</v>
       </c>
       <c r="C1979" s="0" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="1980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1980" s="0" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="C1980" s="0" t="s">
         <v>3736</v>
@@ -43296,19 +43308,19 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="1986" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1986" s="2" t="s">
+    <row r="1986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1986" s="0" t="s">
         <v>3747</v>
       </c>
-      <c r="C1986" s="2" t="s">
+      <c r="C1986" s="0" t="s">
         <v>3748</v>
       </c>
     </row>
-    <row r="1987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1987" s="0" t="s">
+    <row r="1987" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1987" s="2" t="s">
         <v>3749</v>
       </c>
-      <c r="C1987" s="0" t="s">
+      <c r="C1987" s="2" t="s">
         <v>3750</v>
       </c>
     </row>
@@ -43332,12 +43344,12 @@
       <c r="B1990" s="0" t="s">
         <v>3755</v>
       </c>
+      <c r="C1990" s="0" t="s">
+        <v>3756</v>
+      </c>
     </row>
     <row r="1991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1991" s="0" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C1991" s="0" t="s">
         <v>3757</v>
       </c>
     </row>
@@ -43345,26 +43357,26 @@
       <c r="B1992" s="0" t="s">
         <v>3758</v>
       </c>
+      <c r="C1992" s="0" t="s">
+        <v>3759</v>
+      </c>
     </row>
     <row r="1993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1993" s="0" t="s">
-        <v>3759</v>
-      </c>
-      <c r="C1993" s="0" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1994" s="0" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="C1994" s="0" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="1995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1995" s="0" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="C1995" s="0" t="s">
         <v>3762</v>
@@ -43406,12 +43418,12 @@
       <c r="B2000" s="0" t="s">
         <v>3771</v>
       </c>
+      <c r="C2000" s="0" t="s">
+        <v>3772</v>
+      </c>
     </row>
     <row r="2001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2001" s="0" t="s">
-        <v>3772</v>
-      </c>
-      <c r="C2001" s="0" t="s">
         <v>3773</v>
       </c>
     </row>
@@ -43500,23 +43512,23 @@
         <v>3794</v>
       </c>
       <c r="C2012" s="0" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="2013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2013" s="0" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="C2013" s="0" t="s">
-        <v>2320</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="2014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2014" s="0" t="s">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="C2014" s="0" t="s">
-        <v>3797</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="2015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43556,15 +43568,15 @@
         <v>3806</v>
       </c>
       <c r="C2019" s="0" t="s">
-        <v>3794</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2020" s="0" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="C2020" s="0" t="s">
-        <v>3808</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="2021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43647,16 +43659,16 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="2031" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2031" s="2" t="s">
+    <row r="2031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2031" s="0" t="s">
         <v>3829</v>
       </c>
-    </row>
-    <row r="2032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2032" s="0" t="s">
+      <c r="C2031" s="0" t="s">
         <v>3830</v>
       </c>
-      <c r="C2032" s="0" t="s">
+    </row>
+    <row r="2032" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2032" s="2" t="s">
         <v>3831</v>
       </c>
     </row>
@@ -43676,16 +43688,16 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="2035" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2035" s="2" t="s">
+    <row r="2035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2035" s="0" t="s">
         <v>3836</v>
       </c>
-    </row>
-    <row r="2036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2036" s="0" t="s">
+      <c r="C2035" s="0" t="s">
         <v>3837</v>
       </c>
-      <c r="C2036" s="0" t="s">
+    </row>
+    <row r="2036" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2036" s="2" t="s">
         <v>3838</v>
       </c>
     </row>
@@ -43829,17 +43841,17 @@
       <c r="B2054" s="0" t="s">
         <v>3873</v>
       </c>
+      <c r="C2054" s="0" t="s">
+        <v>3874</v>
+      </c>
     </row>
     <row r="2055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2055" s="0" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="2056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2056" s="0" t="s">
-        <v>3875</v>
-      </c>
-      <c r="C2056" s="0" t="s">
         <v>3876</v>
       </c>
     </row>
@@ -43920,30 +43932,30 @@
         <v>3895</v>
       </c>
       <c r="C2066" s="0" t="s">
-        <v>3894</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="2067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2067" s="0" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C2067" s="0" t="s">
         <v>3896</v>
       </c>
-      <c r="C2067" s="0" t="s">
+    </row>
+    <row r="2068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2068" s="0" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C2068" s="0" t="s">
         <v>2863</v>
       </c>
     </row>
-    <row r="2068" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2068" s="2" t="s">
-        <v>3897</v>
-      </c>
-      <c r="C2068" s="2" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="2069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2069" s="0" t="s">
+    <row r="2069" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2069" s="2" t="s">
         <v>3899</v>
       </c>
-      <c r="C2069" s="0" t="s">
+      <c r="C2069" s="2" t="s">
         <v>3900</v>
       </c>
     </row>
@@ -44048,23 +44060,23 @@
         <v>3925</v>
       </c>
       <c r="C2082" s="0" t="s">
-        <v>2015</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="2083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2083" s="0" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="C2083" s="0" t="s">
-        <v>2350</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="2084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2084" s="0" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="C2084" s="0" t="s">
-        <v>3928</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="2085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44103,21 +44115,21 @@
       <c r="B2089" s="0" t="s">
         <v>3937</v>
       </c>
+      <c r="C2089" s="0" t="s">
+        <v>3938</v>
+      </c>
     </row>
     <row r="2090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2090" s="0" t="s">
-        <v>3938</v>
-      </c>
-      <c r="C2090" s="0" t="s">
-        <v>851</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="2091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2091" s="0" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="C2091" s="0" t="s">
-        <v>3940</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44221,23 +44233,23 @@
         <v>3965</v>
       </c>
       <c r="C2104" s="0" t="s">
-        <v>3964</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="2105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2105" s="0" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C2105" s="0" t="s">
         <v>3966</v>
-      </c>
-      <c r="C2105" s="0" t="s">
-        <v>3964</v>
       </c>
     </row>
     <row r="2106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2106" s="0" t="s">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="C2106" s="0" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="2107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44253,12 +44265,12 @@
         <v>3971</v>
       </c>
       <c r="C2108" s="0" t="s">
-        <v>3971</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="2109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2109" s="0" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="C2109" s="0" t="s">
         <v>3973</v>
@@ -44292,12 +44304,12 @@
       <c r="B2113" s="0" t="s">
         <v>3980</v>
       </c>
+      <c r="C2113" s="0" t="s">
+        <v>3981</v>
+      </c>
     </row>
     <row r="2114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2114" s="0" t="s">
-        <v>3981</v>
-      </c>
-      <c r="C2114" s="0" t="s">
         <v>3982</v>
       </c>
     </row>
@@ -44330,12 +44342,12 @@
         <v>3989</v>
       </c>
       <c r="C2118" s="0" t="s">
-        <v>3989</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="2119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2119" s="0" t="s">
-        <v>3990</v>
+        <v>3991</v>
       </c>
       <c r="C2119" s="0" t="s">
         <v>3991</v>
@@ -44362,15 +44374,15 @@
         <v>3996</v>
       </c>
       <c r="C2122" s="0" t="s">
-        <v>686</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="2123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2123" s="0" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
       <c r="C2123" s="0" t="s">
-        <v>3998</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44410,20 +44422,20 @@
         <v>4007</v>
       </c>
       <c r="C2128" s="0" t="s">
-        <v>3998</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="2129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2129" s="0" t="s">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C2129" s="0" t="s">
-        <v>4008</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="2130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2130" s="0" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C2130" s="0" t="s">
         <v>4010</v>
@@ -44442,15 +44454,15 @@
         <v>4013</v>
       </c>
       <c r="C2132" s="0" t="s">
-        <v>4012</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="2133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2133" s="0" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C2133" s="0" t="s">
         <v>4014</v>
-      </c>
-      <c r="C2133" s="0" t="s">
-        <v>4015</v>
       </c>
     </row>
     <row r="2134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44553,12 +44565,12 @@
       <c r="B2146" s="0" t="s">
         <v>4040</v>
       </c>
+      <c r="C2146" s="0" t="s">
+        <v>4041</v>
+      </c>
     </row>
     <row r="2147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2147" s="0" t="s">
-        <v>4041</v>
-      </c>
-      <c r="C2147" s="0" t="s">
         <v>4042</v>
       </c>
     </row>
@@ -44622,12 +44634,12 @@
       <c r="B2155" s="0" t="s">
         <v>4057</v>
       </c>
+      <c r="C2155" s="0" t="s">
+        <v>4058</v>
+      </c>
     </row>
     <row r="2156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2156" s="0" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C2156" s="0" t="s">
         <v>4059</v>
       </c>
     </row>
@@ -44851,12 +44863,12 @@
       <c r="B2184" s="0" t="s">
         <v>4114</v>
       </c>
+      <c r="C2184" s="0" t="s">
+        <v>4115</v>
+      </c>
     </row>
     <row r="2185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2185" s="0" t="s">
-        <v>4115</v>
-      </c>
-      <c r="C2185" s="0" t="s">
         <v>4116</v>
       </c>
     </row>
@@ -44936,12 +44948,12 @@
       <c r="B2195" s="0" t="s">
         <v>4135</v>
       </c>
+      <c r="C2195" s="0" t="s">
+        <v>4136</v>
+      </c>
     </row>
     <row r="2196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2196" s="0" t="s">
-        <v>4136</v>
-      </c>
-      <c r="C2196" s="0" t="s">
         <v>4137</v>
       </c>
     </row>
@@ -44969,19 +44981,19 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="2200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2200" s="2" t="s">
+    <row r="2200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2200" s="0" t="s">
         <v>4144</v>
       </c>
-      <c r="C2200" s="2" t="s">
+      <c r="C2200" s="0" t="s">
         <v>4145</v>
       </c>
     </row>
-    <row r="2201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2201" s="0" t="s">
+    <row r="2201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2201" s="2" t="s">
         <v>4146</v>
       </c>
-      <c r="C2201" s="0" t="s">
+      <c r="C2201" s="2" t="s">
         <v>4147</v>
       </c>
     </row>
@@ -45046,15 +45058,15 @@
         <v>4162</v>
       </c>
       <c r="C2209" s="0" t="s">
-        <v>403</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="2210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2210" s="0" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="C2210" s="0" t="s">
-        <v>4164</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45094,15 +45106,15 @@
         <v>4173</v>
       </c>
       <c r="C2215" s="0" t="s">
-        <v>2267</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="2216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2216" s="0" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="C2216" s="0" t="s">
-        <v>4175</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="2217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45126,15 +45138,15 @@
         <v>4180</v>
       </c>
       <c r="C2219" s="0" t="s">
-        <v>4179</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="2220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2220" s="0" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C2220" s="0" t="s">
         <v>4181</v>
-      </c>
-      <c r="C2220" s="0" t="s">
-        <v>4182</v>
       </c>
     </row>
     <row r="2221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45214,15 +45226,15 @@
         <v>4201</v>
       </c>
       <c r="C2230" s="0" t="s">
-        <v>3940</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="2231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2231" s="0" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="C2231" s="0" t="s">
-        <v>4203</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="2232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45262,15 +45274,15 @@
         <v>4212</v>
       </c>
       <c r="C2236" s="0" t="s">
-        <v>1174</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="2237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2237" s="0" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="C2237" s="0" t="s">
-        <v>4214</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="2238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45278,15 +45290,15 @@
         <v>4215</v>
       </c>
       <c r="C2238" s="0" t="s">
-        <v>444</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="2239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2239" s="0" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="C2239" s="0" t="s">
-        <v>4217</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45310,12 +45322,12 @@
         <v>4222</v>
       </c>
       <c r="C2242" s="0" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="2243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2243" s="0" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="C2243" s="0" t="s">
         <v>4224</v>
@@ -45325,17 +45337,17 @@
       <c r="B2244" s="0" t="s">
         <v>4225</v>
       </c>
+      <c r="C2244" s="0" t="s">
+        <v>4226</v>
+      </c>
     </row>
     <row r="2245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2245" s="0" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="2246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2246" s="0" t="s">
-        <v>4227</v>
-      </c>
-      <c r="C2246" s="0" t="s">
         <v>4228</v>
       </c>
     </row>
@@ -45360,60 +45372,60 @@
         <v>4233</v>
       </c>
       <c r="C2249" s="0" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="2250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2250" s="0" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="C2250" s="0" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="2251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2251" s="0" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="C2251" s="0" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="2252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2252" s="0" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="C2252" s="0" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="2253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2253" s="0" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="C2253" s="0" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="2254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2254" s="0" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="C2254" s="0" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="2255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2255" s="0" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="C2255" s="0" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="2256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2256" s="0" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="C2256" s="0" t="s">
         <v>4241</v>
@@ -45464,15 +45476,15 @@
         <v>4252</v>
       </c>
       <c r="C2262" s="0" t="s">
-        <v>4247</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="2263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2263" s="0" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="C2263" s="0" t="s">
-        <v>4254</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="2264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45480,15 +45492,15 @@
         <v>4255</v>
       </c>
       <c r="C2264" s="0" t="s">
-        <v>2744</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="2265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2265" s="0" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="C2265" s="0" t="s">
-        <v>4257</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="2266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45520,15 +45532,15 @@
         <v>4264</v>
       </c>
       <c r="C2269" s="0" t="s">
-        <v>4263</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="2270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2270" s="0" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C2270" s="0" t="s">
         <v>4265</v>
-      </c>
-      <c r="C2270" s="0" t="s">
-        <v>4266</v>
       </c>
     </row>
     <row r="2271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45640,12 +45652,12 @@
         <v>4293</v>
       </c>
       <c r="C2284" s="0" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="2285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2285" s="0" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="C2285" s="0" t="s">
         <v>4295</v>
@@ -45672,15 +45684,15 @@
         <v>4300</v>
       </c>
       <c r="C2288" s="0" t="s">
-        <v>456</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="2289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2289" s="0" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="C2289" s="0" t="s">
-        <v>4302</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45752,12 +45764,12 @@
         <v>4319</v>
       </c>
       <c r="C2298" s="0" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="2299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2299" s="0" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="C2299" s="0" t="s">
         <v>4321</v>
@@ -45784,12 +45796,12 @@
         <v>4326</v>
       </c>
       <c r="C2302" s="0" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="2303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2303" s="0" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="C2303" s="0" t="s">
         <v>4328</v>
@@ -45808,12 +45820,12 @@
         <v>4331</v>
       </c>
       <c r="C2305" s="0" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="2306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2306" s="0" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="C2306" s="0" t="s">
         <v>4333</v>
@@ -45824,20 +45836,20 @@
         <v>4334</v>
       </c>
       <c r="C2307" s="0" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="2308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2308" s="0" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="C2308" s="0" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="2309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2309" s="0" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="C2309" s="0" t="s">
         <v>4337</v>
@@ -45848,12 +45860,12 @@
         <v>4338</v>
       </c>
       <c r="C2310" s="0" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="2311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2311" s="0" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="C2311" s="0" t="s">
         <v>4340</v>
@@ -45880,12 +45892,12 @@
         <v>4345</v>
       </c>
       <c r="C2314" s="0" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="2315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2315" s="0" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="C2315" s="0" t="s">
         <v>4347</v>
@@ -45968,12 +45980,12 @@
         <v>4366</v>
       </c>
       <c r="C2325" s="0" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="2326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2326" s="0" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="C2326" s="0" t="s">
         <v>4368</v>
@@ -46288,12 +46300,12 @@
         <v>4445</v>
       </c>
       <c r="C2365" s="0" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="2366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2366" s="0" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="C2366" s="0" t="s">
         <v>4447</v>
@@ -46352,12 +46364,12 @@
         <v>4460</v>
       </c>
       <c r="C2373" s="0" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2374" s="0" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="C2374" s="0" t="s">
         <v>4462</v>
@@ -46384,12 +46396,12 @@
         <v>4467</v>
       </c>
       <c r="C2377" s="0" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="2378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2378" s="0" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="C2378" s="0" t="s">
         <v>4469</v>
@@ -46424,15 +46436,15 @@
         <v>4476</v>
       </c>
       <c r="C2382" s="0" t="s">
-        <v>4280</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="2383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2383" s="0" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="C2383" s="0" t="s">
-        <v>4478</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="2384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46491,11 +46503,11 @@
         <v>4492</v>
       </c>
     </row>
-    <row r="2391" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2391" s="2" t="s">
+    <row r="2391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2391" s="0" t="s">
         <v>4493</v>
       </c>
-      <c r="C2391" s="2" t="s">
+      <c r="C2391" s="0" t="s">
         <v>4494</v>
       </c>
     </row>
@@ -46507,11 +46519,11 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="2393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2393" s="0" t="s">
+    <row r="2393" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2393" s="2" t="s">
         <v>4497</v>
       </c>
-      <c r="C2393" s="0" t="s">
+      <c r="C2393" s="2" t="s">
         <v>4498</v>
       </c>
     </row>
@@ -46688,23 +46700,23 @@
         <v>4541</v>
       </c>
       <c r="C2415" s="0" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="2416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2416" s="0" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="C2416" s="0" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="2417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2417" s="0" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C2417" s="0" t="s">
         <v>4544</v>
-      </c>
-      <c r="C2417" s="0" t="s">
-        <v>4545</v>
       </c>
     </row>
     <row r="2418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46744,55 +46756,55 @@
         <v>4554</v>
       </c>
       <c r="C2422" s="0" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="2423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2423" s="0" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="C2423" s="0" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="2424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2424" s="0" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C2424" s="0" t="s">
         <v>4557</v>
-      </c>
-      <c r="C2424" s="0" t="s">
-        <v>4556</v>
       </c>
     </row>
     <row r="2425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2425" s="0" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="C2425" s="0" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="2426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2426" s="0" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C2426" s="0" t="s">
         <v>4560</v>
-      </c>
-      <c r="C2426" s="0" t="s">
-        <v>4559</v>
       </c>
     </row>
     <row r="2427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2427" s="0" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="C2427" s="0" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="2428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2428" s="0" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C2428" s="0" t="s">
         <v>4563</v>
-      </c>
-      <c r="C2428" s="0" t="s">
-        <v>4564</v>
       </c>
     </row>
     <row r="2429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46800,20 +46812,20 @@
         <v>4565</v>
       </c>
       <c r="C2429" s="0" t="s">
-        <v>4564</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="2430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2430" s="0" t="s">
-        <v>6</v>
+        <v>4567</v>
       </c>
       <c r="C2430" s="0" t="s">
-        <v>4566</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="2431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2431" s="0" t="s">
-        <v>4567</v>
+        <v>4569</v>
       </c>
       <c r="C2431" s="0" t="s">
         <v>4568</v>
@@ -46821,7 +46833,7 @@
     </row>
     <row r="2432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2432" s="0" t="s">
-        <v>4569</v>
+        <v>6</v>
       </c>
       <c r="C2432" s="0" t="s">
         <v>4570</v>
@@ -46848,55 +46860,55 @@
         <v>4575</v>
       </c>
       <c r="C2435" s="0" t="s">
-        <v>2946</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="2436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2436" s="0" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="C2436" s="0" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="2437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2437" s="0" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="C2437" s="0" t="s">
-        <v>4578</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="2438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2438" s="0" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="C2438" s="0" t="s">
-        <v>4579</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2439" s="0" t="s">
-        <v>4580</v>
+        <v>4582</v>
       </c>
       <c r="C2439" s="0" t="s">
-        <v>4573</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="2440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2440" s="0" t="s">
-        <v>4581</v>
+        <v>4583</v>
       </c>
       <c r="C2440" s="0" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="2441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2441" s="0" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="C2441" s="0" t="s">
-        <v>4584</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="2442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46984,30 +46996,30 @@
         <v>4605</v>
       </c>
       <c r="C2452" s="0" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2453" s="0" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="C2453" s="0" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="2454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2454" s="0" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="C2454" s="0" t="s">
         <v>4609</v>
       </c>
     </row>
-    <row r="2455" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2455" s="2" t="s">
+    <row r="2455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2455" s="0" t="s">
         <v>4610</v>
       </c>
-      <c r="C2455" s="2" t="s">
+      <c r="C2455" s="0" t="s">
         <v>4611</v>
       </c>
     </row>
@@ -47015,20 +47027,20 @@
       <c r="B2456" s="0" t="s">
         <v>4612</v>
       </c>
-    </row>
-    <row r="2457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2457" s="0" t="s">
+      <c r="C2456" s="0" t="s">
         <v>4613</v>
       </c>
-      <c r="C2457" s="0" t="s">
+    </row>
+    <row r="2457" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2457" s="2" t="s">
         <v>4614</v>
+      </c>
+      <c r="C2457" s="2" t="s">
+        <v>4615</v>
       </c>
     </row>
     <row r="2458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2458" s="0" t="s">
-        <v>4615</v>
-      </c>
-      <c r="C2458" s="0" t="s">
         <v>4616</v>
       </c>
     </row>
@@ -47101,20 +47113,20 @@
         <v>4633</v>
       </c>
       <c r="C2467" s="0" t="s">
-        <v>4632</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="2468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2468" s="0" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="C2468" s="0" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="2469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2469" s="0" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="C2469" s="0" t="s">
         <v>4636</v>
@@ -47122,15 +47134,15 @@
     </row>
     <row r="2470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2470" s="0" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="C2470" s="0" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="2471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2471" s="0" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="C2471" s="0" t="s">
         <v>4640</v>
@@ -47141,28 +47153,28 @@
         <v>4641</v>
       </c>
       <c r="C2472" s="0" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="2473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2473" s="0" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="C2473" s="0" t="s">
-        <v>4642</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="2474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2474" s="0" t="s">
-        <v>4643</v>
+        <v>4645</v>
       </c>
       <c r="C2474" s="0" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="2475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2475" s="0" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="C2475" s="0" t="s">
         <v>4646</v>
@@ -47188,28 +47200,28 @@
       <c r="B2478" s="0" t="s">
         <v>4651</v>
       </c>
+      <c r="C2478" s="0" t="s">
+        <v>4652</v>
+      </c>
     </row>
     <row r="2479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2479" s="0" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="C2479" s="0" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="2480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2480" s="0" t="s">
-        <v>4654</v>
-      </c>
-      <c r="C2480" s="0" t="s">
         <v>4655</v>
       </c>
     </row>
-    <row r="2481" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2481" s="2" t="s">
+    <row r="2481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2481" s="0" t="s">
         <v>4656</v>
       </c>
-      <c r="C2481" s="2" t="s">
+      <c r="C2481" s="0" t="s">
         <v>4657</v>
       </c>
     </row>
@@ -47221,11 +47233,11 @@
         <v>4659</v>
       </c>
     </row>
-    <row r="2483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2483" s="0" t="s">
+    <row r="2483" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2483" s="2" t="s">
         <v>4660</v>
       </c>
-      <c r="C2483" s="0" t="s">
+      <c r="C2483" s="2" t="s">
         <v>4661</v>
       </c>
     </row>
@@ -47386,20 +47398,20 @@
         <v>4700</v>
       </c>
       <c r="C2503" s="0" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="2504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2504" s="0" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
       <c r="C2504" s="0" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="2505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2505" s="0" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
       <c r="C2505" s="0" t="s">
         <v>4704</v>
@@ -47514,28 +47526,28 @@
         <v>4731</v>
       </c>
       <c r="C2519" s="0" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="2520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2520" s="0" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="C2520" s="0" t="s">
-        <v>4732</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="2521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2521" s="0" t="s">
-        <v>4733</v>
+        <v>4735</v>
       </c>
       <c r="C2521" s="0" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="2522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2522" s="0" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
       <c r="C2522" s="0" t="s">
         <v>4736</v>
@@ -47562,20 +47574,20 @@
         <v>4741</v>
       </c>
       <c r="C2525" s="0" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="2526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2526" s="0" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
       <c r="C2526" s="0" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="2527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2527" s="0" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
       <c r="C2527" s="0" t="s">
         <v>4745</v>
@@ -47617,20 +47629,20 @@
       <c r="B2532" s="0" t="s">
         <v>4754</v>
       </c>
+      <c r="C2532" s="0" t="s">
+        <v>4755</v>
+      </c>
     </row>
     <row r="2533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2533" s="0" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="C2533" s="0" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="2534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2534" s="0" t="s">
-        <v>4757</v>
-      </c>
-      <c r="C2534" s="0" t="s">
         <v>4758</v>
       </c>
     </row>
@@ -47647,23 +47659,23 @@
         <v>4761</v>
       </c>
       <c r="C2536" s="0" t="s">
-        <v>4756</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="2537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2537" s="0" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
       <c r="C2537" s="0" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="2538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2538" s="0" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
       <c r="C2538" s="0" t="s">
-        <v>4765</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="2539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47694,20 +47706,20 @@
       <c r="B2542" s="0" t="s">
         <v>4772</v>
       </c>
+      <c r="C2542" s="0" t="s">
+        <v>4773</v>
+      </c>
     </row>
     <row r="2543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2543" s="0" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
       <c r="C2543" s="0" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="2544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2544" s="0" t="s">
-        <v>4775</v>
-      </c>
-      <c r="C2544" s="0" t="s">
         <v>4776</v>
       </c>
     </row>
@@ -47748,23 +47760,23 @@
         <v>4785</v>
       </c>
       <c r="C2549" s="0" t="s">
-        <v>4784</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="2550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2550" s="0" t="s">
-        <v>4786</v>
+        <v>4787</v>
       </c>
       <c r="C2550" s="0" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="2551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2551" s="0" t="s">
+        <v>4789</v>
+      </c>
+      <c r="C2551" s="0" t="s">
         <v>4788</v>
-      </c>
-      <c r="C2551" s="0" t="s">
-        <v>4789</v>
       </c>
     </row>
     <row r="2552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47796,36 +47808,36 @@
         <v>4796</v>
       </c>
       <c r="C2555" s="0" t="s">
-        <v>4796</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="2556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2556" s="0" t="s">
-        <v>4797</v>
+        <v>4798</v>
       </c>
       <c r="C2556" s="0" t="s">
-        <v>4798</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="2557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2557" s="0" t="s">
-        <v>4799</v>
+        <v>4800</v>
       </c>
       <c r="C2557" s="0" t="s">
-        <v>4799</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="2558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2558" s="0" t="s">
-        <v>4800</v>
+        <v>4801</v>
       </c>
       <c r="C2558" s="0" t="s">
-        <v>4801</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="2559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2559" s="0" t="s">
-        <v>4802</v>
+        <v>4803</v>
       </c>
       <c r="C2559" s="0" t="s">
         <v>4803</v>
@@ -47852,23 +47864,23 @@
         <v>4808</v>
       </c>
       <c r="C2562" s="0" t="s">
-        <v>4807</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2563" s="0" t="s">
-        <v>4809</v>
+        <v>4810</v>
       </c>
       <c r="C2563" s="0" t="s">
-        <v>4810</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="2564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2564" s="0" t="s">
+        <v>4812</v>
+      </c>
+      <c r="C2564" s="0" t="s">
         <v>4811</v>
-      </c>
-      <c r="C2564" s="0" t="s">
-        <v>4812</v>
       </c>
     </row>
     <row r="2565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47900,23 +47912,23 @@
         <v>4819</v>
       </c>
       <c r="C2568" s="0" t="s">
-        <v>4675</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="2569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2569" s="0" t="s">
-        <v>4820</v>
+        <v>4821</v>
       </c>
       <c r="C2569" s="0" t="s">
-        <v>4821</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="2570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2570" s="0" t="s">
-        <v>4822</v>
+        <v>4823</v>
       </c>
       <c r="C2570" s="0" t="s">
-        <v>4823</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="2571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48116,23 +48128,23 @@
         <v>4872</v>
       </c>
       <c r="C2595" s="0" t="s">
-        <v>3378</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="2596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2596" s="0" t="s">
-        <v>4873</v>
+        <v>4874</v>
       </c>
       <c r="C2596" s="0" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="2597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2597" s="0" t="s">
-        <v>4875</v>
+        <v>4876</v>
       </c>
       <c r="C2597" s="0" t="s">
-        <v>4876</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="2598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48151,11 +48163,11 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="2600" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2600" s="2" t="s">
+    <row r="2600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2600" s="0" t="s">
         <v>4881</v>
       </c>
-      <c r="C2600" s="2" t="s">
+      <c r="C2600" s="0" t="s">
         <v>4882</v>
       </c>
     </row>
@@ -48167,24 +48179,24 @@
         <v>4884</v>
       </c>
     </row>
-    <row r="2602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2602" s="0" t="s">
+    <row r="2602" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2602" s="2" t="s">
         <v>4885</v>
+      </c>
+      <c r="C2602" s="2" t="s">
+        <v>4886</v>
       </c>
     </row>
     <row r="2603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2603" s="0" t="s">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="C2603" s="0" t="s">
-        <v>4887</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="2604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2604" s="0" t="s">
-        <v>4888</v>
-      </c>
-      <c r="C2604" s="0" t="s">
         <v>4889</v>
       </c>
     </row>
@@ -48281,20 +48293,20 @@
         <v>4912</v>
       </c>
       <c r="C2616" s="0" t="s">
-        <v>4912</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="2617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2617" s="0" t="s">
-        <v>4913</v>
+        <v>4914</v>
       </c>
       <c r="C2617" s="0" t="s">
-        <v>4914</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="2618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2618" s="0" t="s">
-        <v>4915</v>
+        <v>4916</v>
       </c>
       <c r="C2618" s="0" t="s">
         <v>4916</v>
@@ -48305,31 +48317,31 @@
         <v>4917</v>
       </c>
       <c r="C2619" s="0" t="s">
-        <v>4917</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="2620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2620" s="0" t="s">
-        <v>4918</v>
+        <v>4919</v>
       </c>
       <c r="C2620" s="0" t="s">
-        <v>2269</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="2621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2621" s="0" t="s">
-        <v>4919</v>
+        <v>4921</v>
       </c>
       <c r="C2621" s="0" t="s">
-        <v>4920</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="2622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2622" s="0" t="s">
-        <v>4921</v>
+        <v>4922</v>
       </c>
       <c r="C2622" s="0" t="s">
-        <v>4922</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="2623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48337,20 +48349,20 @@
         <v>4923</v>
       </c>
       <c r="C2623" s="0" t="s">
-        <v>4923</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="2624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2624" s="0" t="s">
-        <v>4924</v>
+        <v>4925</v>
       </c>
       <c r="C2624" s="0" t="s">
-        <v>4925</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="2625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2625" s="0" t="s">
-        <v>4926</v>
+        <v>4927</v>
       </c>
       <c r="C2625" s="0" t="s">
         <v>4927</v>
@@ -48409,20 +48421,20 @@
         <v>4940</v>
       </c>
       <c r="C2632" s="0" t="s">
-        <v>4940</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="2633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2633" s="0" t="s">
-        <v>4941</v>
+        <v>4942</v>
       </c>
       <c r="C2633" s="0" t="s">
-        <v>4942</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="2634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2634" s="0" t="s">
-        <v>4943</v>
+        <v>4944</v>
       </c>
       <c r="C2634" s="0" t="s">
         <v>4944</v>
@@ -48433,20 +48445,20 @@
         <v>4945</v>
       </c>
       <c r="C2635" s="0" t="s">
-        <v>4945</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="2636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2636" s="0" t="s">
-        <v>4946</v>
+        <v>4947</v>
       </c>
       <c r="C2636" s="0" t="s">
-        <v>4947</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="2637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2637" s="0" t="s">
-        <v>4948</v>
+        <v>4949</v>
       </c>
       <c r="C2637" s="0" t="s">
         <v>4949</v>
@@ -48513,20 +48525,20 @@
         <v>4964</v>
       </c>
       <c r="C2645" s="0" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2646" s="0" t="s">
-        <v>4965</v>
+        <v>4966</v>
       </c>
       <c r="C2646" s="0" t="s">
-        <v>4957</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2647" s="0" t="s">
-        <v>4966</v>
+        <v>4968</v>
       </c>
       <c r="C2647" s="0" t="s">
         <v>4967</v>
@@ -48534,10 +48546,10 @@
     </row>
     <row r="2648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2648" s="0" t="s">
-        <v>4968</v>
+        <v>4969</v>
       </c>
       <c r="C2648" s="0" t="s">
-        <v>4969</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48545,23 +48557,23 @@
         <v>4970</v>
       </c>
       <c r="C2649" s="0" t="s">
-        <v>4957</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2650" s="0" t="s">
-        <v>4971</v>
+        <v>4972</v>
       </c>
       <c r="C2650" s="0" t="s">
-        <v>4972</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2651" s="0" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
       <c r="C2651" s="0" t="s">
-        <v>4974</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48585,20 +48597,20 @@
         <v>4979</v>
       </c>
       <c r="C2654" s="0" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="2655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2655" s="0" t="s">
-        <v>4980</v>
+        <v>4981</v>
       </c>
       <c r="C2655" s="0" t="s">
-        <v>4981</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2656" s="0" t="s">
-        <v>4982</v>
+        <v>4983</v>
       </c>
       <c r="C2656" s="0" t="s">
         <v>4983</v>
@@ -48617,23 +48629,23 @@
         <v>4986</v>
       </c>
       <c r="C2658" s="0" t="s">
-        <v>2514</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2659" s="0" t="s">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="C2659" s="0" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2660" s="0" t="s">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="C2660" s="0" t="s">
-        <v>4990</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="2661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48657,57 +48669,57 @@
         <v>4995</v>
       </c>
       <c r="C2663" s="0" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="2664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2664" s="0" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
       <c r="C2664" s="0" t="s">
-        <v>4997</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="2665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2665" s="0" t="s">
-        <v>4998</v>
+        <v>4999</v>
+      </c>
+      <c r="C2665" s="0" t="s">
+        <v>4999</v>
       </c>
     </row>
     <row r="2666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2666" s="0" t="s">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="C2666" s="0" t="s">
-        <v>4999</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="2667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2667" s="0" t="s">
-        <v>5000</v>
-      </c>
-      <c r="C2667" s="0" t="s">
-        <v>5000</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="2668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2668" s="0" t="s">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="C2668" s="0" t="s">
-        <v>5001</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="2669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2669" s="0" t="s">
-        <v>5002</v>
+        <v>5004</v>
       </c>
       <c r="C2669" s="0" t="s">
-        <v>5003</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="2670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2670" s="0" t="s">
-        <v>5004</v>
+        <v>5005</v>
       </c>
       <c r="C2670" s="0" t="s">
         <v>5005</v>
@@ -48870,65 +48882,65 @@
         <v>5044</v>
       </c>
       <c r="C2690" s="0" t="s">
-        <v>5044</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="2691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2691" s="0" t="s">
-        <v>5045</v>
+        <v>5046</v>
       </c>
       <c r="C2691" s="0" t="s">
-        <v>5046</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="2692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2692" s="0" t="s">
-        <v>5047</v>
+        <v>5048</v>
       </c>
       <c r="C2692" s="0" t="s">
-        <v>5047</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="2693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2693" s="0" t="s">
-        <v>5048</v>
+        <v>5049</v>
       </c>
       <c r="C2693" s="0" t="s">
-        <v>5048</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="2694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2694" s="0" t="s">
-        <v>5049</v>
+        <v>5051</v>
+      </c>
+      <c r="C2694" s="0" t="s">
+        <v>5051</v>
       </c>
     </row>
     <row r="2695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2695" s="0" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
       <c r="C2695" s="0" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="2696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2696" s="0" t="s">
-        <v>5051</v>
-      </c>
-      <c r="C2696" s="0" t="s">
-        <v>5051</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="2697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2697" s="0" t="s">
-        <v>5052</v>
+        <v>5054</v>
       </c>
       <c r="C2697" s="0" t="s">
-        <v>5053</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="2698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2698" s="0" t="s">
-        <v>5054</v>
+        <v>5055</v>
       </c>
       <c r="C2698" s="0" t="s">
         <v>5055</v>
@@ -49058,20 +49070,20 @@
       <c r="B2714" s="0" t="s">
         <v>5086</v>
       </c>
+      <c r="C2714" s="0" t="s">
+        <v>5087</v>
+      </c>
     </row>
     <row r="2715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2715" s="0" t="s">
-        <v>5087</v>
+        <v>5088</v>
       </c>
       <c r="C2715" s="0" t="s">
-        <v>5088</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="2716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2716" s="0" t="s">
-        <v>5089</v>
-      </c>
-      <c r="C2716" s="0" t="s">
         <v>5090</v>
       </c>
     </row>
@@ -49227,24 +49239,24 @@
         <v>5128</v>
       </c>
     </row>
-    <row r="2736" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2736" s="2" t="s">
+    <row r="2736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2736" s="0" t="s">
         <v>5129</v>
+      </c>
+      <c r="C2736" s="0" t="s">
+        <v>5130</v>
       </c>
     </row>
     <row r="2737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2737" s="0" t="s">
-        <v>5130</v>
+        <v>5131</v>
       </c>
       <c r="C2737" s="0" t="s">
-        <v>5131</v>
-      </c>
-    </row>
-    <row r="2738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2738" s="0" t="s">
         <v>5132</v>
       </c>
-      <c r="C2738" s="0" t="s">
+    </row>
+    <row r="2738" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2738" s="2" t="s">
         <v>5133</v>
       </c>
     </row>
@@ -49373,23 +49385,23 @@
         <v>5164</v>
       </c>
       <c r="C2754" s="0" t="s">
-        <v>5162</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2755" s="0" t="s">
-        <v>5165</v>
+        <v>5166</v>
       </c>
       <c r="C2755" s="0" t="s">
-        <v>5166</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2756" s="0" t="s">
-        <v>5167</v>
+        <v>5168</v>
       </c>
       <c r="C2756" s="0" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="2757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49528,11 +49540,11 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="2774" customFormat="false" ht="1176.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2774" s="2" t="s">
+    <row r="2774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2774" s="0" t="s">
         <v>5203</v>
       </c>
-      <c r="C2774" s="2" t="s">
+      <c r="C2774" s="0" t="s">
         <v>5204</v>
       </c>
     </row>
@@ -49540,36 +49552,36 @@
       <c r="B2775" s="0" t="s">
         <v>5205</v>
       </c>
-    </row>
-    <row r="2776" customFormat="false" ht="1255.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2775" s="0" t="s">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="2776" customFormat="false" ht="1176.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2776" s="2" t="s">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="C2776" s="2" t="s">
-        <v>5207</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="2777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2777" s="0" t="s">
-        <v>5208</v>
-      </c>
-      <c r="C2777" s="0" t="s">
         <v>5209</v>
       </c>
     </row>
-    <row r="2778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2778" s="0" t="s">
+    <row r="2778" customFormat="false" ht="1255.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2778" s="2" t="s">
         <v>5210</v>
       </c>
-      <c r="C2778" s="0" t="s">
+      <c r="C2778" s="2" t="s">
         <v>5211</v>
       </c>
     </row>
-    <row r="2779" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2779" s="2" t="s">
+    <row r="2779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2779" s="0" t="s">
         <v>5212</v>
       </c>
-      <c r="C2779" s="2" t="s">
+      <c r="C2779" s="0" t="s">
         <v>5213</v>
       </c>
     </row>
@@ -49581,105 +49593,105 @@
         <v>5215</v>
       </c>
     </row>
-    <row r="2781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2781" s="0" t="s">
+    <row r="2781" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2781" s="2" t="s">
         <v>5216</v>
       </c>
-      <c r="C2781" s="0" t="s">
+      <c r="C2781" s="2" t="s">
         <v>5217</v>
       </c>
     </row>
-    <row r="2782" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2782" s="2" t="s">
+    <row r="2782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2782" s="0" t="s">
         <v>5218</v>
       </c>
-      <c r="C2782" s="2" t="s">
+      <c r="C2782" s="0" t="s">
         <v>5219</v>
       </c>
     </row>
-    <row r="2783" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2783" s="2" t="s">
+    <row r="2783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2783" s="0" t="s">
         <v>5220</v>
       </c>
-    </row>
-    <row r="2784" customFormat="false" ht="1132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2783" s="0" t="s">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="2784" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2784" s="2" t="s">
-        <v>5221</v>
-      </c>
-    </row>
-    <row r="2785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2785" s="0" t="s">
         <v>5222</v>
       </c>
-      <c r="C2785" s="0" t="s">
+      <c r="C2784" s="2" t="s">
         <v>5223</v>
       </c>
     </row>
-    <row r="2786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2786" s="0" t="s">
+    <row r="2785" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2785" s="2" t="s">
         <v>5224</v>
+      </c>
+    </row>
+    <row r="2786" customFormat="false" ht="1132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2786" s="2" t="s">
+        <v>5225</v>
       </c>
     </row>
     <row r="2787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2787" s="0" t="s">
-        <v>5225</v>
+        <v>5226</v>
       </c>
       <c r="C2787" s="0" t="s">
-        <v>5226</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="2788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2788" s="0" t="s">
-        <v>5227</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="2789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2789" s="0" t="s">
-        <v>5228</v>
+        <v>5229</v>
+      </c>
+      <c r="C2789" s="0" t="s">
+        <v>5230</v>
       </c>
     </row>
     <row r="2790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2790" s="0" t="s">
-        <v>5229</v>
-      </c>
-    </row>
-    <row r="2791" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2791" s="2" t="s">
-        <v>5230</v>
-      </c>
-      <c r="C2791" s="2" t="s">
         <v>5231</v>
       </c>
     </row>
-    <row r="2792" customFormat="false" ht="1244.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2792" s="2" t="s">
+    <row r="2791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2791" s="0" t="s">
         <v>5232</v>
       </c>
-      <c r="C2792" s="2" t="s">
+    </row>
+    <row r="2792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2792" s="0" t="s">
         <v>5233</v>
       </c>
     </row>
-    <row r="2793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2793" s="0" t="s">
+    <row r="2793" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2793" s="2" t="s">
         <v>5234</v>
       </c>
-      <c r="C2793" s="0" t="s">
+      <c r="C2793" s="2" t="s">
         <v>5235</v>
       </c>
     </row>
-    <row r="2794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2794" s="0" t="s">
+    <row r="2794" customFormat="false" ht="1244.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2794" s="2" t="s">
         <v>5236</v>
       </c>
-      <c r="C2794" s="0" t="s">
+      <c r="C2794" s="2" t="s">
         <v>5237</v>
       </c>
     </row>
-    <row r="2795" customFormat="false" ht="829.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2795" s="2" t="s">
+    <row r="2795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2795" s="0" t="s">
         <v>5238</v>
       </c>
-      <c r="C2795" s="2" t="s">
+      <c r="C2795" s="0" t="s">
         <v>5239</v>
       </c>
     </row>
@@ -49691,7 +49703,7 @@
         <v>5241</v>
       </c>
     </row>
-    <row r="2797" customFormat="false" ht="1446.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2797" customFormat="false" ht="829.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2797" s="2" t="s">
         <v>5242</v>
       </c>
@@ -49707,25 +49719,25 @@
         <v>5245</v>
       </c>
     </row>
-    <row r="2799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2799" s="0" t="s">
+    <row r="2799" customFormat="false" ht="1446.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2799" s="2" t="s">
         <v>5246</v>
       </c>
-      <c r="C2799" s="0" t="s">
-        <v>5246</v>
+      <c r="C2799" s="2" t="s">
+        <v>5247</v>
       </c>
     </row>
     <row r="2800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2800" s="0" t="s">
-        <v>5247</v>
+        <v>5248</v>
       </c>
       <c r="C2800" s="0" t="s">
-        <v>5248</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="2801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2801" s="0" t="s">
-        <v>5249</v>
+        <v>5250</v>
       </c>
       <c r="C2801" s="0" t="s">
         <v>5250</v>
@@ -49752,28 +49764,28 @@
         <v>5255</v>
       </c>
       <c r="C2804" s="0" t="s">
-        <v>5255</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="2805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2805" s="0" t="s">
-        <v>5256</v>
+        <v>5257</v>
       </c>
       <c r="C2805" s="0" t="s">
-        <v>5256</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="2806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2806" s="0" t="s">
-        <v>5257</v>
+        <v>5259</v>
       </c>
       <c r="C2806" s="0" t="s">
-        <v>5258</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="2807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2807" s="0" t="s">
-        <v>5259</v>
+        <v>5260</v>
       </c>
       <c r="C2807" s="0" t="s">
         <v>5260</v>
@@ -49919,25 +49931,25 @@
       <c r="B2825" s="0" t="s">
         <v>5295</v>
       </c>
+      <c r="C2825" s="0" t="s">
+        <v>5296</v>
+      </c>
     </row>
     <row r="2826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2826" s="0" t="s">
-        <v>5296</v>
+        <v>5297</v>
+      </c>
+      <c r="C2826" s="0" t="s">
+        <v>5298</v>
       </c>
     </row>
     <row r="2827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2827" s="0" t="s">
-        <v>5297</v>
-      </c>
-      <c r="C2827" s="0" t="s">
-        <v>5298</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="2828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2828" s="0" t="s">
-        <v>5299</v>
-      </c>
-      <c r="C2828" s="0" t="s">
         <v>5300</v>
       </c>
     </row>
@@ -49949,24 +49961,24 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="2830" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2830" s="2" t="s">
+    <row r="2830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2830" s="0" t="s">
         <v>5303</v>
+      </c>
+      <c r="C2830" s="0" t="s">
+        <v>5304</v>
       </c>
     </row>
     <row r="2831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2831" s="0" t="s">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="C2831" s="0" t="s">
-        <v>5305</v>
-      </c>
-    </row>
-    <row r="2832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2832" s="0" t="s">
         <v>5306</v>
       </c>
-      <c r="C2832" s="0" t="s">
+    </row>
+    <row r="2832" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2832" s="2" t="s">
         <v>5307</v>
       </c>
     </row>
@@ -50055,20 +50067,20 @@
         <v>5328</v>
       </c>
       <c r="C2843" s="0" t="s">
-        <v>5328</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="2844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2844" s="0" t="s">
-        <v>5329</v>
+        <v>5330</v>
       </c>
       <c r="C2844" s="0" t="s">
-        <v>5330</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="2845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2845" s="0" t="s">
-        <v>5331</v>
+        <v>5332</v>
       </c>
       <c r="C2845" s="0" t="s">
         <v>5332</v>
@@ -50095,23 +50107,23 @@
         <v>5337</v>
       </c>
       <c r="C2848" s="0" t="s">
-        <v>3450</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="2849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2849" s="0" t="s">
-        <v>5338</v>
+        <v>5339</v>
       </c>
       <c r="C2849" s="0" t="s">
-        <v>5339</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="2850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2850" s="0" t="s">
-        <v>5340</v>
+        <v>5341</v>
       </c>
       <c r="C2850" s="0" t="s">
-        <v>5341</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="2851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50370,32 +50382,32 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="2883" customFormat="false" ht="550" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2883" s="2" t="s">
+    <row r="2883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2883" s="0" t="s">
         <v>5406</v>
       </c>
-      <c r="C2883" s="2" t="s">
+      <c r="C2883" s="0" t="s">
         <v>5407</v>
       </c>
     </row>
-    <row r="2884" customFormat="false" ht="1479.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2884" s="2" t="s">
+    <row r="2884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2884" s="0" t="s">
         <v>5408</v>
       </c>
-    </row>
-    <row r="2885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2885" s="0" t="s">
+      <c r="C2884" s="0" t="s">
         <v>5409</v>
       </c>
-      <c r="C2885" s="0" t="s">
+    </row>
+    <row r="2885" customFormat="false" ht="550" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2885" s="2" t="s">
         <v>5410</v>
       </c>
-    </row>
-    <row r="2886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2886" s="0" t="s">
+      <c r="C2885" s="2" t="s">
         <v>5411</v>
       </c>
-      <c r="C2886" s="0" t="s">
+    </row>
+    <row r="2886" customFormat="false" ht="1479.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2886" s="2" t="s">
         <v>5412</v>
       </c>
     </row>
@@ -50487,35 +50499,35 @@
         <v>5434</v>
       </c>
     </row>
-    <row r="2898" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2898" s="2" t="s">
+    <row r="2898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2898" s="0" t="s">
         <v>5435</v>
       </c>
-      <c r="C2898" s="2" t="s">
+      <c r="C2898" s="0" t="s">
         <v>5436</v>
       </c>
     </row>
-    <row r="2899" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2899" s="2" t="s">
+    <row r="2899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2899" s="0" t="s">
         <v>5437</v>
       </c>
-      <c r="C2899" s="2" t="s">
+      <c r="C2899" s="0" t="s">
         <v>5438</v>
       </c>
     </row>
-    <row r="2900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2900" s="0" t="s">
+    <row r="2900" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2900" s="2" t="s">
         <v>5439</v>
       </c>
-      <c r="C2900" s="0" t="s">
+      <c r="C2900" s="2" t="s">
         <v>5440</v>
       </c>
     </row>
-    <row r="2901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2901" s="0" t="s">
+    <row r="2901" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2901" s="2" t="s">
         <v>5441</v>
       </c>
-      <c r="C2901" s="0" t="s">
+      <c r="C2901" s="2" t="s">
         <v>5442</v>
       </c>
     </row>
@@ -50620,23 +50632,23 @@
         <v>5467</v>
       </c>
       <c r="C2914" s="0" t="s">
-        <v>5466</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="2915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2915" s="0" t="s">
-        <v>5468</v>
+        <v>5469</v>
       </c>
       <c r="C2915" s="0" t="s">
-        <v>5469</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="2916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2916" s="0" t="s">
+        <v>5471</v>
+      </c>
+      <c r="C2916" s="0" t="s">
         <v>5470</v>
-      </c>
-      <c r="C2916" s="0" t="s">
-        <v>5471</v>
       </c>
     </row>
     <row r="2917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50652,23 +50664,23 @@
         <v>5474</v>
       </c>
       <c r="C2918" s="0" t="s">
-        <v>5315</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="2919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2919" s="0" t="s">
-        <v>5475</v>
+        <v>5476</v>
       </c>
       <c r="C2919" s="0" t="s">
-        <v>5476</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="2920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2920" s="0" t="s">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="C2920" s="0" t="s">
-        <v>5478</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="2921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50780,20 +50792,20 @@
         <v>5505</v>
       </c>
       <c r="C2934" s="0" t="s">
-        <v>5505</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="2935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2935" s="0" t="s">
-        <v>5506</v>
+        <v>5507</v>
       </c>
       <c r="C2935" s="0" t="s">
-        <v>5507</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="2936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2936" s="0" t="s">
-        <v>5508</v>
+        <v>5509</v>
       </c>
       <c r="C2936" s="0" t="s">
         <v>5509</v>
@@ -50812,36 +50824,36 @@
         <v>5512</v>
       </c>
       <c r="C2938" s="0" t="s">
-        <v>5512</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="2939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2939" s="0" t="s">
-        <v>5513</v>
+        <v>5514</v>
       </c>
       <c r="C2939" s="0" t="s">
-        <v>5513</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="2940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2940" s="0" t="s">
-        <v>5514</v>
+        <v>5516</v>
       </c>
       <c r="C2940" s="0" t="s">
-        <v>5514</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="2941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2941" s="0" t="s">
-        <v>5515</v>
+        <v>5517</v>
       </c>
       <c r="C2941" s="0" t="s">
-        <v>5516</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="2942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2942" s="0" t="s">
-        <v>5517</v>
+        <v>5518</v>
       </c>
       <c r="C2942" s="0" t="s">
         <v>5518</v>
@@ -50852,39 +50864,39 @@
         <v>5519</v>
       </c>
       <c r="C2943" s="0" t="s">
-        <v>5518</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="2944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2944" s="0" t="s">
-        <v>5520</v>
+        <v>5521</v>
       </c>
       <c r="C2944" s="0" t="s">
-        <v>5521</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="2945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2945" s="0" t="s">
+        <v>5523</v>
+      </c>
+      <c r="C2945" s="0" t="s">
         <v>5522</v>
-      </c>
-      <c r="C2945" s="0" t="s">
-        <v>5521</v>
       </c>
     </row>
     <row r="2946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2946" s="0" t="s">
-        <v>5523</v>
+        <v>5524</v>
       </c>
       <c r="C2946" s="0" t="s">
-        <v>5524</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="2947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2947" s="0" t="s">
+        <v>5526</v>
+      </c>
+      <c r="C2947" s="0" t="s">
         <v>5525</v>
-      </c>
-      <c r="C2947" s="0" t="s">
-        <v>5526</v>
       </c>
     </row>
     <row r="2948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50900,20 +50912,20 @@
         <v>5529</v>
       </c>
       <c r="C2949" s="0" t="s">
-        <v>5529</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="2950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2950" s="0" t="s">
-        <v>5530</v>
+        <v>5531</v>
       </c>
       <c r="C2950" s="0" t="s">
-        <v>5531</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="2951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2951" s="0" t="s">
-        <v>5532</v>
+        <v>5533</v>
       </c>
       <c r="C2951" s="0" t="s">
         <v>5533</v>
@@ -51276,20 +51288,20 @@
         <v>5622</v>
       </c>
       <c r="C2996" s="0" t="s">
-        <v>5622</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="2997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2997" s="0" t="s">
-        <v>5623</v>
+        <v>5624</v>
       </c>
       <c r="C2997" s="0" t="s">
-        <v>5624</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="2998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2998" s="0" t="s">
-        <v>5625</v>
+        <v>5626</v>
       </c>
       <c r="C2998" s="0" t="s">
         <v>5626</v>
@@ -51307,20 +51319,20 @@
       <c r="B3000" s="0" t="s">
         <v>5629</v>
       </c>
+      <c r="C3000" s="0" t="s">
+        <v>5630</v>
+      </c>
     </row>
     <row r="3001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3001" s="0" t="s">
-        <v>5630</v>
+        <v>5631</v>
       </c>
       <c r="C3001" s="0" t="s">
-        <v>5631</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="3002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3002" s="0" t="s">
-        <v>5632</v>
-      </c>
-      <c r="C3002" s="0" t="s">
         <v>5633</v>
       </c>
     </row>
@@ -51432,20 +51444,20 @@
       <c r="B3016" s="0" t="s">
         <v>5660</v>
       </c>
+      <c r="C3016" s="0" t="s">
+        <v>5661</v>
+      </c>
     </row>
     <row r="3017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3017" s="0" t="s">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="C3017" s="0" t="s">
-        <v>5662</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="3018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3018" s="0" t="s">
-        <v>5663</v>
-      </c>
-      <c r="C3018" s="0" t="s">
         <v>5664</v>
       </c>
     </row>
@@ -51518,23 +51530,23 @@
         <v>5681</v>
       </c>
       <c r="C3027" s="0" t="s">
-        <v>419</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="3028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3028" s="0" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="C3028" s="0" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="3029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3029" s="0" t="s">
-        <v>5684</v>
+        <v>5685</v>
       </c>
       <c r="C3029" s="0" t="s">
-        <v>5685</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51702,20 +51714,20 @@
         <v>5726</v>
       </c>
       <c r="C3050" s="0" t="s">
-        <v>5726</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="3051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3051" s="0" t="s">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="C3051" s="0" t="s">
-        <v>5728</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="3052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3052" s="0" t="s">
-        <v>5729</v>
+        <v>5730</v>
       </c>
       <c r="C3052" s="0" t="s">
         <v>5730</v>
@@ -51758,23 +51770,23 @@
         <v>5739</v>
       </c>
       <c r="C3057" s="0" t="s">
-        <v>5738</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="3058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3058" s="0" t="s">
-        <v>5740</v>
+        <v>5741</v>
       </c>
       <c r="C3058" s="0" t="s">
-        <v>5741</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="3059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3059" s="0" t="s">
+        <v>5743</v>
+      </c>
+      <c r="C3059" s="0" t="s">
         <v>5742</v>
-      </c>
-      <c r="C3059" s="0" t="s">
-        <v>5743</v>
       </c>
     </row>
     <row r="3060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51902,39 +51914,39 @@
         <v>5774</v>
       </c>
       <c r="C3075" s="0" t="s">
-        <v>5771</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="3076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3076" s="0" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="C3076" s="0" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="3077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3077" s="0" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="C3077" s="0" t="s">
-        <v>3803</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="3078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3078" s="0" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="C3078" s="0" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="3079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3079" s="0" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="C3079" s="0" t="s">
-        <v>5781</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="3080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51942,28 +51954,28 @@
         <v>5782</v>
       </c>
       <c r="C3080" s="0" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="3081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3081" s="0" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="C3081" s="0" t="s">
-        <v>5783</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="3082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3082" s="0" t="s">
-        <v>5784</v>
+        <v>5786</v>
       </c>
       <c r="C3082" s="0" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="3083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3083" s="0" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="C3083" s="0" t="s">
         <v>5787</v>
@@ -52054,20 +52066,20 @@
         <v>5808</v>
       </c>
       <c r="C3094" s="0" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="3095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3095" s="0" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="C3095" s="0" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="3096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3096" s="0" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="C3096" s="0" t="s">
         <v>5812</v>
@@ -52077,20 +52089,20 @@
       <c r="B3097" s="0" t="s">
         <v>5813</v>
       </c>
+      <c r="C3097" s="0" t="s">
+        <v>5814</v>
+      </c>
     </row>
     <row r="3098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3098" s="0" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="C3098" s="0" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="3099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3099" s="0" t="s">
-        <v>5816</v>
-      </c>
-      <c r="C3099" s="0" t="s">
         <v>5817</v>
       </c>
     </row>
@@ -52118,11 +52130,11 @@
         <v>5823</v>
       </c>
     </row>
-    <row r="3103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3103" s="2" t="s">
+    <row r="3103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3103" s="0" t="s">
         <v>5824</v>
       </c>
-      <c r="C3103" s="2" t="s">
+      <c r="C3103" s="0" t="s">
         <v>5825</v>
       </c>
     </row>
@@ -52134,11 +52146,11 @@
         <v>5827</v>
       </c>
     </row>
-    <row r="3105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3105" s="0" t="s">
+    <row r="3105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3105" s="2" t="s">
         <v>5828</v>
       </c>
-      <c r="C3105" s="0" t="s">
+      <c r="C3105" s="2" t="s">
         <v>5829</v>
       </c>
     </row>
@@ -52155,28 +52167,28 @@
         <v>5832</v>
       </c>
       <c r="C3107" s="0" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="3108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3108" s="0" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="C3108" s="0" t="s">
-        <v>5833</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="3109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3109" s="0" t="s">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="C3109" s="0" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="3110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3110" s="0" t="s">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="C3110" s="0" t="s">
         <v>5837</v>
@@ -52187,23 +52199,23 @@
         <v>5838</v>
       </c>
       <c r="C3111" s="0" t="s">
-        <v>4302</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="3112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3112" s="0" t="s">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="C3112" s="0" t="s">
-        <v>5840</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="3113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3113" s="0" t="s">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="C3113" s="0" t="s">
-        <v>5842</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="3114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52323,23 +52335,23 @@
         <v>5871</v>
       </c>
       <c r="C3128" s="0" t="s">
-        <v>5870</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="3129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3129" s="0" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="C3129" s="0" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="3130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3130" s="0" t="s">
+        <v>5875</v>
+      </c>
+      <c r="C3130" s="0" t="s">
         <v>5874</v>
-      </c>
-      <c r="C3130" s="0" t="s">
-        <v>5875</v>
       </c>
     </row>
     <row r="3131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52347,23 +52359,23 @@
         <v>5876</v>
       </c>
       <c r="C3131" s="0" t="s">
-        <v>5875</v>
+        <v>5877</v>
       </c>
     </row>
     <row r="3132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3132" s="0" t="s">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="C3132" s="0" t="s">
-        <v>5878</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="3133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3133" s="0" t="s">
+        <v>5880</v>
+      </c>
+      <c r="C3133" s="0" t="s">
         <v>5879</v>
-      </c>
-      <c r="C3133" s="0" t="s">
-        <v>5880</v>
       </c>
     </row>
     <row r="3134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52387,23 +52399,23 @@
         <v>5885</v>
       </c>
       <c r="C3136" s="0" t="s">
-        <v>5884</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="3137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3137" s="0" t="s">
-        <v>5886</v>
+        <v>5887</v>
       </c>
       <c r="C3137" s="0" t="s">
-        <v>5887</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="3138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3138" s="0" t="s">
+        <v>5889</v>
+      </c>
+      <c r="C3138" s="0" t="s">
         <v>5888</v>
-      </c>
-      <c r="C3138" s="0" t="s">
-        <v>5889</v>
       </c>
     </row>
     <row r="3139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52570,20 +52582,20 @@
       <c r="B3159" s="0" t="s">
         <v>5930</v>
       </c>
+      <c r="C3159" s="0" t="s">
+        <v>5931</v>
+      </c>
     </row>
     <row r="3160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3160" s="0" t="s">
-        <v>5931</v>
+        <v>5932</v>
       </c>
       <c r="C3160" s="0" t="s">
-        <v>5932</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="3161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3161" s="0" t="s">
-        <v>5933</v>
-      </c>
-      <c r="C3161" s="0" t="s">
         <v>5934</v>
       </c>
     </row>
@@ -52648,20 +52660,20 @@
         <v>5949</v>
       </c>
       <c r="C3169" s="0" t="s">
-        <v>5949</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="3170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3170" s="0" t="s">
-        <v>5950</v>
+        <v>5951</v>
       </c>
       <c r="C3170" s="0" t="s">
-        <v>5951</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="3171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3171" s="0" t="s">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="C3171" s="0" t="s">
         <v>5953</v>
@@ -52735,20 +52747,20 @@
       <c r="B3180" s="0" t="s">
         <v>5970</v>
       </c>
+      <c r="C3180" s="0" t="s">
+        <v>5971</v>
+      </c>
     </row>
     <row r="3181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3181" s="0" t="s">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="C3181" s="0" t="s">
-        <v>5972</v>
-      </c>
-    </row>
-    <row r="3182" customFormat="false" ht="863.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3182" s="2" t="s">
         <v>5973</v>
       </c>
-      <c r="C3182" s="2" t="s">
+    </row>
+    <row r="3182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3182" s="0" t="s">
         <v>5974</v>
       </c>
     </row>
@@ -52760,11 +52772,11 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="3184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3184" s="0" t="s">
+    <row r="3184" customFormat="false" ht="863.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3184" s="2" t="s">
         <v>5977</v>
       </c>
-      <c r="C3184" s="0" t="s">
+      <c r="C3184" s="2" t="s">
         <v>5978</v>
       </c>
     </row>
@@ -52804,20 +52816,20 @@
       <c r="B3189" s="0" t="s">
         <v>5987</v>
       </c>
+      <c r="C3189" s="0" t="s">
+        <v>5988</v>
+      </c>
     </row>
     <row r="3190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3190" s="0" t="s">
-        <v>5988</v>
+        <v>5989</v>
       </c>
       <c r="C3190" s="0" t="s">
-        <v>5989</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="3191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3191" s="0" t="s">
-        <v>5990</v>
-      </c>
-      <c r="C3191" s="0" t="s">
         <v>5991</v>
       </c>
     </row>
@@ -52866,23 +52878,23 @@
         <v>6002</v>
       </c>
       <c r="C3197" s="0" t="s">
-        <v>6001</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="3198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3198" s="0" t="s">
-        <v>6003</v>
+        <v>6004</v>
       </c>
       <c r="C3198" s="0" t="s">
-        <v>6004</v>
-      </c>
-    </row>
-    <row r="3199" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3199" s="2" t="s">
         <v>6005</v>
       </c>
-      <c r="C3199" s="2" t="s">
+    </row>
+    <row r="3199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3199" s="0" t="s">
         <v>6006</v>
+      </c>
+      <c r="C3199" s="0" t="s">
+        <v>6005</v>
       </c>
     </row>
     <row r="3200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52893,11 +52905,11 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="3201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3201" s="0" t="s">
+    <row r="3201" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3201" s="2" t="s">
         <v>6009</v>
       </c>
-      <c r="C3201" s="0" t="s">
+      <c r="C3201" s="2" t="s">
         <v>6010</v>
       </c>
     </row>
@@ -53025,20 +53037,20 @@
       <c r="B3217" s="0" t="s">
         <v>6041</v>
       </c>
+      <c r="C3217" s="0" t="s">
+        <v>6042</v>
+      </c>
     </row>
     <row r="3218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3218" s="0" t="s">
-        <v>6042</v>
+        <v>6043</v>
       </c>
       <c r="C3218" s="0" t="s">
-        <v>6043</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="3219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3219" s="0" t="s">
-        <v>6044</v>
-      </c>
-      <c r="C3219" s="0" t="s">
         <v>6045</v>
       </c>
     </row>
@@ -53071,20 +53083,20 @@
         <v>6052</v>
       </c>
       <c r="C3223" s="0" t="s">
-        <v>6052</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="3224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3224" s="0" t="s">
-        <v>6053</v>
+        <v>6054</v>
       </c>
       <c r="C3224" s="0" t="s">
-        <v>6054</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="3225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3225" s="0" t="s">
-        <v>6055</v>
+        <v>6056</v>
       </c>
       <c r="C3225" s="0" t="s">
         <v>6056</v>
@@ -53126,20 +53138,20 @@
       <c r="B3230" s="0" t="s">
         <v>6065</v>
       </c>
+      <c r="C3230" s="0" t="s">
+        <v>6066</v>
+      </c>
     </row>
     <row r="3231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3231" s="0" t="s">
-        <v>6066</v>
+        <v>6067</v>
       </c>
       <c r="C3231" s="0" t="s">
-        <v>6067</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="3232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3232" s="0" t="s">
-        <v>6068</v>
-      </c>
-      <c r="C3232" s="0" t="s">
         <v>6069</v>
       </c>
     </row>
@@ -53193,23 +53205,23 @@
     </row>
     <row r="3239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3239" s="0" t="s">
-        <v>6081</v>
+        <v>6082</v>
       </c>
       <c r="C3239" s="0" t="s">
-        <v>6081</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="3240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3240" s="0" t="s">
-        <v>6082</v>
+        <v>6084</v>
       </c>
       <c r="C3240" s="0" t="s">
-        <v>6083</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="3241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3241" s="0" t="s">
-        <v>6084</v>
+        <v>6085</v>
       </c>
       <c r="C3241" s="0" t="s">
         <v>6085</v>
@@ -53259,20 +53271,20 @@
       <c r="B3247" s="0" t="s">
         <v>6096</v>
       </c>
+      <c r="C3247" s="0" t="s">
+        <v>6097</v>
+      </c>
     </row>
     <row r="3248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3248" s="0" t="s">
-        <v>6097</v>
+        <v>6098</v>
       </c>
       <c r="C3248" s="0" t="s">
-        <v>6098</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="3249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3249" s="0" t="s">
-        <v>6099</v>
-      </c>
-      <c r="C3249" s="0" t="s">
         <v>6100</v>
       </c>
     </row>
@@ -53320,20 +53332,20 @@
       <c r="B3255" s="0" t="s">
         <v>6111</v>
       </c>
+      <c r="C3255" s="0" t="s">
+        <v>6112</v>
+      </c>
     </row>
     <row r="3256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3256" s="0" t="s">
-        <v>6112</v>
+        <v>6113</v>
       </c>
       <c r="C3256" s="0" t="s">
-        <v>6113</v>
+        <v>6114</v>
       </c>
     </row>
     <row r="3257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3257" s="0" t="s">
-        <v>6114</v>
-      </c>
-      <c r="C3257" s="0" t="s">
         <v>6115</v>
       </c>
     </row>
@@ -53406,84 +53418,84 @@
         <v>6132</v>
       </c>
       <c r="C3266" s="0" t="s">
-        <v>6131</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="3267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3267" s="0" t="s">
-        <v>6133</v>
+        <v>6134</v>
       </c>
       <c r="C3267" s="0" t="s">
-        <v>6134</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="3268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3268" s="0" t="s">
+        <v>6136</v>
+      </c>
+      <c r="C3268" s="0" t="s">
         <v>6135</v>
-      </c>
-      <c r="C3268" s="0" t="s">
-        <v>6134</v>
       </c>
     </row>
     <row r="3269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3269" s="0" t="s">
-        <v>6136</v>
+        <v>6137</v>
       </c>
       <c r="C3269" s="0" t="s">
-        <v>4512</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="3270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3270" s="0" t="s">
-        <v>6137</v>
+        <v>6139</v>
       </c>
       <c r="C3270" s="0" t="s">
-        <v>4512</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="3271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3271" s="0" t="s">
-        <v>6138</v>
+        <v>6140</v>
       </c>
       <c r="C3271" s="0" t="s">
-        <v>6139</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="3272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3272" s="0" t="s">
-        <v>6140</v>
+        <v>6141</v>
       </c>
       <c r="C3272" s="0" t="s">
-        <v>6139</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="3273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3273" s="0" t="s">
-        <v>6141</v>
+        <v>6142</v>
       </c>
       <c r="C3273" s="0" t="s">
-        <v>6142</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="3274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3274" s="0" t="s">
+        <v>6144</v>
+      </c>
+      <c r="C3274" s="0" t="s">
         <v>6143</v>
-      </c>
-      <c r="C3274" s="0" t="s">
-        <v>6142</v>
       </c>
     </row>
     <row r="3275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3275" s="0" t="s">
-        <v>6144</v>
+        <v>6145</v>
       </c>
       <c r="C3275" s="0" t="s">
-        <v>6142</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="3276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3276" s="0" t="s">
-        <v>6145</v>
+        <v>6147</v>
       </c>
       <c r="C3276" s="0" t="s">
         <v>6146</v>
@@ -53491,26 +53503,26 @@
     </row>
     <row r="3277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3277" s="0" t="s">
-        <v>6147</v>
+        <v>6148</v>
       </c>
       <c r="C3277" s="0" t="s">
-        <v>829</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="3278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3278" s="0" t="s">
-        <v>6148</v>
+        <v>6149</v>
       </c>
       <c r="C3278" s="0" t="s">
-        <v>6149</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="3279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3279" s="0" t="s">
-        <v>6150</v>
+        <v>6151</v>
       </c>
       <c r="C3279" s="0" t="s">
-        <v>6151</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53558,23 +53570,23 @@
         <v>6162</v>
       </c>
       <c r="C3285" s="0" t="s">
-        <v>6161</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="3286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3286" s="0" t="s">
-        <v>6163</v>
+        <v>6164</v>
       </c>
       <c r="C3286" s="0" t="s">
-        <v>6164</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="3287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3287" s="0" t="s">
+        <v>6166</v>
+      </c>
+      <c r="C3287" s="0" t="s">
         <v>6165</v>
-      </c>
-      <c r="C3287" s="0" t="s">
-        <v>6166</v>
       </c>
     </row>
     <row r="3288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53710,23 +53722,23 @@
         <v>6199</v>
       </c>
       <c r="C3304" s="0" t="s">
-        <v>623</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="3305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3305" s="0" t="s">
-        <v>6200</v>
+        <v>6201</v>
       </c>
       <c r="C3305" s="0" t="s">
-        <v>6201</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="3306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3306" s="0" t="s">
-        <v>6202</v>
+        <v>6203</v>
       </c>
       <c r="C3306" s="0" t="s">
-        <v>6203</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53782,20 +53794,20 @@
         <v>6216</v>
       </c>
       <c r="C3313" s="0" t="s">
-        <v>6216</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="3314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3314" s="0" t="s">
-        <v>6217</v>
+        <v>6218</v>
       </c>
       <c r="C3314" s="0" t="s">
-        <v>6218</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="3315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3315" s="0" t="s">
-        <v>6219</v>
+        <v>6220</v>
       </c>
       <c r="C3315" s="0" t="s">
         <v>6220</v>
@@ -53838,23 +53850,23 @@
         <v>6229</v>
       </c>
       <c r="C3320" s="0" t="s">
-        <v>6228</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="3321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3321" s="0" t="s">
-        <v>6230</v>
+        <v>6231</v>
       </c>
       <c r="C3321" s="0" t="s">
-        <v>6231</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="3322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3322" s="0" t="s">
+        <v>6233</v>
+      </c>
+      <c r="C3322" s="0" t="s">
         <v>6232</v>
-      </c>
-      <c r="C3322" s="0" t="s">
-        <v>6233</v>
       </c>
     </row>
     <row r="3323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53870,43 +53882,43 @@
         <v>6236</v>
       </c>
       <c r="C3324" s="0" t="s">
-        <v>6216</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="3325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3325" s="0" t="s">
-        <v>6237</v>
+        <v>6238</v>
       </c>
       <c r="C3325" s="0" t="s">
-        <v>6238</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="3326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3326" s="0" t="s">
-        <v>6239</v>
+        <v>6240</v>
       </c>
       <c r="C3326" s="0" t="s">
-        <v>6240</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="3327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3327" s="0" t="s">
         <v>6241</v>
       </c>
+      <c r="C3327" s="0" t="s">
+        <v>6242</v>
+      </c>
     </row>
     <row r="3328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3328" s="0" t="s">
-        <v>6242</v>
+        <v>6243</v>
       </c>
       <c r="C3328" s="0" t="s">
-        <v>6243</v>
+        <v>6244</v>
       </c>
     </row>
     <row r="3329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3329" s="0" t="s">
-        <v>6244</v>
-      </c>
-      <c r="C3329" s="0" t="s">
         <v>6245</v>
       </c>
     </row>
@@ -54075,23 +54087,23 @@
         <v>6286</v>
       </c>
       <c r="C3350" s="0" t="s">
-        <v>6285</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="3351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3351" s="0" t="s">
-        <v>6287</v>
+        <v>6288</v>
       </c>
       <c r="C3351" s="0" t="s">
-        <v>6288</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="3352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3352" s="0" t="s">
+        <v>6290</v>
+      </c>
+      <c r="C3352" s="0" t="s">
         <v>6289</v>
-      </c>
-      <c r="C3352" s="0" t="s">
-        <v>6290</v>
       </c>
     </row>
     <row r="3353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54115,17 +54127,20 @@
         <v>6295</v>
       </c>
       <c r="C3355" s="0" t="s">
-        <v>6294</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="3356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3356" s="0" t="s">
-        <v>6296</v>
+        <v>6297</v>
+      </c>
+      <c r="C3356" s="0" t="s">
+        <v>6298</v>
       </c>
     </row>
     <row r="3357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3357" s="0" t="s">
-        <v>6297</v>
+        <v>6299</v>
       </c>
       <c r="C3357" s="0" t="s">
         <v>6298</v>
@@ -54133,9 +54148,6 @@
     </row>
     <row r="3358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3358" s="0" t="s">
-        <v>6299</v>
-      </c>
-      <c r="C3358" s="0" t="s">
         <v>6300</v>
       </c>
     </row>
@@ -54183,7 +54195,7 @@
       <c r="B3364" s="0" t="s">
         <v>6311</v>
       </c>
-      <c r="C3364" s="1" t="s">
+      <c r="C3364" s="0" t="s">
         <v>6312</v>
       </c>
     </row>
@@ -54199,7 +54211,7 @@
       <c r="B3366" s="0" t="s">
         <v>6315</v>
       </c>
-      <c r="C3366" s="0" t="s">
+      <c r="C3366" s="1" t="s">
         <v>6316</v>
       </c>
     </row>
@@ -54224,23 +54236,23 @@
         <v>6321</v>
       </c>
       <c r="C3369" s="0" t="s">
-        <v>6320</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="3370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3370" s="0" t="s">
-        <v>6322</v>
+        <v>6323</v>
       </c>
       <c r="C3370" s="0" t="s">
-        <v>6323</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="3371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3371" s="0" t="s">
+        <v>6325</v>
+      </c>
+      <c r="C3371" s="0" t="s">
         <v>6324</v>
-      </c>
-      <c r="C3371" s="0" t="s">
-        <v>6325</v>
       </c>
     </row>
     <row r="3372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54413,18 +54425,18 @@
     </row>
     <row r="3393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3393" s="0" t="s">
-        <v>6366</v>
+        <v>6368</v>
       </c>
       <c r="C3393" s="0" t="s">
-        <v>6367</v>
+        <v>6369</v>
       </c>
     </row>
     <row r="3394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3394" s="0" t="s">
-        <v>6368</v>
+        <v>6370</v>
       </c>
       <c r="C3394" s="0" t="s">
-        <v>6369</v>
+        <v>6371</v>
       </c>
     </row>
     <row r="3395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54552,30 +54564,30 @@
         <v>6400</v>
       </c>
       <c r="C3410" s="0" t="s">
-        <v>6399</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="3411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3411" s="0" t="s">
-        <v>6401</v>
-      </c>
-      <c r="C3411" s="1" t="s">
         <v>6402</v>
+      </c>
+      <c r="C3411" s="0" t="s">
+        <v>6403</v>
       </c>
     </row>
     <row r="3412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3412" s="0" t="s">
+        <v>6404</v>
+      </c>
+      <c r="C3412" s="0" t="s">
         <v>6403</v>
-      </c>
-      <c r="C3412" s="0" t="s">
-        <v>6404</v>
       </c>
     </row>
     <row r="3413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3413" s="0" t="s">
         <v>6405</v>
       </c>
-      <c r="C3413" s="0" t="s">
+      <c r="C3413" s="1" t="s">
         <v>6406</v>
       </c>
     </row>
@@ -54765,23 +54777,23 @@
     </row>
     <row r="3437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3437" s="0" t="s">
-        <v>8</v>
+        <v>6453</v>
       </c>
       <c r="C3437" s="0" t="s">
-        <v>6453</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="3438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3438" s="0" t="s">
-        <v>6454</v>
+        <v>6455</v>
       </c>
       <c r="C3438" s="0" t="s">
-        <v>6455</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="3439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3439" s="0" t="s">
-        <v>6456</v>
+        <v>8</v>
       </c>
       <c r="C3439" s="0" t="s">
         <v>6457</v>
@@ -54839,87 +54851,87 @@
       <c r="B3446" s="0" t="s">
         <v>6470</v>
       </c>
+      <c r="C3446" s="0" t="s">
+        <v>6471</v>
+      </c>
     </row>
     <row r="3447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3447" s="0" t="s">
-        <v>6471</v>
+        <v>6472</v>
       </c>
       <c r="C3447" s="0" t="s">
-        <v>631</v>
+        <v>6473</v>
       </c>
     </row>
     <row r="3448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3448" s="0" t="s">
-        <v>6472</v>
-      </c>
-      <c r="C3448" s="0" t="s">
-        <v>2327</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="3449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3449" s="0" t="s">
-        <v>6473</v>
+        <v>6475</v>
       </c>
       <c r="C3449" s="0" t="s">
-        <v>4182</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3450" s="0" t="s">
-        <v>6474</v>
+        <v>6476</v>
       </c>
       <c r="C3450" s="0" t="s">
-        <v>688</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="3451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3451" s="0" t="s">
-        <v>6475</v>
+        <v>6477</v>
       </c>
       <c r="C3451" s="0" t="s">
-        <v>6476</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="3452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3452" s="0" t="s">
-        <v>6477</v>
+        <v>6478</v>
       </c>
       <c r="C3452" s="0" t="s">
-        <v>6478</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3453" s="0" t="s">
         <v>6479</v>
       </c>
+      <c r="C3453" s="0" t="s">
+        <v>6480</v>
+      </c>
     </row>
     <row r="3454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3454" s="0" t="s">
-        <v>6480</v>
+        <v>6481</v>
       </c>
       <c r="C3454" s="0" t="s">
-        <v>6481</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="3455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3455" s="0" t="s">
-        <v>6482</v>
-      </c>
-      <c r="C3455" s="0" t="s">
-        <v>6482</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="3456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3456" s="0" t="s">
-        <v>6483</v>
+        <v>6484</v>
       </c>
       <c r="C3456" s="0" t="s">
-        <v>6484</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="3457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3457" s="0" t="s">
-        <v>6485</v>
+        <v>6486</v>
       </c>
       <c r="C3457" s="0" t="s">
         <v>6486</v>
@@ -54962,23 +54974,23 @@
         <v>6495</v>
       </c>
       <c r="C3462" s="0" t="s">
-        <v>4471</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="3463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3463" s="0" t="s">
-        <v>6496</v>
+        <v>6497</v>
       </c>
       <c r="C3463" s="0" t="s">
-        <v>6497</v>
+        <v>6498</v>
       </c>
     </row>
     <row r="3464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3464" s="0" t="s">
-        <v>6498</v>
+        <v>6499</v>
       </c>
       <c r="C3464" s="0" t="s">
-        <v>6499</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="3465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55177,20 +55189,20 @@
       <c r="B3489" s="0" t="s">
         <v>6548</v>
       </c>
+      <c r="C3489" s="0" t="s">
+        <v>6549</v>
+      </c>
     </row>
     <row r="3490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3490" s="0" t="s">
-        <v>6549</v>
+        <v>6550</v>
       </c>
       <c r="C3490" s="0" t="s">
-        <v>6550</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="3491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3491" s="0" t="s">
-        <v>6551</v>
-      </c>
-      <c r="C3491" s="0" t="s">
         <v>6552</v>
       </c>
     </row>
@@ -55231,23 +55243,23 @@
         <v>6561</v>
       </c>
       <c r="C3496" s="0" t="s">
-        <v>6560</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="3497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3497" s="0" t="s">
-        <v>6562</v>
+        <v>6563</v>
       </c>
       <c r="C3497" s="0" t="s">
-        <v>6563</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="3498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3498" s="0" t="s">
+        <v>6565</v>
+      </c>
+      <c r="C3498" s="0" t="s">
         <v>6564</v>
-      </c>
-      <c r="C3498" s="0" t="s">
-        <v>6565</v>
       </c>
     </row>
     <row r="3499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55335,39 +55347,39 @@
         <v>6586</v>
       </c>
       <c r="C3509" s="0" t="s">
-        <v>6556</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="3510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3510" s="0" t="s">
-        <v>6587</v>
+        <v>6588</v>
       </c>
       <c r="C3510" s="0" t="s">
-        <v>6560</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="3511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3511" s="0" t="s">
-        <v>6588</v>
+        <v>6590</v>
       </c>
       <c r="C3511" s="0" t="s">
-        <v>6563</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="3512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3512" s="0" t="s">
-        <v>6589</v>
+        <v>6591</v>
       </c>
       <c r="C3512" s="0" t="s">
-        <v>6590</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="3513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3513" s="0" t="s">
-        <v>6591</v>
+        <v>6592</v>
       </c>
       <c r="C3513" s="0" t="s">
-        <v>6592</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="3514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55391,35 +55403,35 @@
         <v>6597</v>
       </c>
       <c r="C3516" s="0" t="s">
-        <v>6597</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="3517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3517" s="0" t="s">
-        <v>6598</v>
+        <v>6599</v>
       </c>
       <c r="C3517" s="0" t="s">
-        <v>6598</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="3518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3518" s="0" t="s">
-        <v>6599</v>
+        <v>6601</v>
+      </c>
+      <c r="C3518" s="0" t="s">
+        <v>6601</v>
       </c>
     </row>
     <row r="3519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3519" s="0" t="s">
-        <v>6600</v>
+        <v>6602</v>
       </c>
       <c r="C3519" s="0" t="s">
-        <v>6601</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="3520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3520" s="0" t="s">
-        <v>6602</v>
-      </c>
-      <c r="C3520" s="0" t="s">
         <v>6603</v>
       </c>
     </row>
@@ -55632,7 +55644,7 @@
       </c>
     </row>
     <row r="3547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3547" s="1" t="s">
+      <c r="B3547" s="0" t="s">
         <v>6656</v>
       </c>
       <c r="C3547" s="0" t="s">
@@ -55648,7 +55660,7 @@
       </c>
     </row>
     <row r="3549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3549" s="0" t="s">
+      <c r="B3549" s="1" t="s">
         <v>6660</v>
       </c>
       <c r="C3549" s="0" t="s">
@@ -55668,23 +55680,23 @@
         <v>6664</v>
       </c>
       <c r="C3551" s="0" t="s">
-        <v>6663</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="3552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3552" s="0" t="s">
-        <v>6665</v>
+        <v>6666</v>
       </c>
       <c r="C3552" s="0" t="s">
-        <v>6666</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="3553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3553" s="0" t="s">
+        <v>6668</v>
+      </c>
+      <c r="C3553" s="0" t="s">
         <v>6667</v>
-      </c>
-      <c r="C3553" s="0" t="s">
-        <v>6668</v>
       </c>
     </row>
     <row r="3554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55759,11 +55771,11 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="3563" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3563" s="2" t="s">
+    <row r="3563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3563" s="0" t="s">
         <v>6687</v>
       </c>
-      <c r="C3563" s="2" t="s">
+      <c r="C3563" s="0" t="s">
         <v>6688</v>
       </c>
     </row>
@@ -55791,11 +55803,11 @@
         <v>6694</v>
       </c>
     </row>
-    <row r="3567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3567" s="0" t="s">
+    <row r="3567" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3567" s="2" t="s">
         <v>6695</v>
       </c>
-      <c r="C3567" s="0" t="s">
+      <c r="C3567" s="2" t="s">
         <v>6696</v>
       </c>
     </row>
@@ -55932,20 +55944,20 @@
         <v>6729</v>
       </c>
       <c r="C3584" s="0" t="s">
-        <v>6729</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="3585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3585" s="0" t="s">
-        <v>6730</v>
+        <v>6731</v>
       </c>
       <c r="C3585" s="0" t="s">
-        <v>6731</v>
+        <v>6732</v>
       </c>
     </row>
     <row r="3586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3586" s="0" t="s">
-        <v>6732</v>
+        <v>6733</v>
       </c>
       <c r="C3586" s="0" t="s">
         <v>6733</v>
@@ -56060,23 +56072,23 @@
         <v>6760</v>
       </c>
       <c r="C3600" s="0" t="s">
-        <v>6759</v>
+        <v>6761</v>
       </c>
     </row>
     <row r="3601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3601" s="0" t="s">
-        <v>6761</v>
+        <v>6762</v>
       </c>
       <c r="C3601" s="0" t="s">
-        <v>6762</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="3602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3602" s="0" t="s">
+        <v>6764</v>
+      </c>
+      <c r="C3602" s="0" t="s">
         <v>6763</v>
-      </c>
-      <c r="C3602" s="0" t="s">
-        <v>6764</v>
       </c>
     </row>
     <row r="3603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56196,20 +56208,20 @@
         <v>6793</v>
       </c>
       <c r="C3617" s="0" t="s">
-        <v>6793</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="3618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3618" s="0" t="s">
-        <v>6794</v>
+        <v>6795</v>
       </c>
       <c r="C3618" s="0" t="s">
-        <v>6795</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="3619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3619" s="0" t="s">
-        <v>6796</v>
+        <v>6797</v>
       </c>
       <c r="C3619" s="0" t="s">
         <v>6797</v>
@@ -56283,20 +56295,20 @@
       <c r="B3628" s="0" t="s">
         <v>6814</v>
       </c>
+      <c r="C3628" s="0" t="s">
+        <v>6815</v>
+      </c>
     </row>
     <row r="3629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3629" s="0" t="s">
-        <v>6815</v>
+        <v>6816</v>
       </c>
       <c r="C3629" s="0" t="s">
-        <v>6816</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="3630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3630" s="0" t="s">
-        <v>6817</v>
-      </c>
-      <c r="C3630" s="0" t="s">
         <v>6818</v>
       </c>
     </row>
@@ -56337,28 +56349,28 @@
         <v>6827</v>
       </c>
       <c r="C3635" s="0" t="s">
-        <v>2334</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="3636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3636" s="0" t="s">
-        <v>6828</v>
+        <v>6829</v>
       </c>
       <c r="C3636" s="0" t="s">
-        <v>6828</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="3637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3637" s="0" t="s">
-        <v>6829</v>
+        <v>6831</v>
       </c>
       <c r="C3637" s="0" t="s">
-        <v>6830</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="3638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3638" s="0" t="s">
-        <v>6831</v>
+        <v>6832</v>
       </c>
       <c r="C3638" s="0" t="s">
         <v>6832</v>
@@ -56369,39 +56381,39 @@
         <v>6833</v>
       </c>
       <c r="C3639" s="0" t="s">
-        <v>6833</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="3640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3640" s="0" t="s">
-        <v>6834</v>
+        <v>6835</v>
       </c>
       <c r="C3640" s="0" t="s">
-        <v>6835</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="3641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3641" s="0" t="s">
-        <v>6836</v>
+        <v>6837</v>
       </c>
       <c r="C3641" s="0" t="s">
-        <v>6835</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="3642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3642" s="0" t="s">
-        <v>6837</v>
+        <v>6838</v>
       </c>
       <c r="C3642" s="0" t="s">
-        <v>6838</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="3643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3643" s="0" t="s">
+        <v>6840</v>
+      </c>
+      <c r="C3643" s="0" t="s">
         <v>6839</v>
-      </c>
-      <c r="C3643" s="0" t="s">
-        <v>6840</v>
       </c>
     </row>
     <row r="3644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56545,23 +56557,23 @@
         <v>6875</v>
       </c>
       <c r="C3661" s="0" t="s">
-        <v>2709</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="3662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3662" s="0" t="s">
-        <v>6876</v>
+        <v>6877</v>
       </c>
       <c r="C3662" s="0" t="s">
-        <v>6877</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="3663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3663" s="0" t="s">
-        <v>6878</v>
+        <v>6879</v>
       </c>
       <c r="C3663" s="0" t="s">
-        <v>6879</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="3664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56702,31 +56714,31 @@
     </row>
     <row r="3681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3681" s="0" t="s">
-        <v>24</v>
+        <v>6914</v>
       </c>
       <c r="C3681" s="0" t="s">
-        <v>6914</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="3682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3682" s="0" t="s">
-        <v>6915</v>
+        <v>6916</v>
       </c>
       <c r="C3682" s="0" t="s">
-        <v>6915</v>
+        <v>6917</v>
       </c>
     </row>
     <row r="3683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3683" s="0" t="s">
-        <v>6916</v>
+        <v>24</v>
       </c>
       <c r="C3683" s="0" t="s">
-        <v>6917</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="3684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3684" s="0" t="s">
-        <v>6918</v>
+        <v>6919</v>
       </c>
       <c r="C3684" s="0" t="s">
         <v>6919</v>
@@ -56761,23 +56773,23 @@
         <v>6926</v>
       </c>
       <c r="C3688" s="0" t="s">
-        <v>6925</v>
+        <v>6927</v>
       </c>
     </row>
     <row r="3689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3689" s="0" t="s">
-        <v>6927</v>
+        <v>6928</v>
       </c>
       <c r="C3689" s="0" t="s">
-        <v>6928</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="3690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3690" s="0" t="s">
+        <v>6930</v>
+      </c>
+      <c r="C3690" s="0" t="s">
         <v>6929</v>
-      </c>
-      <c r="C3690" s="0" t="s">
-        <v>6930</v>
       </c>
     </row>
     <row r="3691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56857,23 +56869,23 @@
         <v>6949</v>
       </c>
       <c r="C3700" s="0" t="s">
-        <v>4927</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="3701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3701" s="0" t="s">
-        <v>6950</v>
+        <v>6951</v>
       </c>
       <c r="C3701" s="0" t="s">
-        <v>6951</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="3702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3702" s="0" t="s">
-        <v>6952</v>
+        <v>6953</v>
       </c>
       <c r="C3702" s="0" t="s">
-        <v>6953</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="3703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56905,39 +56917,39 @@
         <v>6960</v>
       </c>
       <c r="C3706" s="0" t="s">
-        <v>6960</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="3707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3707" s="0" t="s">
-        <v>6961</v>
+        <v>6962</v>
       </c>
       <c r="C3707" s="0" t="s">
-        <v>6962</v>
+        <v>6963</v>
       </c>
     </row>
     <row r="3708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3708" s="0" t="s">
-        <v>6963</v>
+        <v>6964</v>
       </c>
       <c r="C3708" s="0" t="s">
-        <v>6962</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="3709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3709" s="0" t="s">
-        <v>6964</v>
+        <v>6965</v>
       </c>
       <c r="C3709" s="0" t="s">
-        <v>6965</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="3710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3710" s="0" t="s">
+        <v>6967</v>
+      </c>
+      <c r="C3710" s="0" t="s">
         <v>6966</v>
-      </c>
-      <c r="C3710" s="0" t="s">
-        <v>6967</v>
       </c>
     </row>
     <row r="3711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56953,20 +56965,20 @@
         <v>6970</v>
       </c>
       <c r="C3712" s="0" t="s">
-        <v>6970</v>
+        <v>6971</v>
       </c>
     </row>
     <row r="3713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3713" s="0" t="s">
-        <v>6971</v>
+        <v>6972</v>
       </c>
       <c r="C3713" s="0" t="s">
-        <v>6972</v>
+        <v>6973</v>
       </c>
     </row>
     <row r="3714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3714" s="0" t="s">
-        <v>6973</v>
+        <v>6974</v>
       </c>
       <c r="C3714" s="0" t="s">
         <v>6974</v>
@@ -56982,23 +56994,23 @@
     </row>
     <row r="3716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3716" s="0" t="s">
-        <v>19</v>
+        <v>6977</v>
       </c>
       <c r="C3716" s="0" t="s">
-        <v>6977</v>
+        <v>6978</v>
       </c>
     </row>
     <row r="3717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3717" s="0" t="s">
-        <v>6978</v>
+        <v>6979</v>
       </c>
       <c r="C3717" s="0" t="s">
-        <v>6979</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="3718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3718" s="0" t="s">
-        <v>6980</v>
+        <v>19</v>
       </c>
       <c r="C3718" s="0" t="s">
         <v>6981</v>
@@ -57033,20 +57045,20 @@
         <v>6988</v>
       </c>
       <c r="C3722" s="0" t="s">
-        <v>6988</v>
+        <v>6989</v>
       </c>
     </row>
     <row r="3723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3723" s="0" t="s">
-        <v>6989</v>
+        <v>6990</v>
       </c>
       <c r="C3723" s="0" t="s">
-        <v>6990</v>
+        <v>6991</v>
       </c>
     </row>
     <row r="3724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3724" s="0" t="s">
-        <v>6991</v>
+        <v>6992</v>
       </c>
       <c r="C3724" s="0" t="s">
         <v>6992</v>
@@ -57129,60 +57141,60 @@
         <v>7011</v>
       </c>
       <c r="C3734" s="0" t="s">
-        <v>7011</v>
+        <v>7012</v>
       </c>
     </row>
     <row r="3735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3735" s="0" t="s">
-        <v>7012</v>
+        <v>7013</v>
       </c>
       <c r="C3735" s="0" t="s">
-        <v>7012</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="3736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3736" s="0" t="s">
-        <v>7013</v>
+        <v>7015</v>
       </c>
       <c r="C3736" s="0" t="s">
-        <v>5555</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="3737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3737" s="0" t="s">
-        <v>7014</v>
+        <v>7016</v>
       </c>
       <c r="C3737" s="0" t="s">
-        <v>5561</v>
+        <v>7016</v>
       </c>
     </row>
     <row r="3738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3738" s="0" t="s">
-        <v>7015</v>
+        <v>7017</v>
       </c>
       <c r="C3738" s="0" t="s">
-        <v>7016</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="3739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3739" s="0" t="s">
-        <v>7017</v>
+        <v>7018</v>
       </c>
       <c r="C3739" s="0" t="s">
-        <v>7017</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="3740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3740" s="0" t="s">
-        <v>7018</v>
+        <v>7019</v>
       </c>
       <c r="C3740" s="0" t="s">
-        <v>7019</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="3741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3741" s="0" t="s">
-        <v>7020</v>
+        <v>7021</v>
       </c>
       <c r="C3741" s="0" t="s">
         <v>7021</v>
@@ -57273,23 +57285,23 @@
         <v>7042</v>
       </c>
       <c r="C3752" s="0" t="s">
-        <v>7041</v>
+        <v>7043</v>
       </c>
     </row>
     <row r="3753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3753" s="0" t="s">
-        <v>7043</v>
+        <v>7044</v>
       </c>
       <c r="C3753" s="0" t="s">
-        <v>7044</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="3754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3754" s="0" t="s">
+        <v>7046</v>
+      </c>
+      <c r="C3754" s="0" t="s">
         <v>7045</v>
-      </c>
-      <c r="C3754" s="0" t="s">
-        <v>7046</v>
       </c>
     </row>
     <row r="3755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57400,20 +57412,20 @@
       <c r="B3768" s="0" t="s">
         <v>7073</v>
       </c>
+      <c r="C3768" s="0" t="s">
+        <v>7074</v>
+      </c>
     </row>
     <row r="3769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3769" s="0" t="s">
-        <v>7074</v>
+        <v>7075</v>
       </c>
       <c r="C3769" s="0" t="s">
-        <v>7075</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="3770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3770" s="0" t="s">
-        <v>7076</v>
-      </c>
-      <c r="C3770" s="0" t="s">
         <v>7077</v>
       </c>
     </row>
@@ -57446,39 +57458,39 @@
         <v>7084</v>
       </c>
       <c r="C3774" s="0" t="s">
-        <v>7084</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="3775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3775" s="0" t="s">
-        <v>7085</v>
+        <v>7086</v>
       </c>
       <c r="C3775" s="0" t="s">
-        <v>7085</v>
+        <v>7087</v>
       </c>
     </row>
     <row r="3776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3776" s="0" t="s">
-        <v>7086</v>
+        <v>7088</v>
       </c>
       <c r="C3776" s="0" t="s">
-        <v>5755</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="3777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3777" s="0" t="s">
-        <v>7087</v>
+        <v>7089</v>
       </c>
       <c r="C3777" s="0" t="s">
-        <v>7088</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="3778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3778" s="0" t="s">
-        <v>7089</v>
+        <v>7090</v>
       </c>
       <c r="C3778" s="0" t="s">
-        <v>7090</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="3779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57502,23 +57514,23 @@
         <v>7095</v>
       </c>
       <c r="C3781" s="0" t="s">
-        <v>5135</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="3782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3782" s="0" t="s">
-        <v>7096</v>
+        <v>7097</v>
       </c>
       <c r="C3782" s="0" t="s">
-        <v>7097</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="3783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3783" s="0" t="s">
-        <v>7098</v>
+        <v>7099</v>
       </c>
       <c r="C3783" s="0" t="s">
-        <v>7099</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="3784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57555,26 +57567,26 @@
     </row>
     <row r="3788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3788" s="0" t="s">
-        <v>10</v>
+        <v>7108</v>
       </c>
       <c r="C3788" s="0" t="s">
-        <v>3186</v>
+        <v>7109</v>
       </c>
     </row>
     <row r="3789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3789" s="0" t="s">
-        <v>7108</v>
+        <v>7110</v>
       </c>
       <c r="C3789" s="0" t="s">
-        <v>7109</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="3790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3790" s="0" t="s">
-        <v>7110</v>
+        <v>10</v>
       </c>
       <c r="C3790" s="0" t="s">
-        <v>7111</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="3791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57589,20 +57601,20 @@
       <c r="B3792" s="0" t="s">
         <v>7114</v>
       </c>
+      <c r="C3792" s="0" t="s">
+        <v>7115</v>
+      </c>
     </row>
     <row r="3793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3793" s="0" t="s">
-        <v>7115</v>
+        <v>7116</v>
       </c>
       <c r="C3793" s="0" t="s">
-        <v>7116</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="3794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3794" s="0" t="s">
-        <v>7117</v>
-      </c>
-      <c r="C3794" s="0" t="s">
         <v>7118</v>
       </c>
     </row>
@@ -57611,23 +57623,23 @@
         <v>7119</v>
       </c>
       <c r="C3795" s="0" t="s">
-        <v>11</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="3796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3796" s="0" t="s">
-        <v>7120</v>
+        <v>7121</v>
       </c>
       <c r="C3796" s="0" t="s">
-        <v>7121</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="3797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3797" s="0" t="s">
-        <v>7122</v>
+        <v>7123</v>
       </c>
       <c r="C3797" s="0" t="s">
-        <v>7123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57643,35 +57655,35 @@
         <v>7126</v>
       </c>
       <c r="C3799" s="0" t="s">
-        <v>3766</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="3800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3800" s="0" t="s">
-        <v>7127</v>
+        <v>7128</v>
       </c>
       <c r="C3800" s="0" t="s">
-        <v>7128</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="3801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3801" s="0" t="s">
-        <v>7129</v>
+        <v>7130</v>
+      </c>
+      <c r="C3801" s="0" t="s">
+        <v>3768</v>
       </c>
     </row>
     <row r="3802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3802" s="0" t="s">
-        <v>7130</v>
+        <v>7131</v>
       </c>
       <c r="C3802" s="0" t="s">
-        <v>7131</v>
+        <v>7132</v>
       </c>
     </row>
     <row r="3803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3803" s="0" t="s">
-        <v>7132</v>
-      </c>
-      <c r="C3803" s="0" t="s">
         <v>7133</v>
       </c>
     </row>
@@ -57680,23 +57692,23 @@
         <v>7134</v>
       </c>
       <c r="C3804" s="0" t="s">
-        <v>2338</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="3805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3805" s="0" t="s">
-        <v>7135</v>
+        <v>7136</v>
       </c>
       <c r="C3805" s="0" t="s">
-        <v>7136</v>
+        <v>7137</v>
       </c>
     </row>
     <row r="3806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3806" s="0" t="s">
-        <v>7137</v>
+        <v>7138</v>
       </c>
       <c r="C3806" s="0" t="s">
-        <v>7138</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="3807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57704,20 +57716,20 @@
         <v>7139</v>
       </c>
       <c r="C3807" s="0" t="s">
-        <v>7139</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="3808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3808" s="0" t="s">
-        <v>7140</v>
+        <v>7141</v>
       </c>
       <c r="C3808" s="0" t="s">
-        <v>7141</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="3809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3809" s="0" t="s">
-        <v>7142</v>
+        <v>7143</v>
       </c>
       <c r="C3809" s="0" t="s">
         <v>7143</v>
@@ -57736,23 +57748,23 @@
         <v>7146</v>
       </c>
       <c r="C3811" s="0" t="s">
-        <v>613</v>
+        <v>7147</v>
       </c>
     </row>
     <row r="3812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3812" s="0" t="s">
-        <v>7147</v>
+        <v>7148</v>
       </c>
       <c r="C3812" s="0" t="s">
-        <v>7148</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="3813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3813" s="0" t="s">
-        <v>7149</v>
+        <v>7150</v>
       </c>
       <c r="C3813" s="0" t="s">
-        <v>7150</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57791,41 +57803,41 @@
       <c r="B3818" s="0" t="s">
         <v>7159</v>
       </c>
+      <c r="C3818" s="0" t="s">
+        <v>7160</v>
+      </c>
     </row>
     <row r="3819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3819" s="0" t="s">
-        <v>7160</v>
+        <v>7161</v>
       </c>
       <c r="C3819" s="0" t="s">
-        <v>7161</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="3820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3820" s="0" t="s">
-        <v>7162</v>
-      </c>
-      <c r="C3820" s="0" t="s">
-        <v>7162</v>
+        <v>7163</v>
       </c>
     </row>
     <row r="3821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3821" s="0" t="s">
-        <v>7163</v>
+        <v>7164</v>
+      </c>
+      <c r="C3821" s="0" t="s">
+        <v>7165</v>
       </c>
     </row>
     <row r="3822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3822" s="0" t="s">
-        <v>7164</v>
+        <v>7166</v>
       </c>
       <c r="C3822" s="0" t="s">
-        <v>7165</v>
+        <v>7166</v>
       </c>
     </row>
     <row r="3823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3823" s="0" t="s">
-        <v>7166</v>
-      </c>
-      <c r="C3823" s="0" t="s">
         <v>7167</v>
       </c>
     </row>
@@ -57850,23 +57862,23 @@
         <v>7172</v>
       </c>
       <c r="C3826" s="0" t="s">
-        <v>7171</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="3827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3827" s="0" t="s">
-        <v>7173</v>
+        <v>7174</v>
       </c>
       <c r="C3827" s="0" t="s">
-        <v>7174</v>
+        <v>7175</v>
       </c>
     </row>
     <row r="3828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3828" s="0" t="s">
+        <v>7176</v>
+      </c>
+      <c r="C3828" s="0" t="s">
         <v>7175</v>
-      </c>
-      <c r="C3828" s="0" t="s">
-        <v>7176</v>
       </c>
     </row>
     <row r="3829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57895,31 +57907,31 @@
     </row>
     <row r="3832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3832" s="0" t="s">
-        <v>21</v>
+        <v>7183</v>
       </c>
       <c r="C3832" s="0" t="s">
-        <v>7183</v>
+        <v>7184</v>
       </c>
     </row>
     <row r="3833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3833" s="0" t="s">
-        <v>7184</v>
+        <v>7185</v>
       </c>
       <c r="C3833" s="0" t="s">
-        <v>7184</v>
+        <v>7186</v>
       </c>
     </row>
     <row r="3834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3834" s="0" t="s">
-        <v>7185</v>
+        <v>21</v>
       </c>
       <c r="C3834" s="0" t="s">
-        <v>7186</v>
+        <v>7187</v>
       </c>
     </row>
     <row r="3835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3835" s="0" t="s">
-        <v>7187</v>
+        <v>7188</v>
       </c>
       <c r="C3835" s="0" t="s">
         <v>7188</v>
@@ -58010,20 +58022,20 @@
         <v>7209</v>
       </c>
       <c r="C3846" s="0" t="s">
-        <v>7208</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="3847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3847" s="0" t="s">
-        <v>7210</v>
+        <v>7211</v>
       </c>
       <c r="C3847" s="0" t="s">
-        <v>7210</v>
+        <v>7212</v>
       </c>
     </row>
     <row r="3848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3848" s="0" t="s">
-        <v>7211</v>
+        <v>7213</v>
       </c>
       <c r="C3848" s="0" t="s">
         <v>7212</v>
@@ -58031,7 +58043,7 @@
     </row>
     <row r="3849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3849" s="0" t="s">
-        <v>7213</v>
+        <v>7214</v>
       </c>
       <c r="C3849" s="0" t="s">
         <v>7214</v>
@@ -58210,20 +58222,20 @@
         <v>7257</v>
       </c>
       <c r="C3871" s="0" t="s">
-        <v>7257</v>
+        <v>7258</v>
       </c>
     </row>
     <row r="3872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3872" s="0" t="s">
-        <v>7258</v>
+        <v>7259</v>
       </c>
       <c r="C3872" s="0" t="s">
-        <v>7259</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="3873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3873" s="0" t="s">
-        <v>7260</v>
+        <v>7261</v>
       </c>
       <c r="C3873" s="0" t="s">
         <v>7261</v>
@@ -58250,20 +58262,20 @@
         <v>7266</v>
       </c>
       <c r="C3876" s="0" t="s">
-        <v>7266</v>
+        <v>7267</v>
       </c>
     </row>
     <row r="3877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3877" s="0" t="s">
-        <v>7267</v>
+        <v>7268</v>
       </c>
       <c r="C3877" s="0" t="s">
-        <v>7268</v>
+        <v>7269</v>
       </c>
     </row>
     <row r="3878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3878" s="0" t="s">
-        <v>7269</v>
+        <v>7270</v>
       </c>
       <c r="C3878" s="0" t="s">
         <v>7270</v>
@@ -58274,20 +58286,20 @@
         <v>7271</v>
       </c>
       <c r="C3879" s="0" t="s">
-        <v>7271</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="3880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3880" s="0" t="s">
-        <v>7272</v>
+        <v>7273</v>
       </c>
       <c r="C3880" s="0" t="s">
-        <v>7273</v>
+        <v>7274</v>
       </c>
     </row>
     <row r="3881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3881" s="0" t="s">
-        <v>7274</v>
+        <v>7275</v>
       </c>
       <c r="C3881" s="0" t="s">
         <v>7275</v>
@@ -58394,23 +58406,23 @@
         <v>7300</v>
       </c>
       <c r="C3894" s="0" t="s">
-        <v>4245</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="3895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3895" s="0" t="s">
-        <v>7301</v>
+        <v>7302</v>
       </c>
       <c r="C3895" s="0" t="s">
-        <v>7302</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="3896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3896" s="0" t="s">
-        <v>7303</v>
+        <v>7304</v>
       </c>
       <c r="C3896" s="0" t="s">
-        <v>7304</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="3897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58433,20 +58445,20 @@
       <c r="B3899" s="0" t="s">
         <v>7309</v>
       </c>
+      <c r="C3899" s="0" t="s">
+        <v>7310</v>
+      </c>
     </row>
     <row r="3900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3900" s="0" t="s">
-        <v>7310</v>
+        <v>7311</v>
       </c>
       <c r="C3900" s="0" t="s">
-        <v>7311</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="3901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3901" s="0" t="s">
-        <v>7312</v>
-      </c>
-      <c r="C3901" s="0" t="s">
         <v>7313</v>
       </c>
     </row>
@@ -58471,23 +58483,23 @@
         <v>7318</v>
       </c>
       <c r="C3904" s="0" t="s">
-        <v>7317</v>
+        <v>7319</v>
       </c>
     </row>
     <row r="3905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3905" s="0" t="s">
-        <v>7319</v>
+        <v>7320</v>
       </c>
       <c r="C3905" s="0" t="s">
-        <v>7320</v>
+        <v>7321</v>
       </c>
     </row>
     <row r="3906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3906" s="0" t="s">
+        <v>7322</v>
+      </c>
+      <c r="C3906" s="0" t="s">
         <v>7321</v>
-      </c>
-      <c r="C3906" s="0" t="s">
-        <v>7322</v>
       </c>
     </row>
     <row r="3907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58551,23 +58563,23 @@
         <v>7337</v>
       </c>
       <c r="C3914" s="0" t="s">
-        <v>708</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="3915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3915" s="0" t="s">
-        <v>7338</v>
+        <v>7339</v>
       </c>
       <c r="C3915" s="0" t="s">
-        <v>7339</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="3916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3916" s="0" t="s">
-        <v>7340</v>
+        <v>7341</v>
       </c>
       <c r="C3916" s="0" t="s">
-        <v>7341</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58695,60 +58707,60 @@
         <v>7372</v>
       </c>
       <c r="C3932" s="0" t="s">
-        <v>775</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="3933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3933" s="0" t="s">
-        <v>7373</v>
+        <v>7374</v>
       </c>
       <c r="C3933" s="0" t="s">
-        <v>17</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="3934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3934" s="0" t="s">
-        <v>7374</v>
+        <v>7376</v>
       </c>
       <c r="C3934" s="0" t="s">
-        <v>7375</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3935" s="0" t="s">
-        <v>7376</v>
+        <v>7377</v>
+      </c>
+      <c r="C3935" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3936" s="0" t="s">
-        <v>7377</v>
+        <v>7378</v>
       </c>
       <c r="C3936" s="0" t="s">
-        <v>7378</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="3937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3937" s="0" t="s">
-        <v>7379</v>
-      </c>
-      <c r="C3937" s="0" t="s">
-        <v>4282</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="3938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3938" s="0" t="s">
-        <v>7380</v>
+        <v>7381</v>
       </c>
       <c r="C3938" s="0" t="s">
-        <v>7381</v>
+        <v>7382</v>
       </c>
     </row>
     <row r="3939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3939" s="0" t="s">
-        <v>7382</v>
+        <v>7383</v>
       </c>
       <c r="C3939" s="0" t="s">
-        <v>7383</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="3940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58844,36 +58856,36 @@
         <v>7406</v>
       </c>
       <c r="C3951" s="0" t="s">
-        <v>4839</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="3952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3952" s="0" t="s">
-        <v>7407</v>
+        <v>7408</v>
       </c>
       <c r="C3952" s="0" t="s">
-        <v>4859</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="3953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3953" s="0" t="s">
-        <v>7408</v>
+        <v>7410</v>
       </c>
       <c r="C3953" s="0" t="s">
-        <v>7408</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="3954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3954" s="0" t="s">
-        <v>7409</v>
+        <v>7411</v>
       </c>
       <c r="C3954" s="0" t="s">
-        <v>7410</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="3955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3955" s="0" t="s">
-        <v>7411</v>
+        <v>7412</v>
       </c>
       <c r="C3955" s="0" t="s">
         <v>7412</v>
@@ -58892,20 +58904,20 @@
         <v>7415</v>
       </c>
       <c r="C3957" s="0" t="s">
-        <v>7415</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="3958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3958" s="0" t="s">
-        <v>7416</v>
+        <v>7417</v>
       </c>
       <c r="C3958" s="0" t="s">
-        <v>7417</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="3959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3959" s="0" t="s">
-        <v>7418</v>
+        <v>7419</v>
       </c>
       <c r="C3959" s="0" t="s">
         <v>7419</v>
@@ -58916,139 +58928,139 @@
         <v>7420</v>
       </c>
       <c r="C3960" s="0" t="s">
-        <v>7420</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="3961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3961" s="0" t="s">
-        <v>7421</v>
+        <v>7422</v>
+      </c>
+      <c r="C3961" s="0" t="s">
+        <v>7423</v>
       </c>
     </row>
     <row r="3962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3962" s="0" t="s">
-        <v>7422</v>
+        <v>7424</v>
+      </c>
+      <c r="C3962" s="0" t="s">
+        <v>7424</v>
       </c>
     </row>
     <row r="3963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3963" s="0" t="s">
-        <v>7423</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="3964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3964" s="0" t="s">
-        <v>7424</v>
-      </c>
-      <c r="C3964" s="0" t="s">
-        <v>7424</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="3965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3965" s="0" t="s">
-        <v>7425</v>
-      </c>
-      <c r="C3965" s="0" t="s">
-        <v>7425</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="3966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3966" s="0" t="s">
-        <v>7426</v>
+        <v>7428</v>
       </c>
       <c r="C3966" s="0" t="s">
-        <v>7426</v>
+        <v>7428</v>
       </c>
     </row>
     <row r="3967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3967" s="0" t="s">
-        <v>7427</v>
+        <v>7429</v>
       </c>
       <c r="C3967" s="0" t="s">
-        <v>7427</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="3968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3968" s="0" t="s">
-        <v>7428</v>
+        <v>7430</v>
       </c>
       <c r="C3968" s="0" t="s">
-        <v>7428</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="3969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3969" s="0" t="s">
-        <v>7429</v>
+        <v>7431</v>
       </c>
       <c r="C3969" s="0" t="s">
-        <v>7429</v>
+        <v>7431</v>
       </c>
     </row>
     <row r="3970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3970" s="0" t="s">
-        <v>7430</v>
+        <v>7432</v>
       </c>
       <c r="C3970" s="0" t="s">
-        <v>7430</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="3971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3971" s="0" t="s">
-        <v>7431</v>
+        <v>7433</v>
       </c>
       <c r="C3971" s="0" t="s">
-        <v>7431</v>
+        <v>7433</v>
       </c>
     </row>
     <row r="3972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3972" s="0" t="s">
-        <v>7432</v>
+        <v>7434</v>
       </c>
       <c r="C3972" s="0" t="s">
-        <v>7432</v>
+        <v>7434</v>
       </c>
     </row>
     <row r="3973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3973" s="0" t="s">
-        <v>7433</v>
+        <v>7435</v>
       </c>
       <c r="C3973" s="0" t="s">
-        <v>7433</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="3974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3974" s="0" t="s">
-        <v>7434</v>
+        <v>7436</v>
       </c>
       <c r="C3974" s="0" t="s">
-        <v>7434</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="3975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3975" s="0" t="s">
-        <v>7435</v>
+        <v>7437</v>
       </c>
       <c r="C3975" s="0" t="s">
-        <v>7435</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="3976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3976" s="0" t="s">
-        <v>7436</v>
+        <v>7438</v>
       </c>
       <c r="C3976" s="0" t="s">
-        <v>7436</v>
+        <v>7438</v>
       </c>
     </row>
     <row r="3977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3977" s="0" t="s">
-        <v>7437</v>
+        <v>7439</v>
       </c>
       <c r="C3977" s="0" t="s">
-        <v>7438</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="3978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3978" s="0" t="s">
-        <v>7439</v>
+        <v>7440</v>
       </c>
       <c r="C3978" s="0" t="s">
         <v>7440</v>
@@ -59162,20 +59174,20 @@
       <c r="B3992" s="0" t="s">
         <v>7467</v>
       </c>
+      <c r="C3992" s="0" t="s">
+        <v>7468</v>
+      </c>
     </row>
     <row r="3993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3993" s="0" t="s">
-        <v>7468</v>
+        <v>7469</v>
       </c>
       <c r="C3993" s="0" t="s">
-        <v>7469</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="3994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3994" s="0" t="s">
-        <v>7470</v>
-      </c>
-      <c r="C3994" s="0" t="s">
         <v>7471</v>
       </c>
     </row>
@@ -59307,23 +59319,23 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="4011" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4011" s="2" t="s">
+    <row r="4011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4011" s="0" t="s">
         <v>7504</v>
       </c>
-      <c r="C4011" s="2" t="s">
+      <c r="C4011" s="0" t="s">
         <v>7505</v>
       </c>
     </row>
-    <row r="4012" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4012" s="2" t="s">
+    <row r="4012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4012" s="0" t="s">
         <v>7506</v>
       </c>
-      <c r="C4012" s="2" t="s">
+      <c r="C4012" s="0" t="s">
         <v>7507</v>
       </c>
     </row>
-    <row r="4013" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4013" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4013" s="2" t="s">
         <v>7508</v>
       </c>
@@ -59331,7 +59343,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="4014" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4014" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4014" s="2" t="s">
         <v>7510</v>
       </c>
@@ -59339,19 +59351,19 @@
         <v>7511</v>
       </c>
     </row>
-    <row r="4015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4015" s="0" t="s">
+    <row r="4015" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4015" s="2" t="s">
         <v>7512</v>
       </c>
-      <c r="C4015" s="0" t="s">
+      <c r="C4015" s="2" t="s">
         <v>7513</v>
       </c>
     </row>
-    <row r="4016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4016" s="0" t="s">
+    <row r="4016" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4016" s="2" t="s">
         <v>7514</v>
       </c>
-      <c r="C4016" s="0" t="s">
+      <c r="C4016" s="2" t="s">
         <v>7515</v>
       </c>
     </row>
@@ -59387,11 +59399,11 @@
         <v>7523</v>
       </c>
     </row>
-    <row r="4021" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4021" s="2" t="s">
+    <row r="4021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4021" s="0" t="s">
         <v>7524</v>
       </c>
-      <c r="C4021" s="2" t="s">
+      <c r="C4021" s="0" t="s">
         <v>7525</v>
       </c>
     </row>
@@ -59403,11 +59415,11 @@
         <v>7527</v>
       </c>
     </row>
-    <row r="4023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4023" s="0" t="s">
+    <row r="4023" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4023" s="2" t="s">
         <v>7528</v>
       </c>
-      <c r="C4023" s="0" t="s">
+      <c r="C4023" s="2" t="s">
         <v>7529</v>
       </c>
     </row>
@@ -59415,20 +59427,20 @@
       <c r="B4024" s="0" t="s">
         <v>7530</v>
       </c>
+      <c r="C4024" s="0" t="s">
+        <v>7531</v>
+      </c>
     </row>
     <row r="4025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4025" s="0" t="s">
-        <v>7531</v>
+        <v>7532</v>
       </c>
       <c r="C4025" s="0" t="s">
-        <v>7532</v>
+        <v>7533</v>
       </c>
     </row>
     <row r="4026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4026" s="0" t="s">
-        <v>7533</v>
-      </c>
-      <c r="C4026" s="0" t="s">
         <v>7534</v>
       </c>
     </row>
@@ -59592,24 +59604,24 @@
         <v>7574</v>
       </c>
     </row>
-    <row r="4047" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4047" s="2" t="s">
+    <row r="4047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4047" s="0" t="s">
         <v>7575</v>
+      </c>
+      <c r="C4047" s="0" t="s">
+        <v>7576</v>
       </c>
     </row>
     <row r="4048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4048" s="0" t="s">
-        <v>7576</v>
+        <v>7577</v>
       </c>
       <c r="C4048" s="0" t="s">
-        <v>7577</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="4049" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4049" s="2" t="s">
-        <v>7578</v>
-      </c>
-      <c r="C4049" s="2" t="s">
         <v>7579</v>
       </c>
     </row>
@@ -59621,11 +59633,11 @@
         <v>7581</v>
       </c>
     </row>
-    <row r="4051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4051" s="0" t="s">
+    <row r="4051" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4051" s="2" t="s">
         <v>7582</v>
       </c>
-      <c r="C4051" s="0" t="s">
+      <c r="C4051" s="2" t="s">
         <v>7583</v>
       </c>
     </row>
@@ -59633,38 +59645,38 @@
       <c r="B4052" s="0" t="s">
         <v>7584</v>
       </c>
+      <c r="C4052" s="0" t="s">
+        <v>7585</v>
+      </c>
     </row>
     <row r="4053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4053" s="0" t="s">
-        <v>7585</v>
+        <v>7586</v>
+      </c>
+      <c r="C4053" s="0" t="s">
+        <v>7587</v>
       </c>
     </row>
     <row r="4054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4054" s="0" t="s">
-        <v>7586</v>
-      </c>
-      <c r="C4054" s="0" t="s">
-        <v>7587</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="4055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4055" s="0" t="s">
-        <v>7588</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="4056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4056" s="0" t="s">
-        <v>7589</v>
+        <v>7590</v>
       </c>
       <c r="C4056" s="0" t="s">
-        <v>7590</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="4057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4057" s="0" t="s">
-        <v>7591</v>
-      </c>
-      <c r="C4057" s="0" t="s">
         <v>7592</v>
       </c>
     </row>
@@ -59688,20 +59700,20 @@
       <c r="B4060" s="0" t="s">
         <v>7597</v>
       </c>
+      <c r="C4060" s="0" t="s">
+        <v>7598</v>
+      </c>
     </row>
     <row r="4061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4061" s="0" t="s">
-        <v>7598</v>
+        <v>7599</v>
       </c>
       <c r="C4061" s="0" t="s">
-        <v>7599</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="4062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4062" s="0" t="s">
-        <v>7600</v>
-      </c>
-      <c r="C4062" s="0" t="s">
         <v>7601</v>
       </c>
     </row>
@@ -59709,20 +59721,20 @@
       <c r="B4063" s="0" t="s">
         <v>7602</v>
       </c>
+      <c r="C4063" s="0" t="s">
+        <v>7603</v>
+      </c>
     </row>
     <row r="4064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4064" s="0" t="s">
-        <v>7603</v>
+        <v>7604</v>
       </c>
       <c r="C4064" s="0" t="s">
-        <v>7604</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="4065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4065" s="0" t="s">
-        <v>7605</v>
-      </c>
-      <c r="C4065" s="0" t="s">
         <v>7606</v>
       </c>
     </row>
@@ -59854,11 +59866,11 @@
         <v>7638</v>
       </c>
     </row>
-    <row r="4082" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4082" s="2" t="s">
+    <row r="4082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4082" s="0" t="s">
         <v>7639</v>
       </c>
-      <c r="C4082" s="2" t="s">
+      <c r="C4082" s="0" t="s">
         <v>7640</v>
       </c>
     </row>
@@ -59870,11 +59882,11 @@
         <v>7642</v>
       </c>
     </row>
-    <row r="4084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4084" s="0" t="s">
+    <row r="4084" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4084" s="2" t="s">
         <v>7643</v>
       </c>
-      <c r="C4084" s="0" t="s">
+      <c r="C4084" s="2" t="s">
         <v>7644</v>
       </c>
     </row>
@@ -59894,11 +59906,11 @@
         <v>7648</v>
       </c>
     </row>
-    <row r="4087" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4087" s="2" t="s">
+    <row r="4087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4087" s="0" t="s">
         <v>7649</v>
       </c>
-      <c r="C4087" s="2" t="s">
+      <c r="C4087" s="0" t="s">
         <v>7650</v>
       </c>
     </row>
@@ -59910,69 +59922,69 @@
         <v>7652</v>
       </c>
     </row>
-    <row r="4089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4089" s="0" t="s">
+    <row r="4089" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4089" s="2" t="s">
         <v>7653</v>
       </c>
-      <c r="C4089" s="0" t="s">
+      <c r="C4089" s="2" t="s">
         <v>7654</v>
       </c>
     </row>
-    <row r="4090" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4090" s="2" t="s">
+    <row r="4090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4090" s="0" t="s">
         <v>7655</v>
       </c>
-      <c r="C4090" s="2" t="s">
+      <c r="C4090" s="0" t="s">
         <v>7656</v>
       </c>
     </row>
-    <row r="4091" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4091" s="2" t="s">
+    <row r="4091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4091" s="0" t="s">
         <v>7657</v>
       </c>
       <c r="C4091" s="0" t="s">
         <v>7658</v>
       </c>
     </row>
-    <row r="4092" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4092" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4092" s="2" t="s">
         <v>7659</v>
       </c>
+      <c r="C4092" s="2" t="s">
+        <v>7660</v>
+      </c>
     </row>
     <row r="4093" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4093" s="2" t="s">
-        <v>7660</v>
+        <v>7661</v>
       </c>
       <c r="C4093" s="0" t="s">
-        <v>7661</v>
-      </c>
-    </row>
-    <row r="4094" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7662</v>
+      </c>
+    </row>
+    <row r="4094" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4094" s="2" t="s">
-        <v>7662</v>
-      </c>
-      <c r="C4094" s="0" t="s">
         <v>7663</v>
       </c>
     </row>
-    <row r="4095" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4095" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4095" s="2" t="s">
         <v>7664</v>
       </c>
-    </row>
-    <row r="4096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4096" s="0" t="s">
+      <c r="C4095" s="0" t="s">
         <v>7665</v>
       </c>
+    </row>
+    <row r="4096" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4096" s="2" t="s">
+        <v>7666</v>
+      </c>
       <c r="C4096" s="0" t="s">
-        <v>7666</v>
-      </c>
-    </row>
-    <row r="4097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4097" s="0" t="s">
         <v>7667</v>
       </c>
-      <c r="C4097" s="0" t="s">
+    </row>
+    <row r="4097" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4097" s="2" t="s">
         <v>7668</v>
       </c>
     </row>
@@ -60173,23 +60185,23 @@
         <v>7717</v>
       </c>
       <c r="C4122" s="0" t="s">
-        <v>7367</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="4123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4123" s="0" t="s">
-        <v>7718</v>
+        <v>7719</v>
       </c>
       <c r="C4123" s="0" t="s">
-        <v>7719</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="4124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4124" s="0" t="s">
-        <v>7720</v>
+        <v>7721</v>
       </c>
       <c r="C4124" s="0" t="s">
-        <v>7721</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="4125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60197,20 +60209,20 @@
         <v>7722</v>
       </c>
       <c r="C4125" s="0" t="s">
-        <v>7722</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="4126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4126" s="0" t="s">
-        <v>7723</v>
+        <v>7724</v>
       </c>
       <c r="C4126" s="0" t="s">
-        <v>7724</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="4127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4127" s="0" t="s">
-        <v>7725</v>
+        <v>7726</v>
       </c>
       <c r="C4127" s="0" t="s">
         <v>7726</v>
@@ -60229,23 +60241,23 @@
         <v>7729</v>
       </c>
       <c r="C4129" s="0" t="s">
-        <v>7728</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="4130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4130" s="0" t="s">
-        <v>7730</v>
+        <v>7731</v>
       </c>
       <c r="C4130" s="0" t="s">
-        <v>7731</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="4131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4131" s="0" t="s">
+        <v>7733</v>
+      </c>
+      <c r="C4131" s="0" t="s">
         <v>7732</v>
-      </c>
-      <c r="C4131" s="0" t="s">
-        <v>7733</v>
       </c>
     </row>
     <row r="4132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60261,23 +60273,23 @@
         <v>7736</v>
       </c>
       <c r="C4133" s="0" t="s">
-        <v>7735</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="4134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4134" s="0" t="s">
-        <v>7737</v>
+        <v>7738</v>
       </c>
       <c r="C4134" s="0" t="s">
-        <v>7738</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="4135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4135" s="0" t="s">
+        <v>7740</v>
+      </c>
+      <c r="C4135" s="0" t="s">
         <v>7739</v>
-      </c>
-      <c r="C4135" s="0" t="s">
-        <v>7740</v>
       </c>
     </row>
     <row r="4136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60317,44 +60329,44 @@
         <v>7749</v>
       </c>
       <c r="C4140" s="0" t="s">
-        <v>7738</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="4141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4141" s="0" t="s">
-        <v>7750</v>
+        <v>7751</v>
       </c>
       <c r="C4141" s="0" t="s">
-        <v>7750</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="4142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4142" s="0" t="s">
-        <v>7751</v>
+        <v>7753</v>
       </c>
       <c r="C4142" s="0" t="s">
-        <v>7751</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="4143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4143" s="0" t="s">
-        <v>7752</v>
+        <v>7754</v>
       </c>
       <c r="C4143" s="0" t="s">
-        <v>7752</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="4144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4144" s="0" t="s">
-        <v>7753</v>
+        <v>7755</v>
       </c>
       <c r="C4144" s="0" t="s">
-        <v>7754</v>
+        <v>7755</v>
       </c>
     </row>
     <row r="4145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4145" s="0" t="s">
-        <v>7755</v>
+        <v>7756</v>
       </c>
       <c r="C4145" s="0" t="s">
         <v>7756</v>
@@ -60445,23 +60457,23 @@
         <v>7777</v>
       </c>
       <c r="C4156" s="0" t="s">
-        <v>1752</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="4157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4157" s="0" t="s">
-        <v>7778</v>
+        <v>7779</v>
       </c>
       <c r="C4157" s="0" t="s">
-        <v>7779</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="4158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4158" s="0" t="s">
-        <v>7780</v>
+        <v>7781</v>
       </c>
       <c r="C4158" s="0" t="s">
-        <v>7781</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60669,35 +60681,35 @@
         <v>7832</v>
       </c>
       <c r="C4184" s="0" t="s">
-        <v>7831</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="4185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4185" s="0" t="s">
-        <v>7833</v>
+        <v>7834</v>
       </c>
       <c r="C4185" s="0" t="s">
-        <v>7834</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="4186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4186" s="0" t="s">
+        <v>7836</v>
+      </c>
+      <c r="C4186" s="0" t="s">
         <v>7835</v>
       </c>
     </row>
     <row r="4187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4187" s="0" t="s">
-        <v>7836</v>
+        <v>7837</v>
       </c>
       <c r="C4187" s="0" t="s">
-        <v>7837</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="4188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4188" s="0" t="s">
-        <v>7838</v>
-      </c>
-      <c r="C4188" s="0" t="s">
         <v>7839</v>
       </c>
     </row>
@@ -60765,11 +60777,11 @@
         <v>7855</v>
       </c>
     </row>
-    <row r="4197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4197" s="2" t="s">
+    <row r="4197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4197" s="0" t="s">
         <v>7856</v>
       </c>
-      <c r="C4197" s="2" t="s">
+      <c r="C4197" s="0" t="s">
         <v>7857</v>
       </c>
     </row>
@@ -60781,11 +60793,11 @@
         <v>7859</v>
       </c>
     </row>
-    <row r="4199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4199" s="0" t="s">
+    <row r="4199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4199" s="2" t="s">
         <v>7860</v>
       </c>
-      <c r="C4199" s="0" t="s">
+      <c r="C4199" s="2" t="s">
         <v>7861</v>
       </c>
     </row>
@@ -60794,23 +60806,23 @@
         <v>7862</v>
       </c>
       <c r="C4200" s="0" t="s">
-        <v>2667</v>
+        <v>7863</v>
       </c>
     </row>
     <row r="4201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4201" s="0" t="s">
-        <v>7863</v>
+        <v>7864</v>
       </c>
       <c r="C4201" s="0" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
     </row>
     <row r="4202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4202" s="0" t="s">
-        <v>7865</v>
+        <v>7866</v>
       </c>
       <c r="C4202" s="0" t="s">
-        <v>7866</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="4203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60818,23 +60830,23 @@
         <v>7867</v>
       </c>
       <c r="C4203" s="0" t="s">
-        <v>4784</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="4204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4204" s="0" t="s">
-        <v>7868</v>
+        <v>7869</v>
       </c>
       <c r="C4204" s="0" t="s">
-        <v>7869</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="4205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4205" s="0" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="C4205" s="0" t="s">
-        <v>7871</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="4206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60866,30 +60878,30 @@
         <v>7878</v>
       </c>
       <c r="C4209" s="0" t="s">
-        <v>3392</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="4210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4210" s="0" t="s">
-        <v>7879</v>
-      </c>
-      <c r="C4210" s="4" t="s">
         <v>7880</v>
+      </c>
+      <c r="C4210" s="0" t="s">
+        <v>7881</v>
       </c>
     </row>
     <row r="4211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4211" s="0" t="s">
-        <v>7881</v>
+        <v>7882</v>
       </c>
       <c r="C4211" s="0" t="s">
-        <v>7882</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="4212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4212" s="0" t="s">
         <v>7883</v>
       </c>
-      <c r="C4212" s="0" t="s">
+      <c r="C4212" s="4" t="s">
         <v>7884</v>
       </c>
     </row>
@@ -60898,20 +60910,20 @@
         <v>7885</v>
       </c>
       <c r="C4213" s="0" t="s">
-        <v>7885</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="4214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4214" s="0" t="s">
-        <v>7886</v>
+        <v>7887</v>
       </c>
       <c r="C4214" s="0" t="s">
-        <v>7887</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="4215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4215" s="0" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="C4215" s="0" t="s">
         <v>7889</v>
@@ -60922,48 +60934,48 @@
         <v>7890</v>
       </c>
       <c r="C4216" s="0" t="s">
-        <v>7890</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="4217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4217" s="0" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="C4217" s="0" t="s">
-        <v>7892</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="4218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4218" s="0" t="s">
-        <v>7893</v>
+        <v>7894</v>
       </c>
       <c r="C4218" s="0" t="s">
-        <v>7893</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="4219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4219" s="0" t="s">
-        <v>7894</v>
+        <v>7895</v>
+      </c>
+      <c r="C4219" s="0" t="s">
+        <v>7896</v>
       </c>
     </row>
     <row r="4220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4220" s="0" t="s">
-        <v>7895</v>
+        <v>7897</v>
+      </c>
+      <c r="C4220" s="0" t="s">
+        <v>7897</v>
       </c>
     </row>
     <row r="4221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4221" s="0" t="s">
-        <v>7896</v>
-      </c>
-      <c r="C4221" s="0" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="4222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4222" s="0" t="s">
-        <v>7898</v>
-      </c>
-      <c r="C4222" s="0" t="s">
         <v>7899</v>
       </c>
     </row>
@@ -60988,30 +61000,30 @@
         <v>7904</v>
       </c>
       <c r="C4225" s="0" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="4226" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4226" s="2" t="s">
         <v>7905</v>
       </c>
-      <c r="C4226" s="2" t="s">
+    </row>
+    <row r="4226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4226" s="0" t="s">
         <v>7906</v>
+      </c>
+      <c r="C4226" s="0" t="s">
+        <v>7907</v>
       </c>
     </row>
     <row r="4227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4227" s="0" t="s">
-        <v>7907</v>
+        <v>7908</v>
       </c>
       <c r="C4227" s="0" t="s">
-        <v>7908</v>
-      </c>
-    </row>
-    <row r="4228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4228" s="0" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="4228" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4228" s="2" t="s">
         <v>7909</v>
       </c>
-      <c r="C4228" s="0" t="s">
+      <c r="C4228" s="2" t="s">
         <v>7910</v>
       </c>
     </row>
@@ -61047,21 +61059,21 @@
         <v>7917</v>
       </c>
       <c r="C4232" s="0" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="4233" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4233" s="0"/>
       <c r="B4233" s="0" t="s">
-        <v>7918</v>
+        <v>7919</v>
       </c>
       <c r="C4233" s="0" t="s">
-        <v>7919</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="4234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4234" s="0" t="s">
-        <v>7920</v>
+        <v>7921</v>
       </c>
       <c r="C4234" s="0" t="s">
         <v>7921</v>
@@ -61071,20 +61083,20 @@
       <c r="B4235" s="0" t="s">
         <v>7922</v>
       </c>
+      <c r="C4235" s="0" t="s">
+        <v>7923</v>
+      </c>
     </row>
     <row r="4236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4236" s="0" t="s">
-        <v>7923</v>
+        <v>7924</v>
       </c>
       <c r="C4236" s="0" t="s">
-        <v>7924</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="4237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4237" s="0" t="s">
-        <v>7925</v>
-      </c>
-      <c r="C4237" s="0" t="s">
         <v>7926</v>
       </c>
     </row>
@@ -61149,23 +61161,23 @@
         <v>7941</v>
       </c>
       <c r="C4245" s="0" t="s">
-        <v>7940</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="4246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4246" s="0" t="s">
-        <v>7942</v>
+        <v>7943</v>
       </c>
       <c r="C4246" s="0" t="s">
-        <v>7943</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="4247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4247" s="0" t="s">
+        <v>7945</v>
+      </c>
+      <c r="C4247" s="0" t="s">
         <v>7944</v>
-      </c>
-      <c r="C4247" s="0" t="s">
-        <v>7945</v>
       </c>
     </row>
     <row r="4248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61253,23 +61265,23 @@
         <v>7966</v>
       </c>
       <c r="C4258" s="0" t="s">
-        <v>7965</v>
+        <v>7967</v>
       </c>
     </row>
     <row r="4259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4259" s="0" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="C4259" s="0" t="s">
-        <v>7968</v>
+        <v>7969</v>
       </c>
     </row>
     <row r="4260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4260" s="0" t="s">
+        <v>7970</v>
+      </c>
+      <c r="C4260" s="0" t="s">
         <v>7969</v>
-      </c>
-      <c r="C4260" s="0" t="s">
-        <v>7970</v>
       </c>
     </row>
     <row r="4261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61309,23 +61321,23 @@
         <v>7979</v>
       </c>
       <c r="C4265" s="0" t="s">
-        <v>7965</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="4266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4266" s="0" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="C4266" s="0" t="s">
-        <v>7981</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="4267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4267" s="0" t="s">
-        <v>7982</v>
+        <v>7983</v>
       </c>
       <c r="C4267" s="0" t="s">
-        <v>7983</v>
+        <v>7969</v>
       </c>
     </row>
     <row r="4268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61428,37 +61440,37 @@
       <c r="B4280" s="0" t="s">
         <v>8008</v>
       </c>
+      <c r="C4280" s="0" t="s">
+        <v>8009</v>
+      </c>
     </row>
     <row r="4281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4281" s="0" t="s">
-        <v>8009</v>
+        <v>8010</v>
       </c>
       <c r="C4281" s="0" t="s">
-        <v>8010</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="4282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4282" s="0" t="s">
-        <v>8011</v>
-      </c>
-      <c r="C4282" s="0" t="s">
-        <v>775</v>
+        <v>8012</v>
       </c>
     </row>
     <row r="4283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4283" s="0" t="s">
-        <v>8012</v>
+        <v>8013</v>
       </c>
       <c r="C4283" s="0" t="s">
-        <v>8013</v>
+        <v>8014</v>
       </c>
     </row>
     <row r="4284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4284" s="0" t="s">
-        <v>8014</v>
+        <v>8015</v>
       </c>
       <c r="C4284" s="0" t="s">
-        <v>8015</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61618,28 +61630,28 @@
         <v>8054</v>
       </c>
       <c r="C4304" s="0" t="s">
-        <v>8054</v>
+        <v>8055</v>
       </c>
     </row>
     <row r="4305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4305" s="0" t="s">
-        <v>8055</v>
+        <v>8056</v>
       </c>
       <c r="C4305" s="0" t="s">
-        <v>8054</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="4306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4306" s="0" t="s">
-        <v>8056</v>
+        <v>8058</v>
       </c>
       <c r="C4306" s="0" t="s">
-        <v>8056</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="4307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4307" s="0" t="s">
-        <v>8057</v>
+        <v>8059</v>
       </c>
       <c r="C4307" s="0" t="s">
         <v>8058</v>
@@ -61647,7 +61659,7 @@
     </row>
     <row r="4308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4308" s="0" t="s">
-        <v>8059</v>
+        <v>8060</v>
       </c>
       <c r="C4308" s="0" t="s">
         <v>8060</v>
@@ -61757,11 +61769,11 @@
         <v>8086</v>
       </c>
     </row>
-    <row r="4322" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4322" s="2" t="s">
+    <row r="4322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4322" s="0" t="s">
         <v>8087</v>
       </c>
-      <c r="C4322" s="2" t="s">
+      <c r="C4322" s="0" t="s">
         <v>8088</v>
       </c>
     </row>
@@ -61773,11 +61785,11 @@
         <v>8090</v>
       </c>
     </row>
-    <row r="4324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4324" s="0" t="s">
+    <row r="4324" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4324" s="2" t="s">
         <v>8091</v>
       </c>
-      <c r="C4324" s="0" t="s">
+      <c r="C4324" s="2" t="s">
         <v>8092</v>
       </c>
     </row>
@@ -61801,20 +61813,20 @@
       <c r="B4327" s="0" t="s">
         <v>8097</v>
       </c>
+      <c r="C4327" s="0" t="s">
+        <v>8098</v>
+      </c>
     </row>
     <row r="4328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4328" s="0" t="s">
-        <v>8098</v>
+        <v>8099</v>
       </c>
       <c r="C4328" s="0" t="s">
-        <v>8099</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="4329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4329" s="0" t="s">
-        <v>8100</v>
-      </c>
-      <c r="C4329" s="0" t="s">
         <v>8101</v>
       </c>
     </row>
@@ -61870,20 +61882,20 @@
       <c r="B4336" s="0" t="s">
         <v>8114</v>
       </c>
+      <c r="C4336" s="0" t="s">
+        <v>8115</v>
+      </c>
     </row>
     <row r="4337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4337" s="0" t="s">
-        <v>8115</v>
+        <v>8116</v>
       </c>
       <c r="C4337" s="0" t="s">
-        <v>8116</v>
+        <v>8117</v>
       </c>
     </row>
     <row r="4338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4338" s="0" t="s">
-        <v>8117</v>
-      </c>
-      <c r="C4338" s="0" t="s">
         <v>8118</v>
       </c>
     </row>
@@ -61892,23 +61904,23 @@
         <v>8119</v>
       </c>
       <c r="C4339" s="0" t="s">
-        <v>8118</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="4340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4340" s="0" t="s">
-        <v>8120</v>
+        <v>8121</v>
       </c>
       <c r="C4340" s="0" t="s">
-        <v>8121</v>
+        <v>8122</v>
       </c>
     </row>
     <row r="4341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4341" s="0" t="s">
+        <v>8123</v>
+      </c>
+      <c r="C4341" s="0" t="s">
         <v>8122</v>
-      </c>
-      <c r="C4341" s="0" t="s">
-        <v>8123</v>
       </c>
     </row>
     <row r="4342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61955,20 +61967,20 @@
       <c r="B4347" s="0" t="s">
         <v>8134</v>
       </c>
+      <c r="C4347" s="0" t="s">
+        <v>8135</v>
+      </c>
     </row>
     <row r="4348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4348" s="0" t="s">
-        <v>8135</v>
+        <v>8136</v>
       </c>
       <c r="C4348" s="0" t="s">
-        <v>8136</v>
+        <v>8137</v>
       </c>
     </row>
     <row r="4349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4349" s="0" t="s">
-        <v>8137</v>
-      </c>
-      <c r="C4349" s="0" t="s">
         <v>8138</v>
       </c>
     </row>
@@ -61993,20 +62005,20 @@
         <v>8143</v>
       </c>
       <c r="C4352" s="0" t="s">
-        <v>8143</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="4353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4353" s="0" t="s">
-        <v>8144</v>
+        <v>8145</v>
       </c>
       <c r="C4353" s="0" t="s">
-        <v>8145</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="4354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4354" s="0" t="s">
-        <v>8146</v>
+        <v>8147</v>
       </c>
       <c r="C4354" s="0" t="s">
         <v>8147</v>
@@ -62033,23 +62045,23 @@
         <v>8152</v>
       </c>
       <c r="C4357" s="0" t="s">
-        <v>6123</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="4358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4358" s="0" t="s">
-        <v>8153</v>
+        <v>8154</v>
       </c>
       <c r="C4358" s="0" t="s">
-        <v>8154</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="4359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4359" s="0" t="s">
-        <v>8155</v>
+        <v>8156</v>
       </c>
       <c r="C4359" s="0" t="s">
-        <v>8156</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="4360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62112,26 +62124,26 @@
       <c r="B4367" s="0" t="s">
         <v>8171</v>
       </c>
+      <c r="C4367" s="0" t="s">
+        <v>8172</v>
+      </c>
     </row>
     <row r="4368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4368" s="0" t="s">
-        <v>8172</v>
+        <v>8173</v>
       </c>
       <c r="C4368" s="0" t="s">
-        <v>8172</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="4369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4369" s="0" t="s">
-        <v>8173</v>
-      </c>
-      <c r="C4369" s="0" t="s">
-        <v>8174</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="4370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4370" s="0" t="s">
-        <v>8175</v>
+        <v>8176</v>
       </c>
       <c r="C4370" s="0" t="s">
         <v>8176</v>
@@ -62142,47 +62154,47 @@
         <v>8177</v>
       </c>
       <c r="C4371" s="0" t="s">
-        <v>7326</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="4372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4372" s="0" t="s">
-        <v>8178</v>
+        <v>8179</v>
       </c>
       <c r="C4372" s="0" t="s">
-        <v>8179</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="4373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4373" s="0" t="s">
-        <v>8180</v>
+        <v>8181</v>
       </c>
       <c r="C4373" s="0" t="s">
-        <v>7311</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="4374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4374" s="0" t="s">
-        <v>8181</v>
+        <v>8182</v>
       </c>
       <c r="C4374" s="0" t="s">
-        <v>7365</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="4375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4375" s="0" t="s">
-        <v>8182</v>
+        <v>8184</v>
       </c>
       <c r="C4375" s="0" t="s">
-        <v>8183</v>
+        <v>7315</v>
       </c>
     </row>
     <row r="4376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4376" s="0" t="s">
-        <v>8184</v>
+        <v>8185</v>
       </c>
       <c r="C4376" s="0" t="s">
-        <v>8185</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="4377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62190,23 +62202,23 @@
         <v>8186</v>
       </c>
       <c r="C4377" s="0" t="s">
-        <v>7326</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="4378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4378" s="0" t="s">
-        <v>8187</v>
+        <v>8188</v>
       </c>
       <c r="C4378" s="0" t="s">
-        <v>8188</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="4379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4379" s="0" t="s">
-        <v>8189</v>
+        <v>8190</v>
       </c>
       <c r="C4379" s="0" t="s">
-        <v>8190</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="4380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62238,55 +62250,55 @@
         <v>8197</v>
       </c>
       <c r="C4383" s="0" t="s">
-        <v>708</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="4384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4384" s="0" t="s">
-        <v>8198</v>
+        <v>8199</v>
       </c>
       <c r="C4384" s="0" t="s">
-        <v>708</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="4385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4385" s="0" t="s">
-        <v>8199</v>
+        <v>8201</v>
       </c>
       <c r="C4385" s="0" t="s">
-        <v>8196</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4386" s="0" t="s">
-        <v>8200</v>
+        <v>8202</v>
       </c>
       <c r="C4386" s="0" t="s">
-        <v>8196</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4387" s="0" t="s">
-        <v>8201</v>
+        <v>8203</v>
       </c>
       <c r="C4387" s="0" t="s">
-        <v>8196</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="4388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4388" s="0" t="s">
-        <v>8202</v>
+        <v>8204</v>
       </c>
       <c r="C4388" s="0" t="s">
-        <v>8203</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="4389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4389" s="0" t="s">
-        <v>8204</v>
+        <v>8205</v>
       </c>
       <c r="C4389" s="0" t="s">
-        <v>8205</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="4390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62390,23 +62402,23 @@
         <v>8230</v>
       </c>
       <c r="C4402" s="0" t="s">
-        <v>708</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="4403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4403" s="0" t="s">
-        <v>8231</v>
+        <v>8232</v>
       </c>
       <c r="C4403" s="0" t="s">
-        <v>8232</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="4404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4404" s="0" t="s">
-        <v>8233</v>
+        <v>8234</v>
       </c>
       <c r="C4404" s="0" t="s">
-        <v>8234</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62414,23 +62426,23 @@
         <v>8235</v>
       </c>
       <c r="C4405" s="0" t="s">
-        <v>7204</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="4406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4406" s="0" t="s">
-        <v>8236</v>
+        <v>8237</v>
       </c>
       <c r="C4406" s="0" t="s">
-        <v>8237</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="4407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4407" s="0" t="s">
-        <v>8238</v>
+        <v>8239</v>
       </c>
       <c r="C4407" s="0" t="s">
-        <v>8239</v>
+        <v>7208</v>
       </c>
     </row>
     <row r="4408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62470,36 +62482,36 @@
         <v>8248</v>
       </c>
       <c r="C4412" s="0" t="s">
-        <v>8248</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="4413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4413" s="0" t="s">
-        <v>8249</v>
+        <v>8250</v>
       </c>
       <c r="C4413" s="0" t="s">
-        <v>8250</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="4414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4414" s="0" t="s">
-        <v>8251</v>
+        <v>8252</v>
       </c>
       <c r="C4414" s="0" t="s">
-        <v>8251</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="4415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4415" s="0" t="s">
-        <v>8252</v>
+        <v>8253</v>
       </c>
       <c r="C4415" s="0" t="s">
-        <v>8253</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="4416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4416" s="0" t="s">
-        <v>8254</v>
+        <v>8255</v>
       </c>
       <c r="C4416" s="0" t="s">
         <v>8255</v>
@@ -62675,58 +62687,58 @@
     </row>
     <row r="4438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4438" s="0" t="s">
-        <v>20</v>
+        <v>8298</v>
       </c>
       <c r="C4438" s="0" t="s">
-        <v>20</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="4439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4439" s="0" t="s">
-        <v>8298</v>
+        <v>8300</v>
       </c>
       <c r="C4439" s="0" t="s">
-        <v>8299</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="4440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4440" s="0" t="s">
-        <v>8300</v>
+        <v>20</v>
       </c>
       <c r="C4440" s="0" t="s">
-        <v>8299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4441" s="0" t="s">
-        <v>8301</v>
+        <v>8302</v>
       </c>
       <c r="C4441" s="0" t="s">
-        <v>8302</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="4442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4442" s="0" t="s">
+        <v>8304</v>
+      </c>
+      <c r="C4442" s="0" t="s">
         <v>8303</v>
-      </c>
-      <c r="C4442" s="0" t="s">
-        <v>4149</v>
       </c>
     </row>
     <row r="4443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4443" s="0" t="s">
-        <v>8304</v>
+        <v>8305</v>
       </c>
       <c r="C4443" s="0" t="s">
-        <v>8305</v>
+        <v>8306</v>
       </c>
     </row>
     <row r="4444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4444" s="0" t="s">
-        <v>8306</v>
+        <v>8307</v>
       </c>
       <c r="C4444" s="0" t="s">
-        <v>8307</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="4445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62774,28 +62786,28 @@
         <v>8318</v>
       </c>
       <c r="C4450" s="0" t="s">
-        <v>2307</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="4451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4451" s="0" t="s">
-        <v>8319</v>
+        <v>8320</v>
       </c>
       <c r="C4451" s="0" t="s">
-        <v>8319</v>
+        <v>8321</v>
       </c>
     </row>
     <row r="4452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4452" s="0" t="s">
-        <v>8320</v>
+        <v>8322</v>
       </c>
       <c r="C4452" s="0" t="s">
-        <v>8321</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="4453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4453" s="0" t="s">
-        <v>8322</v>
+        <v>8323</v>
       </c>
       <c r="C4453" s="0" t="s">
         <v>8323</v>
@@ -62846,39 +62858,39 @@
         <v>8334</v>
       </c>
       <c r="C4459" s="0" t="s">
-        <v>8334</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="4460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4460" s="0" t="s">
-        <v>8335</v>
+        <v>8336</v>
       </c>
       <c r="C4460" s="0" t="s">
-        <v>8336</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="4461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4461" s="0" t="s">
-        <v>8337</v>
+        <v>8338</v>
       </c>
       <c r="C4461" s="0" t="s">
-        <v>8333</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="4462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4462" s="0" t="s">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="C4462" s="0" t="s">
-        <v>8339</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="4463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4463" s="0" t="s">
-        <v>8340</v>
+        <v>8341</v>
       </c>
       <c r="C4463" s="0" t="s">
-        <v>8341</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="4464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62974,20 +62986,20 @@
         <v>8364</v>
       </c>
       <c r="C4475" s="0" t="s">
-        <v>8364</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="4476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4476" s="0" t="s">
-        <v>8365</v>
+        <v>8366</v>
       </c>
       <c r="C4476" s="0" t="s">
-        <v>8366</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="4477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4477" s="0" t="s">
-        <v>8367</v>
+        <v>8368</v>
       </c>
       <c r="C4477" s="0" t="s">
         <v>8368</v>
@@ -63046,23 +63058,23 @@
         <v>8381</v>
       </c>
       <c r="C4484" s="0" t="s">
-        <v>7801</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="4485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4485" s="0" t="s">
-        <v>8382</v>
+        <v>8383</v>
       </c>
       <c r="C4485" s="0" t="s">
-        <v>8383</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="4486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4486" s="0" t="s">
-        <v>8384</v>
+        <v>8385</v>
       </c>
       <c r="C4486" s="0" t="s">
-        <v>8385</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="4487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63102,23 +63114,23 @@
         <v>8394</v>
       </c>
       <c r="C4491" s="0" t="s">
-        <v>8393</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="4492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4492" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="C4492" s="0" t="s">
-        <v>8396</v>
+        <v>8397</v>
       </c>
     </row>
     <row r="4493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4493" s="0" t="s">
+        <v>8398</v>
+      </c>
+      <c r="C4493" s="0" t="s">
         <v>8397</v>
-      </c>
-      <c r="C4493" s="0" t="s">
-        <v>8398</v>
       </c>
     </row>
     <row r="4494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63153,11 +63165,11 @@
         <v>8406</v>
       </c>
     </row>
-    <row r="4498" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4498" s="2" t="s">
+    <row r="4498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4498" s="0" t="s">
         <v>8407</v>
       </c>
-      <c r="C4498" s="2" t="s">
+      <c r="C4498" s="0" t="s">
         <v>8408</v>
       </c>
     </row>
@@ -63169,11 +63181,11 @@
         <v>8410</v>
       </c>
     </row>
-    <row r="4500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4500" s="0" t="s">
+    <row r="4500" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4500" s="2" t="s">
         <v>8411</v>
       </c>
-      <c r="C4500" s="0" t="s">
+      <c r="C4500" s="2" t="s">
         <v>8412</v>
       </c>
     </row>
@@ -63334,31 +63346,31 @@
         <v>8451</v>
       </c>
       <c r="C4520" s="0" t="s">
-        <v>8451</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="4521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4521" s="0" t="s">
-        <v>8452</v>
+        <v>8453</v>
       </c>
       <c r="C4521" s="0" t="s">
-        <v>833</v>
+        <v>8454</v>
       </c>
     </row>
     <row r="4522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4522" s="0" t="s">
-        <v>8453</v>
+        <v>8455</v>
       </c>
       <c r="C4522" s="0" t="s">
-        <v>8454</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="4523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4523" s="0" t="s">
-        <v>8455</v>
+        <v>8456</v>
       </c>
       <c r="C4523" s="0" t="s">
-        <v>8456</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63430,20 +63442,20 @@
         <v>8473</v>
       </c>
       <c r="C4532" s="0" t="s">
-        <v>8473</v>
+        <v>8474</v>
       </c>
     </row>
     <row r="4533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4533" s="0" t="s">
-        <v>8474</v>
+        <v>8475</v>
       </c>
       <c r="C4533" s="0" t="s">
-        <v>8475</v>
+        <v>8476</v>
       </c>
     </row>
     <row r="4534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4534" s="0" t="s">
-        <v>8476</v>
+        <v>8477</v>
       </c>
       <c r="C4534" s="0" t="s">
         <v>8477</v>
@@ -63454,28 +63466,28 @@
         <v>8478</v>
       </c>
       <c r="C4535" s="0" t="s">
-        <v>8478</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="4536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4536" s="0" t="s">
-        <v>8479</v>
+        <v>8480</v>
       </c>
       <c r="C4536" s="0" t="s">
-        <v>8479</v>
+        <v>8481</v>
       </c>
     </row>
     <row r="4537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4537" s="0" t="s">
-        <v>8480</v>
+        <v>8482</v>
       </c>
       <c r="C4537" s="0" t="s">
-        <v>8481</v>
+        <v>8482</v>
       </c>
     </row>
     <row r="4538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4538" s="0" t="s">
-        <v>8482</v>
+        <v>8483</v>
       </c>
       <c r="C4538" s="0" t="s">
         <v>8483</v>
@@ -63510,23 +63522,23 @@
         <v>8490</v>
       </c>
       <c r="C4542" s="0" t="s">
-        <v>2742</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="4543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4543" s="0" t="s">
-        <v>8491</v>
+        <v>8492</v>
       </c>
       <c r="C4543" s="0" t="s">
-        <v>8492</v>
+        <v>8493</v>
       </c>
     </row>
     <row r="4544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4544" s="0" t="s">
-        <v>8493</v>
+        <v>8494</v>
       </c>
       <c r="C4544" s="0" t="s">
-        <v>8494</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="4545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63689,11 +63701,11 @@
         <v>8534</v>
       </c>
     </row>
-    <row r="4565" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4565" s="2" t="s">
+    <row r="4565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4565" s="0" t="s">
         <v>8535</v>
       </c>
-      <c r="C4565" s="2" t="s">
+      <c r="C4565" s="0" t="s">
         <v>8536</v>
       </c>
     </row>
@@ -63705,11 +63717,11 @@
         <v>8538</v>
       </c>
     </row>
-    <row r="4567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4567" s="0" t="s">
+    <row r="4567" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4567" s="2" t="s">
         <v>8539</v>
       </c>
-      <c r="C4567" s="0" t="s">
+      <c r="C4567" s="2" t="s">
         <v>8540</v>
       </c>
     </row>
@@ -63745,35 +63757,35 @@
         <v>8548</v>
       </c>
     </row>
-    <row r="4572" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4572" s="2" t="s">
+    <row r="4572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4572" s="0" t="s">
         <v>8549</v>
       </c>
-      <c r="C4572" s="2" t="s">
+      <c r="C4572" s="0" t="s">
         <v>8550</v>
       </c>
     </row>
-    <row r="4573" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4573" s="2" t="s">
+    <row r="4573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4573" s="0" t="s">
         <v>8551</v>
       </c>
-      <c r="C4573" s="2" t="s">
+      <c r="C4573" s="0" t="s">
         <v>8552</v>
       </c>
     </row>
-    <row r="4574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4574" s="0" t="s">
+    <row r="4574" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4574" s="2" t="s">
         <v>8553</v>
       </c>
-      <c r="C4574" s="0" t="s">
+      <c r="C4574" s="2" t="s">
         <v>8554</v>
       </c>
     </row>
-    <row r="4575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4575" s="0" t="s">
+    <row r="4575" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4575" s="2" t="s">
         <v>8555</v>
       </c>
-      <c r="C4575" s="1" t="s">
+      <c r="C4575" s="2" t="s">
         <v>8556</v>
       </c>
     </row>
@@ -63789,7 +63801,7 @@
       <c r="B4577" s="0" t="s">
         <v>8559</v>
       </c>
-      <c r="C4577" s="0" t="s">
+      <c r="C4577" s="1" t="s">
         <v>8560</v>
       </c>
     </row>
@@ -63838,20 +63850,20 @@
         <v>8571</v>
       </c>
       <c r="C4583" s="0" t="s">
-        <v>8571</v>
+        <v>8572</v>
       </c>
     </row>
     <row r="4584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4584" s="0" t="s">
-        <v>8572</v>
+        <v>8573</v>
       </c>
       <c r="C4584" s="0" t="s">
-        <v>8573</v>
+        <v>8574</v>
       </c>
     </row>
     <row r="4585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4585" s="0" t="s">
-        <v>8574</v>
+        <v>8575</v>
       </c>
       <c r="C4585" s="0" t="s">
         <v>8575</v>
@@ -63862,36 +63874,36 @@
         <v>8576</v>
       </c>
       <c r="C4586" s="0" t="s">
-        <v>8576</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="4587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4587" s="0" t="s">
-        <v>8577</v>
+        <v>8578</v>
       </c>
       <c r="C4587" s="0" t="s">
-        <v>8578</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="4588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4588" s="0" t="s">
-        <v>8579</v>
+        <v>8580</v>
       </c>
       <c r="C4588" s="0" t="s">
-        <v>8578</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="4589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4589" s="0" t="s">
-        <v>8580</v>
+        <v>8581</v>
       </c>
       <c r="C4589" s="0" t="s">
-        <v>8578</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="4590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4590" s="0" t="s">
-        <v>8581</v>
+        <v>8583</v>
       </c>
       <c r="C4590" s="0" t="s">
         <v>8582</v>
@@ -63899,10 +63911,26 @@
     </row>
     <row r="4591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4591" s="0" t="s">
-        <v>8583</v>
+        <v>8584</v>
       </c>
       <c r="C4591" s="0" t="s">
-        <v>8584</v>
+        <v>8582</v>
+      </c>
+    </row>
+    <row r="4592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4592" s="0" t="s">
+        <v>8585</v>
+      </c>
+      <c r="C4592" s="0" t="s">
+        <v>8586</v>
+      </c>
+    </row>
+    <row r="4593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4593" s="0" t="s">
+        <v>8587</v>
+      </c>
+      <c r="C4593" s="0" t="s">
+        <v>8588</v>
       </c>
     </row>
   </sheetData>

--- a/odoo_default_tnl.xlsx
+++ b/odoo_default_tnl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9075" uniqueCount="8589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9079" uniqueCount="8592">
   <si>
     <t xml:space="preserve">module</t>
   </si>
@@ -10304,10 +10304,10 @@
     <t xml:space="preserve">Trovati record multipli in base al campo '%%(field)s' (%d trovati)</t>
   </si>
   <si>
-    <t xml:space="preserve">Found multiple records.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rilevati più record.</t>
+    <t xml:space="preserve">Found multiple records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rilevati più record</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -27392,6 +27392,15 @@
   </si>
   <si>
     <t xml:space="preserve">CAP non impostato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry-run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File dati Excel</t>
   </si>
 </sst>
 </file>
@@ -27505,13 +27514,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4593"/>
+  <dimension ref="A1:C4595"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3020" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3035" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1783" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1796" activeCellId="0" sqref="C1796"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.12"/>
@@ -63931,6 +63940,22 @@
       </c>
       <c r="C4593" s="0" t="s">
         <v>8588</v>
+      </c>
+    </row>
+    <row r="4594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4594" s="0" t="s">
+        <v>8589</v>
+      </c>
+      <c r="C4594" s="0" t="s">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="4595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4595" s="0" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C4595" s="0" t="s">
+        <v>8591</v>
       </c>
     </row>
   </sheetData>
